--- a/Dragalia Data.xlsx
+++ b/Dragalia Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="14_{049F9EFC-050E-4651-8DC8-B33E922A69AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{129F0FAD-B3FA-4EFA-960D-3CD7177B9971}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="14_{049F9EFC-050E-4651-8DC8-B33E922A69AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{833477C4-E9A8-40CD-BA5A-EFC712428BE4}"/>
   <bookViews>
-    <workbookView xWindow="-22905" yWindow="2580" windowWidth="20850" windowHeight="11820" activeTab="1" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
+    <workbookView xWindow="1860" yWindow="1770" windowWidth="20850" windowHeight="11820" activeTab="6" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
   <si>
     <t>STR %</t>
   </si>
@@ -924,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1388,6 +1388,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,39 +1505,39 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,18 +1626,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1626,18 +1665,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1970,8 +1997,8 @@
   </sheetPr>
   <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,46 +2028,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="202"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="219"/>
       <c r="R1" s="76"/>
-      <c r="S1" s="201" t="s">
+      <c r="S1" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="201"/>
-      <c r="AE1" s="201"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="201"/>
-      <c r="AH1" s="201"/>
-      <c r="AI1" s="201"/>
-      <c r="AJ1" s="202"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="218"/>
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="218"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="218"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="218"/>
+      <c r="AJ1" s="219"/>
     </row>
     <row r="2" spans="1:36" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="127" t="s">
@@ -2061,13 +2088,13 @@
       <c r="G2" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
       <c r="M2" s="127" t="s">
         <v>38</v>
       </c>
@@ -2084,50 +2111,50 @@
         <v>42</v>
       </c>
       <c r="S2" s="139"/>
-      <c r="T2" s="184" t="s">
+      <c r="T2" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="184" t="s">
+      <c r="U2" s="200" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="184" t="s">
+      <c r="V2" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="184" t="s">
+      <c r="W2" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="184" t="s">
+      <c r="X2" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="184" t="s">
+      <c r="Y2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="193" t="s">
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="210" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="184"/>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="184" t="s">
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="200" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="184"/>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="184"/>
-      <c r="AJ2" s="194"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="142">
-        <v>2983</v>
+        <v>2883</v>
       </c>
       <c r="C3" s="61">
         <f>SUM(I11:I12,R11:R12)</f>
-        <v>2620</v>
+        <v>2520</v>
       </c>
       <c r="D3" s="61">
         <f>E3-G3</f>
@@ -2145,14 +2172,14 @@
         <f>IF(C3-B3 &lt; 0, 0, C3-B3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="197">
+      <c r="H3" s="214">
         <f t="shared" ref="H3:H8" si="0">IF(D3/E3 &gt; 1, 100%, D3/E3)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
       <c r="M3" s="18">
         <f>IFERROR(ROUND(G3/P3, 0),"")</f>
         <v>0</v>
@@ -2175,13 +2202,13 @@
       </c>
       <c r="R3" s="18"/>
       <c r="S3" s="139"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="184"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="200"/>
       <c r="AA3" s="137">
         <v>2</v>
       </c>
@@ -2218,11 +2245,11 @@
         <v>12</v>
       </c>
       <c r="B4" s="142">
-        <v>1984</v>
+        <v>1708</v>
       </c>
       <c r="C4" s="61">
         <f>SUM(I13:I14,R13:R14)</f>
-        <v>1560</v>
+        <v>1360</v>
       </c>
       <c r="D4" s="61">
         <f>E4-G4</f>
@@ -2234,20 +2261,20 @@
       </c>
       <c r="F4" s="142">
         <f>IF(C4-B4 &lt; 0, ABS(C4-B4), "")</f>
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="G4" s="5">
         <f>IF(C4-B4 &lt; 0, 0, C4-B4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="197">
+      <c r="H4" s="214">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
       <c r="M4" s="17">
         <f>IFERROR(ROUND(G4/P4, 0),"")</f>
         <v>0</v>
@@ -2262,80 +2289,79 @@
       </c>
       <c r="P4" s="22">
         <f>IFERROR((SUM(_DataIO!D:D) * 3 + SUM(_DataIO!E:E) * 4) / Q4, "")</f>
-        <v>3.4834123222748814</v>
+        <v>3.4778660612939842</v>
       </c>
       <c r="Q4" s="92">
         <f>SUM(_DataIO!D:E)</f>
-        <v>844</v>
+        <v>881</v>
       </c>
       <c r="R4" s="17"/>
-      <c r="S4" s="199" t="s">
+      <c r="S4" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="181">
+      <c r="T4" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, COUNTA(DATA_HDRAG_HBRUN), "")</f>
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="U4" s="130">
         <f>IF(HDRAG_HAS_REC_HBRUN, COUNTIF(DATA_HDRAG_HBRUN, "=2"), "")</f>
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="V4" s="130">
         <f>IF(HDRAG_HAS_REC_HBRUN, COUNTIF(DATA_HDRAG_HBRUN, "=3"), "")</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W4" s="130">
         <f>IF(HDRAG_HAS_REC_HBRUN, COUNTIF(DATA_HDRAG_HBRUN, "=4"), "")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X4" s="130">
-        <f>IF(HDRAG_HAS_REC_HBRUN, COUNTIF(DATA_HDRAG_HBRUN, "=5"), "")</f>
         <v>4</v>
       </c>
-      <c r="Y4" s="196">
+      <c r="Y4" s="213">
         <f>IF(HDRAG_HAS_REC_HBRUN,AVERAGE(DATA_HDRAG_HBRUN),"")</f>
-        <v>2.4210526315789473</v>
-      </c>
-      <c r="Z4" s="196"/>
-      <c r="AA4" s="192">
+        <v>2.3986928104575163</v>
+      </c>
+      <c r="Z4" s="213"/>
+      <c r="AA4" s="209">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y4)*U5), "")</f>
-        <v>139</v>
-      </c>
-      <c r="AB4" s="181">
+        <v>143</v>
+      </c>
+      <c r="AB4" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y4)*V5), "")</f>
-        <v>46</v>
-      </c>
-      <c r="AC4" s="181">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y4)*W5), "")</f>
         <v>11</v>
       </c>
-      <c r="AD4" s="181">
+      <c r="AD4" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y4)*X5), "")</f>
-        <v>7</v>
-      </c>
-      <c r="AE4" s="195">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="212">
         <f>IF(HDRAG_HAS_REC_HBRUN, SUM(AA4:AD4), "")</f>
-        <v>203</v>
-      </c>
-      <c r="AF4" s="181">
+        <v>204</v>
+      </c>
+      <c r="AF4" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y4)*U5), "")</f>
-        <v>234</v>
-      </c>
-      <c r="AG4" s="181">
+        <v>241</v>
+      </c>
+      <c r="AG4" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y4)*V5), "")</f>
-        <v>77</v>
-      </c>
-      <c r="AH4" s="181">
+        <v>74</v>
+      </c>
+      <c r="AH4" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y4)*W5), "")</f>
         <v>18</v>
       </c>
-      <c r="AI4" s="181">
+      <c r="AI4" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y4)*X5), "")</f>
-        <v>11</v>
-      </c>
-      <c r="AJ4" s="185">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="201">
         <f>IF(HDRAG_HAS_REC_HBRUN, SUM(AF4:AI4), "")</f>
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2343,7 +2369,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="142">
-        <v>385</v>
+        <v>521</v>
       </c>
       <c r="C5" s="61">
         <f>SUM(I15:I16,R15:R16)</f>
@@ -2359,20 +2385,20 @@
       </c>
       <c r="F5" s="142">
         <f>IF(C5-B5 &lt; 0, ABS(C5-B5), "")</f>
-        <v>225</v>
+        <v>361</v>
       </c>
       <c r="G5" s="5">
         <f>IF(C5-B5 &lt; 0, 0, C5-B5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="197">
+      <c r="H5" s="214">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="197"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="214"/>
       <c r="M5" s="19">
         <f>IFERROR(ROUND(G5/P5, 0),"")</f>
         <v>0</v>
@@ -2387,50 +2413,50 @@
       </c>
       <c r="P5" s="23">
         <f>IFERROR((SUM(_DataIO!G:G) * 3 + SUM(_DataIO!H:H) * 4) / Q5, "")</f>
-        <v>3.4893617021276597</v>
+        <v>3.492957746478873</v>
       </c>
       <c r="Q5" s="93">
         <f>SUM(_DataIO!G:H)</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R5" s="19"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="181"/>
+      <c r="S5" s="216"/>
+      <c r="T5" s="197"/>
       <c r="U5" s="86">
         <f>IF(HDRAG_HAS_REC_HBRUN, U4/$T4, "")</f>
-        <v>0.69172932330827064</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="V5" s="86">
         <f>IF(HDRAG_HAS_REC_HBRUN, V4/$T4, "")</f>
-        <v>0.22556390977443608</v>
+        <v>0.21568627450980393</v>
       </c>
       <c r="W5" s="86">
         <f>IF(HDRAG_HAS_REC_HBRUN, W4/$T4, "")</f>
-        <v>5.2631578947368418E-2</v>
+        <v>5.2287581699346407E-2</v>
       </c>
       <c r="X5" s="86">
         <f>IF(HDRAG_HAS_REC_HBRUN, X4/$T4, "")</f>
-        <v>3.007518796992481E-2</v>
-      </c>
-      <c r="Y5" s="196"/>
-      <c r="Z5" s="196"/>
-      <c r="AA5" s="192"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="195"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="185"/>
+        <v>2.6143790849673203E-2</v>
+      </c>
+      <c r="Y5" s="213"/>
+      <c r="Z5" s="213"/>
+      <c r="AA5" s="209"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="212"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="201"/>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="142">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="C6" s="61">
         <f>SUM(I17:I18)</f>
@@ -2446,20 +2472,20 @@
       </c>
       <c r="F6" s="142">
         <f>IF(C6-B6 &lt; 0, ABS(C6-B6), "")</f>
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="G6" s="5">
         <f>IF(C6-B6 &lt; 0, 0, C6-B6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="197">
+      <c r="H6" s="214">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
       <c r="M6" s="20">
         <f>IFERROR(ROUND(G6/P6, 0),"")</f>
         <v>0</v>
@@ -2474,17 +2500,17 @@
       </c>
       <c r="P6" s="24">
         <f>IFERROR((SUM(_DataIO!J:J) * 3 + SUM(_DataIO!K:K) * 4) / Q6, "")</f>
-        <v>3.5027777777777778</v>
+        <v>3.5145888594164458</v>
       </c>
       <c r="Q6" s="94">
         <f>SUM(_DataIO!J:K)</f>
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="R6" s="20"/>
-      <c r="S6" s="200" t="s">
+      <c r="S6" s="217" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="176" t="str">
+      <c r="T6" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, COUNTA(DATA_HDRAG_HMERC), "")</f>
         <v/>
       </c>
@@ -2504,48 +2530,48 @@
         <f>IF(HDRAG_HAS_REC_HMERC, COUNTIF(DATA_HDRAG_HMERC, "=5"), "")</f>
         <v/>
       </c>
-      <c r="Y6" s="188" t="str">
+      <c r="Y6" s="205" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,AVERAGE(DATA_HDRAG_HMERC),"")</f>
         <v/>
       </c>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="187" t="str">
+      <c r="Z6" s="205"/>
+      <c r="AA6" s="203" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y6)*U7), "")</f>
         <v/>
       </c>
-      <c r="AB6" s="176" t="str">
+      <c r="AB6" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y6)*V7), "")</f>
         <v/>
       </c>
-      <c r="AC6" s="176" t="str">
+      <c r="AC6" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y6)*W7), "")</f>
         <v/>
       </c>
-      <c r="AD6" s="176" t="str">
+      <c r="AD6" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y6)*X7), "")</f>
         <v/>
       </c>
-      <c r="AE6" s="177" t="str">
+      <c r="AE6" s="204" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, SUM(AA6:AD6), "")</f>
         <v/>
       </c>
-      <c r="AF6" s="176" t="str">
+      <c r="AF6" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y6)*U7), "")</f>
         <v/>
       </c>
-      <c r="AG6" s="176" t="str">
+      <c r="AG6" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y6)*V7), "")</f>
         <v/>
       </c>
-      <c r="AH6" s="176" t="str">
+      <c r="AH6" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y6)*W7), "")</f>
         <v/>
       </c>
-      <c r="AI6" s="176" t="str">
+      <c r="AI6" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y6)*X7), "")</f>
         <v/>
       </c>
-      <c r="AJ6" s="186" t="str">
+      <c r="AJ6" s="202" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, SUM(AF6:AI6), "")</f>
         <v/>
       </c>
@@ -2555,7 +2581,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="142">
-        <v>510</v>
+        <v>711</v>
       </c>
       <c r="C7" s="61">
         <f>SUM(R17:R18)</f>
@@ -2571,20 +2597,20 @@
       </c>
       <c r="F7" s="142">
         <f>IF(C7-B7 &lt; 0, ABS(C7-B7), "")</f>
-        <v>510</v>
+        <v>711</v>
       </c>
       <c r="G7" s="5">
         <f>IF(C7-B7 &lt; 0, 0, C7-B7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="197">
+      <c r="H7" s="214">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
       <c r="M7" s="16">
         <f>IFERROR(ROUND(G7/P7, 0),"")</f>
         <v>0</v>
@@ -2606,8 +2632,8 @@
         <v>229</v>
       </c>
       <c r="R7" s="16"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="176"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="193"/>
       <c r="U7" s="87" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, U6/$T6, "")</f>
         <v/>
@@ -2624,18 +2650,18 @@
         <f>IF(HDRAG_HAS_REC_HMERC, X6/$T6, "")</f>
         <v/>
       </c>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="188"/>
-      <c r="AA7" s="187"/>
-      <c r="AB7" s="176"/>
-      <c r="AC7" s="176"/>
-      <c r="AD7" s="176"/>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="176"/>
-      <c r="AG7" s="176"/>
-      <c r="AH7" s="176"/>
-      <c r="AI7" s="176"/>
-      <c r="AJ7" s="186"/>
+      <c r="Y7" s="205"/>
+      <c r="Z7" s="205"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="204"/>
+      <c r="AF7" s="193"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="193"/>
+      <c r="AI7" s="193"/>
+      <c r="AJ7" s="202"/>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2643,11 +2669,11 @@
       </c>
       <c r="B8" s="142">
         <f t="shared" ref="B8:G8" si="1">SUM(B3:B7)</f>
-        <v>6256</v>
+        <v>6241</v>
       </c>
       <c r="C8" s="61">
         <f t="shared" si="1"/>
-        <v>4340</v>
+        <v>4040</v>
       </c>
       <c r="D8" s="61">
         <f t="shared" si="1"/>
@@ -2659,20 +2685,20 @@
       </c>
       <c r="F8" s="142">
         <f t="shared" si="1"/>
-        <v>1916</v>
+        <v>2201</v>
       </c>
       <c r="G8" s="142">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="197">
+      <c r="H8" s="214">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
       <c r="M8" s="3">
         <f>SUM(M3:M7)</f>
         <v>0</v>
@@ -2687,17 +2713,17 @@
       </c>
       <c r="P8" s="26">
         <f>(SUM(_DataIO!A:A, _DataIO!D:D, _DataIO!G:G, _DataIO!J:J, _DataIO!M:M) * 3 + SUM(_DataIO!B:B, _DataIO!E:E, _DataIO!H:H, _DataIO!K:K, _DataIO!N:N) * 4) / Q8</f>
-        <v>3.5135692201992441</v>
+        <v>3.5131490222521915</v>
       </c>
       <c r="Q8" s="96">
         <f>SUM(Q3:Q7)</f>
-        <v>2911</v>
+        <v>2966</v>
       </c>
       <c r="R8" s="3"/>
-      <c r="S8" s="189" t="s">
+      <c r="S8" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="162">
+      <c r="T8" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, COUNTA(DATA_HDRAG_HMID), "")</f>
         <v>798</v>
       </c>
@@ -2717,56 +2743,56 @@
         <f>IF(HDRAG_HAS_REC_HMID, COUNTIF(DATA_HDRAG_HMID, "=5"), "")</f>
         <v>49</v>
       </c>
-      <c r="Y8" s="164">
+      <c r="Y8" s="181">
         <f>IF(HDRAG_HAS_REC_HMID,AVERAGE(DATA_HDRAG_HMID),"")</f>
         <v>2.5513784461152884</v>
       </c>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="171">
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="188">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y8)*U9), "")</f>
         <v>124</v>
       </c>
-      <c r="AB8" s="162">
+      <c r="AB8" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y8)*V9), "")</f>
         <v>41</v>
       </c>
-      <c r="AC8" s="162">
+      <c r="AC8" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y8)*W9), "")</f>
         <v>15</v>
       </c>
-      <c r="AD8" s="162">
+      <c r="AD8" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y8)*X9), "")</f>
         <v>12</v>
       </c>
-      <c r="AE8" s="161">
+      <c r="AE8" s="178">
         <f>IF(HDRAG_HAS_REC_HMID, SUM(AA8:AD8), "")</f>
         <v>192</v>
       </c>
-      <c r="AF8" s="162">
+      <c r="AF8" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y8)*U9), "")</f>
         <v>208</v>
       </c>
-      <c r="AG8" s="162">
+      <c r="AG8" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y8)*V9), "")</f>
         <v>68</v>
       </c>
-      <c r="AH8" s="162">
+      <c r="AH8" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y8)*W9), "")</f>
         <v>25</v>
       </c>
-      <c r="AI8" s="162">
+      <c r="AI8" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y8)*X9), "")</f>
         <v>20</v>
       </c>
-      <c r="AJ8" s="179">
+      <c r="AJ8" s="195">
         <f>IF(HDRAG_HAS_REC_HMID, SUM(AF8:AI8), "")</f>
         <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q9" s="97"/>
-      <c r="S9" s="189"/>
-      <c r="T9" s="162"/>
+      <c r="S9" s="206"/>
+      <c r="T9" s="179"/>
       <c r="U9" s="88">
         <f>IF(HDRAG_HAS_REC_HMID, U8/$T8, "")</f>
         <v>0.64912280701754388</v>
@@ -2783,31 +2809,31 @@
         <f>IF(HDRAG_HAS_REC_HMID, X8/$T8, "")</f>
         <v>6.1403508771929821E-2</v>
       </c>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="171"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="161"/>
-      <c r="AF9" s="162"/>
-      <c r="AG9" s="162"/>
-      <c r="AH9" s="162"/>
-      <c r="AI9" s="162"/>
-      <c r="AJ9" s="179"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="181"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="179"/>
+      <c r="AC9" s="179"/>
+      <c r="AD9" s="179"/>
+      <c r="AE9" s="178"/>
+      <c r="AF9" s="179"/>
+      <c r="AG9" s="179"/>
+      <c r="AH9" s="179"/>
+      <c r="AI9" s="179"/>
+      <c r="AJ9" s="195"/>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="208" t="s">
+      <c r="A10" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="208"/>
+      <c r="B10" s="225"/>
       <c r="F10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="190" t="s">
+      <c r="G10" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="191"/>
+      <c r="H10" s="208"/>
       <c r="I10" s="29"/>
       <c r="J10" s="35" t="s">
         <v>28</v>
@@ -2821,10 +2847,10 @@
       <c r="M10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="190" t="s">
+      <c r="N10" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="191"/>
+      <c r="O10" s="208"/>
       <c r="P10" s="35" t="s">
         <v>28</v>
       </c>
@@ -2832,10 +2858,10 @@
         <v>29</v>
       </c>
       <c r="R10" s="29"/>
-      <c r="S10" s="159" t="s">
+      <c r="S10" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="160" t="str">
+      <c r="T10" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, COUNTA(DATA_HDRAG_HJUP), "")</f>
         <v/>
       </c>
@@ -2855,57 +2881,57 @@
         <f>IF(HDRAG_HAS_REC_HJUP, COUNTIF(DATA_HDRAG_HJUP, "=5"), "")</f>
         <v/>
       </c>
-      <c r="Y10" s="165" t="str">
+      <c r="Y10" s="182" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,AVERAGE(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
-      <c r="Z10" s="165"/>
-      <c r="AA10" s="180" t="str">
+      <c r="Z10" s="182"/>
+      <c r="AA10" s="196" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y10)*U11), "")</f>
         <v/>
       </c>
-      <c r="AB10" s="160" t="str">
+      <c r="AB10" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y10)*V11), "")</f>
         <v/>
       </c>
-      <c r="AC10" s="160" t="str">
+      <c r="AC10" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y10)*W11), "")</f>
         <v/>
       </c>
-      <c r="AD10" s="160" t="str">
+      <c r="AD10" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y10)*X11), "")</f>
         <v/>
       </c>
-      <c r="AE10" s="178" t="str">
+      <c r="AE10" s="194" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, SUM(AA10:AD10), "")</f>
         <v/>
       </c>
-      <c r="AF10" s="160" t="str">
+      <c r="AF10" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y10)*U11), "")</f>
         <v/>
       </c>
-      <c r="AG10" s="160" t="str">
+      <c r="AG10" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y10)*V11), "")</f>
         <v/>
       </c>
-      <c r="AH10" s="160" t="str">
+      <c r="AH10" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y10)*W11), "")</f>
         <v/>
       </c>
-      <c r="AI10" s="160" t="str">
+      <c r="AI10" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y10)*X11), "")</f>
         <v/>
       </c>
-      <c r="AJ10" s="175" t="str">
+      <c r="AJ10" s="192" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, SUM(AF10:AI10), "")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="181"/>
+      <c r="B11" s="197"/>
       <c r="F11" s="55">
         <v>29</v>
       </c>
@@ -2928,33 +2954,33 @@
         <f t="shared" ref="K11:K18" si="4">IFERROR(J11*BOOST_PRICE,"")</f>
         <v>240.00000000000011</v>
       </c>
-      <c r="L11" s="199" t="s">
+      <c r="L11" s="216" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N11" s="134" t="s">
         <v>1</v>
       </c>
       <c r="O11" s="41">
         <f>VLOOKUP(M11, DATA_IO,6)+VLOOKUP(M12, DATA_IO,6)</f>
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="P11" s="36">
         <f t="shared" ref="P11:P18" si="5">IF(VLOOKUP(M11, DATA_IO, 8)=0, "", VLOOKUP(M11, DATA_IO, 8))</f>
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Q11" s="99">
         <f t="shared" ref="Q11:Q18" si="6">IFERROR(P11*BOOST_PRICE,"")</f>
-        <v>2340.0000000000009</v>
+        <v>2220.0000000000009</v>
       </c>
       <c r="R11" s="71">
         <f t="shared" ref="R11:R18" si="7">VLOOKUP(M11, DATA_IO, 5, TRUE)</f>
-        <v>1280</v>
-      </c>
-      <c r="S11" s="159"/>
-      <c r="T11" s="160"/>
+        <v>1240</v>
+      </c>
+      <c r="S11" s="176"/>
+      <c r="T11" s="177"/>
       <c r="U11" s="89" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, U10/$T10, "")</f>
         <v/>
@@ -2971,22 +2997,22 @@
         <f>IF(HDRAG_HAS_REC_HJUP, X10/$T10, "")</f>
         <v/>
       </c>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="180"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="160"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="178"/>
-      <c r="AF11" s="160"/>
-      <c r="AG11" s="160"/>
-      <c r="AH11" s="160"/>
-      <c r="AI11" s="160"/>
-      <c r="AJ11" s="175"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="196"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="177"/>
+      <c r="AE11" s="194"/>
+      <c r="AF11" s="177"/>
+      <c r="AG11" s="177"/>
+      <c r="AH11" s="177"/>
+      <c r="AI11" s="177"/>
+      <c r="AJ11" s="192"/>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="181"/>
-      <c r="B12" s="181"/>
+      <c r="A12" s="197"/>
+      <c r="B12" s="197"/>
       <c r="F12" s="55">
         <v>30</v>
       </c>
@@ -3009,9 +3035,9 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L12" s="199"/>
+      <c r="L12" s="216"/>
       <c r="M12" s="55">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N12" s="134" t="s">
         <v>0</v>
@@ -3022,20 +3048,20 @@
       </c>
       <c r="P12" s="36">
         <f t="shared" si="5"/>
-        <v>17.416666666666668</v>
+        <v>16.25</v>
       </c>
       <c r="Q12" s="99">
         <f t="shared" si="6"/>
-        <v>2090.0000000000009</v>
+        <v>1950.0000000000009</v>
       </c>
       <c r="R12" s="30">
         <f t="shared" si="7"/>
-        <v>1180</v>
-      </c>
-      <c r="S12" s="157" t="s">
+        <v>1120</v>
+      </c>
+      <c r="S12" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="155" t="str">
+      <c r="T12" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, COUNTA(DATA_HDRAG_HZOD), "")</f>
         <v/>
       </c>
@@ -3055,59 +3081,59 @@
         <f>IF(HDRAG_HAS_REC_HZOD, COUNTIF(DATA_HDRAG_HZOD, "=5"), "")</f>
         <v/>
       </c>
-      <c r="Y12" s="166" t="str">
+      <c r="Y12" s="183" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,AVERAGE(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
-      <c r="Z12" s="166"/>
-      <c r="AA12" s="163" t="str">
+      <c r="Z12" s="183"/>
+      <c r="AA12" s="180" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y12)*U13), "")</f>
         <v/>
       </c>
-      <c r="AB12" s="155" t="str">
+      <c r="AB12" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y12)*V13), "")</f>
         <v/>
       </c>
-      <c r="AC12" s="155" t="str">
+      <c r="AC12" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y12)*W13), "")</f>
         <v/>
       </c>
-      <c r="AD12" s="155" t="str">
+      <c r="AD12" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$Y12)*X13), "")</f>
         <v/>
       </c>
-      <c r="AE12" s="169" t="str">
+      <c r="AE12" s="186" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, SUM(AA12:AD12), "")</f>
         <v/>
       </c>
-      <c r="AF12" s="155" t="str">
+      <c r="AF12" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y12)*U13), "")</f>
         <v/>
       </c>
-      <c r="AG12" s="155" t="str">
+      <c r="AG12" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y12)*V13), "")</f>
         <v/>
       </c>
-      <c r="AH12" s="155" t="str">
+      <c r="AH12" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y12)*W13), "")</f>
         <v/>
       </c>
-      <c r="AI12" s="155" t="str">
+      <c r="AI12" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$Y12)*X13), "")</f>
         <v/>
       </c>
-      <c r="AJ12" s="172" t="str">
+      <c r="AJ12" s="189" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, SUM(AF12:AI12), "")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="205" t="s">
+      <c r="A13" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="205"/>
+      <c r="B13" s="222"/>
       <c r="F13" s="56">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="133" t="s">
         <v>1</v>
@@ -3118,17 +3144,17 @@
       </c>
       <c r="I13" s="72">
         <f t="shared" si="2"/>
-        <v>780</v>
+        <v>680</v>
       </c>
       <c r="J13" s="37">
         <f t="shared" si="3"/>
-        <v>10.75</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="K13" s="31">
         <f t="shared" si="4"/>
-        <v>1290.0000000000007</v>
-      </c>
-      <c r="L13" s="216" t="s">
+        <v>1100.0000000000005</v>
+      </c>
+      <c r="L13" s="233" t="s">
         <v>7</v>
       </c>
       <c r="M13" s="56">
@@ -3153,8 +3179,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="156"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="173"/>
       <c r="U13" s="111" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, U12/$T12, "")</f>
         <v/>
@@ -3171,45 +3197,45 @@
         <f>IF(HDRAG_HAS_REC_HZOD, X12/$T12, "")</f>
         <v/>
       </c>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="167"/>
-      <c r="AA13" s="163"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="155"/>
-      <c r="AG13" s="155"/>
-      <c r="AH13" s="155"/>
-      <c r="AI13" s="155"/>
-      <c r="AJ13" s="172"/>
+      <c r="Y13" s="184"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="180"/>
+      <c r="AB13" s="172"/>
+      <c r="AC13" s="172"/>
+      <c r="AD13" s="172"/>
+      <c r="AE13" s="186"/>
+      <c r="AF13" s="172"/>
+      <c r="AG13" s="172"/>
+      <c r="AH13" s="172"/>
+      <c r="AI13" s="172"/>
+      <c r="AJ13" s="189"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="205"/>
-      <c r="B14" s="205"/>
+      <c r="A14" s="222"/>
+      <c r="B14" s="222"/>
       <c r="F14" s="56">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="133" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="42">
         <f>VLOOKUP(F13, DATA_IO,7)+VLOOKUP(F14, DATA_IO,7)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="72">
         <f t="shared" si="2"/>
-        <v>780</v>
+        <v>680</v>
       </c>
       <c r="J14" s="37">
         <f t="shared" si="3"/>
-        <v>10.75</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="K14" s="31">
         <f t="shared" si="4"/>
-        <v>1290.0000000000007</v>
-      </c>
-      <c r="L14" s="216"/>
+        <v>1100.0000000000005</v>
+      </c>
+      <c r="L14" s="233"/>
       <c r="M14" s="56">
         <v>30</v>
       </c>
@@ -3240,26 +3266,26 @@
       <c r="X14" s="128"/>
       <c r="Y14" s="128"/>
       <c r="Z14" s="128"/>
-      <c r="AA14" s="193" t="s">
+      <c r="AA14" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="AB14" s="184"/>
-      <c r="AC14" s="184"/>
-      <c r="AD14" s="184"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="184" t="s">
+      <c r="AB14" s="200"/>
+      <c r="AC14" s="200"/>
+      <c r="AD14" s="200"/>
+      <c r="AE14" s="200"/>
+      <c r="AF14" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="184"/>
-      <c r="AH14" s="184"/>
-      <c r="AI14" s="184"/>
-      <c r="AJ14" s="194"/>
+      <c r="AG14" s="200"/>
+      <c r="AH14" s="200"/>
+      <c r="AI14" s="200"/>
+      <c r="AJ14" s="211"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="204"/>
+      <c r="B15" s="221"/>
       <c r="F15" s="57">
         <v>29</v>
       </c>
@@ -3282,7 +3308,7 @@
         <f t="shared" si="4"/>
         <v>240.00000000000011</v>
       </c>
-      <c r="L15" s="215" t="s">
+      <c r="L15" s="232" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="57">
@@ -3357,8 +3383,8 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="204"/>
-      <c r="B16" s="204"/>
+      <c r="A16" s="221"/>
+      <c r="B16" s="221"/>
       <c r="F16" s="57">
         <v>30</v>
       </c>
@@ -3381,7 +3407,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L16" s="215"/>
+      <c r="L16" s="232"/>
       <c r="M16" s="57">
         <v>30</v>
       </c>
@@ -3404,12 +3430,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S16" s="168" t="s">
+      <c r="S16" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="T16" s="184"/>
+      <c r="T16" s="200"/>
       <c r="U16" s="128">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="V16" s="128"/>
       <c r="W16" s="128">
@@ -3418,52 +3444,52 @@
       <c r="X16" s="128"/>
       <c r="Y16" s="128"/>
       <c r="Z16" s="128"/>
-      <c r="AA16" s="192">
+      <c r="AA16" s="209">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y4)*U5), "")</f>
-        <v>328</v>
-      </c>
-      <c r="AB16" s="181">
+        <v>337</v>
+      </c>
+      <c r="AB16" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y4)*V5), "")</f>
-        <v>107</v>
-      </c>
-      <c r="AC16" s="181">
+        <v>103</v>
+      </c>
+      <c r="AC16" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y4)*W5), "")</f>
         <v>25</v>
       </c>
-      <c r="AD16" s="181">
+      <c r="AD16" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y4)*X5), "")</f>
-        <v>15</v>
-      </c>
-      <c r="AE16" s="195">
+        <v>13</v>
+      </c>
+      <c r="AE16" s="212">
         <f>IF(HDRAG_HAS_REC_HBRUN, SUM(AA16:AD16), "")</f>
-        <v>475</v>
-      </c>
-      <c r="AF16" s="181">
+        <v>478</v>
+      </c>
+      <c r="AF16" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y4)*U5), "")</f>
-        <v>372</v>
-      </c>
-      <c r="AG16" s="181">
+        <v>383</v>
+      </c>
+      <c r="AG16" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y4)*V5), "")</f>
-        <v>122</v>
-      </c>
-      <c r="AH16" s="181">
+        <v>117</v>
+      </c>
+      <c r="AH16" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y4)*W5), "")</f>
         <v>29</v>
       </c>
-      <c r="AI16" s="181">
+      <c r="AI16" s="197">
         <f>IF(HDRAG_HAS_REC_HBRUN, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y4)*X5), "")</f>
-        <v>17</v>
-      </c>
-      <c r="AJ16" s="185">
+        <v>15</v>
+      </c>
+      <c r="AJ16" s="201">
         <f>IF(HDRAG_HAS_REC_HBRUN, SUM(AF16:AI16), "")</f>
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="203" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="203"/>
+      <c r="A17" s="220" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="220"/>
       <c r="F17" s="58">
         <v>30</v>
       </c>
@@ -3486,7 +3512,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L17" s="157" t="s">
+      <c r="L17" s="174" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="59">
@@ -3511,7 +3537,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S17" s="168" t="s">
+      <c r="S17" s="185" t="s">
         <v>60</v>
       </c>
       <c r="T17" s="125" t="s">
@@ -3527,20 +3553,20 @@
       <c r="X17" s="128"/>
       <c r="Y17" s="128"/>
       <c r="Z17" s="128"/>
-      <c r="AA17" s="192"/>
-      <c r="AB17" s="181"/>
-      <c r="AC17" s="181"/>
-      <c r="AD17" s="181"/>
-      <c r="AE17" s="195"/>
-      <c r="AF17" s="181"/>
-      <c r="AG17" s="181"/>
-      <c r="AH17" s="181"/>
-      <c r="AI17" s="181"/>
-      <c r="AJ17" s="185"/>
+      <c r="AA17" s="209"/>
+      <c r="AB17" s="197"/>
+      <c r="AC17" s="197"/>
+      <c r="AD17" s="197"/>
+      <c r="AE17" s="212"/>
+      <c r="AF17" s="197"/>
+      <c r="AG17" s="197"/>
+      <c r="AH17" s="197"/>
+      <c r="AI17" s="197"/>
+      <c r="AJ17" s="201"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="203"/>
-      <c r="B18" s="203"/>
+      <c r="A18" s="220"/>
+      <c r="B18" s="220"/>
       <c r="F18" s="58">
         <v>30</v>
       </c>
@@ -3563,7 +3589,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L18" s="157"/>
+      <c r="L18" s="174"/>
       <c r="M18" s="59">
         <v>30</v>
       </c>
@@ -3586,7 +3612,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S18" s="168"/>
+      <c r="S18" s="185"/>
       <c r="T18" s="125" t="s">
         <v>36</v>
       </c>
@@ -3611,43 +3637,43 @@
         <v/>
       </c>
       <c r="Z18" s="128"/>
-      <c r="AA18" s="187" t="str">
+      <c r="AA18" s="203" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y6)*U7), "")</f>
         <v/>
       </c>
-      <c r="AB18" s="176" t="str">
+      <c r="AB18" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y6)*V7), "")</f>
         <v/>
       </c>
-      <c r="AC18" s="176" t="str">
+      <c r="AC18" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y6)*W7), "")</f>
         <v/>
       </c>
-      <c r="AD18" s="176" t="str">
+      <c r="AD18" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y6)*X7), "")</f>
         <v/>
       </c>
-      <c r="AE18" s="177" t="str">
+      <c r="AE18" s="204" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, SUM(AA18:AD18), "")</f>
         <v/>
       </c>
-      <c r="AF18" s="176" t="str">
+      <c r="AF18" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y6)*U7), "")</f>
         <v/>
       </c>
-      <c r="AG18" s="176" t="str">
+      <c r="AG18" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y6)*V7), "")</f>
         <v/>
       </c>
-      <c r="AH18" s="176" t="str">
+      <c r="AH18" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y6)*W7), "")</f>
         <v/>
       </c>
-      <c r="AI18" s="176" t="str">
+      <c r="AI18" s="193" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y6)*X7), "")</f>
         <v/>
       </c>
-      <c r="AJ18" s="186" t="str">
+      <c r="AJ18" s="202" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC, SUM(AF18:AI18), "")</f>
         <v/>
       </c>
@@ -3662,7 +3688,7 @@
       <c r="J19" s="64"/>
       <c r="K19" s="1"/>
       <c r="Q19" s="97"/>
-      <c r="S19" s="168" t="s">
+      <c r="S19" s="185" t="s">
         <v>63</v>
       </c>
       <c r="T19" s="125" t="s">
@@ -3671,44 +3697,44 @@
       <c r="W19" s="128">
         <v>4</v>
       </c>
-      <c r="AA19" s="187"/>
-      <c r="AB19" s="176"/>
-      <c r="AC19" s="176"/>
-      <c r="AD19" s="176"/>
-      <c r="AE19" s="177"/>
-      <c r="AF19" s="176"/>
-      <c r="AG19" s="176"/>
-      <c r="AH19" s="176"/>
-      <c r="AI19" s="176"/>
-      <c r="AJ19" s="186"/>
+      <c r="AA19" s="203"/>
+      <c r="AB19" s="193"/>
+      <c r="AC19" s="193"/>
+      <c r="AD19" s="193"/>
+      <c r="AE19" s="204"/>
+      <c r="AF19" s="193"/>
+      <c r="AG19" s="193"/>
+      <c r="AH19" s="193"/>
+      <c r="AI19" s="193"/>
+      <c r="AJ19" s="202"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B20" s="206" t="s">
+      <c r="B20" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="206"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="211">
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="228">
         <f>SUM(J11:J18,P11:P18)</f>
-        <v>62.416666666666671</v>
-      </c>
-      <c r="H20" s="211"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="211"/>
-      <c r="K20" s="206" t="s">
+        <v>57.083333333333329</v>
+      </c>
+      <c r="H20" s="228"/>
+      <c r="I20" s="228"/>
+      <c r="J20" s="228"/>
+      <c r="K20" s="223" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="206"/>
-      <c r="M20" s="213">
+      <c r="L20" s="223"/>
+      <c r="M20" s="230">
         <f>SUM(K11:K18,Q11:Q18)</f>
-        <v>7490.0000000000036</v>
-      </c>
-      <c r="N20" s="213"/>
-      <c r="O20" s="213"/>
+        <v>6850.0000000000027</v>
+      </c>
+      <c r="N20" s="230"/>
+      <c r="O20" s="230"/>
       <c r="Q20" s="97"/>
-      <c r="S20" s="168"/>
+      <c r="S20" s="185"/>
       <c r="T20" s="125" t="s">
         <v>36</v>
       </c>
@@ -3733,73 +3759,73 @@
         <v/>
       </c>
       <c r="Z20" s="128"/>
-      <c r="AA20" s="171">
+      <c r="AA20" s="188">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y8)*U9), "")</f>
         <v>292</v>
       </c>
-      <c r="AB20" s="162">
+      <c r="AB20" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y8)*V9), "")</f>
         <v>96</v>
       </c>
-      <c r="AC20" s="162">
+      <c r="AC20" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y8)*W9), "")</f>
         <v>35</v>
       </c>
-      <c r="AD20" s="162">
+      <c r="AD20" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y8)*X9), "")</f>
         <v>28</v>
       </c>
-      <c r="AE20" s="161">
+      <c r="AE20" s="178">
         <f>IF(HDRAG_HAS_REC_HMID, SUM(AA20:AD20), "")</f>
         <v>451</v>
       </c>
-      <c r="AF20" s="162">
+      <c r="AF20" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y8)*U9), "")</f>
         <v>332</v>
       </c>
-      <c r="AG20" s="162">
+      <c r="AG20" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y8)*V9), "")</f>
         <v>108</v>
       </c>
-      <c r="AH20" s="162">
+      <c r="AH20" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y8)*W9), "")</f>
         <v>40</v>
       </c>
-      <c r="AI20" s="162">
+      <c r="AI20" s="179">
         <f>IF(HDRAG_HAS_REC_HMID, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y8)*X9), "")</f>
         <v>32</v>
       </c>
-      <c r="AJ20" s="179">
+      <c r="AJ20" s="195">
         <f>IF(HDRAG_HAS_REC_HMID, SUM(AF20:AI20), "")</f>
         <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="129"/>
-      <c r="B21" s="207"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="212"/>
-      <c r="K21" s="207"/>
-      <c r="L21" s="207"/>
-      <c r="M21" s="214"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="214"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="229"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="229"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="231"/>
+      <c r="N21" s="231"/>
+      <c r="O21" s="231"/>
       <c r="P21" s="129"/>
       <c r="Q21" s="67"/>
       <c r="R21" s="66"/>
-      <c r="S21" s="168" t="s">
+      <c r="S21" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="T21" s="184"/>
+      <c r="T21" s="200"/>
       <c r="U21" s="128">
         <f>IFERROR(IF(U18+U20=0,0,U18+U20-U16), "")</f>
-        <v>704</v>
+        <v>638</v>
       </c>
       <c r="V21" s="128" t="str">
         <f>IFERROR(IF(V18+V20=0,0,V18+V20-V16), "")</f>
@@ -3818,38 +3844,38 @@
         <v/>
       </c>
       <c r="Z21" s="128"/>
-      <c r="AA21" s="171"/>
-      <c r="AB21" s="162"/>
-      <c r="AC21" s="162"/>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="161"/>
-      <c r="AF21" s="162"/>
-      <c r="AG21" s="162"/>
-      <c r="AH21" s="162"/>
-      <c r="AI21" s="162"/>
-      <c r="AJ21" s="179"/>
+      <c r="AA21" s="188"/>
+      <c r="AB21" s="179"/>
+      <c r="AC21" s="179"/>
+      <c r="AD21" s="179"/>
+      <c r="AE21" s="178"/>
+      <c r="AF21" s="179"/>
+      <c r="AG21" s="179"/>
+      <c r="AH21" s="179"/>
+      <c r="AI21" s="179"/>
+      <c r="AJ21" s="195"/>
     </row>
     <row r="22" spans="1:36" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="209" t="s">
+      <c r="A22" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="209"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="209"/>
-      <c r="K22" s="209"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="209"/>
-      <c r="N22" s="209"/>
-      <c r="O22" s="209"/>
-      <c r="P22" s="209"/>
-      <c r="Q22" s="210"/>
-      <c r="S22" s="168" t="s">
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="226"/>
+      <c r="M22" s="226"/>
+      <c r="N22" s="226"/>
+      <c r="O22" s="226"/>
+      <c r="P22" s="226"/>
+      <c r="Q22" s="227"/>
+      <c r="S22" s="185" t="s">
         <v>38</v>
       </c>
       <c r="T22" s="125">
@@ -3857,7 +3883,7 @@
       </c>
       <c r="U22" s="128">
         <f>IFERROR(IF(U$21=0, "", _xlfn.CEILING.MATH((U$21/Y4)*U5)),"")</f>
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="V22" s="128" t="str">
         <f>IFERROR(IF(V$21=0, "", _xlfn.CEILING.MATH((V$21/Y6)*U7)),"")</f>
@@ -3876,72 +3902,72 @@
         <v/>
       </c>
       <c r="Z22" s="110"/>
-      <c r="AA22" s="160" t="str">
+      <c r="AA22" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y10)*U11), "")</f>
         <v/>
       </c>
-      <c r="AB22" s="160" t="str">
+      <c r="AB22" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y10)*V11), "")</f>
         <v/>
       </c>
-      <c r="AC22" s="160" t="str">
+      <c r="AC22" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y10)*W11), "")</f>
         <v/>
       </c>
-      <c r="AD22" s="160" t="str">
+      <c r="AD22" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y10)*X11), "")</f>
         <v/>
       </c>
-      <c r="AE22" s="178" t="str">
+      <c r="AE22" s="194" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, SUM(AA22:AD22), "")</f>
         <v/>
       </c>
-      <c r="AF22" s="160" t="str">
+      <c r="AF22" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y10)*U11), "")</f>
         <v/>
       </c>
-      <c r="AG22" s="160" t="str">
+      <c r="AG22" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y10)*V11), "")</f>
         <v/>
       </c>
-      <c r="AH22" s="160" t="str">
+      <c r="AH22" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y10)*W11), "")</f>
         <v/>
       </c>
-      <c r="AI22" s="160" t="str">
+      <c r="AI22" s="177" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y10)*X11), "")</f>
         <v/>
       </c>
-      <c r="AJ22" s="175" t="str">
+      <c r="AJ22" s="192" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP, SUM(AF22:AI22), "")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="201"/>
-      <c r="B23" s="201"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="201"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="201"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="201"/>
-      <c r="M23" s="201"/>
-      <c r="N23" s="201"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="201"/>
-      <c r="Q23" s="202"/>
-      <c r="S23" s="168"/>
+      <c r="A23" s="218"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="218"/>
+      <c r="P23" s="218"/>
+      <c r="Q23" s="219"/>
+      <c r="S23" s="185"/>
       <c r="T23" s="125">
         <v>3</v>
       </c>
       <c r="U23" s="128">
         <f>IFERROR(IF(U$21=0, "", _xlfn.CEILING.MATH((U$21/Y4)*V5)),"")</f>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="V23" s="128" t="str">
         <f>IFERROR(IF(V$21=0, "", _xlfn.CEILING.MATH((V$21/Y6)*V7)),"")</f>
@@ -3960,42 +3986,42 @@
         <v/>
       </c>
       <c r="Z23" s="110"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="178"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="175"/>
+      <c r="AA23" s="177"/>
+      <c r="AB23" s="177"/>
+      <c r="AC23" s="177"/>
+      <c r="AD23" s="177"/>
+      <c r="AE23" s="194"/>
+      <c r="AF23" s="177"/>
+      <c r="AG23" s="177"/>
+      <c r="AH23" s="177"/>
+      <c r="AI23" s="177"/>
+      <c r="AJ23" s="192"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="201"/>
-      <c r="B24" s="201"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="201"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="201"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="201"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="201"/>
-      <c r="Q24" s="202"/>
-      <c r="S24" s="168"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="219"/>
+      <c r="S24" s="185"/>
       <c r="T24" s="125">
         <v>4</v>
       </c>
       <c r="U24" s="128">
         <f>IFERROR(IF(U$21=0, "", _xlfn.CEILING.MATH((U$21/Y4)*W5)),"")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V24" s="128" t="str">
         <f>IFERROR(IF(V$21=0, "", _xlfn.CEILING.MATH((V$21/Y6)*W7)),"")</f>
@@ -4014,78 +4040,78 @@
         <v/>
       </c>
       <c r="Z24" s="110"/>
-      <c r="AA24" s="163" t="str">
+      <c r="AA24" s="180" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y12)*U13), "")</f>
         <v/>
       </c>
-      <c r="AB24" s="155" t="str">
+      <c r="AB24" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y12)*V13), "")</f>
         <v/>
       </c>
-      <c r="AC24" s="155" t="str">
+      <c r="AC24" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y12)*W13), "")</f>
         <v/>
       </c>
-      <c r="AD24" s="155" t="str">
+      <c r="AD24" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$Y12)*X13), "")</f>
         <v/>
       </c>
-      <c r="AE24" s="169" t="str">
+      <c r="AE24" s="186" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, SUM(AA24:AD24), "")</f>
         <v/>
       </c>
-      <c r="AF24" s="155" t="str">
+      <c r="AF24" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y12)*U13), "")</f>
         <v/>
       </c>
-      <c r="AG24" s="155" t="str">
+      <c r="AG24" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y12)*V13), "")</f>
         <v/>
       </c>
-      <c r="AH24" s="155" t="str">
+      <c r="AH24" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y12)*W13), "")</f>
         <v/>
       </c>
-      <c r="AI24" s="155" t="str">
+      <c r="AI24" s="172" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, _xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$Y12)*X13), "")</f>
         <v/>
       </c>
-      <c r="AJ24" s="172" t="str">
+      <c r="AJ24" s="189" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD, SUM(AF24:AI24), "")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="128"/>
-      <c r="B25" s="184" t="s">
+      <c r="B25" s="200" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="184"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
       <c r="H25" s="128"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="198" t="s">
+      <c r="J25" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="K25" s="198"/>
+      <c r="K25" s="215"/>
       <c r="L25" s="49"/>
-      <c r="M25" s="198" t="s">
+      <c r="M25" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="N25" s="198"/>
-      <c r="O25" s="198"/>
-      <c r="P25" s="198"/>
+      <c r="N25" s="215"/>
+      <c r="O25" s="215"/>
+      <c r="P25" s="215"/>
       <c r="Q25" s="97"/>
-      <c r="S25" s="168"/>
+      <c r="S25" s="185"/>
       <c r="T25" s="125">
         <v>5</v>
       </c>
       <c r="U25" s="128">
         <f>IFERROR(IF(U$21=0, "", _xlfn.CEILING.MATH((U$21/Y4)*X5)),"")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V25" s="128" t="str">
         <f>IFERROR(IF(V$21=0, "", _xlfn.CEILING.MATH((V$21/Y6)*X7)),"")</f>
@@ -4104,56 +4130,56 @@
         <v/>
       </c>
       <c r="Z25" s="110"/>
-      <c r="AA25" s="174"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="156"/>
-      <c r="AE25" s="170"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="156"/>
-      <c r="AH25" s="156"/>
-      <c r="AI25" s="156"/>
-      <c r="AJ25" s="173"/>
+      <c r="AA25" s="191"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="187"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="173"/>
+      <c r="AJ25" s="190"/>
     </row>
     <row r="26" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="128"/>
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="200" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="63"/>
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="227">
-        <v>8186</v>
-      </c>
-      <c r="G26" s="227"/>
+      <c r="F26" s="240">
+        <v>9734</v>
+      </c>
+      <c r="G26" s="240"/>
       <c r="H26" s="128"/>
       <c r="I26" s="49">
         <f>IF(K26&gt;100,100,IF(K26&lt;0,0,K26))</f>
         <v>0</v>
       </c>
-      <c r="J26" s="198" t="s">
+      <c r="J26" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="227"/>
+      <c r="K26" s="240"/>
       <c r="L26" s="128"/>
-      <c r="M26" s="198" t="s">
+      <c r="M26" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="N26" s="198"/>
-      <c r="O26" s="226">
+      <c r="N26" s="215"/>
+      <c r="O26" s="239">
         <f>_xlfn.FLOOR.MATH(F32/MAX(DATA_DRAG_ACCU_EXP))</f>
         <v>1</v>
       </c>
-      <c r="P26" s="226"/>
+      <c r="P26" s="239"/>
       <c r="Q26" s="97"/>
-      <c r="S26" s="168"/>
+      <c r="S26" s="185"/>
       <c r="T26" s="125" t="s">
         <v>56</v>
       </c>
       <c r="U26" s="128">
         <f>IF(AND(HDRAG_HAS_REC_HBRUN,U21&gt;0),SUM(U22:U25),"")</f>
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="V26" s="128" t="str">
         <f>IF(AND(HDRAG_HAS_REC_HMERC,V21&gt;0),SUM(V22:V25),"")</f>
@@ -4184,26 +4210,26 @@
     </row>
     <row r="27" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="128"/>
-      <c r="B27" s="184"/>
+      <c r="B27" s="200"/>
       <c r="C27" s="63"/>
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="227"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="240"/>
       <c r="H27" s="128"/>
       <c r="I27" s="49">
         <f>MOD(F32,MAX(DATA_DRAG_ACCU_EXP))</f>
-        <v>6380</v>
-      </c>
-      <c r="J27" s="198"/>
-      <c r="K27" s="227"/>
+        <v>716080</v>
+      </c>
+      <c r="J27" s="215"/>
+      <c r="K27" s="240"/>
       <c r="L27" s="128"/>
-      <c r="M27" s="198"/>
-      <c r="N27" s="198"/>
-      <c r="O27" s="226"/>
-      <c r="P27" s="226"/>
+      <c r="M27" s="215"/>
+      <c r="N27" s="215"/>
+      <c r="O27" s="239"/>
+      <c r="P27" s="239"/>
       <c r="Q27" s="97"/>
-      <c r="S27" s="182" t="s">
+      <c r="S27" s="198" t="s">
         <v>37</v>
       </c>
       <c r="T27" s="125" t="s">
@@ -4242,37 +4268,37 @@
     </row>
     <row r="28" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="128"/>
-      <c r="B28" s="184" t="s">
+      <c r="B28" s="200" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="63"/>
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
-      <c r="F28" s="227">
-        <v>8</v>
-      </c>
-      <c r="G28" s="227"/>
+      <c r="F28" s="240">
+        <v>342</v>
+      </c>
+      <c r="G28" s="240"/>
       <c r="H28" s="128"/>
       <c r="I28" s="49">
         <f>SMALL(DATA_DRAG_ACCU_EXP,COUNTIF(DATA_DRAG_ACCU_EXP,"&lt;"&amp;I27))</f>
-        <v>6000</v>
-      </c>
-      <c r="J28" s="198" t="s">
+        <v>697260</v>
+      </c>
+      <c r="J28" s="215" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="227"/>
+      <c r="K28" s="240"/>
       <c r="L28" s="128"/>
-      <c r="M28" s="198" t="s">
+      <c r="M28" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="198"/>
-      <c r="O28" s="226">
+      <c r="N28" s="215"/>
+      <c r="O28" s="239">
         <f>MATCH(I28, DATA_DRAG_ACCU_EXP,0)</f>
-        <v>12</v>
-      </c>
-      <c r="P28" s="226"/>
+        <v>83</v>
+      </c>
+      <c r="P28" s="239"/>
       <c r="Q28" s="107"/>
-      <c r="S28" s="182"/>
+      <c r="S28" s="198"/>
       <c r="T28" s="125" t="s">
         <v>60</v>
       </c>
@@ -4309,32 +4335,32 @@
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="128"/>
-      <c r="B29" s="184"/>
+      <c r="B29" s="200"/>
       <c r="C29" s="63"/>
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="227"/>
+      <c r="F29" s="240"/>
+      <c r="G29" s="240"/>
       <c r="H29" s="128"/>
       <c r="I29" s="49">
         <f>IF(I26=0,0,INDEX(DATA_DRAG_ACCU_EXP,I26)+INDEX(DATA_DRAG_LV_EXP,I26)-K28)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="198"/>
-      <c r="K29" s="227"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="240"/>
       <c r="L29" s="49"/>
-      <c r="M29" s="198"/>
-      <c r="N29" s="198"/>
-      <c r="O29" s="226"/>
-      <c r="P29" s="226"/>
+      <c r="M29" s="215"/>
+      <c r="N29" s="215"/>
+      <c r="O29" s="239"/>
+      <c r="P29" s="239"/>
       <c r="Q29" s="107"/>
-      <c r="S29" s="183"/>
+      <c r="S29" s="199"/>
       <c r="T29" s="103" t="s">
         <v>66</v>
       </c>
       <c r="U29" s="104">
         <f>IFERROR(IF(U21=0, 100%, (HDRAGS_MAX_ALL - U21)/HDRAGS_MAX_ALL),"")</f>
-        <v>0.45887778631821674</v>
+        <v>0.50960799385088396</v>
       </c>
       <c r="V29" s="104" t="str">
         <f>IFERROR(IF(V21=0, 100%, (HDRAGS_MAX_ALL - V21)/HDRAGS_MAX_ALL),"")</f>
@@ -4366,105 +4392,111 @@
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="128"/>
-      <c r="B30" s="184" t="s">
+      <c r="B30" s="200" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="63"/>
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
-      <c r="F30" s="227">
-        <v>3</v>
-      </c>
-      <c r="G30" s="227"/>
+      <c r="F30" s="240">
+        <v>44</v>
+      </c>
+      <c r="G30" s="240"/>
       <c r="H30" s="128"/>
       <c r="I30" s="1"/>
       <c r="J30" s="128"/>
       <c r="K30" s="128"/>
       <c r="L30" s="128"/>
-      <c r="M30" s="184" t="s">
+      <c r="M30" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="184"/>
-      <c r="O30" s="226">
+      <c r="N30" s="200"/>
+      <c r="O30" s="239">
         <f>INDEX(DATA_DRAG_LV_EXP,O28)-(I27-I28)</f>
-        <v>640</v>
-      </c>
-      <c r="P30" s="226"/>
+        <v>6710</v>
+      </c>
+      <c r="P30" s="239"/>
       <c r="Q30" s="107"/>
-      <c r="S30" s="218" t="s">
+      <c r="S30" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="T30" s="219"/>
-      <c r="U30" s="219"/>
-      <c r="V30" s="219"/>
-      <c r="W30" s="219"/>
-      <c r="X30" s="219"/>
-      <c r="Y30" s="219"/>
+      <c r="T30" s="169"/>
+      <c r="U30" s="169"/>
+      <c r="V30" s="169"/>
+      <c r="W30" s="169"/>
+      <c r="X30" s="160"/>
+      <c r="Y30" s="160"/>
+      <c r="Z30" s="161"/>
+      <c r="AA30" s="162"/>
     </row>
     <row r="31" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="128"/>
-      <c r="B31" s="184"/>
+      <c r="B31" s="200"/>
       <c r="C31" s="63"/>
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="227"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="226"/>
-      <c r="P31" s="226"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="240"/>
+      <c r="M31" s="200"/>
+      <c r="N31" s="200"/>
+      <c r="O31" s="239"/>
+      <c r="P31" s="239"/>
       <c r="Q31" s="128"/>
-      <c r="S31" s="220"/>
-      <c r="T31" s="221"/>
-      <c r="U31" s="221"/>
-      <c r="V31" s="221"/>
-      <c r="W31" s="221"/>
-      <c r="X31" s="221"/>
-      <c r="Y31" s="221"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="171"/>
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="163"/>
+      <c r="Y31" s="163"/>
+      <c r="Z31" s="161"/>
+      <c r="AA31" s="162"/>
     </row>
     <row r="32" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="128"/>
-      <c r="B32" s="184" t="s">
+      <c r="B32" s="200" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="63"/>
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
-      <c r="F32" s="224">
+      <c r="F32" s="237">
         <f>F26*DRAGEXP_S+F28*DRAGEXP_M+F30*DRAGEXP_L</f>
-        <v>1246400</v>
-      </c>
-      <c r="G32" s="224"/>
+        <v>1956100</v>
+      </c>
+      <c r="G32" s="237"/>
       <c r="M32" s="128"/>
       <c r="N32" s="128"/>
       <c r="O32" s="128"/>
       <c r="P32" s="128"/>
       <c r="Q32" s="128"/>
-      <c r="S32" s="220"/>
-      <c r="T32" s="221"/>
-      <c r="U32" s="221"/>
-      <c r="V32" s="221"/>
-      <c r="W32" s="221"/>
-      <c r="X32" s="221"/>
-      <c r="Y32" s="221"/>
-    </row>
-    <row r="33" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="170"/>
+      <c r="T32" s="171"/>
+      <c r="U32" s="171"/>
+      <c r="V32" s="171"/>
+      <c r="W32" s="171"/>
+      <c r="X32" s="163"/>
+      <c r="Y32" s="163"/>
+      <c r="Z32" s="161"/>
+      <c r="AA32" s="162"/>
+    </row>
+    <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="128"/>
-      <c r="B33" s="184"/>
+      <c r="B33" s="200"/>
       <c r="C33" s="63"/>
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="J33" s="217" t="s">
+      <c r="F33" s="237"/>
+      <c r="G33" s="237"/>
+      <c r="J33" s="234" t="s">
         <v>79</v>
       </c>
-      <c r="K33" s="225">
+      <c r="K33" s="238">
         <f>IF(N34 &gt; 0, SUM(DATA_DRAGON_EXP)/N34, 0)</f>
-        <v>2615.916955017301</v>
-      </c>
-      <c r="L33" s="225"/>
-      <c r="M33" s="225"/>
+        <v>2673.9277652370201</v>
+      </c>
+      <c r="L33" s="238"/>
+      <c r="M33" s="238"/>
       <c r="N33" s="125" t="s">
         <v>42</v>
       </c>
@@ -4472,8 +4504,12 @@
       <c r="P33" s="128"/>
       <c r="Q33" s="128"/>
       <c r="S33" s="108"/>
-    </row>
-    <row r="34" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="164"/>
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="161"/>
+      <c r="AA33" s="162"/>
+    </row>
+    <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="128"/>
       <c r="B34" s="125"/>
       <c r="C34" s="63"/>
@@ -4481,13 +4517,13 @@
       <c r="E34" s="63"/>
       <c r="F34" s="126"/>
       <c r="G34" s="126"/>
-      <c r="J34" s="217"/>
-      <c r="K34" s="225"/>
-      <c r="L34" s="225"/>
-      <c r="M34" s="225"/>
+      <c r="J34" s="234"/>
+      <c r="K34" s="238"/>
+      <c r="L34" s="238"/>
+      <c r="M34" s="238"/>
       <c r="N34" s="128">
         <f>SUM(DATA_DRAGON_PLAYS)</f>
-        <v>289</v>
+        <v>443</v>
       </c>
       <c r="O34" s="128"/>
       <c r="P34" s="128"/>
@@ -4495,17 +4531,17 @@
       <c r="S34" s="108"/>
       <c r="U34" s="127"/>
       <c r="V34" s="127" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="W34" s="127" t="s">
-        <v>102</v>
-      </c>
-      <c r="X34" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="Y34" s="127"/>
-    </row>
-    <row r="35" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="165"/>
+      <c r="Y34" s="161"/>
+      <c r="Z34" s="162"/>
+      <c r="AA34" s="161"/>
+    </row>
+    <row r="35" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="128"/>
       <c r="B35" s="125"/>
       <c r="C35" s="63"/>
@@ -4516,11 +4552,11 @@
       <c r="J35" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="K35" s="222">
+      <c r="K35" s="235">
         <f>IF($K$33&gt;0,_xlfn.CEILING.MATH(INDEX(DATA_DRAG_ACCU_EXP, 60)/$K$33),"")</f>
-        <v>107</v>
-      </c>
-      <c r="L35" s="222"/>
+        <v>104</v>
+      </c>
+      <c r="L35" s="235"/>
       <c r="M35" s="127" t="s">
         <v>39</v>
       </c>
@@ -4532,27 +4568,28 @@
       <c r="U35" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="V35" s="145">
-        <v>4</v>
-      </c>
-      <c r="W35" s="150">
+      <c r="V35" s="150">
         <f>VOID_TOTAL_GOLD/VOID_TOTAL_GAMES</f>
-        <v>4.5901639344262293E-2</v>
-      </c>
-      <c r="X35" s="145">
+        <v>5.7220708446866483E-2</v>
+      </c>
+      <c r="W35" s="145">
         <f>VOID_TOTAL_GAMES/VOID_TOTAL_GOLD</f>
-        <v>21.785714285714285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17.476190476190474</v>
+      </c>
+      <c r="X35" s="161"/>
+      <c r="Y35" s="161"/>
+      <c r="Z35" s="162"/>
+      <c r="AA35" s="161"/>
+    </row>
+    <row r="36" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J36" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="K36" s="222">
+      <c r="K36" s="235">
         <f>IF($K$33&gt;0,_xlfn.CEILING.MATH(INDEX(DATA_DRAG_ACCU_EXP, 80)/$K$33),"")</f>
-        <v>239</v>
-      </c>
-      <c r="L36" s="222"/>
+        <v>234</v>
+      </c>
+      <c r="L36" s="235"/>
       <c r="M36" s="127" t="s">
         <v>39</v>
       </c>
@@ -4561,18 +4598,19 @@
         <v>97</v>
       </c>
       <c r="V36" s="147">
-        <v>264</v>
-      </c>
-      <c r="W36" s="147">
         <f>VOID_TOTAL_SILVER/VOID_TOTAL_GAMES</f>
-        <v>2.1737704918032787</v>
-      </c>
-      <c r="X36" s="151">
+        <v>2.2915531335149866</v>
+      </c>
+      <c r="W36" s="151">
         <f>VOID_TOTAL_GAMES/VOID_TOTAL_SILVER</f>
-        <v>0.46003016591251883</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.43638525564803804</v>
+      </c>
+      <c r="X36" s="161"/>
+      <c r="Y36" s="161"/>
+      <c r="Z36" s="162"/>
+      <c r="AA36" s="161"/>
+    </row>
+    <row r="37" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="129"/>
       <c r="B37" s="129"/>
       <c r="C37" s="106"/>
@@ -4585,11 +4623,11 @@
       <c r="J37" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="K37" s="223">
+      <c r="K37" s="236">
         <f>IF($K$33&gt;0,_xlfn.CEILING.MATH(INDEX(DATA_DRAG_ACCU_EXP, 100)/$K$33),"")</f>
-        <v>475</v>
-      </c>
-      <c r="L37" s="223"/>
+        <v>464</v>
+      </c>
+      <c r="L37" s="236"/>
       <c r="M37" s="103" t="s">
         <v>39</v>
       </c>
@@ -4601,64 +4639,52 @@
       <c r="T37" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="U37" s="235" t="s">
+      <c r="U37" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="V37" s="236"/>
-      <c r="W37" s="236">
+      <c r="V37" s="157">
         <f>VOID_TOTAL_SILVER2/VOID_TOTAL_SILVER2_GAMES</f>
-        <v>3.1142857142857143</v>
-      </c>
-      <c r="X37" s="237">
+        <v>3.4355828220858897</v>
+      </c>
+      <c r="W37" s="158">
         <f>VOID_TOTAL_SILVER2_GAMES/VOID_TOTAL_SILVER2</f>
-        <v>0.32110091743119268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>0.29107142857142859</v>
+      </c>
+      <c r="Z37" s="128"/>
+      <c r="AA37" s="142"/>
+    </row>
+    <row r="38" spans="1:27" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="Q38" s="109"/>
       <c r="S38" s="128"/>
       <c r="T38" s="76">
         <f>VOID_TOTAL_GAMES</f>
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="U38" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="V38" s="149">
-        <v>18</v>
-      </c>
-      <c r="W38" s="152">
+      <c r="V38" s="152">
         <f>VOID_TOTAL_SPECIAL/VOID_TOTAL_GAMES</f>
-        <v>9.1803278688524587E-2</v>
-      </c>
-      <c r="X38" s="149">
+        <v>8.4468664850136238E-2</v>
+      </c>
+      <c r="W38" s="149">
         <f>VOID_TOTAL_GAMES/VOID_TOTAL_SPECIAL</f>
-        <v>10.892857142857142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+        <v>11.838709677419354</v>
+      </c>
+      <c r="Z38" s="128"/>
+      <c r="AA38" s="142"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Q39" s="128"/>
       <c r="S39" s="128"/>
       <c r="X39" s="46"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Q40" s="128"/>
       <c r="S40" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="183">
-    <mergeCell ref="S30:Y32"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="M26:N27"/>
     <mergeCell ref="O30:P31"/>
     <mergeCell ref="O28:P29"/>
     <mergeCell ref="O26:P27"/>
@@ -4671,6 +4697,17 @@
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="M28:N29"/>
+    <mergeCell ref="M26:N27"/>
     <mergeCell ref="S1:AJ1"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="M25:P25"/>
@@ -4714,6 +4751,7 @@
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AF18:AF19"/>
     <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AE18:AE19"/>
     <mergeCell ref="AH6:AH7"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="G10:H10"/>
@@ -4782,6 +4820,7 @@
     <mergeCell ref="AB10:AB11"/>
     <mergeCell ref="AB20:AB21"/>
     <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AE20:AE21"/>
     <mergeCell ref="AJ24:AJ25"/>
     <mergeCell ref="AI12:AI13"/>
     <mergeCell ref="AJ12:AJ13"/>
@@ -4805,7 +4844,7 @@
     <mergeCell ref="AG24:AG25"/>
     <mergeCell ref="AH24:AH25"/>
     <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="S30:W32"/>
     <mergeCell ref="AI24:AI25"/>
     <mergeCell ref="S12:S13"/>
     <mergeCell ref="T12:T13"/>
@@ -4829,7 +4868,6 @@
     <mergeCell ref="AC10:AC11"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AE21"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I3 U27:U29">
     <cfRule type="dataBar" priority="3">
@@ -5067,10 +5105,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5087,30 +5125,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="F1" s="201" t="s">
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="F1" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="N1" s="201" t="s">
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="N1" s="218" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="218"/>
+      <c r="T1" s="218"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
@@ -5167,56 +5205,54 @@
         <v>68</v>
       </c>
       <c r="B3" s="46">
-        <v>277</v>
-      </c>
-      <c r="C3" s="51">
-        <v>15</v>
-      </c>
-      <c r="D3" s="51">
-        <v>167</v>
+        <v>251134</v>
+      </c>
+      <c r="C3" s="166">
+        <v>10</v>
+      </c>
+      <c r="D3" s="166">
+        <v>400</v>
       </c>
       <c r="F3" s="82" t="s">
         <v>68</v>
       </c>
       <c r="G3" s="46">
-        <v>251709</v>
-      </c>
-      <c r="H3" s="154">
-        <v>11</v>
-      </c>
-      <c r="I3" s="154">
-        <v>8186</v>
+        <v>247964</v>
+      </c>
+      <c r="H3" s="167">
+        <v>9</v>
+      </c>
+      <c r="I3" s="167">
+        <v>9603</v>
       </c>
       <c r="J3" s="49">
-        <v>8</v>
+        <v>322</v>
       </c>
       <c r="K3" s="49">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="L3" s="47">
         <f>I3*DRAGEXP_S+J3*DRAGEXP_M+K3*DRAGEXP_L</f>
-        <v>1246400</v>
+        <v>1916450</v>
       </c>
       <c r="N3" s="82" t="s">
         <v>68</v>
       </c>
       <c r="O3" s="46">
-        <v>251709</v>
-      </c>
-      <c r="P3" s="154">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="154">
-        <v>12</v>
-      </c>
-      <c r="R3" s="49">
-        <v>494</v>
-      </c>
-      <c r="S3" s="49">
-        <v>195</v>
-      </c>
-      <c r="T3" s="49">
-        <v>3</v>
+        <v>250339</v>
+      </c>
+      <c r="P3" s="155">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="155">
+        <v>22</v>
+      </c>
+      <c r="R3" s="155">
+        <v>739</v>
+      </c>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5224,56 +5260,54 @@
         <v>69</v>
       </c>
       <c r="B4" s="46">
-        <v>177</v>
-      </c>
-      <c r="C4" s="51">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51">
-        <v>237</v>
+        <v>251134</v>
+      </c>
+      <c r="C4" s="155">
+        <v>0</v>
+      </c>
+      <c r="D4" s="155">
+        <v>418</v>
       </c>
       <c r="F4" s="82" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="46">
-        <v>251709</v>
+        <v>247864</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>8228</v>
+        <v>9734</v>
       </c>
       <c r="J4" s="47">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="K4" s="47">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="L4" s="47">
         <f>I4*DRAGEXP_S+J4*DRAGEXP_M+K4*DRAGEXP_L</f>
-        <v>1258700</v>
+        <v>1956100</v>
       </c>
       <c r="N4" s="82" t="s">
         <v>69</v>
       </c>
       <c r="O4" s="46">
-        <v>251609</v>
-      </c>
-      <c r="P4" s="154">
-        <v>-1</v>
-      </c>
-      <c r="Q4" s="154">
-        <v>14</v>
-      </c>
-      <c r="R4" s="49">
-        <v>537</v>
-      </c>
-      <c r="S4" s="49">
-        <v>241</v>
-      </c>
-      <c r="T4" s="49">
-        <v>3</v>
+        <v>250339</v>
+      </c>
+      <c r="P4" s="155">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="155">
+        <v>22</v>
+      </c>
+      <c r="R4" s="155">
+        <v>739</v>
+      </c>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5286,49 +5320,51 @@
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="217" t="s">
+      <c r="B6" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="217"/>
+      <c r="C6" s="234"/>
       <c r="D6" s="81" t="s">
         <v>15</v>
       </c>
+      <c r="K6" s="167"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="231">
+      <c r="B7" s="244">
         <f>D13</f>
-        <v>6</v>
-      </c>
-      <c r="C7" s="231"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="244"/>
       <c r="D7" s="68">
         <f>A7*B7</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F7" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="227">
+      <c r="G7" s="240">
         <f>L4-L3</f>
-        <v>12300</v>
-      </c>
-      <c r="H7" s="227"/>
+        <v>39650</v>
+      </c>
+      <c r="H7" s="240"/>
+      <c r="K7" s="167"/>
       <c r="N7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="222">
+      <c r="O7" s="235">
         <f>(O3-O4)/WINGS_RECOVER_DIAMS*6 + (P3-P4)/WINGS_CONSUME_VOID</f>
-        <v>13</v>
-      </c>
-      <c r="P7" s="222"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="235"/>
       <c r="R7" s="54"/>
       <c r="S7" s="54"/>
       <c r="T7" s="54"/>
@@ -5337,23 +5373,24 @@
       <c r="A8" s="50">
         <v>4</v>
       </c>
-      <c r="B8" s="232">
+      <c r="B8" s="245">
         <f>D14</f>
-        <v>13</v>
-      </c>
-      <c r="C8" s="232"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="245"/>
       <c r="D8" s="69">
         <f>A8*B8</f>
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F8" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="222">
+      <c r="G8" s="235">
         <f>(G3-G4)/WINGS_RECOVER_DIAMS*6 + (H3-H4)/WINGS_CONSUME_DRAGON</f>
-        <v>5</v>
-      </c>
-      <c r="H8" s="222"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="235"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
@@ -5361,15 +5398,16 @@
       </c>
       <c r="B9" s="51">
         <f>SUM(B7:B8)</f>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C9" s="51">
         <f>SUM(D7:D8)</f>
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D9" s="81" t="s">
         <v>41</v>
       </c>
+      <c r="K9" s="167"/>
       <c r="N9" s="142"/>
       <c r="O9" s="142" t="s">
         <v>96</v>
@@ -5390,38 +5428,39 @@
       </c>
       <c r="B10" s="51">
         <f>(B3-B4)/WINGS_RECOVER_DIAMS*6 + (C3-C4)/WINGS_CONSUME_IO</f>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C10" s="51">
         <f>D4-D3</f>
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D10" s="70">
         <f>IFERROR(C9/B9, "-")</f>
-        <v>3.6842105263157894</v>
+        <v>3.6</v>
       </c>
       <c r="F10" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="230">
+      <c r="G10" s="243">
         <f>IF(G8&gt;0,G7/G8,"")</f>
-        <v>2460</v>
-      </c>
-      <c r="H10" s="230"/>
+        <v>2478.125</v>
+      </c>
+      <c r="H10" s="243"/>
+      <c r="K10" s="167"/>
       <c r="N10" s="142" t="s">
         <v>99</v>
       </c>
       <c r="O10" s="124">
         <f>Q4-Q3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="124">
         <f>R4-R3</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="153">
         <f>S4-S3</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R10" s="124">
         <f>T4-T3</f>
@@ -5429,20 +5468,21 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="167"/>
       <c r="N11" s="142" t="s">
         <v>100</v>
       </c>
       <c r="O11" s="124">
         <f>IFERROR(O10/$O$7,"")</f>
-        <v>0.15384615384615385</v>
+        <v>0</v>
       </c>
       <c r="P11" s="124">
         <f>IFERROR(P10/$O$7,"")</f>
-        <v>3.3076923076923075</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="153">
         <f>IFERROR(Q10/$O$7,"")</f>
-        <v>3.5384615384615383</v>
+        <v>0</v>
       </c>
       <c r="R11" s="124">
         <f>IFERROR(R10/$O$7,"")</f>
@@ -5452,15 +5492,16 @@
       <c r="T11" s="143"/>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="228" t="s">
+      <c r="A12" s="241" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="228"/>
-      <c r="C12" s="229">
+      <c r="B12" s="241"/>
+      <c r="C12" s="242">
         <f ca="1">NOW()</f>
-        <v>43519.835515162034</v>
-      </c>
-      <c r="D12" s="229"/>
+        <v>43523.987202430559</v>
+      </c>
+      <c r="D12" s="242"/>
+      <c r="K12" s="167"/>
     </row>
     <row r="13" spans="1:20" s="65" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="65">
@@ -5473,11 +5514,11 @@
       </c>
       <c r="C13" s="65">
         <f>Tools!C10</f>
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D13" s="65">
         <f t="array" ref="D13:D14">MMULT(MINVERSE(Tools!$A$13:$B$14),Tools!$C$13:$C$14)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="65" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5489,34 +5530,18 @@
       </c>
       <c r="C14" s="65">
         <f>Tools!B10</f>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D14" s="65">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N16" s="238">
-        <v>0.83472222222222225</v>
-      </c>
-      <c r="O16" s="2">
-        <v>23</v>
-      </c>
-      <c r="P16" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>15</v>
-      </c>
-      <c r="R16" s="2">
-        <v>554</v>
-      </c>
-      <c r="S16" s="154">
-        <v>268</v>
-      </c>
-      <c r="T16" s="2">
-        <v>5</v>
-      </c>
+      <c r="K16" s="167"/>
+      <c r="N16" s="159"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5546,7 +5571,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5788,9 +5813,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="123" t="str">
+      <c r="A12" s="47">
+        <v>13150</v>
+      </c>
+      <c r="B12" s="47">
+        <v>5</v>
+      </c>
+      <c r="C12" s="123">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2630</v>
       </c>
       <c r="E12" s="48">
         <v>11</v>
@@ -5803,9 +5834,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="123" t="str">
+      <c r="A13" s="47">
+        <v>62700</v>
+      </c>
+      <c r="B13" s="47">
+        <v>26</v>
+      </c>
+      <c r="C13" s="123">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2411.5384615384614</v>
       </c>
       <c r="E13" s="48">
         <v>12</v>
@@ -5818,9 +5855,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="123" t="str">
+      <c r="A14" s="47">
+        <v>13800</v>
+      </c>
+      <c r="B14" s="47">
+        <v>4</v>
+      </c>
+      <c r="C14" s="123">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3450</v>
       </c>
       <c r="E14" s="48">
         <v>13</v>
@@ -5833,9 +5876,15 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="123" t="str">
+      <c r="A15" s="47">
+        <v>255900</v>
+      </c>
+      <c r="B15" s="47">
+        <v>88</v>
+      </c>
+      <c r="C15" s="123">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2907.9545454545455</v>
       </c>
       <c r="E15" s="48">
         <v>14</v>
@@ -5848,9 +5897,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="123" t="str">
+      <c r="A16" s="47">
+        <v>43350</v>
+      </c>
+      <c r="B16" s="47">
+        <v>15</v>
+      </c>
+      <c r="C16" s="123">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2890</v>
       </c>
       <c r="E16" s="48">
         <v>15</v>
@@ -5862,10 +5917,16 @@
         <v>9420</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="123" t="str">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="47">
+        <v>39650</v>
+      </c>
+      <c r="B17" s="47">
+        <v>16</v>
+      </c>
+      <c r="C17" s="123">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2478.125</v>
       </c>
       <c r="E17" s="48">
         <v>16</v>
@@ -5877,7 +5938,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5892,7 +5953,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5907,7 +5968,7 @@
         <v>13920</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5922,7 +5983,7 @@
         <v>15660</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5937,7 +5998,7 @@
         <v>17520</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5952,7 +6013,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5967,7 +6028,7 @@
         <v>21660</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5982,7 +6043,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5997,7 +6058,7 @@
         <v>26520</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6012,7 +6073,7 @@
         <v>29220</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6027,7 +6088,7 @@
         <v>32100</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6042,7 +6103,7 @@
         <v>35160</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6057,7 +6118,7 @@
         <v>38400</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6072,7 +6133,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6087,7 +6148,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7151,13 +7212,14 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="142"/>
-    <col min="4" max="5" width="9.140625" style="154"/>
+    <col min="4" max="4" width="9.140625" style="154"/>
+    <col min="5" max="5" width="0" style="154" hidden="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="142"/>
   </cols>
   <sheetData>
@@ -7407,27 +7469,96 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="142">
+        <v>30</v>
+      </c>
+      <c r="B12" s="142">
+        <v>1</v>
+      </c>
+      <c r="C12" s="142">
+        <v>87</v>
+      </c>
+      <c r="D12" s="154">
+        <v>114</v>
+      </c>
       <c r="E12" s="154">
         <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="142">
+        <v>1</v>
+      </c>
+      <c r="G12" s="155" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="142">
+        <v>4</v>
+      </c>
+      <c r="B13" s="142">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="142">
+        <v>5</v>
+      </c>
       <c r="E13" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F13" s="142">
+        <v>0</v>
+      </c>
+      <c r="G13" s="155" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="142">
+        <v>17</v>
+      </c>
+      <c r="B14" s="142">
+        <v>3</v>
+      </c>
+      <c r="C14" s="142">
+        <v>54</v>
+      </c>
+      <c r="D14" s="154">
+        <v>68</v>
+      </c>
       <c r="E14" s="154">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F14" s="142">
+        <v>2</v>
+      </c>
+      <c r="G14" s="155" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="142">
+        <v>11</v>
+      </c>
+      <c r="B15" s="142">
+        <v>3</v>
+      </c>
+      <c r="C15" s="142">
+        <v>32</v>
+      </c>
+      <c r="D15" s="154">
+        <v>51</v>
+      </c>
       <c r="E15" s="154">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F15" s="142">
         <v>0</v>
+      </c>
+      <c r="G15" s="155" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7520,8 +7651,8 @@
   </sheetPr>
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7542,33 +7673,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="233"/>
-      <c r="O1" s="233"/>
-      <c r="Q1" s="234" t="s">
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="Q1" s="247" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -7964,9 +8095,15 @@
         <f t="shared" si="2"/>
         <v>3.6842105263157894</v>
       </c>
-      <c r="L7" s="120" t="str">
+      <c r="J7" s="20">
+        <v>2</v>
+      </c>
+      <c r="K7" s="20">
+        <v>9</v>
+      </c>
+      <c r="L7" s="120">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.8181818181818183</v>
       </c>
       <c r="O7" s="122" t="str">
         <f t="shared" si="4"/>
@@ -8012,13 +8149,25 @@
         <f t="shared" si="1"/>
         <v>3.4133333333333336</v>
       </c>
-      <c r="I8" s="118" t="str">
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1</v>
+      </c>
+      <c r="I8" s="118">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L8" s="120" t="str">
+        <v>4</v>
+      </c>
+      <c r="J8" s="20">
+        <v>2</v>
+      </c>
+      <c r="K8" s="20">
+        <v>4</v>
+      </c>
+      <c r="L8" s="120">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.6666666666666665</v>
       </c>
       <c r="O8" s="122" t="str">
         <f t="shared" si="4"/>
@@ -8418,9 +8567,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="116" t="str">
+      <c r="D16" s="17">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="116">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I16" s="118" t="str">
         <f t="shared" si="2"/>
@@ -8464,9 +8619,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="116" t="str">
+      <c r="D17" s="17">
+        <v>19</v>
+      </c>
+      <c r="E17" s="17">
+        <v>13</v>
+      </c>
+      <c r="F17" s="116">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3.40625</v>
       </c>
       <c r="I17" s="118" t="str">
         <f t="shared" si="2"/>
@@ -9295,10 +9456,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16:Y16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9306,7 +9467,7 @@
     <col min="1" max="16384" width="2.85546875" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75">
         <v>2</v>
       </c>
@@ -9328,8 +9489,11 @@
       <c r="G1" s="75">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="75">
         <v>3</v>
       </c>
@@ -9351,8 +9515,11 @@
       <c r="G2" s="75">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75">
         <v>2</v>
       </c>
@@ -9374,8 +9541,11 @@
       <c r="G3" s="75">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75">
         <v>2</v>
       </c>
@@ -9397,8 +9567,11 @@
       <c r="G4" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75">
         <v>2</v>
       </c>
@@ -9420,8 +9593,11 @@
       <c r="G5" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75">
         <v>3</v>
       </c>
@@ -9443,8 +9619,11 @@
       <c r="G6" s="75">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <v>2</v>
       </c>
@@ -9466,8 +9645,11 @@
       <c r="G7" s="75">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
         <v>2</v>
       </c>
@@ -9489,8 +9671,11 @@
       <c r="G8" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <v>2</v>
       </c>
@@ -9512,8 +9697,11 @@
       <c r="G9" s="75">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <v>2</v>
       </c>
@@ -9535,8 +9723,11 @@
       <c r="G10" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="75">
         <v>2</v>
       </c>
@@ -9558,8 +9749,11 @@
       <c r="G11" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75">
         <v>2</v>
       </c>
@@ -9581,8 +9775,11 @@
       <c r="G12" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="75">
         <v>2</v>
       </c>
@@ -9604,8 +9801,11 @@
       <c r="G13" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="75">
         <v>2</v>
       </c>
@@ -9624,8 +9824,11 @@
       <c r="F14" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="75">
         <v>2</v>
       </c>
@@ -9644,8 +9847,11 @@
       <c r="F15" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75">
         <v>2</v>
       </c>
@@ -9664,8 +9870,11 @@
       <c r="F16" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="75">
         <v>2</v>
       </c>
@@ -9684,8 +9893,11 @@
       <c r="F17" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="75">
         <v>2</v>
       </c>
@@ -9704,8 +9916,11 @@
       <c r="F18" s="75">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75">
         <v>2</v>
       </c>
@@ -9724,8 +9939,11 @@
       <c r="F19" s="75">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
         <v>2</v>
       </c>
@@ -9742,6 +9960,9 @@
         <v>2</v>
       </c>
       <c r="F20" s="75">
+        <v>2</v>
+      </c>
+      <c r="G20" s="75">
         <v>2</v>
       </c>
     </row>

--- a/Dragalia Data.xlsx
+++ b/Dragalia Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1985" documentId="14_{049F9EFC-050E-4651-8DC8-B33E922A69AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E5259291-8A7A-4741-BAF5-8761C8D148EC}"/>
+  <xr:revisionPtr revIDLastSave="1987" documentId="14_{049F9EFC-050E-4651-8DC8-B33E922A69AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2F5515F1-1B47-421A-9951-ED37FA34F6A4}"/>
   <bookViews>
-    <workbookView xWindow="-21990" yWindow="2745" windowWidth="22485" windowHeight="11835" activeTab="1" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
+    <workbookView xWindow="975" yWindow="1980" windowWidth="22485" windowHeight="11835" activeTab="4" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
   </bookViews>
   <sheets>
     <sheet name="迎擊" sheetId="18" r:id="rId1"/>
@@ -881,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1451,9 +1451,63 @@
     <xf numFmtId="1" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1463,99 +1517,63 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1580,19 +1598,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1613,55 +1661,10 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2220,7 +2223,7 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="200" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="84" t="s">
@@ -2273,7 +2276,7 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!C:C,'資料-迎擊'!E:E)/O$2,"")</f>
         <v>3.5347793567688854</v>
       </c>
-      <c r="O2" s="199">
+      <c r="O2" s="204">
         <f>SUM('資料-迎擊'!E:E)</f>
         <v>1337</v>
       </c>
@@ -2303,7 +2306,7 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
+      <c r="A3" s="200"/>
       <c r="B3" s="84" t="s">
         <v>109</v>
       </c>
@@ -2354,7 +2357,7 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!A:A,'資料-迎擊'!E:E)/O$2,"")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="199"/>
+      <c r="O3" s="204"/>
       <c r="Q3" s="56" t="s">
         <v>58</v>
       </c>
@@ -2381,7 +2384,7 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="203" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="85" t="s">
@@ -2434,13 +2437,13 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!H:H,'資料-迎擊'!J:J)/O$4,"")</f>
         <v>3.4778660612939842</v>
       </c>
-      <c r="O4" s="191">
+      <c r="O4" s="208">
         <f>SUM('資料-迎擊'!J:J)</f>
         <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="207"/>
+      <c r="A5" s="203"/>
       <c r="B5" s="85" t="s">
         <v>109</v>
       </c>
@@ -2491,7 +2494,7 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!F:F,'資料-迎擊'!J:J)/O$4,"")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="191"/>
+      <c r="O5" s="208"/>
       <c r="Q5" s="56" t="s">
         <v>29</v>
       </c>
@@ -2520,7 +2523,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="201" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="86" t="s">
@@ -2573,7 +2576,7 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!M:M,'資料-迎擊'!O:O)/O$6,"")</f>
         <v>3.492957746478873</v>
       </c>
-      <c r="O6" s="198">
+      <c r="O6" s="205">
         <f>SUM('資料-迎擊'!O:O)</f>
         <v>142</v>
       </c>
@@ -2606,7 +2609,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="205"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="86" t="s">
         <v>109</v>
       </c>
@@ -2657,11 +2660,11 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!K:K,'資料-迎擊'!O:O)/O$6,"")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="198"/>
+      <c r="O7" s="205"/>
       <c r="AD7" s="72"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="212" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="87" t="s">
@@ -2714,7 +2717,7 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!R:R,'資料-迎擊'!T:T)/O$8,"")</f>
         <v>3.5145888594164458</v>
       </c>
-      <c r="O8" s="195">
+      <c r="O8" s="207">
         <f>SUM('資料-迎擊'!T:T)</f>
         <v>377</v>
       </c>
@@ -2724,10 +2727,10 @@
       <c r="R8" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="201" t="s">
+      <c r="S8" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="201"/>
+      <c r="T8" s="197"/>
       <c r="U8" s="14" t="s">
         <v>23</v>
       </c>
@@ -2754,7 +2757,7 @@
       <c r="AD8" s="72"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="87" t="s">
         <v>109</v>
       </c>
@@ -2805,8 +2808,8 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!P:P,'資料-迎擊'!T:T)/O$8,"")</f>
         <v>0</v>
       </c>
-      <c r="O9" s="195"/>
-      <c r="Q9" s="199" t="s">
+      <c r="O9" s="207"/>
+      <c r="Q9" s="204" t="s">
         <v>20</v>
       </c>
       <c r="R9" s="98">
@@ -2827,7 +2830,7 @@
         <f t="shared" ref="V9:V16" si="7">IFERROR(U9*BOOST_PRICE,"")</f>
         <v/>
       </c>
-      <c r="W9" s="200" t="s">
+      <c r="W9" s="209" t="s">
         <v>13</v>
       </c>
       <c r="X9" s="98">
@@ -2852,7 +2855,7 @@
       <c r="AD9" s="72"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="206" t="s">
+      <c r="A10" s="202" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="88" t="s">
@@ -2905,11 +2908,11 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!W:W,'資料-迎擊'!Y:Y)/O$10,"")</f>
         <v>3.5441696113074204</v>
       </c>
-      <c r="O10" s="196">
+      <c r="O10" s="213">
         <f>SUM('資料-迎擊'!Y:Y)</f>
         <v>283</v>
       </c>
-      <c r="Q10" s="199"/>
+      <c r="Q10" s="204"/>
       <c r="R10" s="98">
         <v>30</v>
       </c>
@@ -2928,7 +2931,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W10" s="200"/>
+      <c r="W10" s="209"/>
       <c r="X10" s="98">
         <v>30</v>
       </c>
@@ -2951,7 +2954,7 @@
       <c r="AD10" s="72"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="206"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="88" t="s">
         <v>109</v>
       </c>
@@ -3002,8 +3005,8 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!U:U,'資料-迎擊'!Y:Y)/O$10,"")</f>
         <v>0</v>
       </c>
-      <c r="O11" s="196"/>
-      <c r="Q11" s="191" t="s">
+      <c r="O11" s="213"/>
+      <c r="Q11" s="208" t="s">
         <v>10</v>
       </c>
       <c r="R11" s="99">
@@ -3024,7 +3027,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W11" s="202" t="s">
+      <c r="W11" s="198" t="s">
         <v>7</v>
       </c>
       <c r="X11" s="99">
@@ -3049,7 +3052,7 @@
       <c r="AD11" s="72"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="210" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="56" t="s">
@@ -3103,11 +3106,11 @@
         <f>(N2*O2+N4*O4+N6*O6+N8*O8+N10*O10) / O$12</f>
         <v>3.5145695364238412</v>
       </c>
-      <c r="O12" s="193">
+      <c r="O12" s="211">
         <f>SUM(O2,O4,O6,O8,O10)</f>
         <v>3020</v>
       </c>
-      <c r="Q12" s="191"/>
+      <c r="Q12" s="208"/>
       <c r="R12" s="99">
         <v>30</v>
       </c>
@@ -3126,7 +3129,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W12" s="202"/>
+      <c r="W12" s="198"/>
       <c r="X12" s="99">
         <v>30</v>
       </c>
@@ -3149,7 +3152,7 @@
       <c r="AD12" s="72"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="192"/>
+      <c r="A13" s="210"/>
       <c r="B13" s="56" t="s">
         <v>109</v>
       </c>
@@ -3201,8 +3204,8 @@
         <f>(N3*O2+N5*O4+N7*O6+N9*O8+N11*O10) / O$12</f>
         <v>0</v>
       </c>
-      <c r="O13" s="193"/>
-      <c r="Q13" s="198" t="s">
+      <c r="O13" s="211"/>
+      <c r="Q13" s="205" t="s">
         <v>5</v>
       </c>
       <c r="R13" s="100">
@@ -3223,7 +3226,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W13" s="203" t="s">
+      <c r="W13" s="199" t="s">
         <v>4</v>
       </c>
       <c r="X13" s="100">
@@ -3248,7 +3251,7 @@
       <c r="AD13" s="72"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="192"/>
+      <c r="A14" s="210"/>
       <c r="B14" s="56" t="s">
         <v>119</v>
       </c>
@@ -3279,11 +3282,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K14" s="193">
+      <c r="K14" s="211">
         <f>IFERROR(ROUND(I14/N14,0),0)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="193"/>
+      <c r="L14" s="211"/>
       <c r="M14" s="2">
         <f>K14/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -3292,8 +3295,8 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!Z:Z,'資料-迎擊'!AB:AB)/O$12,"")</f>
         <v>0</v>
       </c>
-      <c r="O14" s="193"/>
-      <c r="Q14" s="198"/>
+      <c r="O14" s="211"/>
+      <c r="Q14" s="205"/>
       <c r="R14" s="100">
         <v>30</v>
       </c>
@@ -3312,7 +3315,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W14" s="203"/>
+      <c r="W14" s="199"/>
       <c r="X14" s="100">
         <v>30</v>
       </c>
@@ -3335,7 +3338,7 @@
       <c r="AD14" s="72"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="192"/>
+      <c r="A15" s="210"/>
       <c r="B15" s="56" t="s">
         <v>120</v>
       </c>
@@ -3366,11 +3369,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K15" s="193">
+      <c r="K15" s="211">
         <f>IFERROR(ROUND(I15/N15,0),0)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="193"/>
+      <c r="L15" s="211"/>
       <c r="M15" s="2">
         <f>K15/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -3379,8 +3382,8 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!AC:AC,'資料-迎擊'!AE:AE)/O$12,"")</f>
         <v>0</v>
       </c>
-      <c r="O15" s="193"/>
-      <c r="Q15" s="195" t="s">
+      <c r="O15" s="211"/>
+      <c r="Q15" s="207" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="101">
@@ -3401,7 +3404,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W15" s="197" t="s">
+      <c r="W15" s="206" t="s">
         <v>2</v>
       </c>
       <c r="X15" s="102">
@@ -3426,7 +3429,7 @@
       <c r="AD15" s="72"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="192"/>
+      <c r="A16" s="210"/>
       <c r="B16" s="56" t="s">
         <v>121</v>
       </c>
@@ -3457,11 +3460,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K16" s="193">
+      <c r="K16" s="211">
         <f>IFERROR(ROUND(I16/N16,0),0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="193"/>
+      <c r="L16" s="211"/>
       <c r="M16" s="2">
         <f>L16/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -3470,8 +3473,8 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!AF:AF,'資料-迎擊'!AH:AH)/O$12,"")</f>
         <v>0</v>
       </c>
-      <c r="O16" s="193"/>
-      <c r="Q16" s="195"/>
+      <c r="O16" s="211"/>
+      <c r="Q16" s="207"/>
       <c r="R16" s="101">
         <v>30</v>
       </c>
@@ -3490,7 +3493,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W16" s="197"/>
+      <c r="W16" s="206"/>
       <c r="X16" s="102">
         <v>30</v>
       </c>
@@ -3513,6 +3516,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="W9:W10"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="W13:W14"/>
@@ -3522,12 +3533,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="W9:W10"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="O12:O16"/>
@@ -3535,8 +3540,6 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
   </mergeCells>
   <conditionalFormatting sqref="J2">
     <cfRule type="dataBar" priority="23">
@@ -8160,8 +8163,8 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8199,38 +8202,38 @@
         <v>32</v>
       </c>
       <c r="I1" s="89"/>
-      <c r="J1" s="209" t="s">
+      <c r="J1" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="210" t="s">
+      <c r="K1" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210" t="s">
+      <c r="L1" s="231"/>
+      <c r="M1" s="231" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="210"/>
-      <c r="O1" s="208" t="s">
+      <c r="N1" s="231"/>
+      <c r="O1" s="230" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="209" t="s">
+      <c r="P1" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209" t="s">
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="220"/>
+      <c r="U1" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="209"/>
-      <c r="W1" s="209"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="224">
+      <c r="B2" s="219">
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTA(DATA_HDRAG_HBRUN),"")</f>
         <v>295</v>
       </c>
@@ -8250,12 +8253,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=5"),"")</f>
         <v>11</v>
       </c>
-      <c r="G2" s="225">
+      <c r="G2" s="229">
         <f>IF(HDRAG_HAS_REC_HBRUN,AVERAGE(DATA_HDRAG_HBRUN),"")</f>
         <v>2.4305084745762713</v>
       </c>
       <c r="I2" s="89"/>
-      <c r="J2" s="209"/>
+      <c r="J2" s="220"/>
       <c r="K2" s="51" t="s">
         <v>50</v>
       </c>
@@ -8268,7 +8271,7 @@
       <c r="N2" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="208"/>
+      <c r="O2" s="230"/>
       <c r="P2" s="89">
         <v>2</v>
       </c>
@@ -8295,8 +8298,8 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="223"/>
-      <c r="B3" s="224"/>
+      <c r="A3" s="218"/>
+      <c r="B3" s="219"/>
       <c r="C3" s="118">
         <f>IF(HDRAG_HAS_REC_HBRUN,C2/$B2,"")</f>
         <v>0.68813559322033901</v>
@@ -8313,11 +8316,11 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,F2/$B2,"")</f>
         <v>3.7288135593220341E-2</v>
       </c>
-      <c r="G3" s="225"/>
+      <c r="G3" s="229"/>
       <c r="I3" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="256">
+      <c r="J3" s="191">
         <v>414</v>
       </c>
       <c r="K3" s="49">
@@ -8372,10 +8375,10 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="222" t="str">
+      <c r="B4" s="217" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTA(DATA_HDRAG_HMERC),"")</f>
         <v/>
       </c>
@@ -8395,14 +8398,14 @@
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G4" s="214" t="str">
+      <c r="G4" s="228" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,AVERAGE(DATA_HDRAG_HMERC),"")</f>
         <v/>
       </c>
       <c r="I4" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="256"/>
+      <c r="J4" s="191"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_BUILDING,K4 + 1),"")</f>
@@ -8451,8 +8454,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="221"/>
-      <c r="B5" s="222"/>
+      <c r="A5" s="216"/>
+      <c r="B5" s="217"/>
       <c r="C5" s="120" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,C4/$B4,"")</f>
         <v/>
@@ -8469,11 +8472,11 @@
         <f>IF(HDRAG_HAS_REC_HMERC,F4/$B4,"")</f>
         <v/>
       </c>
-      <c r="G5" s="214"/>
+      <c r="G5" s="228"/>
       <c r="I5" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="256">
+      <c r="J5" s="191">
         <v>76</v>
       </c>
       <c r="K5" s="49">
@@ -8528,10 +8531,10 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="219" t="s">
+      <c r="A6" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="220">
+      <c r="B6" s="215">
         <f>IF(HDRAG_HAS_REC_HMID,COUNTA(DATA_HDRAG_HMID),"")</f>
         <v>799</v>
       </c>
@@ -8551,14 +8554,14 @@
         <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=5"),"")</f>
         <v>49</v>
       </c>
-      <c r="G6" s="213">
+      <c r="G6" s="227">
         <f>IF(HDRAG_HAS_REC_HMID,AVERAGE(DATA_HDRAG_HMID),"")</f>
         <v>2.5519399249061325</v>
       </c>
       <c r="I6" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="256"/>
+      <c r="J6" s="191"/>
       <c r="K6" s="49"/>
       <c r="L6" s="49" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,INDEX(DATA_HDRAGS_BUILDING,K6 + 1),"")</f>
@@ -8607,8 +8610,8 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
-      <c r="B7" s="220"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="215"/>
       <c r="C7" s="122">
         <f>IF(HDRAG_HAS_REC_HMID,C6/$B6,"")</f>
         <v>0.6483103879849812</v>
@@ -8625,11 +8628,11 @@
         <f>IF(HDRAG_HAS_REC_HMID,F6/$B6,"")</f>
         <v>6.1326658322903627E-2</v>
       </c>
-      <c r="G7" s="213"/>
+      <c r="G7" s="227"/>
       <c r="I7" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="256"/>
+      <c r="J7" s="191"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,INDEX(DATA_HDRAGS_BUILDING,K7 + 1),"")</f>
@@ -8678,10 +8681,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="217" t="s">
+      <c r="A8" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="218" t="str">
+      <c r="B8" s="224" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTA(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
@@ -8701,14 +8704,14 @@
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G8" s="212" t="str">
+      <c r="G8" s="226" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,AVERAGE(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="217"/>
-      <c r="B9" s="218"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="224"/>
       <c r="C9" s="124" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,C8/$B8,"")</f>
         <v/>
@@ -8725,13 +8728,13 @@
         <f>IF(HDRAG_HAS_REC_HJUP,F8/$B8,"")</f>
         <v/>
       </c>
-      <c r="G9" s="212"/>
+      <c r="G9" s="226"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="215" t="s">
+      <c r="A10" s="221" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="216" t="str">
+      <c r="B10" s="222" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTA(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
@@ -8751,14 +8754,14 @@
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G10" s="211" t="str">
+      <c r="G10" s="225" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,AVERAGE(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="215"/>
-      <c r="B11" s="216"/>
+      <c r="A11" s="221"/>
+      <c r="B11" s="222"/>
       <c r="C11" s="125" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,C10/$B10,"")</f>
         <v/>
@@ -8775,18 +8778,18 @@
         <f>IF(HDRAG_HAS_REC_HZOD,F10/$B10,"")</f>
         <v/>
       </c>
-      <c r="G11" s="211"/>
+      <c r="G11" s="225"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
@@ -8939,14 +8942,14 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="220" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="209"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
@@ -9099,12 +9102,12 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="209"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="209"/>
-      <c r="G27" s="209"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="220"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="220"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
@@ -9247,14 +9250,14 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
-      <c r="B34" s="209" t="s">
+      <c r="B34" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="209"/>
+      <c r="C34" s="220"/>
+      <c r="D34" s="220"/>
+      <c r="E34" s="220"/>
+      <c r="F34" s="220"/>
+      <c r="G34" s="220"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
@@ -9419,19 +9422,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B20:G20"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="G10:G11"/>
@@ -9443,7 +9433,20 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="K1">
     <cfRule type="dataBar" priority="6">
@@ -9723,15 +9726,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="234" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
       <c r="J1" s="33"/>
       <c r="K1" s="32" t="s">
         <v>31</v>
@@ -9753,38 +9756,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="237" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="232" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="232"/>
-      <c r="E2" s="230" t="s">
+      <c r="D2" s="238"/>
+      <c r="E2" s="236" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
       <c r="J2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="259">
+      <c r="K2" s="194">
         <v>247964</v>
       </c>
-      <c r="L2" s="259">
+      <c r="L2" s="194">
         <v>9</v>
       </c>
-      <c r="M2" s="259">
+      <c r="M2" s="194">
         <v>9603</v>
       </c>
-      <c r="N2" s="260">
+      <c r="N2" s="195">
         <v>322</v>
       </c>
-      <c r="O2" s="260">
+      <c r="O2" s="195">
         <v>44</v>
       </c>
-      <c r="P2" s="260">
+      <c r="P2" s="195">
         <f>M2*DRAGEXP_S+N2*DRAGEXP_M+O2*DRAGEXP_L</f>
         <v>1916450</v>
       </c>
@@ -9805,30 +9808,30 @@
       <c r="E3" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="226">
+      <c r="F3" s="232">
         <f>_xlfn.FLOOR.MATH(B7/MAX(DATA_DRAG_ACCU_EXP))</f>
         <v>8</v>
       </c>
-      <c r="G3" s="226"/>
+      <c r="G3" s="232"/>
       <c r="J3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="259">
+      <c r="K3" s="194">
         <v>247864</v>
       </c>
-      <c r="L3" s="259">
+      <c r="L3" s="194">
         <v>1</v>
       </c>
-      <c r="M3" s="259">
+      <c r="M3" s="194">
         <v>9734</v>
       </c>
-      <c r="N3" s="260">
+      <c r="N3" s="195">
         <v>342</v>
       </c>
-      <c r="O3" s="260">
+      <c r="O3" s="195">
         <v>44</v>
       </c>
-      <c r="P3" s="260">
+      <c r="P3" s="195">
         <f>M3*DRAGEXP_S+N3*DRAGEXP_M+O3*DRAGEXP_L</f>
         <v>1956100</v>
       </c>
@@ -9849,11 +9852,11 @@
       <c r="E4" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="226">
+      <c r="F4" s="232">
         <f>MATCH(B10,DATA_DRAG_ACCU_EXP,0)</f>
         <v>97</v>
       </c>
-      <c r="G4" s="226"/>
+      <c r="G4" s="232"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -9878,11 +9881,11 @@
       <c r="E5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="226">
+      <c r="F5" s="232">
         <f>INDEX(DATA_DRAG_LV_EXP,F4)-(B9-B10)</f>
         <v>36940</v>
       </c>
-      <c r="G5" s="226"/>
+      <c r="G5" s="232"/>
       <c r="J5" s="30" t="s">
         <v>76</v>
       </c>
@@ -9894,18 +9897,18 @@
       <c r="M5" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="229">
+      <c r="N5" s="235">
         <f>IF(K6&gt;0,K5/K6,"")</f>
         <v>2478.125</v>
       </c>
-      <c r="O5" s="229"/>
+      <c r="O5" s="235"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="257" t="s">
+      <c r="A6" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="258">
+      <c r="B6" s="193">
         <f>B3*DRAGEXP_S+B4*DRAGEXP_M+B5*DRAGEXP_L</f>
         <v>12253800</v>
       </c>
@@ -9929,10 +9932,10 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="257" t="s">
+      <c r="A7" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="258">
+      <c r="B7" s="193">
         <f>B6-B8</f>
         <v>11046380</v>
       </c>
@@ -9942,11 +9945,11 @@
       <c r="D7" s="117">
         <v>32600</v>
       </c>
-      <c r="E7" s="209" t="s">
+      <c r="E7" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -9963,10 +9966,10 @@
         <f>D3*DRAGON_EXP_60+D4*DRAGON_EXP_80+D5*DRAGON_EXP_100+INDEX(DATA_DRAG_ACCU_EXP,D6)+(INDEX(DATA_DRAG_LV_EXP,D6)-D7)</f>
         <v>1207420</v>
       </c>
-      <c r="E8" s="209" t="s">
+      <c r="E8" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="227">
+      <c r="F8" s="233">
         <f>IF(G9 &gt; 0,SUM(DATA_DRAGON_EXP)/G9,0)</f>
         <v>2673.9277652370201</v>
       </c>
@@ -9986,8 +9989,8 @@
         <f>MOD(B7,DRAGON_EXP_100)</f>
         <v>1126220</v>
       </c>
-      <c r="E9" s="209"/>
-      <c r="F9" s="227"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="233"/>
       <c r="G9" s="110">
         <f>SUM(DATA_DRAGON_PLAYS)</f>
         <v>443</v>
@@ -10082,10 +10085,10 @@
       <c r="A1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="233">
+      <c r="B1" s="239">
         <v>376</v>
       </c>
-      <c r="C1" s="233"/>
+      <c r="C1" s="239"/>
       <c r="E1" s="33"/>
       <c r="F1" s="32" t="s">
         <v>31</v>
@@ -10110,22 +10113,22 @@
       <c r="E2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="261">
+      <c r="F2" s="196">
         <v>126399</v>
       </c>
-      <c r="G2" s="261">
+      <c r="G2" s="196">
         <v>8</v>
       </c>
-      <c r="H2" s="261">
+      <c r="H2" s="196">
         <v>1</v>
       </c>
-      <c r="I2" s="261">
+      <c r="I2" s="196">
         <v>430</v>
       </c>
-      <c r="J2" s="261">
+      <c r="J2" s="196">
         <v>12</v>
       </c>
-      <c r="K2" s="261">
+      <c r="K2" s="196">
         <v>3</v>
       </c>
     </row>
@@ -10140,22 +10143,22 @@
       <c r="E3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="261">
+      <c r="F3" s="196">
         <v>126399</v>
       </c>
-      <c r="G3" s="261">
+      <c r="G3" s="196">
         <v>6</v>
       </c>
-      <c r="H3" s="261">
+      <c r="H3" s="196">
         <v>1</v>
       </c>
-      <c r="I3" s="261">
+      <c r="I3" s="196">
         <v>435</v>
       </c>
-      <c r="J3" s="261">
+      <c r="J3" s="196">
         <v>13</v>
       </c>
-      <c r="K3" s="261">
+      <c r="K3" s="196">
         <v>3</v>
       </c>
     </row>
@@ -10287,8 +10290,8 @@
   </sheetPr>
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10306,30 +10309,30 @@
       <c r="A1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="236">
+      <c r="B1" s="262">
         <v>43523.916666666664</v>
       </c>
-      <c r="C1" s="236"/>
+      <c r="C1" s="262"/>
       <c r="D1" s="46" t="s">
         <v>101</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="209" t="s">
+      <c r="F1" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="236">
+      <c r="B2" s="262">
         <v>43535.916666666664</v>
       </c>
-      <c r="C2" s="236"/>
+      <c r="C2" s="262"/>
       <c r="D2" s="48" t="str">
         <f ca="1">IF(RAID_TIME_END-NOW()&lt;0,"",RAID_TIME_END-NOW())</f>
         <v/>
@@ -10338,12 +10341,12 @@
         <f>B2-B1</f>
         <v>12</v>
       </c>
-      <c r="F2" s="237" t="str">
+      <c r="F2" s="243" t="str">
         <f ca="1">IF(NOW() &gt; $B$2,"",(NOW()-$B$1)/($B$2-$B$1))</f>
         <v/>
       </c>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
@@ -10359,10 +10362,10 @@
       <c r="E4" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="235" t="s">
+      <c r="F4" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="235"/>
+      <c r="G4" s="240"/>
       <c r="H4" s="30" t="s">
         <v>94</v>
       </c>
@@ -10381,27 +10384,27 @@
       </c>
       <c r="C5" s="40">
         <f ca="1">$E$5*(NOW()-$B$1)/$E$2</f>
-        <v>501274.58333336114</v>
+        <v>501292.25115742884</v>
       </c>
       <c r="D5" s="40">
         <f ca="1">B5*$E$2/(NOW()-$B$1)</f>
-        <v>41646.635784277598</v>
-      </c>
-      <c r="E5" s="40">
+        <v>41645.167966986686</v>
+      </c>
+      <c r="E5" s="261">
         <v>150000</v>
       </c>
-      <c r="F5" s="238">
+      <c r="F5" s="241">
         <f>B5/E5</f>
         <v>0.92784</v>
       </c>
-      <c r="G5" s="238"/>
+      <c r="G5" s="241"/>
       <c r="H5" s="43">
         <f ca="1">B5 - (E5*(NOW()-$B$1)/$E$2)</f>
-        <v>-362098.58333336114</v>
+        <v>-362116.25115742884</v>
       </c>
       <c r="I5" s="43">
         <f ca="1">D5-RAID_GOAL_EMBLEM</f>
-        <v>-108353.36421572239</v>
+        <v>-108354.83203301331</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -10415,53 +10418,53 @@
       </c>
       <c r="C6" s="40">
         <f ca="1">$E$6*(NOW()-$B$1)/$E$2</f>
-        <v>334183.05555557407</v>
+        <v>334194.83410495258</v>
       </c>
       <c r="D6" s="40">
         <f ca="1">B6*$E$2/(NOW()-$B$1)</f>
-        <v>36427.639874684093</v>
-      </c>
-      <c r="E6" s="40">
+        <v>36426.355998599793</v>
+      </c>
+      <c r="E6" s="261">
         <v>100000</v>
       </c>
-      <c r="F6" s="238">
+      <c r="F6" s="241">
         <f>B6/E6</f>
         <v>1.2173499999999999</v>
       </c>
-      <c r="G6" s="238"/>
+      <c r="G6" s="241"/>
       <c r="H6" s="43">
         <f ca="1">B6 - (E6*(NOW()-$B$1)/$E$2)</f>
-        <v>-212448.05555557407</v>
+        <v>-212459.83410495258</v>
       </c>
       <c r="I6" s="43">
         <f ca="1">D6-RAID_GOAL_BLAZON</f>
-        <v>-63572.360125315907</v>
+        <v>-63573.644001400207</v>
       </c>
       <c r="J6" s="29"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="234" t="s">
+      <c r="B8" s="242" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235" t="s">
+      <c r="C8" s="242"/>
+      <c r="D8" s="240" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235" t="s">
+      <c r="E8" s="240"/>
+      <c r="F8" s="240" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="235"/>
-      <c r="H8" s="209" t="s">
+      <c r="G8" s="240"/>
+      <c r="H8" s="220" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="209"/>
-      <c r="J8" s="209" t="s">
+      <c r="I8" s="220"/>
+      <c r="J8" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="209"/>
-      <c r="L8" s="209"/>
+      <c r="K8" s="220"/>
+      <c r="L8" s="220"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
@@ -12295,11 +12298,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -12307,6 +12305,11 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="F2">
     <cfRule type="dataBar" priority="36">
@@ -14330,93 +14333,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="255" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="254" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="245" t="s">
+      <c r="D1" s="254"/>
+      <c r="E1" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="251" t="s">
+      <c r="F1" s="250" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="251"/>
-      <c r="H1" s="254" t="s">
+      <c r="G1" s="250"/>
+      <c r="H1" s="253" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="254"/>
-      <c r="J1" s="251" t="s">
+      <c r="I1" s="253"/>
+      <c r="J1" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="252" t="s">
+      <c r="K1" s="251" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="252"/>
-      <c r="M1" s="253" t="s">
+      <c r="L1" s="251"/>
+      <c r="M1" s="252" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="253"/>
-      <c r="O1" s="252" t="s">
+      <c r="N1" s="252"/>
+      <c r="O1" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="249" t="s">
+      <c r="P1" s="248" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="250" t="s">
+      <c r="Q1" s="248"/>
+      <c r="R1" s="249" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="250"/>
-      <c r="T1" s="249" t="s">
+      <c r="S1" s="249"/>
+      <c r="T1" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="247" t="s">
+      <c r="U1" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="247"/>
-      <c r="W1" s="248" t="s">
+      <c r="V1" s="246"/>
+      <c r="W1" s="247" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="248"/>
-      <c r="Y1" s="247" t="s">
+      <c r="X1" s="247"/>
+      <c r="Y1" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="241" t="s">
+      <c r="Z1" s="257" t="s">
         <v>109</v>
       </c>
-      <c r="AA1" s="241"/>
-      <c r="AB1" s="242" t="s">
+      <c r="AA1" s="257"/>
+      <c r="AB1" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="243" t="s">
+      <c r="AC1" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="244" t="s">
+      <c r="AD1" s="259"/>
+      <c r="AE1" s="260" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="239" t="s">
+      <c r="AF1" s="255" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" s="239"/>
-      <c r="AH1" s="240" t="s">
+      <c r="AG1" s="255"/>
+      <c r="AH1" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="246" t="s">
+      <c r="AJ1" s="245" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="246"/>
-      <c r="AL1" s="246"/>
-      <c r="AM1" s="246"/>
-      <c r="AN1" s="246"/>
-      <c r="AO1" s="246"/>
-      <c r="AP1" s="246"/>
-      <c r="AQ1" s="246"/>
-      <c r="AR1" s="246"/>
+      <c r="AK1" s="245"/>
+      <c r="AL1" s="245"/>
+      <c r="AM1" s="245"/>
+      <c r="AN1" s="245"/>
+      <c r="AO1" s="245"/>
+      <c r="AP1" s="245"/>
+      <c r="AQ1" s="245"/>
+      <c r="AR1" s="245"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="177" t="s">
@@ -14431,7 +14434,7 @@
       <c r="D2" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="245"/>
+      <c r="E2" s="244"/>
       <c r="F2" s="176" t="s">
         <v>32</v>
       </c>
@@ -14444,7 +14447,7 @@
       <c r="I2" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="251"/>
+      <c r="J2" s="250"/>
       <c r="K2" s="146" t="s">
         <v>32</v>
       </c>
@@ -14457,7 +14460,7 @@
       <c r="N2" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="O2" s="252"/>
+      <c r="O2" s="251"/>
       <c r="P2" s="147" t="s">
         <v>32</v>
       </c>
@@ -14470,7 +14473,7 @@
       <c r="S2" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="T2" s="249"/>
+      <c r="T2" s="248"/>
       <c r="U2" s="148" t="s">
         <v>32</v>
       </c>
@@ -14483,28 +14486,28 @@
       <c r="X2" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="Y2" s="247"/>
+      <c r="Y2" s="246"/>
       <c r="Z2" s="159" t="s">
         <v>32</v>
       </c>
       <c r="AA2" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="AB2" s="242"/>
+      <c r="AB2" s="258"/>
       <c r="AC2" s="161" t="s">
         <v>32</v>
       </c>
       <c r="AD2" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="AE2" s="244"/>
+      <c r="AE2" s="260"/>
       <c r="AF2" s="167" t="s">
         <v>32</v>
       </c>
       <c r="AG2" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="AH2" s="240"/>
+      <c r="AH2" s="256"/>
       <c r="AJ2" s="72" t="s">
         <v>19</v>
       </c>
@@ -16298,6 +16301,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AJ1:AR1"/>
     <mergeCell ref="Y1:Y2"/>
@@ -16314,12 +16323,6 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dragalia Data.xlsx
+++ b/Dragalia Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1987" documentId="14_{049F9EFC-050E-4651-8DC8-B33E922A69AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2F5515F1-1B47-421A-9951-ED37FA34F6A4}"/>
+  <xr:revisionPtr revIDLastSave="2034" documentId="14_{049F9EFC-050E-4651-8DC8-B33E922A69AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{33F9BB2C-99E6-4422-A156-0A89CD5A8726}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1980" windowWidth="22485" windowHeight="11835" activeTab="4" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
+    <workbookView xWindow="1725" yWindow="1815" windowWidth="22485" windowHeight="11835" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
   </bookViews>
   <sheets>
     <sheet name="迎擊" sheetId="18" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="DATA_HDRAG_HZOD" comment="Raw drop data of High Zodiac">'掉落-真暗'!$1:$1048576</definedName>
     <definedName name="DATA_HDRAGS_BUILDING" comment="Table of orbs required for upgrading the building of high dragons.">'資料-真龍'!$A$2:$A$32</definedName>
     <definedName name="DATA_HDRAGS_DRAGON" comment="Table of orbs required for limit breaking the high dragons.">'資料-真龍'!$B$2:$B$7</definedName>
-    <definedName name="DATA_IO" comment="Raw data for building Imperial Onslaught related facilities.">'資料-迎擊'!$AJ$3:$AR$32</definedName>
+    <definedName name="DATA_IO" comment="Raw data for building Imperial Onslaught related facilities.">'資料-迎擊'!$AM$3:$AU$32</definedName>
     <definedName name="DRAGEXP_L" comment="Experience points of a large dragon fruit.">3500</definedName>
     <definedName name="DRAGEXP_M" comment="Experience points of a medium dragon fruit.">1000</definedName>
     <definedName name="DRAGEXP_S" comment="Experience points of a small dragon fruit.">150</definedName>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="125">
   <si>
     <t>STR %</t>
   </si>
@@ -682,7 +682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,6 +809,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -881,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1358,18 +1364,12 @@
     <xf numFmtId="166" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1385,9 +1385,6 @@
     <xf numFmtId="166" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1469,6 +1466,75 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1478,48 +1544,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1607,6 +1631,9 @@
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1646,25 +1673,16 @@
     <xf numFmtId="166" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2133,8 +2151,8 @@
   </sheetPr>
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,16 +2160,16 @@
     <col min="1" max="1" width="4.85546875" style="49" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="49" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="83" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="166" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="164" customWidth="1"/>
     <col min="5" max="7" width="6.28515625" style="49" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="49" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="80" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" style="49" customWidth="1"/>
     <col min="11" max="11" width="6.28515625" style="49" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" style="49" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="49" customWidth="1"/>
-    <col min="14" max="14" width="7" style="49" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="49" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="49" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="49" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="202" customWidth="1"/>
     <col min="16" max="16" width="8.5703125" style="49"/>
     <col min="17" max="33" width="7.140625" style="49" customWidth="1"/>
     <col min="34" max="16384" width="8.5703125" style="49"/>
@@ -2163,7 +2181,7 @@
       <c r="C1" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="162" t="s">
         <v>111</v>
       </c>
       <c r="E1" s="31" t="s">
@@ -2196,7 +2214,7 @@
       <c r="N1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="201" t="s">
         <v>33</v>
       </c>
       <c r="Q1" s="96"/>
@@ -2207,10 +2225,10 @@
         <v>107</v>
       </c>
       <c r="T1" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" s="56" t="s">
         <v>108</v>
-      </c>
-      <c r="U1" s="56" t="s">
-        <v>109</v>
       </c>
       <c r="V1" s="56" t="s">
         <v>119</v>
@@ -2223,45 +2241,45 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="206" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="83">
-        <v>500</v>
-      </c>
-      <c r="D2" s="165">
-        <f>VLOOKUP($R$9,DATA_IO,6,TRUE)+VLOOKUP($R$10,DATA_IO,6,TRUE)+VLOOKUP($X$9,DATA_IO,6,TRUE)+VLOOKUP($X$10,DATA_IO,6,TRUE)</f>
+        <v>973</v>
+      </c>
+      <c r="D2" s="163">
+        <f>VLOOKUP($R$9,DATA_IO,5,TRUE)+VLOOKUP($R$10,DATA_IO,5,TRUE)+VLOOKUP($X$9,DATA_IO,5,TRUE)+VLOOKUP($X$10,DATA_IO,5,TRUE)</f>
         <v>0</v>
       </c>
       <c r="E2" s="25">
-        <f t="shared" ref="E2:E11" si="0">F2-I2</f>
-        <v>800</v>
+        <f>F2-I2</f>
+        <v>5720</v>
       </c>
       <c r="F2" s="25">
-        <f>'資料-迎擊'!$AO$3*4</f>
-        <v>800</v>
+        <f>'資料-迎擊'!$AQ$3*4</f>
+        <v>5720</v>
       </c>
       <c r="G2" s="49">
-        <f t="shared" ref="G2:G11" si="1">IF(D2-C2 &lt;= 0,ABS(D2-C2),"")</f>
-        <v>500</v>
+        <f>IF(D2-C2 &lt;= 0,ABS(D2-C2),"")</f>
+        <v>973</v>
       </c>
       <c r="H2" s="49">
-        <f>IFERROR(FLOOR(G2/IO_WEAPON_530,1),"")</f>
-        <v>2</v>
+        <f>IFERROR(FLOOR(G2/IO_WEAPON_434,1),"")</f>
+        <v>3</v>
       </c>
       <c r="I2" s="80">
-        <f t="shared" ref="I2:I11" si="2">IF(D2-C2 &lt; 0,0,D2-C2)</f>
+        <f>IF(D2-C2 &lt; 0,0,D2-C2)</f>
         <v>0</v>
       </c>
       <c r="J2" s="64">
-        <f t="shared" ref="J2:J16" si="3">IF(E2/F2 &gt; 1,100%,E2/F2)</f>
+        <f t="shared" ref="J2:J11" si="0">IF(E2/F2 &gt; 1,100%,E2/F2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="57">
-        <f t="shared" ref="K2:K11" si="4">IFERROR(ROUND(I2/N2,0),0)</f>
+        <f t="shared" ref="K2:K9" si="1">IFERROR(ROUND(I2/N2,0),0)</f>
         <v>0</v>
       </c>
       <c r="L2" s="57">
@@ -2269,15 +2287,15 @@
         <v>0</v>
       </c>
       <c r="M2" s="7">
-        <f t="shared" ref="M2:M11" si="5">L2/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
+        <f>L2/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
       </c>
       <c r="N2" s="8">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!C:C,'資料-迎擊'!E:E)/O$2,"")</f>
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!D:D,'資料-迎擊'!F:F)/SUM('資料-迎擊'!F:F),0)</f>
         <v>3.5347793567688854</v>
       </c>
-      <c r="O2" s="204">
-        <f>SUM('資料-迎擊'!E:E)</f>
+      <c r="O2" s="199">
+        <f>SUM('資料-迎擊'!F:F)</f>
         <v>1337</v>
       </c>
       <c r="Q2" s="56" t="s">
@@ -2287,13 +2305,13 @@
         <v>93006</v>
       </c>
       <c r="S2" s="103">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T2" s="103">
+        <v>1983</v>
+      </c>
+      <c r="U2" s="103">
         <v>1609</v>
-      </c>
-      <c r="U2" s="103">
-        <v>1983</v>
       </c>
       <c r="V2" s="103">
         <v>5763</v>
@@ -2306,43 +2324,43 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="200"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="83">
-        <v>2443</v>
-      </c>
-      <c r="D3" s="165">
-        <f>VLOOKUP($R$9,DATA_IO,5,TRUE)+VLOOKUP($R$10,DATA_IO,5,TRUE)+VLOOKUP($X$9,DATA_IO,5,TRUE)+VLOOKUP($X$10,DATA_IO,5,TRUE)</f>
+        <v>1363</v>
+      </c>
+      <c r="D3" s="163">
+        <f>VLOOKUP($R$9,DATA_IO,6,TRUE)+VLOOKUP($R$10,DATA_IO,6,TRUE)+VLOOKUP($X$9,DATA_IO,6,TRUE)+VLOOKUP($X$10,DATA_IO,6,TRUE)</f>
         <v>0</v>
       </c>
       <c r="E3" s="25">
+        <f t="shared" ref="E3:E11" si="2">F3-I3</f>
+        <v>800</v>
+      </c>
+      <c r="F3" s="25">
+        <f>'資料-迎擊'!$AR$3*4</f>
+        <v>800</v>
+      </c>
+      <c r="G3" s="49">
+        <f t="shared" ref="G3:G11" si="3">IF(D3-C3 &lt;= 0,ABS(D3-C3),"")</f>
+        <v>1363</v>
+      </c>
+      <c r="H3" s="49">
+        <f>IFERROR(FLOOR(G3/IO_WEAPON_530,1),"")</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="80">
+        <f t="shared" ref="I3:I11" si="4">IF(D3-C3 &lt; 0,0,D3-C3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="64">
         <f t="shared" si="0"/>
-        <v>5720</v>
-      </c>
-      <c r="F3" s="25">
-        <f>'資料-迎擊'!$AN$3*4</f>
-        <v>5720</v>
-      </c>
-      <c r="G3" s="49">
+        <v>1</v>
+      </c>
+      <c r="K3" s="57">
         <f t="shared" si="1"/>
-        <v>2443</v>
-      </c>
-      <c r="H3" s="49">
-        <f>IFERROR(FLOOR(G3/IO_WEAPON_434,1),"")</f>
-        <v>9</v>
-      </c>
-      <c r="I3" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="64">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K3" s="57">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L3" s="57">
@@ -2350,140 +2368,143 @@
         <v>0</v>
       </c>
       <c r="M3" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M3:M11" si="5">L3/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
       </c>
       <c r="N3" s="8">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!A:A,'資料-迎擊'!E:E)/O$2,"")</f>
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!A:A,'資料-迎擊'!C:C)/$O3,0)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="204"/>
+      <c r="O3" s="199">
+        <f>SUM('資料-迎擊'!C:C)</f>
+        <v>0</v>
+      </c>
       <c r="Q3" s="56" t="s">
         <v>58</v>
       </c>
       <c r="R3" s="103">
-        <v>93006</v>
+        <v>92856</v>
       </c>
       <c r="S3" s="103">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T3" s="103">
-        <v>1609</v>
+        <v>2157</v>
       </c>
       <c r="U3" s="103">
-        <v>1983</v>
+        <v>1681</v>
       </c>
       <c r="V3" s="103">
-        <v>5763</v>
+        <v>5847</v>
       </c>
       <c r="W3" s="103">
-        <v>8338</v>
+        <v>8436</v>
       </c>
       <c r="X3" s="103">
-        <v>72830</v>
+        <v>73442</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="209" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="83">
+        <v>582</v>
+      </c>
+      <c r="D4" s="163">
+        <f>VLOOKUP($R$11,DATA_IO,5,TRUE)+VLOOKUP($R$12,DATA_IO,5,TRUE)+VLOOKUP($X$11,DATA_IO,5,TRUE)+VLOOKUP($X$12,DATA_IO,5,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <f>F4-I4</f>
+        <v>5720</v>
+      </c>
+      <c r="F4" s="25">
+        <f>'資料-迎擊'!$AQ$3*4</f>
+        <v>5720</v>
+      </c>
+      <c r="G4" s="49">
+        <f>IF(D4-C4 &lt;= 0,ABS(D4-C4),"")</f>
+        <v>582</v>
+      </c>
+      <c r="H4" s="49">
+        <f>IFERROR(FLOOR(G4/IO_WEAPON_434,1),"")</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="80">
+        <f>IF(D4-C4 &lt; 0,0,D4-C4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="55">
+        <f t="shared" ref="L4" si="6">IFERROR(ROUND(I4/$N$12,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <f>L4/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!J:J,'資料-迎擊'!L:L)/SUM('資料-迎擊'!L:L),0)</f>
+        <v>3.4778660612939842</v>
+      </c>
+      <c r="O4" s="198">
+        <f>SUM('資料-迎擊'!L:L)</f>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="209"/>
+      <c r="B5" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="83">
-        <v>395</v>
-      </c>
-      <c r="D4" s="165">
+      <c r="C5" s="83">
+        <v>2163</v>
+      </c>
+      <c r="D5" s="163">
         <f>VLOOKUP($R$11,DATA_IO,6,TRUE)+VLOOKUP($R$12,DATA_IO,6,TRUE)+VLOOKUP($X$11,DATA_IO,6,TRUE)+VLOOKUP($X$12,DATA_IO,6,TRUE)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="25">
-        <f t="shared" si="0"/>
+      <c r="E5" s="25">
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="F4" s="25">
-        <f>'資料-迎擊'!$AO$3*4</f>
+      <c r="F5" s="25">
+        <f>'資料-迎擊'!$AR$3*4</f>
         <v>800</v>
       </c>
-      <c r="G4" s="49">
-        <f t="shared" si="1"/>
-        <v>395</v>
-      </c>
-      <c r="H4" s="49">
-        <f>IFERROR(FLOOR(G4/IO_WEAPON_530,1),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="64">
+      <c r="G5" s="49">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="55">
+        <v>2163</v>
+      </c>
+      <c r="H5" s="49">
+        <f>IFERROR(FLOOR(G5/IO_WEAPON_530,1),"")</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L4" s="55">
-        <f>IFERROR(ROUND(I4/$N$12,0),0)</f>
+      <c r="J5" s="64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="55">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!H:H,'資料-迎擊'!J:J)/O$4,"")</f>
-        <v>3.4778660612939842</v>
-      </c>
-      <c r="O4" s="208">
-        <f>SUM('資料-迎擊'!J:J)</f>
-        <v>881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="203"/>
-      <c r="B5" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="83">
-        <v>395</v>
-      </c>
-      <c r="D5" s="165">
-        <f>VLOOKUP($R$11,DATA_IO,5,TRUE)+VLOOKUP($R$12,DATA_IO,5,TRUE)+VLOOKUP($X$11,DATA_IO,5,TRUE)+VLOOKUP($X$12,DATA_IO,5,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="25">
-        <f t="shared" si="0"/>
-        <v>5720</v>
-      </c>
-      <c r="F5" s="25">
-        <f>'資料-迎擊'!$AN$3*4</f>
-        <v>5720</v>
-      </c>
-      <c r="G5" s="49">
-        <f t="shared" si="1"/>
-        <v>395</v>
-      </c>
-      <c r="H5" s="49">
-        <f>IFERROR(FLOOR(G5/IO_WEAPON_434,1),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="64">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="L5" s="55">
-        <f>IFERROR(ROUND(I5/$N$13,0),0)</f>
+        <f t="shared" ref="L5" si="7">IFERROR(ROUND(I5/$N$13,0),0)</f>
         <v>0</v>
       </c>
       <c r="M5" s="6">
@@ -2491,10 +2512,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="9">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!F:F,'資料-迎擊'!J:J)/O$4,"")</f>
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!G:G,'資料-迎擊'!I:I)/$O5,0)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="208"/>
+      <c r="O5" s="198">
+        <f>SUM('資料-迎擊'!I:I)</f>
+        <v>0</v>
+      </c>
       <c r="Q5" s="56" t="s">
         <v>29</v>
       </c>
@@ -2503,153 +2527,153 @@
       </c>
       <c r="T5" s="27">
         <f>T3-T2</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="U5" s="27">
         <f>U3-U2</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="V5" s="27">
         <f>V3-V2</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="W5" s="27">
         <f>W3-W2</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="X5" s="27">
         <f>X3-X2</f>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="83">
+        <v>3272</v>
+      </c>
+      <c r="D6" s="163">
+        <f>VLOOKUP($R$13,DATA_IO,5,TRUE)+VLOOKUP($R$14,DATA_IO,5,TRUE)+VLOOKUP($X$13,DATA_IO,5,TRUE)+VLOOKUP($X$14,DATA_IO,5,TRUE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="201" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="86" t="s">
+      <c r="E6" s="25">
+        <f>F6-I6</f>
+        <v>5720</v>
+      </c>
+      <c r="F6" s="25">
+        <f>'資料-迎擊'!$AQ$3*4</f>
+        <v>5720</v>
+      </c>
+      <c r="G6" s="49">
+        <f>IF(D6-C6 &lt;= 0,ABS(D6-C6),"")</f>
+        <v>3272</v>
+      </c>
+      <c r="H6" s="49">
+        <f>IFERROR(FLOOR(G6/IO_WEAPON_434,1),"")</f>
+        <v>13</v>
+      </c>
+      <c r="I6" s="80">
+        <f>IF(D6-C6 &lt; 0,0,D6-C6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="54">
+        <f t="shared" ref="L6" si="8">IFERROR(ROUND(I6/$N$12,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <f>L6/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!P:P,'資料-迎擊'!R:R)/SUM('資料-迎擊'!R:R),0)</f>
+        <v>3.492957746478873</v>
+      </c>
+      <c r="O6" s="197">
+        <f>SUM('資料-迎擊'!R:R)</f>
+        <v>142</v>
+      </c>
+      <c r="Q6" s="95">
+        <f>(R2-R3)/WINGS_RECOVER_DIAMS*6 + (S2-S3)/WINGS_CONSUME_VOID</f>
+        <v>25</v>
+      </c>
+      <c r="S6" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="27">
+        <f>IFERROR(T5/$Q$6,"")</f>
+        <v>6.96</v>
+      </c>
+      <c r="U6" s="27">
+        <f>IFERROR(U5/$Q$6,"")</f>
+        <v>2.88</v>
+      </c>
+      <c r="V6" s="27">
+        <f>IFERROR(V5/$Q$6,"")</f>
+        <v>3.36</v>
+      </c>
+      <c r="W6" s="27">
+        <f>IFERROR(W5/$Q$6,"")</f>
+        <v>3.92</v>
+      </c>
+      <c r="X6" s="27">
+        <f>IFERROR(X5/$Q$6,"")</f>
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="207"/>
+      <c r="B7" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="83">
-        <v>904</v>
-      </c>
-      <c r="D6" s="165">
+      <c r="C7" s="83">
+        <v>2301</v>
+      </c>
+      <c r="D7" s="163">
         <f>VLOOKUP($R$13,DATA_IO,6,TRUE)+VLOOKUP($R$14,DATA_IO,6,TRUE)+VLOOKUP($X$13,DATA_IO,6,TRUE)+VLOOKUP($X$14,DATA_IO,6,TRUE)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="25">
-        <f t="shared" si="0"/>
+      <c r="E7" s="25">
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="F6" s="25">
-        <f>'資料-迎擊'!$AO$3*4</f>
+      <c r="F7" s="25">
+        <f>'資料-迎擊'!$AR$3*4</f>
         <v>800</v>
       </c>
-      <c r="G6" s="49">
-        <f t="shared" si="1"/>
-        <v>904</v>
-      </c>
-      <c r="H6" s="49">
-        <f>IFERROR(FLOOR(G6/IO_WEAPON_530,1),"")</f>
-        <v>4</v>
-      </c>
-      <c r="I6" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="64">
+      <c r="G7" s="49">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="54">
+        <v>2301</v>
+      </c>
+      <c r="H7" s="49">
+        <f>IFERROR(FLOOR(G7/IO_WEAPON_530,1),"")</f>
+        <v>11</v>
+      </c>
+      <c r="I7" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L6" s="54">
-        <f>IFERROR(ROUND(I6/$N$12,0),0)</f>
+      <c r="J7" s="64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="54">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!M:M,'資料-迎擊'!O:O)/O$6,"")</f>
-        <v>3.492957746478873</v>
-      </c>
-      <c r="O6" s="205">
-        <f>SUM('資料-迎擊'!O:O)</f>
-        <v>142</v>
-      </c>
-      <c r="Q6" s="95">
-        <f>(R2-R3)/WINGS_RECOVER_DIAMS*6 + (S2-S3)/WINGS_CONSUME_VOID</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="27" t="str">
-        <f>IFERROR(T5/$Q$6,"")</f>
-        <v/>
-      </c>
-      <c r="U6" s="27" t="str">
-        <f>IFERROR(U5/$Q$6,"")</f>
-        <v/>
-      </c>
-      <c r="V6" s="27" t="str">
-        <f>IFERROR(V5/$Q$6,"")</f>
-        <v/>
-      </c>
-      <c r="W6" s="27" t="str">
-        <f>IFERROR(W5/$Q$6,"")</f>
-        <v/>
-      </c>
-      <c r="X6" s="27" t="str">
-        <f>IFERROR(X5/$Q$6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="201"/>
-      <c r="B7" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="83">
-        <v>904</v>
-      </c>
-      <c r="D7" s="165">
-        <f>VLOOKUP($R$13,DATA_IO,5,TRUE)+VLOOKUP($R$14,DATA_IO,5,TRUE)+VLOOKUP($X$13,DATA_IO,5,TRUE)+VLOOKUP($X$14,DATA_IO,5,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>5720</v>
-      </c>
-      <c r="F7" s="25">
-        <f>'資料-迎擊'!$AN$3*4</f>
-        <v>5720</v>
-      </c>
-      <c r="G7" s="49">
-        <f t="shared" si="1"/>
-        <v>904</v>
-      </c>
-      <c r="H7" s="49">
-        <f>IFERROR(FLOOR(G7/IO_WEAPON_434,1),"")</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="64">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="L7" s="54">
-        <f>IFERROR(ROUND(I7/$N$13,0),0)</f>
+        <f t="shared" ref="L7" si="9">IFERROR(ROUND(I7/$N$13,0),0)</f>
         <v>0</v>
       </c>
       <c r="M7" s="5">
@@ -2657,68 +2681,71 @@
         <v>0</v>
       </c>
       <c r="N7" s="10">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!K:K,'資料-迎擊'!O:O)/O$6,"")</f>
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!M:M,'資料-迎擊'!O:O)/$O7,0)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="205"/>
+      <c r="O7" s="197">
+        <f>SUM('資料-迎擊'!O:O)</f>
+        <v>0</v>
+      </c>
       <c r="AD7" s="72"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="213" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="83">
-        <v>188</v>
-      </c>
-      <c r="D8" s="165">
-        <f>VLOOKUP($R$15,DATA_IO,6,TRUE)+VLOOKUP($R$16,DATA_IO,6,TRUE)</f>
+        <v>418</v>
+      </c>
+      <c r="D8" s="163">
+        <f>VLOOKUP($R$15,DATA_IO,5,TRUE)+VLOOKUP($R$16,DATA_IO,5,TRUE)</f>
         <v>0</v>
       </c>
       <c r="E8" s="25">
+        <f>F8-I8</f>
+        <v>2860</v>
+      </c>
+      <c r="F8" s="25">
+        <f>'資料-迎擊'!$AQ$3*2</f>
+        <v>2860</v>
+      </c>
+      <c r="G8" s="49">
+        <f>IF(D8-C8 &lt;= 0,ABS(D8-C8),"")</f>
+        <v>418</v>
+      </c>
+      <c r="H8" s="49">
+        <f>IFERROR(FLOOR(G8/IO_WEAPON_434,1),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="80">
+        <f>IF(D8-C8 &lt; 0,0,D8-C8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="64">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="F8" s="25">
-        <f>'資料-迎擊'!$AO$3*2</f>
-        <v>400</v>
-      </c>
-      <c r="G8" s="49">
+        <v>1</v>
+      </c>
+      <c r="K8" s="53">
         <f t="shared" si="1"/>
-        <v>188</v>
-      </c>
-      <c r="H8" s="49">
-        <f>IFERROR(FLOOR(G8/IO_WEAPON_530,1),"")</f>
         <v>0</v>
       </c>
-      <c r="I8" s="80">
-        <f t="shared" si="2"/>
+      <c r="L8" s="53">
+        <f t="shared" ref="L8" si="10">IFERROR(ROUND(I8/$N$12,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="64">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="53">
-        <f t="shared" si="4"/>
+      <c r="M8" s="4">
+        <f>L8/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
       </c>
-      <c r="L8" s="53">
-        <f>IFERROR(ROUND(I8/$N$12,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="N8" s="11">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!R:R,'資料-迎擊'!T:T)/O$8,"")</f>
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!V:V,'資料-迎擊'!X:X)/O$8,0)</f>
         <v>3.5145888594164458</v>
       </c>
-      <c r="O8" s="207">
-        <f>SUM('資料-迎擊'!T:T)</f>
+      <c r="O8" s="195">
+        <f>SUM('資料-迎擊'!X:X)</f>
         <v>377</v>
       </c>
       <c r="Q8" s="56" t="s">
@@ -2727,10 +2754,10 @@
       <c r="R8" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="197" t="s">
+      <c r="S8" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="197"/>
+      <c r="T8" s="217"/>
       <c r="U8" s="14" t="s">
         <v>23</v>
       </c>
@@ -2757,47 +2784,47 @@
       <c r="AD8" s="72"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="212"/>
+      <c r="A9" s="213"/>
       <c r="B9" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="83">
-        <v>188</v>
-      </c>
-      <c r="D9" s="165">
-        <f>VLOOKUP($R$15,DATA_IO,5,TRUE)+VLOOKUP($R$16,DATA_IO,5,TRUE)</f>
+        <v>1500</v>
+      </c>
+      <c r="D9" s="163">
+        <f>VLOOKUP($R$15,DATA_IO,6,TRUE)+VLOOKUP($R$16,DATA_IO,6,TRUE)</f>
         <v>0</v>
       </c>
       <c r="E9" s="25">
-        <f t="shared" si="0"/>
-        <v>2860</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="F9" s="25">
-        <f>'資料-迎擊'!$AN$3*2</f>
-        <v>2860</v>
+        <f>'資料-迎擊'!$AR$3*2</f>
+        <v>400</v>
       </c>
       <c r="G9" s="49">
-        <f t="shared" si="1"/>
-        <v>188</v>
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
       <c r="H9" s="49">
-        <f>IFERROR(FLOOR(G9/IO_WEAPON_434,1),"")</f>
-        <v>0</v>
+        <f>IFERROR(FLOOR(G9/IO_WEAPON_530,1),"")</f>
+        <v>7</v>
       </c>
       <c r="I9" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="64">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J9" s="64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L9" s="53">
-        <f>IFERROR(ROUND(I9/$N$13,0),0)</f>
+        <f t="shared" ref="L9" si="11">IFERROR(ROUND(I9/$N$13,0),0)</f>
         <v>0</v>
       </c>
       <c r="M9" s="4">
@@ -2805,11 +2832,14 @@
         <v>0</v>
       </c>
       <c r="N9" s="11">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!P:P,'資料-迎擊'!T:T)/O$8,"")</f>
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!S:S,'資料-迎擊'!T:T)/O$9,0)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="207"/>
-      <c r="Q9" s="204" t="s">
+      <c r="O9" s="195">
+        <f>SUM('資料-迎擊'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="210" t="s">
         <v>20</v>
       </c>
       <c r="R9" s="98">
@@ -2823,14 +2853,14 @@
         <v>23</v>
       </c>
       <c r="U9" s="104" t="str">
-        <f t="shared" ref="U9:U16" si="6">IF(VLOOKUP(R9,DATA_IO,9)=0,"",VLOOKUP(R9,DATA_IO,9))</f>
+        <f t="shared" ref="U9:U16" si="12">IF(VLOOKUP(R9,DATA_IO,9)=0,"",VLOOKUP(R9,DATA_IO,9))</f>
         <v/>
       </c>
       <c r="V9" s="57" t="str">
-        <f t="shared" ref="V9:V16" si="7">IFERROR(U9*BOOST_PRICE,"")</f>
-        <v/>
-      </c>
-      <c r="W9" s="209" t="s">
+        <f t="shared" ref="V9:V16" si="13">IFERROR(U9*BOOST_PRICE,"")</f>
+        <v/>
+      </c>
+      <c r="W9" s="216" t="s">
         <v>13</v>
       </c>
       <c r="X9" s="98">
@@ -2845,74 +2875,74 @@
         <v>23</v>
       </c>
       <c r="AB9" s="105" t="str">
-        <f t="shared" ref="AB9:AB16" si="8">IF(VLOOKUP(X9,DATA_IO,9)=0,"",VLOOKUP(X9,DATA_IO,9))</f>
+        <f t="shared" ref="AB9:AB16" si="14">IF(VLOOKUP(X9,DATA_IO,9)=0,"",VLOOKUP(X9,DATA_IO,9))</f>
         <v/>
       </c>
       <c r="AC9" s="68" t="str">
-        <f t="shared" ref="AC9:AC16" si="9">IFERROR(AB9*BOOST_PRICE,"")</f>
+        <f t="shared" ref="AC9:AC16" si="15">IFERROR(AB9*BOOST_PRICE,"")</f>
         <v/>
       </c>
       <c r="AD9" s="72"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="208" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="83">
-        <v>732</v>
-      </c>
-      <c r="D10" s="165">
-        <f>VLOOKUP($X$15,DATA_IO,6,TRUE)+VLOOKUP($X$16,DATA_IO,6,TRUE)</f>
+        <v>2157</v>
+      </c>
+      <c r="D10" s="163">
+        <f>VLOOKUP($X$15,DATA_IO,5,TRUE)+VLOOKUP($X$16,DATA_IO,5,TRUE)</f>
         <v>0</v>
       </c>
       <c r="E10" s="25">
+        <f>F10-I10</f>
+        <v>2860</v>
+      </c>
+      <c r="F10" s="25">
+        <f>'資料-迎擊'!$AQ$3*2</f>
+        <v>2860</v>
+      </c>
+      <c r="G10" s="49">
+        <f>IF(D10-C10 &lt;= 0,ABS(D10-C10),"")</f>
+        <v>2157</v>
+      </c>
+      <c r="H10" s="49">
+        <f>IFERROR(FLOOR(G10/IO_WEAPON_434,1),"")</f>
+        <v>8</v>
+      </c>
+      <c r="I10" s="80">
+        <f>IF(D10-C10 &lt; 0,0,D10-C10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="64">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="F10" s="25">
-        <f>'資料-迎擊'!$AO$3*2</f>
-        <v>400</v>
-      </c>
-      <c r="G10" s="49">
-        <f t="shared" si="1"/>
-        <v>732</v>
-      </c>
-      <c r="H10" s="49">
-        <f>IFERROR(FLOOR(G10/IO_WEAPON_530,1),"")</f>
-        <v>3</v>
-      </c>
-      <c r="I10" s="80">
-        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="196">
+        <f>IFERROR(ROUND(I10/N10,0),0)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="65">
-        <f t="shared" si="4"/>
+      <c r="L10" s="65">
+        <f t="shared" ref="L10" si="16">IFERROR(ROUND(I10/$N$12,0),0)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="65">
-        <f>IFERROR(ROUND(I10/$N$12,0),0)</f>
+      <c r="M10" s="3">
+        <f>L10/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
       </c>
-      <c r="M10" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="N10" s="12">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!W:W,'資料-迎擊'!Y:Y)/O$10,"")</f>
-        <v>3.5441696113074204</v>
-      </c>
-      <c r="O10" s="213">
-        <f>SUM('資料-迎擊'!Y:Y)</f>
-        <v>283</v>
-      </c>
-      <c r="Q10" s="204"/>
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!AB:AB,'資料-迎擊'!AD:AD)/O$10,"")</f>
+        <v>3.5345345345345347</v>
+      </c>
+      <c r="O10" s="196">
+        <f>SUM('資料-迎擊'!AD:AD)</f>
+        <v>333</v>
+      </c>
+      <c r="Q10" s="210"/>
       <c r="R10" s="98">
         <v>30</v>
       </c>
@@ -2924,14 +2954,14 @@
         <v>23</v>
       </c>
       <c r="U10" s="105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V10" s="57" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W10" s="209"/>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W10" s="216"/>
       <c r="X10" s="98">
         <v>30</v>
       </c>
@@ -2944,57 +2974,57 @@
         <v>23</v>
       </c>
       <c r="AB10" s="105" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC10" s="68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD10" s="72"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="202"/>
+      <c r="A11" s="208"/>
       <c r="B11" s="88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="83">
-        <v>732</v>
-      </c>
-      <c r="D11" s="165">
-        <f>VLOOKUP($X$15,DATA_IO,5,TRUE)+VLOOKUP($X$16,DATA_IO,5,TRUE)</f>
+        <v>1681</v>
+      </c>
+      <c r="D11" s="163">
+        <f>VLOOKUP($X$15,DATA_IO,6,TRUE)+VLOOKUP($X$16,DATA_IO,6,TRUE)</f>
         <v>0</v>
       </c>
       <c r="E11" s="25">
-        <f t="shared" si="0"/>
-        <v>2860</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="F11" s="25">
-        <f>'資料-迎擊'!$AN$3*2</f>
-        <v>2860</v>
+        <f>'資料-迎擊'!$AR$3*2</f>
+        <v>400</v>
       </c>
       <c r="G11" s="49">
-        <f t="shared" si="1"/>
-        <v>732</v>
+        <f t="shared" si="3"/>
+        <v>1681</v>
       </c>
       <c r="H11" s="49">
-        <f>IFERROR(FLOOR(G11/IO_WEAPON_434,1),"")</f>
-        <v>2</v>
+        <f>IFERROR(FLOOR(G11/IO_WEAPON_530,1),"")</f>
+        <v>8</v>
       </c>
       <c r="I11" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="64">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="J11" s="64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="65">
+        <f>IFERROR(ROUND(I11/N11,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="L11" s="65">
-        <f>IFERROR(ROUND(I11/$N$13,0),0)</f>
+        <f t="shared" ref="L11" si="17">IFERROR(ROUND(I11/$N$13,0),0)</f>
         <v>0</v>
       </c>
       <c r="M11" s="3">
@@ -3002,11 +3032,14 @@
         <v>0</v>
       </c>
       <c r="N11" s="12">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!U:U,'資料-迎擊'!Y:Y)/O$10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="213"/>
-      <c r="Q11" s="208" t="s">
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!Y:Y,'資料-迎擊'!AA:AA)/O$10,0)</f>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="O11" s="196">
+        <f>SUM('資料-迎擊'!AA:AA)</f>
+        <v>50</v>
+      </c>
+      <c r="Q11" s="212" t="s">
         <v>10</v>
       </c>
       <c r="R11" s="99">
@@ -3020,14 +3053,14 @@
         <v>23</v>
       </c>
       <c r="U11" s="106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V11" s="55" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W11" s="198" t="s">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W11" s="218" t="s">
         <v>7</v>
       </c>
       <c r="X11" s="99">
@@ -3042,75 +3075,75 @@
         <v>23</v>
       </c>
       <c r="AB11" s="106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC11" s="69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD11" s="72"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="210" t="s">
+      <c r="A12" s="204" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="83">
-        <f t="shared" ref="C12:I13" si="10">SUM(C2,C4,C6,C8,C10)</f>
-        <v>2719</v>
-      </c>
-      <c r="D12" s="165">
-        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+      <c r="C12" s="20">
+        <f>SUM(C2,C4,C6,C8,C10)</f>
+        <v>7402</v>
+      </c>
+      <c r="D12" s="163">
+        <f>SUM(D2,D4,D6,D8,D10)</f>
         <v>0</v>
       </c>
       <c r="E12" s="25">
-        <f t="shared" si="10"/>
-        <v>3200</v>
+        <f>SUM(E2,E4,E6,E8,E10)</f>
+        <v>22880</v>
       </c>
       <c r="F12" s="25">
-        <f t="shared" si="10"/>
-        <v>3200</v>
+        <f>SUM(F2,F4,F6,F8,F10)</f>
+        <v>22880</v>
       </c>
       <c r="G12" s="49">
-        <f t="shared" si="10"/>
-        <v>2719</v>
+        <f>SUM(G2,G4,G6,G8,G10)</f>
+        <v>7402</v>
       </c>
       <c r="H12" s="49">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>SUM(H2,H4,H6,H8,H10)</f>
+        <v>27</v>
       </c>
       <c r="I12" s="80">
-        <f t="shared" si="10"/>
+        <f>SUM(I2,I4,I6,I8,I10)</f>
         <v>0</v>
       </c>
       <c r="J12" s="64">
-        <f t="shared" si="3"/>
+        <f>IF(E12/F12 &gt; 1,100%,E12/F12)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="2">
-        <f t="shared" ref="K12:M13" si="11">SUM(K2,K4,K6,K8,K10)</f>
+      <c r="K12" s="205">
+        <f>MAX(SUM(K2,K4,K6,K8,K10),SUM(K3,K5,K7,K9,K11),K14,K15,K16)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" si="11"/>
+      <c r="L12" s="205">
+        <f>MAX(SUM(L2,L4,L6,L8,L10),SUM(L3,L5,L7,L9,L11),K14,K15,K16)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="2">
-        <f t="shared" si="11"/>
+      <c r="M12" s="266">
+        <f>MAX(SUM(M2,M4,M6,M8,M10),SUM(M3,M5,M7,M9,M11),M14,M15,M16)</f>
         <v>0</v>
       </c>
       <c r="N12" s="13">
         <f>(N2*O2+N4*O4+N6*O6+N8*O8+N10*O10) / O$12</f>
-        <v>3.5145695364238412</v>
-      </c>
-      <c r="O12" s="211">
+        <v>3.5140065146579804</v>
+      </c>
+      <c r="O12" s="200">
         <f>SUM(O2,O4,O6,O8,O10)</f>
-        <v>3020</v>
-      </c>
-      <c r="Q12" s="208"/>
+        <v>3070</v>
+      </c>
+      <c r="Q12" s="212"/>
       <c r="R12" s="99">
         <v>30</v>
       </c>
@@ -3122,14 +3155,14 @@
         <v>23</v>
       </c>
       <c r="U12" s="106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V12" s="55" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W12" s="198"/>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W12" s="218"/>
       <c r="X12" s="99">
         <v>30</v>
       </c>
@@ -3142,70 +3175,64 @@
         <v>23</v>
       </c>
       <c r="AB12" s="106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC12" s="69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD12" s="72"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="210"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="83">
-        <f t="shared" si="10"/>
-        <v>4662</v>
-      </c>
-      <c r="D13" s="165">
-        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="C13" s="20">
+        <f>SUM(C3,C5,C7,C9,C11)</f>
+        <v>9008</v>
+      </c>
+      <c r="D13" s="163">
+        <f>SUM(D3,D5,D7,D9,D11)</f>
         <v>0</v>
       </c>
       <c r="E13" s="25">
-        <f t="shared" si="10"/>
-        <v>22880</v>
+        <f>SUM(E3,E5,E7,E9,E11)</f>
+        <v>3200</v>
       </c>
       <c r="F13" s="25">
-        <f t="shared" si="10"/>
-        <v>22880</v>
+        <f>SUM(F3,F5,F7,F9,F11)</f>
+        <v>3200</v>
       </c>
       <c r="G13" s="49">
-        <f t="shared" si="10"/>
-        <v>4662</v>
+        <f>SUM(G3,G5,G7,G9,G11)</f>
+        <v>9008</v>
       </c>
       <c r="H13" s="49">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f>SUM(H3,H5,H7,H9,H11)</f>
+        <v>42</v>
       </c>
       <c r="I13" s="80">
-        <f t="shared" si="10"/>
+        <f>SUM(I3,I5,I7,I9,I11)</f>
         <v>0</v>
       </c>
       <c r="J13" s="64">
-        <f t="shared" si="3"/>
+        <f>IF(E13/F13 &gt; 1,100%,E13/F13)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="K13" s="205"/>
+      <c r="L13" s="205"/>
+      <c r="M13" s="266"/>
       <c r="N13" s="13">
-        <f>(N3*O2+N5*O4+N7*O6+N9*O8+N11*O10) / O$12</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="211"/>
-      <c r="Q13" s="205" t="s">
+        <f>(N3*O3+N5*O5+N7*O7+N9*O9+N11*O11) / O$13</f>
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="O13" s="200">
+        <f>SUM(O3,O5,O7,O9,O11)</f>
+        <v>50</v>
+      </c>
+      <c r="Q13" s="211" t="s">
         <v>5</v>
       </c>
       <c r="R13" s="100">
@@ -3219,14 +3246,14 @@
         <v>23</v>
       </c>
       <c r="U13" s="107" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V13" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W13" s="199" t="s">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W13" s="219" t="s">
         <v>4</v>
       </c>
       <c r="X13" s="100">
@@ -3241,24 +3268,24 @@
         <v>23</v>
       </c>
       <c r="AB13" s="107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC13" s="70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD13" s="72"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="210"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="56" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="83">
-        <v>0</v>
-      </c>
-      <c r="D14" s="165">
+        <v>5847</v>
+      </c>
+      <c r="D14" s="163">
         <f>SUM(VLOOKUP($R$9,DATA_IO,4,TRUE),VLOOKUP($R$10,DATA_IO,4,TRUE),VLOOKUP($R$11,DATA_IO,4,TRUE),VLOOKUP($R$12,DATA_IO,4,TRUE),VLOOKUP($R$13,DATA_IO,4,TRUE),VLOOKUP($R$14,DATA_IO,4,TRUE),VLOOKUP($R$15,DATA_IO,4,TRUE),VLOOKUP($R$16,DATA_IO,4,TRUE),VLOOKUP($X$9,DATA_IO,4,TRUE),VLOOKUP($X$10,DATA_IO,4,TRUE),VLOOKUP($X$11,DATA_IO,4,TRUE),VLOOKUP($X$12,DATA_IO,4,TRUE),VLOOKUP($X$13,DATA_IO,4,TRUE),VLOOKUP($X$14,DATA_IO,4,TRUE),VLOOKUP($X$15,DATA_IO,4,TRUE),VLOOKUP($X$16,DATA_IO,4,TRUE))</f>
         <v>0</v>
       </c>
@@ -3267,36 +3294,39 @@
         <v>10400</v>
       </c>
       <c r="F14" s="25">
-        <f>'資料-迎擊'!$AM$3*16</f>
+        <f>'資料-迎擊'!$AP$3*16</f>
         <v>10400</v>
       </c>
       <c r="G14" s="49">
         <f>IF(D14-C14 &lt;= 0,ABS(D14-C14),"")</f>
-        <v>0</v>
+        <v>5847</v>
       </c>
       <c r="I14" s="80">
         <f>IF(D14-C14 &lt; 0,0,D14-C14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="64">
-        <f t="shared" si="3"/>
+        <f>IF(E14/F14 &gt; 1,100%,E14/F14)</f>
         <v>1</v>
       </c>
-      <c r="K14" s="211">
+      <c r="K14" s="205">
         <f>IFERROR(ROUND(I14/N14,0),0)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="211"/>
+      <c r="L14" s="205"/>
       <c r="M14" s="2">
         <f>K14/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
       </c>
       <c r="N14" s="13">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!Z:Z,'資料-迎擊'!AB:AB)/O$12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="211"/>
-      <c r="Q14" s="205"/>
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!AE:AE,'資料-迎擊'!AK:AK)/O$14,"")</f>
+        <v>1.68</v>
+      </c>
+      <c r="O14" s="205">
+        <f>SUM('資料-迎擊'!AK:AK)</f>
+        <v>50</v>
+      </c>
+      <c r="Q14" s="211"/>
       <c r="R14" s="100">
         <v>30</v>
       </c>
@@ -3308,14 +3338,14 @@
         <v>23</v>
       </c>
       <c r="U14" s="107" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V14" s="54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W14" s="199"/>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W14" s="219"/>
       <c r="X14" s="100">
         <v>30</v>
       </c>
@@ -3328,24 +3358,24 @@
         <v>23</v>
       </c>
       <c r="AB14" s="107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC14" s="70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD14" s="72"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="210"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="56" t="s">
         <v>120</v>
       </c>
       <c r="C15" s="83">
-        <v>0</v>
-      </c>
-      <c r="D15" s="165">
+        <v>8436</v>
+      </c>
+      <c r="D15" s="163">
         <f>SUM(VLOOKUP($R$9,DATA_IO,3,TRUE),VLOOKUP($R$10,DATA_IO,3,TRUE),VLOOKUP($R$11,DATA_IO,3,TRUE),VLOOKUP($R$12,DATA_IO,3,TRUE),VLOOKUP($R$13,DATA_IO,3,TRUE),VLOOKUP($R$14,DATA_IO,3,TRUE),VLOOKUP($R$15,DATA_IO,3,TRUE),VLOOKUP($R$16,DATA_IO,3,TRUE),VLOOKUP($X$9,DATA_IO,3,TRUE),VLOOKUP($X$10,DATA_IO,3,TRUE),VLOOKUP($X$11,DATA_IO,3,TRUE),VLOOKUP($X$12,DATA_IO,3,TRUE),VLOOKUP($X$13,DATA_IO,3,TRUE),VLOOKUP($X$14,DATA_IO,3,TRUE),VLOOKUP($X$15,DATA_IO,3,TRUE),VLOOKUP($X$16,DATA_IO,3,TRUE))</f>
         <v>0</v>
       </c>
@@ -3354,36 +3384,36 @@
         <v>11440</v>
       </c>
       <c r="F15" s="25">
-        <f>'資料-迎擊'!$AL$3*16</f>
+        <f>'資料-迎擊'!$AO$3*16</f>
         <v>11440</v>
       </c>
       <c r="G15" s="49">
         <f>IF(D15-C15 &lt;= 0,ABS(D15-C15),"")</f>
-        <v>0</v>
+        <v>8436</v>
       </c>
       <c r="I15" s="80">
         <f>IF(D15-C15 &lt; 0,0,D15-C15)</f>
         <v>0</v>
       </c>
       <c r="J15" s="64">
-        <f t="shared" si="3"/>
+        <f>IF(E15/F15 &gt; 1,100%,E15/F15)</f>
         <v>1</v>
       </c>
-      <c r="K15" s="211">
+      <c r="K15" s="205">
         <f>IFERROR(ROUND(I15/N15,0),0)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="211"/>
+      <c r="L15" s="205"/>
       <c r="M15" s="2">
         <f>K15/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
       </c>
       <c r="N15" s="13">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!AC:AC,'資料-迎擊'!AE:AE)/O$12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="211"/>
-      <c r="Q15" s="207" t="s">
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!AG:AG,'資料-迎擊'!AK:AK)/O$14,"")</f>
+        <v>1.96</v>
+      </c>
+      <c r="O15" s="205"/>
+      <c r="Q15" s="214" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="101">
@@ -3397,14 +3427,14 @@
         <v>23</v>
       </c>
       <c r="U15" s="108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V15" s="53" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W15" s="206" t="s">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W15" s="215" t="s">
         <v>2</v>
       </c>
       <c r="X15" s="102">
@@ -3419,24 +3449,24 @@
         <v>23</v>
       </c>
       <c r="AB15" s="109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC15" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD15" s="72"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="210"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="56" t="s">
         <v>121</v>
       </c>
       <c r="C16" s="83">
-        <v>0</v>
-      </c>
-      <c r="D16" s="165">
+        <v>73442</v>
+      </c>
+      <c r="D16" s="163">
         <f>SUM(VLOOKUP($R$9,DATA_IO,2,TRUE),VLOOKUP($R$10,DATA_IO,2,TRUE),VLOOKUP($R$11,DATA_IO,2,TRUE),VLOOKUP($R$12,DATA_IO,2,TRUE),VLOOKUP($R$13,DATA_IO,2,TRUE),VLOOKUP($R$14,DATA_IO,2,TRUE),VLOOKUP($R$15,DATA_IO,2,TRUE),VLOOKUP($R$16,DATA_IO,2,TRUE),VLOOKUP($X$9,DATA_IO,2,TRUE),VLOOKUP($X$10,DATA_IO,2,TRUE),VLOOKUP($X$11,DATA_IO,2,TRUE),VLOOKUP($X$12,DATA_IO,2,TRUE),VLOOKUP($X$13,DATA_IO,2,TRUE),VLOOKUP($X$14,DATA_IO,2,TRUE),VLOOKUP($X$15,DATA_IO,2,TRUE),VLOOKUP($X$16,DATA_IO,2,TRUE))</f>
         <v>0</v>
       </c>
@@ -3445,36 +3475,36 @@
         <v>38080</v>
       </c>
       <c r="F16" s="25">
-        <f>'資料-迎擊'!$AK$3*16</f>
+        <f>'資料-迎擊'!$AN$3*16</f>
         <v>38080</v>
       </c>
       <c r="G16" s="49">
         <f>IF(D16-C16 &lt;= 0,ABS(D16-C16),"")</f>
-        <v>0</v>
+        <v>73442</v>
       </c>
       <c r="I16" s="80">
         <f>IF(D16-C16 &lt; 0,0,D16-C16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="64">
-        <f t="shared" si="3"/>
+        <f>IF(E16/F16 &gt; 1,100%,E16/F16)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="211">
+      <c r="K16" s="205">
         <f>IFERROR(ROUND(I16/N16,0),0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="211"/>
+      <c r="L16" s="205"/>
       <c r="M16" s="2">
         <f>L16/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
       </c>
       <c r="N16" s="13">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!AF:AF,'資料-迎擊'!AH:AH)/O$12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="211"/>
-      <c r="Q16" s="207"/>
+        <f>IFERROR(SUMPRODUCT('資料-迎擊'!AI:AI,'資料-迎擊'!AK:AK)/O$14,"")</f>
+        <v>12.24</v>
+      </c>
+      <c r="O16" s="205"/>
+      <c r="Q16" s="214"/>
       <c r="R16" s="101">
         <v>30</v>
       </c>
@@ -3486,14 +3516,14 @@
         <v>23</v>
       </c>
       <c r="U16" s="108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V16" s="53" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W16" s="206"/>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W16" s="215"/>
       <c r="X16" s="102">
         <v>30</v>
       </c>
@@ -3506,42 +3536,40 @@
         <v>23</v>
       </c>
       <c r="AB16" s="109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC16" s="71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
+  <mergeCells count="22">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L12:L13"/>
     <mergeCell ref="W15:W16"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="W13:W14"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A16"/>
-    <mergeCell ref="O12:O16"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="K12:K13"/>
   </mergeCells>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="J3">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3569,7 +3597,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J7">
+  <conditionalFormatting sqref="J5:J7">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3583,7 +3611,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="J7:J9">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3597,7 +3625,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
+  <conditionalFormatting sqref="J9:J12">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3625,7 +3653,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
+  <conditionalFormatting sqref="J2">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3654,6 +3682,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3671,7 +3700,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J2</xm:sqref>
+          <xm:sqref>J3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CE014E67-50D4-4826-8B66-5E0782459B41}">
@@ -3703,7 +3732,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J6:J7</xm:sqref>
+          <xm:sqref>J5:J7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{33A8D5EC-E90C-4644-A754-4D330BE95D48}">
@@ -3719,7 +3748,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J8:J9</xm:sqref>
+          <xm:sqref>J7:J9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7CC66973-902C-42AA-A7A3-C8F9AF4EC809}">
@@ -3735,7 +3764,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J10:J11</xm:sqref>
+          <xm:sqref>J9:J12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D1D71DDA-FD04-4BCE-8864-A61B492CD711}">
@@ -3767,7 +3796,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J3</xm:sqref>
+          <xm:sqref>J2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1D7F4491-8C2F-441D-95D1-70C0FE1CF4E3}">
@@ -3798,7 +3827,7 @@
   </sheetPr>
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -8202,38 +8231,38 @@
         <v>32</v>
       </c>
       <c r="I1" s="89"/>
-      <c r="J1" s="220" t="s">
+      <c r="J1" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="231" t="s">
+      <c r="K1" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231" t="s">
+      <c r="L1" s="237"/>
+      <c r="M1" s="237" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="231"/>
-      <c r="O1" s="230" t="s">
+      <c r="N1" s="237"/>
+      <c r="O1" s="236" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="220" t="s">
+      <c r="P1" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220" t="s">
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="219">
+      <c r="B2" s="225">
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTA(DATA_HDRAG_HBRUN),"")</f>
         <v>295</v>
       </c>
@@ -8253,12 +8282,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=5"),"")</f>
         <v>11</v>
       </c>
-      <c r="G2" s="229">
+      <c r="G2" s="235">
         <f>IF(HDRAG_HAS_REC_HBRUN,AVERAGE(DATA_HDRAG_HBRUN),"")</f>
         <v>2.4305084745762713</v>
       </c>
       <c r="I2" s="89"/>
-      <c r="J2" s="220"/>
+      <c r="J2" s="226"/>
       <c r="K2" s="51" t="s">
         <v>50</v>
       </c>
@@ -8271,7 +8300,7 @@
       <c r="N2" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="230"/>
+      <c r="O2" s="236"/>
       <c r="P2" s="89">
         <v>2</v>
       </c>
@@ -8298,8 +8327,8 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="218"/>
-      <c r="B3" s="219"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="225"/>
       <c r="C3" s="118">
         <f>IF(HDRAG_HAS_REC_HBRUN,C2/$B2,"")</f>
         <v>0.68813559322033901</v>
@@ -8316,11 +8345,11 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,F2/$B2,"")</f>
         <v>3.7288135593220341E-2</v>
       </c>
-      <c r="G3" s="229"/>
+      <c r="G3" s="235"/>
       <c r="I3" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="191">
+      <c r="J3" s="188">
         <v>414</v>
       </c>
       <c r="K3" s="49">
@@ -8375,10 +8404,10 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="217" t="str">
+      <c r="B4" s="223" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTA(DATA_HDRAG_HMERC),"")</f>
         <v/>
       </c>
@@ -8398,14 +8427,14 @@
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G4" s="228" t="str">
+      <c r="G4" s="234" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,AVERAGE(DATA_HDRAG_HMERC),"")</f>
         <v/>
       </c>
       <c r="I4" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="191"/>
+      <c r="J4" s="188"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_BUILDING,K4 + 1),"")</f>
@@ -8454,8 +8483,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="216"/>
-      <c r="B5" s="217"/>
+      <c r="A5" s="222"/>
+      <c r="B5" s="223"/>
       <c r="C5" s="120" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,C4/$B4,"")</f>
         <v/>
@@ -8472,11 +8501,11 @@
         <f>IF(HDRAG_HAS_REC_HMERC,F4/$B4,"")</f>
         <v/>
       </c>
-      <c r="G5" s="228"/>
+      <c r="G5" s="234"/>
       <c r="I5" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="191">
+      <c r="J5" s="188">
         <v>76</v>
       </c>
       <c r="K5" s="49">
@@ -8531,10 +8560,10 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="215">
+      <c r="B6" s="221">
         <f>IF(HDRAG_HAS_REC_HMID,COUNTA(DATA_HDRAG_HMID),"")</f>
         <v>799</v>
       </c>
@@ -8554,14 +8583,14 @@
         <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=5"),"")</f>
         <v>49</v>
       </c>
-      <c r="G6" s="227">
+      <c r="G6" s="233">
         <f>IF(HDRAG_HAS_REC_HMID,AVERAGE(DATA_HDRAG_HMID),"")</f>
         <v>2.5519399249061325</v>
       </c>
       <c r="I6" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="191"/>
+      <c r="J6" s="188"/>
       <c r="K6" s="49"/>
       <c r="L6" s="49" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,INDEX(DATA_HDRAGS_BUILDING,K6 + 1),"")</f>
@@ -8610,8 +8639,8 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="214"/>
-      <c r="B7" s="215"/>
+      <c r="A7" s="220"/>
+      <c r="B7" s="221"/>
       <c r="C7" s="122">
         <f>IF(HDRAG_HAS_REC_HMID,C6/$B6,"")</f>
         <v>0.6483103879849812</v>
@@ -8628,11 +8657,11 @@
         <f>IF(HDRAG_HAS_REC_HMID,F6/$B6,"")</f>
         <v>6.1326658322903627E-2</v>
       </c>
-      <c r="G7" s="227"/>
+      <c r="G7" s="233"/>
       <c r="I7" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="191"/>
+      <c r="J7" s="188"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,INDEX(DATA_HDRAGS_BUILDING,K7 + 1),"")</f>
@@ -8681,10 +8710,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="224" t="str">
+      <c r="B8" s="230" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTA(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
@@ -8704,14 +8733,14 @@
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G8" s="226" t="str">
+      <c r="G8" s="232" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,AVERAGE(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="223"/>
-      <c r="B9" s="224"/>
+      <c r="A9" s="229"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="124" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,C8/$B8,"")</f>
         <v/>
@@ -8728,13 +8757,13 @@
         <f>IF(HDRAG_HAS_REC_HJUP,F8/$B8,"")</f>
         <v/>
       </c>
-      <c r="G9" s="226"/>
+      <c r="G9" s="232"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="221" t="s">
+      <c r="A10" s="227" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="222" t="str">
+      <c r="B10" s="228" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTA(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
@@ -8754,14 +8783,14 @@
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G10" s="225" t="str">
+      <c r="G10" s="231" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,AVERAGE(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
-      <c r="B11" s="222"/>
+      <c r="A11" s="227"/>
+      <c r="B11" s="228"/>
       <c r="C11" s="125" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,C10/$B10,"")</f>
         <v/>
@@ -8778,18 +8807,18 @@
         <f>IF(HDRAG_HAS_REC_HZOD,F10/$B10,"")</f>
         <v/>
       </c>
-      <c r="G11" s="225"/>
+      <c r="G11" s="231"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="220" t="s">
+      <c r="B13" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="226"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
@@ -8942,14 +8971,14 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="220" t="s">
+      <c r="B20" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="220"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="220"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
@@ -9102,12 +9131,12 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="220"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="220"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
@@ -9250,14 +9279,14 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
-      <c r="B34" s="220" t="s">
+      <c r="B34" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="220"/>
-      <c r="D34" s="220"/>
-      <c r="E34" s="220"/>
-      <c r="F34" s="220"/>
-      <c r="G34" s="220"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
@@ -9726,15 +9755,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="240" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
       <c r="J1" s="33"/>
       <c r="K1" s="32" t="s">
         <v>31</v>
@@ -9756,38 +9785,38 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="238" t="s">
+      <c r="B2" s="243"/>
+      <c r="C2" s="244" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="238"/>
-      <c r="E2" s="236" t="s">
+      <c r="D2" s="244"/>
+      <c r="E2" s="242" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
       <c r="J2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="194">
+      <c r="K2" s="191">
         <v>247964</v>
       </c>
-      <c r="L2" s="194">
+      <c r="L2" s="191">
         <v>9</v>
       </c>
-      <c r="M2" s="194">
+      <c r="M2" s="191">
         <v>9603</v>
       </c>
-      <c r="N2" s="195">
+      <c r="N2" s="192">
         <v>322</v>
       </c>
-      <c r="O2" s="195">
+      <c r="O2" s="192">
         <v>44</v>
       </c>
-      <c r="P2" s="195">
+      <c r="P2" s="192">
         <f>M2*DRAGEXP_S+N2*DRAGEXP_M+O2*DRAGEXP_L</f>
         <v>1916450</v>
       </c>
@@ -9808,30 +9837,30 @@
       <c r="E3" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="232">
+      <c r="F3" s="238">
         <f>_xlfn.FLOOR.MATH(B7/MAX(DATA_DRAG_ACCU_EXP))</f>
         <v>8</v>
       </c>
-      <c r="G3" s="232"/>
+      <c r="G3" s="238"/>
       <c r="J3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="194">
+      <c r="K3" s="191">
         <v>247864</v>
       </c>
-      <c r="L3" s="194">
+      <c r="L3" s="191">
         <v>1</v>
       </c>
-      <c r="M3" s="194">
+      <c r="M3" s="191">
         <v>9734</v>
       </c>
-      <c r="N3" s="195">
+      <c r="N3" s="192">
         <v>342</v>
       </c>
-      <c r="O3" s="195">
+      <c r="O3" s="192">
         <v>44</v>
       </c>
-      <c r="P3" s="195">
+      <c r="P3" s="192">
         <f>M3*DRAGEXP_S+N3*DRAGEXP_M+O3*DRAGEXP_L</f>
         <v>1956100</v>
       </c>
@@ -9852,11 +9881,11 @@
       <c r="E4" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="232">
+      <c r="F4" s="238">
         <f>MATCH(B10,DATA_DRAG_ACCU_EXP,0)</f>
         <v>97</v>
       </c>
-      <c r="G4" s="232"/>
+      <c r="G4" s="238"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -9881,11 +9910,11 @@
       <c r="E5" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="232">
+      <c r="F5" s="238">
         <f>INDEX(DATA_DRAG_LV_EXP,F4)-(B9-B10)</f>
         <v>36940</v>
       </c>
-      <c r="G5" s="232"/>
+      <c r="G5" s="238"/>
       <c r="J5" s="30" t="s">
         <v>76</v>
       </c>
@@ -9897,18 +9926,18 @@
       <c r="M5" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="235">
+      <c r="N5" s="241">
         <f>IF(K6&gt;0,K5/K6,"")</f>
         <v>2478.125</v>
       </c>
-      <c r="O5" s="235"/>
+      <c r="O5" s="241"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="193">
+      <c r="B6" s="190">
         <f>B3*DRAGEXP_S+B4*DRAGEXP_M+B5*DRAGEXP_L</f>
         <v>12253800</v>
       </c>
@@ -9932,10 +9961,10 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="189" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="193">
+      <c r="B7" s="190">
         <f>B6-B8</f>
         <v>11046380</v>
       </c>
@@ -9945,11 +9974,11 @@
       <c r="D7" s="117">
         <v>32600</v>
       </c>
-      <c r="E7" s="220" t="s">
+      <c r="E7" s="226" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -9966,10 +9995,10 @@
         <f>D3*DRAGON_EXP_60+D4*DRAGON_EXP_80+D5*DRAGON_EXP_100+INDEX(DATA_DRAG_ACCU_EXP,D6)+(INDEX(DATA_DRAG_LV_EXP,D6)-D7)</f>
         <v>1207420</v>
       </c>
-      <c r="E8" s="220" t="s">
+      <c r="E8" s="226" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="233">
+      <c r="F8" s="239">
         <f>IF(G9 &gt; 0,SUM(DATA_DRAGON_EXP)/G9,0)</f>
         <v>2673.9277652370201</v>
       </c>
@@ -9989,8 +10018,8 @@
         <f>MOD(B7,DRAGON_EXP_100)</f>
         <v>1126220</v>
       </c>
-      <c r="E9" s="220"/>
-      <c r="F9" s="233"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="239"/>
       <c r="G9" s="110">
         <f>SUM(DATA_DRAGON_PLAYS)</f>
         <v>443</v>
@@ -10085,10 +10114,10 @@
       <c r="A1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="239">
+      <c r="B1" s="245">
         <v>376</v>
       </c>
-      <c r="C1" s="239"/>
+      <c r="C1" s="245"/>
       <c r="E1" s="33"/>
       <c r="F1" s="32" t="s">
         <v>31</v>
@@ -10113,22 +10142,22 @@
       <c r="E2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="196">
+      <c r="F2" s="193">
         <v>126399</v>
       </c>
-      <c r="G2" s="196">
+      <c r="G2" s="193">
         <v>8</v>
       </c>
-      <c r="H2" s="196">
+      <c r="H2" s="193">
         <v>1</v>
       </c>
-      <c r="I2" s="196">
+      <c r="I2" s="193">
         <v>430</v>
       </c>
-      <c r="J2" s="196">
+      <c r="J2" s="193">
         <v>12</v>
       </c>
-      <c r="K2" s="196">
+      <c r="K2" s="193">
         <v>3</v>
       </c>
     </row>
@@ -10143,22 +10172,22 @@
       <c r="E3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="196">
+      <c r="F3" s="193">
         <v>126399</v>
       </c>
-      <c r="G3" s="196">
+      <c r="G3" s="193">
         <v>6</v>
       </c>
-      <c r="H3" s="196">
+      <c r="H3" s="193">
         <v>1</v>
       </c>
-      <c r="I3" s="196">
+      <c r="I3" s="193">
         <v>435</v>
       </c>
-      <c r="J3" s="196">
+      <c r="J3" s="193">
         <v>13</v>
       </c>
-      <c r="K3" s="196">
+      <c r="K3" s="193">
         <v>3</v>
       </c>
     </row>
@@ -10290,7 +10319,7 @@
   </sheetPr>
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -10309,30 +10338,30 @@
       <c r="A1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="262">
+      <c r="B1" s="249">
         <v>43523.916666666664</v>
       </c>
-      <c r="C1" s="262"/>
+      <c r="C1" s="249"/>
       <c r="D1" s="46" t="s">
         <v>101</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="220" t="s">
+      <c r="F1" s="226" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="262">
+      <c r="B2" s="249">
         <v>43535.916666666664</v>
       </c>
-      <c r="C2" s="262"/>
+      <c r="C2" s="249"/>
       <c r="D2" s="48" t="str">
         <f ca="1">IF(RAID_TIME_END-NOW()&lt;0,"",RAID_TIME_END-NOW())</f>
         <v/>
@@ -10341,12 +10370,12 @@
         <f>B2-B1</f>
         <v>12</v>
       </c>
-      <c r="F2" s="243" t="str">
+      <c r="F2" s="250" t="str">
         <f ca="1">IF(NOW() &gt; $B$2,"",(NOW()-$B$1)/($B$2-$B$1))</f>
         <v/>
       </c>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
@@ -10362,10 +10391,10 @@
       <c r="E4" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="240" t="s">
+      <c r="F4" s="246" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="240"/>
+      <c r="G4" s="246"/>
       <c r="H4" s="30" t="s">
         <v>94</v>
       </c>
@@ -10384,27 +10413,27 @@
       </c>
       <c r="C5" s="40">
         <f ca="1">$E$5*(NOW()-$B$1)/$E$2</f>
-        <v>501292.25115742884</v>
+        <v>501812.87471068575</v>
       </c>
       <c r="D5" s="40">
         <f ca="1">B5*$E$2/(NOW()-$B$1)</f>
-        <v>41645.167966986686</v>
-      </c>
-      <c r="E5" s="261">
+        <v>41601.961711396987</v>
+      </c>
+      <c r="E5" s="194">
         <v>150000</v>
       </c>
-      <c r="F5" s="241">
+      <c r="F5" s="247">
         <f>B5/E5</f>
         <v>0.92784</v>
       </c>
-      <c r="G5" s="241"/>
+      <c r="G5" s="247"/>
       <c r="H5" s="43">
         <f ca="1">B5 - (E5*(NOW()-$B$1)/$E$2)</f>
-        <v>-362116.25115742884</v>
+        <v>-362636.87471068575</v>
       </c>
       <c r="I5" s="43">
         <f ca="1">D5-RAID_GOAL_EMBLEM</f>
-        <v>-108354.83203301331</v>
+        <v>-108398.03828860301</v>
       </c>
       <c r="J5" s="29"/>
     </row>
@@ -10418,53 +10447,53 @@
       </c>
       <c r="C6" s="40">
         <f ca="1">$E$6*(NOW()-$B$1)/$E$2</f>
-        <v>334194.83410495258</v>
+        <v>334541.91647379048</v>
       </c>
       <c r="D6" s="40">
         <f ca="1">B6*$E$2/(NOW()-$B$1)</f>
-        <v>36426.355998599793</v>
-      </c>
-      <c r="E6" s="261">
+        <v>36388.564184463641</v>
+      </c>
+      <c r="E6" s="194">
         <v>100000</v>
       </c>
-      <c r="F6" s="241">
+      <c r="F6" s="247">
         <f>B6/E6</f>
         <v>1.2173499999999999</v>
       </c>
-      <c r="G6" s="241"/>
+      <c r="G6" s="247"/>
       <c r="H6" s="43">
         <f ca="1">B6 - (E6*(NOW()-$B$1)/$E$2)</f>
-        <v>-212459.83410495258</v>
+        <v>-212806.91647379048</v>
       </c>
       <c r="I6" s="43">
         <f ca="1">D6-RAID_GOAL_BLAZON</f>
-        <v>-63573.644001400207</v>
+        <v>-63611.435815536359</v>
       </c>
       <c r="J6" s="29"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="242"/>
-      <c r="D8" s="240" t="s">
+      <c r="C8" s="248"/>
+      <c r="D8" s="246" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240" t="s">
+      <c r="E8" s="246"/>
+      <c r="F8" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="240"/>
-      <c r="H8" s="220" t="s">
+      <c r="G8" s="246"/>
+      <c r="H8" s="226" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220" t="s">
+      <c r="I8" s="226"/>
+      <c r="J8" s="226" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="220"/>
-      <c r="L8" s="220"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
@@ -14282,2003 +14311,1913 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AR33"/>
+  <dimension ref="A1:AU33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="175" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="74" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="175" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="90" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="75" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="182" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="91" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="76" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="173" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="172" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="74" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="172" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="90" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="91" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="75" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="179" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="91" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" style="76" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="173" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="170" customWidth="1"/>
     <col min="15" max="15" width="4.85546875" style="92" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="77" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="171" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" style="77" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="171" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="93" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" style="78" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="184" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" style="78" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="184" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="94" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" style="179" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="186" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="160" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" style="162" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" style="188" customWidth="1"/>
-    <col min="31" max="31" width="4.85546875" style="163" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="168" customWidth="1"/>
-    <col min="33" max="33" width="4.85546875" style="190" customWidth="1"/>
-    <col min="34" max="34" width="4.85546875" style="169" customWidth="1"/>
-    <col min="35" max="35" width="3.5703125" customWidth="1"/>
-    <col min="36" max="36" width="4.28515625" style="72" customWidth="1"/>
-    <col min="37" max="43" width="5.42578125" style="72" customWidth="1"/>
-    <col min="44" max="44" width="9.42578125" style="72" customWidth="1"/>
-    <col min="45" max="16381" width="8.5703125" style="73"/>
-    <col min="16382" max="16384" width="9.140625" style="73" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="76" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="170" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="92" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="77" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="168" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="93" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" style="77" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="168" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="93" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="78" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="181" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="94" customWidth="1"/>
+    <col min="28" max="28" width="6.85546875" style="78" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="181" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="94" customWidth="1"/>
+    <col min="31" max="31" width="6.85546875" style="176" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" style="183" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" style="161" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" style="185" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" style="166" customWidth="1"/>
+    <col min="36" max="36" width="4.85546875" style="187" customWidth="1"/>
+    <col min="37" max="37" width="4.85546875" style="203" customWidth="1"/>
+    <col min="38" max="38" width="3.5703125" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" style="72" customWidth="1"/>
+    <col min="40" max="46" width="5.42578125" style="72" customWidth="1"/>
+    <col min="47" max="47" width="9.42578125" style="72" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="244" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="251" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="261" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="254"/>
-      <c r="E1" s="244" t="s">
+      <c r="E1" s="261"/>
+      <c r="F1" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="250" t="s">
+      <c r="G1" s="257" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="253" t="s">
+      <c r="H1" s="257"/>
+      <c r="I1" s="257" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="253"/>
-      <c r="J1" s="250" t="s">
+      <c r="K1" s="260"/>
+      <c r="L1" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="251" t="s">
+      <c r="M1" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="251"/>
-      <c r="M1" s="252" t="s">
+      <c r="N1" s="258"/>
+      <c r="O1" s="258" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="252"/>
-      <c r="O1" s="251" t="s">
+      <c r="Q1" s="259"/>
+      <c r="R1" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="248" t="s">
+      <c r="S1" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249" t="s">
+      <c r="T1" s="255"/>
+      <c r="U1" s="255" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="256" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="249"/>
-      <c r="T1" s="248" t="s">
+      <c r="W1" s="256"/>
+      <c r="X1" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="246" t="s">
+      <c r="Y1" s="253" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="246"/>
-      <c r="W1" s="247" t="s">
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="253" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="254" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="247"/>
-      <c r="Y1" s="246" t="s">
+      <c r="AC1" s="254"/>
+      <c r="AD1" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="257" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="257"/>
-      <c r="AB1" s="258" t="s">
+      <c r="AE1" s="264" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF1" s="264"/>
+      <c r="AG1" s="265" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="262" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ1" s="262"/>
+      <c r="AK1" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="259" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD1" s="259"/>
-      <c r="AE1" s="260" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="255" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG1" s="255"/>
-      <c r="AH1" s="256" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="245" t="s">
+      <c r="AM1" s="252" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="245"/>
-      <c r="AL1" s="245"/>
-      <c r="AM1" s="245"/>
-      <c r="AN1" s="245"/>
-      <c r="AO1" s="245"/>
-      <c r="AP1" s="245"/>
-      <c r="AQ1" s="245"/>
-      <c r="AR1" s="245"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="177" t="s">
+      <c r="AN1" s="252"/>
+      <c r="AO1" s="252"/>
+      <c r="AP1" s="252"/>
+      <c r="AQ1" s="252"/>
+      <c r="AR1" s="252"/>
+      <c r="AS1" s="252"/>
+      <c r="AT1" s="252"/>
+      <c r="AU1" s="252"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="251"/>
+      <c r="D2" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="E2" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="244"/>
-      <c r="F2" s="176" t="s">
+      <c r="F2" s="251"/>
+      <c r="G2" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="174" t="s">
+      <c r="H2" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="145" t="s">
+      <c r="I2" s="257"/>
+      <c r="J2" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="181" t="s">
+      <c r="K2" s="178" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="250"/>
-      <c r="K2" s="146" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="172" t="s">
-        <v>118</v>
-      </c>
+      <c r="L2" s="257"/>
       <c r="M2" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="172" t="s">
+      <c r="N2" s="169" t="s">
         <v>118</v>
       </c>
-      <c r="O2" s="251"/>
-      <c r="P2" s="147" t="s">
+      <c r="O2" s="258"/>
+      <c r="P2" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="170" t="s">
+      <c r="Q2" s="169" t="s">
         <v>118</v>
       </c>
-      <c r="R2" s="147" t="s">
+      <c r="R2" s="258"/>
+      <c r="S2" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="170" t="s">
+      <c r="T2" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="T2" s="248"/>
-      <c r="U2" s="148" t="s">
+      <c r="U2" s="255"/>
+      <c r="V2" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="183" t="s">
+      <c r="W2" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="W2" s="148" t="s">
+      <c r="X2" s="255"/>
+      <c r="Y2" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="183" t="s">
+      <c r="Z2" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="Y2" s="246"/>
-      <c r="Z2" s="159" t="s">
+      <c r="AA2" s="253"/>
+      <c r="AB2" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="185" t="s">
+      <c r="AC2" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="AB2" s="258"/>
-      <c r="AC2" s="161" t="s">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="187" t="s">
+      <c r="AF2" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="AE2" s="260"/>
-      <c r="AF2" s="167" t="s">
+      <c r="AG2" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="189" t="s">
+      <c r="AH2" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="AH2" s="256"/>
-      <c r="AJ2" s="72" t="s">
+      <c r="AI2" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="186" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK2" s="263"/>
+      <c r="AM2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AK2" s="72" t="s">
+      <c r="AN2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="72" t="s">
+      <c r="AO2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="72" t="s">
+      <c r="AP2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="72" t="s">
+      <c r="AQ2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AO2" s="72" t="s">
+      <c r="AR2" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="AP2" s="72" t="s">
+      <c r="AS2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="AQ2" s="72" t="s">
+      <c r="AT2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR2" s="72" t="s">
+      <c r="AU2" s="72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="74">
-        <f>B3/E3</f>
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="74">
-        <f>D3/E3</f>
+      <c r="D3" s="74">
+        <f>E3/F3</f>
         <v>3.5363427697016068</v>
       </c>
-      <c r="D3" s="175">
+      <c r="E3" s="172">
         <v>4622</v>
       </c>
-      <c r="E3" s="90">
+      <c r="F3" s="90">
         <v>1307</v>
       </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:F17" si="0">G3/J3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="75">
-        <f t="shared" ref="H3:H17" si="1">I3/J3</f>
+      <c r="J3" s="75">
+        <f t="shared" ref="J3:J17" si="0">K3/L3</f>
         <v>3.5274390243902438</v>
       </c>
-      <c r="I3" s="182">
+      <c r="K3" s="179">
         <v>1157</v>
       </c>
-      <c r="J3" s="91">
+      <c r="L3" s="91">
         <v>328</v>
       </c>
-      <c r="K3" s="76">
-        <f t="shared" ref="K3:K8" si="2">L3/O3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="76">
-        <f t="shared" ref="M3:M8" si="3">N3/O3</f>
+      <c r="P3" s="76">
+        <f t="shared" ref="P3:P8" si="1">Q3/R3</f>
         <v>3.5833333333333335</v>
       </c>
-      <c r="N3" s="173">
+      <c r="Q3" s="170">
         <v>172</v>
       </c>
-      <c r="O3" s="92">
+      <c r="R3" s="92">
         <v>48</v>
       </c>
-      <c r="P3" s="77">
-        <f t="shared" ref="P3:P8" si="4">Q3/T3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="77">
-        <f t="shared" ref="R3:R8" si="5">S3/T3</f>
+      <c r="V3" s="77">
+        <f t="shared" ref="V3:V8" si="2">W3/X3</f>
         <v>3.5063291139240507</v>
       </c>
-      <c r="S3" s="171">
+      <c r="W3" s="168">
         <v>554</v>
       </c>
-      <c r="T3" s="93">
+      <c r="X3" s="93">
         <v>158</v>
       </c>
-      <c r="U3" s="12">
-        <f>V3/Y3</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="78">
-        <f>X3/Y3</f>
+      <c r="Y3" s="78">
+        <f>Z3/AD8</f>
+        <v>1.44</v>
+      </c>
+      <c r="Z3" s="181">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="94">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="78">
+        <f t="shared" ref="AB3:AB8" si="3">AC3/AD3</f>
         <v>3.547945205479452</v>
       </c>
-      <c r="X3" s="184">
+      <c r="AC3" s="181">
         <v>518</v>
       </c>
-      <c r="Y3" s="65">
+      <c r="AD3" s="65">
         <v>146</v>
       </c>
-      <c r="AJ3" s="72">
+      <c r="AE3" s="176">
+        <f>AF3/AK3</f>
+        <v>1.68</v>
+      </c>
+      <c r="AF3" s="183">
+        <v>84</v>
+      </c>
+      <c r="AG3" s="161">
+        <f>AH3/AK3</f>
+        <v>1.96</v>
+      </c>
+      <c r="AH3" s="185">
+        <v>98</v>
+      </c>
+      <c r="AI3" s="166">
+        <f>AJ3/AK3</f>
+        <v>12.24</v>
+      </c>
+      <c r="AJ3" s="187">
+        <v>612</v>
+      </c>
+      <c r="AK3" s="203">
+        <v>50</v>
+      </c>
+      <c r="AM3" s="72">
         <v>1</v>
       </c>
-      <c r="AK3" s="72">
+      <c r="AN3" s="72">
         <v>2380</v>
       </c>
-      <c r="AL3" s="72">
+      <c r="AO3" s="72">
         <v>715</v>
       </c>
-      <c r="AM3" s="72">
+      <c r="AP3" s="72">
         <v>650</v>
       </c>
-      <c r="AN3" s="72">
+      <c r="AQ3" s="72">
         <v>1430</v>
       </c>
-      <c r="AO3" s="72">
+      <c r="AR3" s="72">
         <v>200</v>
       </c>
-      <c r="AP3" s="72">
-        <v>3</v>
-      </c>
-      <c r="AQ3" s="72">
-        <v>3</v>
-      </c>
-      <c r="AR3" s="79">
+      <c r="AS3" s="72">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="72">
+        <v>3</v>
+      </c>
+      <c r="AU3" s="79">
         <v>25.6875</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="74">
-        <f>B4/E4</f>
-        <v>0</v>
-      </c>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
-      <c r="C4" s="74">
-        <f>D4/E4</f>
+      <c r="D4" s="74">
+        <f>E4/F4</f>
         <v>3.4642857142857144</v>
       </c>
-      <c r="D4" s="175">
+      <c r="E4" s="172">
         <v>97</v>
       </c>
-      <c r="E4" s="90">
+      <c r="F4" s="90">
         <v>28</v>
       </c>
-      <c r="F4" s="9">
+      <c r="J4" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="75">
+        <v>3.625</v>
+      </c>
+      <c r="K4" s="179">
+        <v>58</v>
+      </c>
+      <c r="L4" s="91">
+        <v>16</v>
+      </c>
+      <c r="P4" s="76">
         <f t="shared" si="1"/>
-        <v>3.625</v>
-      </c>
-      <c r="I4" s="182">
-        <v>58</v>
-      </c>
-      <c r="J4" s="91">
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="Q4" s="170">
+        <v>93</v>
+      </c>
+      <c r="R4" s="92">
+        <v>27</v>
+      </c>
+      <c r="V4" s="77">
+        <f t="shared" si="2"/>
+        <v>3.4966442953020134</v>
+      </c>
+      <c r="W4" s="168">
+        <v>521</v>
+      </c>
+      <c r="X4" s="93">
+        <v>149</v>
+      </c>
+      <c r="Y4" s="12"/>
+      <c r="AA4" s="196"/>
+      <c r="AB4" s="78">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AC4" s="181">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="65">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="72">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="72">
+        <v>2370</v>
+      </c>
+      <c r="AO4" s="72">
+        <v>715</v>
+      </c>
+      <c r="AP4" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ4" s="72">
+        <v>1430</v>
+      </c>
+      <c r="AR4" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS4" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="AT4" s="72">
+        <v>3</v>
+      </c>
+      <c r="AU4" s="79">
+        <v>25.666666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="D5" s="74">
+        <f>E5/F5</f>
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="172">
+        <v>7</v>
+      </c>
+      <c r="F5" s="90">
+        <v>2</v>
+      </c>
+      <c r="J5" s="75">
+        <f t="shared" si="0"/>
+        <v>3.48</v>
+      </c>
+      <c r="K5" s="179">
+        <v>87</v>
+      </c>
+      <c r="L5" s="91">
+        <v>25</v>
+      </c>
+      <c r="P5" s="76">
+        <f t="shared" si="1"/>
+        <v>3.3571428571428572</v>
+      </c>
+      <c r="Q5" s="170">
+        <v>94</v>
+      </c>
+      <c r="R5" s="92">
+        <v>28</v>
+      </c>
+      <c r="V5" s="77">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="W5" s="168">
+        <v>63</v>
+      </c>
+      <c r="X5" s="93">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="12"/>
+      <c r="AA5" s="196"/>
+      <c r="AB5" s="78">
+        <f t="shared" si="3"/>
+        <v>3.4727272727272727</v>
+      </c>
+      <c r="AC5" s="181">
+        <v>191</v>
+      </c>
+      <c r="AD5" s="65">
+        <v>55</v>
+      </c>
+      <c r="AM5" s="72">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="72">
+        <v>2360</v>
+      </c>
+      <c r="AO5" s="72">
+        <v>715</v>
+      </c>
+      <c r="AP5" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ5" s="72">
+        <v>1430</v>
+      </c>
+      <c r="AR5" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS5" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="AT5" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" s="79">
+        <v>25.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="D6" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="179">
+        <v>12</v>
+      </c>
+      <c r="L6" s="91">
+        <v>4</v>
+      </c>
+      <c r="P6" s="76">
+        <f t="shared" si="1"/>
+        <v>3.3157894736842106</v>
+      </c>
+      <c r="Q6" s="170">
+        <v>63</v>
+      </c>
+      <c r="R6" s="92">
+        <v>19</v>
+      </c>
+      <c r="V6" s="77">
+        <f t="shared" si="2"/>
+        <v>3.5142857142857142</v>
+      </c>
+      <c r="W6" s="168">
+        <v>123</v>
+      </c>
+      <c r="X6" s="93">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="78">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="AC6" s="181">
+        <v>90</v>
+      </c>
+      <c r="AD6" s="65">
+        <v>25</v>
+      </c>
+      <c r="AM6" s="72">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="72">
+        <v>2350</v>
+      </c>
+      <c r="AO6" s="72">
+        <v>715</v>
+      </c>
+      <c r="AP6" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ6" s="72">
+        <v>1430</v>
+      </c>
+      <c r="AR6" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS6" s="72">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="AU6" s="79">
+        <v>25.541666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="D7" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="75">
+        <f t="shared" si="0"/>
+        <v>3.5118110236220472</v>
+      </c>
+      <c r="K7" s="179">
+        <v>446</v>
+      </c>
+      <c r="L7" s="91">
+        <v>127</v>
+      </c>
+      <c r="P7" s="76">
+        <f t="shared" si="1"/>
+        <v>3.6842105263157894</v>
+      </c>
+      <c r="Q7" s="170">
+        <v>70</v>
+      </c>
+      <c r="R7" s="92">
+        <v>19</v>
+      </c>
+      <c r="V7" s="77">
+        <f t="shared" si="2"/>
+        <v>3.8181818181818183</v>
+      </c>
+      <c r="W7" s="168">
+        <v>42</v>
+      </c>
+      <c r="X7" s="93">
+        <v>11</v>
+      </c>
+      <c r="Y7" s="12"/>
+      <c r="AB7" s="78">
+        <f t="shared" si="3"/>
+        <v>3.5925925925925926</v>
+      </c>
+      <c r="AC7" s="181">
+        <v>194</v>
+      </c>
+      <c r="AD7" s="94">
+        <v>54</v>
+      </c>
+      <c r="AM7" s="72">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="72">
+        <v>2340</v>
+      </c>
+      <c r="AO7" s="72">
+        <v>715</v>
+      </c>
+      <c r="AP7" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ7" s="72">
+        <v>1430</v>
+      </c>
+      <c r="AR7" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS7" s="72">
+        <v>4</v>
+      </c>
+      <c r="AT7" s="72">
+        <v>4</v>
+      </c>
+      <c r="AU7" s="79">
+        <v>25.416666666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="D8" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="75">
+        <f t="shared" si="0"/>
+        <v>3.4133333333333336</v>
+      </c>
+      <c r="K8" s="179">
+        <v>256</v>
+      </c>
+      <c r="L8" s="91">
+        <v>75</v>
+      </c>
+      <c r="P8" s="76">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="170">
+        <v>4</v>
+      </c>
+      <c r="R8" s="92">
+        <v>1</v>
+      </c>
+      <c r="V8" s="77">
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="W8" s="168">
+        <v>22</v>
+      </c>
+      <c r="X8" s="93">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="78">
+        <f t="shared" si="3"/>
+        <v>3.48</v>
+      </c>
+      <c r="AC8" s="181">
+        <v>174</v>
+      </c>
+      <c r="AD8" s="94">
+        <v>50</v>
+      </c>
+      <c r="AG8" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI8" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM8" s="72">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="72">
+        <v>2320</v>
+      </c>
+      <c r="AO8" s="72">
+        <v>715</v>
+      </c>
+      <c r="AP8" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ8" s="72">
+        <v>1430</v>
+      </c>
+      <c r="AR8" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS8" s="72">
+        <v>4.5</v>
+      </c>
+      <c r="AT8" s="72">
+        <v>4</v>
+      </c>
+      <c r="AU8" s="79">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="D9" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="75">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="K9" s="179">
+        <v>140</v>
+      </c>
+      <c r="L9" s="91">
+        <v>40</v>
+      </c>
+      <c r="P9" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V9" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG9" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI9" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM9" s="72">
+        <v>7</v>
+      </c>
+      <c r="AN9" s="72">
+        <v>2300</v>
+      </c>
+      <c r="AO9" s="72">
+        <v>715</v>
+      </c>
+      <c r="AP9" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ9" s="72">
+        <v>1430</v>
+      </c>
+      <c r="AR9" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS9" s="72">
+        <v>4.5</v>
+      </c>
+      <c r="AT9" s="72">
+        <v>4.5</v>
+      </c>
+      <c r="AU9" s="79">
+        <v>25.041666666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="D10" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="75">
+        <f t="shared" si="0"/>
+        <v>3.4545454545454546</v>
+      </c>
+      <c r="K10" s="179">
+        <v>608</v>
+      </c>
+      <c r="L10" s="91">
+        <v>176</v>
+      </c>
+      <c r="P10" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V10" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB10" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG10" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI10" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM10" s="72">
+        <v>8</v>
+      </c>
+      <c r="AN10" s="72">
+        <v>2280</v>
+      </c>
+      <c r="AO10" s="72">
+        <v>715</v>
+      </c>
+      <c r="AP10" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ10" s="72">
+        <v>1430</v>
+      </c>
+      <c r="AR10" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS10" s="72">
+        <v>5</v>
+      </c>
+      <c r="AT10" s="72">
+        <v>4.5</v>
+      </c>
+      <c r="AU10" s="79">
+        <v>24.791666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="D11" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="75">
+        <f t="shared" si="0"/>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="K11" s="179">
+        <v>28</v>
+      </c>
+      <c r="L11" s="91">
+        <v>9</v>
+      </c>
+      <c r="P11" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V11" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG11" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI11" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM11" s="72">
+        <v>9</v>
+      </c>
+      <c r="AN11" s="72">
+        <v>2260</v>
+      </c>
+      <c r="AO11" s="72">
+        <v>715</v>
+      </c>
+      <c r="AP11" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ11" s="72">
+        <v>1430</v>
+      </c>
+      <c r="AR11" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS11" s="72">
+        <v>5</v>
+      </c>
+      <c r="AT11" s="72">
+        <v>5</v>
+      </c>
+      <c r="AU11" s="79">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="D12" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="75">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K12" s="179">
+        <v>60</v>
+      </c>
+      <c r="L12" s="91">
+        <v>18</v>
+      </c>
+      <c r="P12" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB12" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG12" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI12" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM12" s="72">
+        <v>10</v>
+      </c>
+      <c r="AN12" s="72">
+        <v>2240</v>
+      </c>
+      <c r="AO12" s="72">
+        <v>715</v>
+      </c>
+      <c r="AP12" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ12" s="72">
+        <v>1430</v>
+      </c>
+      <c r="AR12" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS12" s="72">
+        <v>5.5</v>
+      </c>
+      <c r="AT12" s="72">
+        <v>5</v>
+      </c>
+      <c r="AU12" s="79">
+        <v>24.166666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="D13" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="75">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="K13" s="179">
+        <v>13</v>
+      </c>
+      <c r="L13" s="91">
+        <v>4</v>
+      </c>
+      <c r="P13" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG13" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI13" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM13" s="72">
+        <v>11</v>
+      </c>
+      <c r="AN13" s="72">
+        <v>2210</v>
+      </c>
+      <c r="AO13" s="72">
+        <v>710</v>
+      </c>
+      <c r="AP13" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ13" s="72">
+        <v>1420</v>
+      </c>
+      <c r="AR13" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS13" s="72">
+        <v>5.5</v>
+      </c>
+      <c r="AT13" s="72">
+        <v>5.5</v>
+      </c>
+      <c r="AU13" s="79">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="D14" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="75">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="K14" s="179">
+        <v>18</v>
+      </c>
+      <c r="L14" s="91">
+        <v>5</v>
+      </c>
+      <c r="P14" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V14" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB14" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG14" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI14" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM14" s="72">
+        <v>12</v>
+      </c>
+      <c r="AN14" s="72">
+        <v>2180</v>
+      </c>
+      <c r="AO14" s="72">
+        <v>705</v>
+      </c>
+      <c r="AP14" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ14" s="72">
+        <v>1410</v>
+      </c>
+      <c r="AR14" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS14" s="72">
+        <v>6</v>
+      </c>
+      <c r="AT14" s="72">
+        <v>5.5</v>
+      </c>
+      <c r="AU14" s="79">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="D15" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="75">
+        <f t="shared" si="0"/>
+        <v>3.3529411764705883</v>
+      </c>
+      <c r="K15" s="179">
+        <v>57</v>
+      </c>
+      <c r="L15" s="91">
+        <v>17</v>
+      </c>
+      <c r="P15" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V15" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG15" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI15" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM15" s="72">
+        <v>13</v>
+      </c>
+      <c r="AN15" s="72">
+        <v>2150</v>
+      </c>
+      <c r="AO15" s="72">
+        <v>700</v>
+      </c>
+      <c r="AP15" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ15" s="72">
+        <v>1400</v>
+      </c>
+      <c r="AR15" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS15" s="72">
+        <v>6</v>
+      </c>
+      <c r="AT15" s="72">
+        <v>6</v>
+      </c>
+      <c r="AU15" s="79">
+        <v>22.666666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="D16" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K16" s="179">
+        <v>15</v>
+      </c>
+      <c r="L16" s="91">
+        <v>5</v>
+      </c>
+      <c r="P16" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB16" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG16" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI16" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM16" s="72">
+        <v>15</v>
+      </c>
+      <c r="AN16" s="72">
+        <v>2120</v>
+      </c>
+      <c r="AO16" s="72">
+        <v>690</v>
+      </c>
+      <c r="AP16" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ16" s="72">
+        <v>1380</v>
+      </c>
+      <c r="AR16" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS16" s="72">
+        <v>6.5</v>
+      </c>
+      <c r="AT16" s="72">
+        <v>6</v>
+      </c>
+      <c r="AU16" s="79">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="D17" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="75">
+        <f t="shared" si="0"/>
+        <v>3.40625</v>
+      </c>
+      <c r="K17" s="179">
+        <v>109</v>
+      </c>
+      <c r="L17" s="91">
+        <v>32</v>
+      </c>
+      <c r="P17" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V17" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB17" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG17" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI17" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM17" s="72">
+        <v>15</v>
+      </c>
+      <c r="AN17" s="72">
+        <v>2120</v>
+      </c>
+      <c r="AO17" s="72">
+        <v>690</v>
+      </c>
+      <c r="AP17" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ17" s="72">
+        <v>1380</v>
+      </c>
+      <c r="AR17" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS17" s="72">
+        <v>6.5</v>
+      </c>
+      <c r="AT17" s="72">
+        <v>6</v>
+      </c>
+      <c r="AU17" s="79">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="D18" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V18" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB18" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG18" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI18" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM18" s="72">
         <v>16</v>
       </c>
-      <c r="K4" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="76">
-        <f t="shared" si="3"/>
-        <v>3.4444444444444446</v>
-      </c>
-      <c r="N4" s="173">
-        <v>93</v>
-      </c>
-      <c r="O4" s="92">
+      <c r="AN18" s="72">
+        <v>2040</v>
+      </c>
+      <c r="AO18" s="72">
+        <v>660</v>
+      </c>
+      <c r="AP18" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ18" s="72">
+        <v>1320</v>
+      </c>
+      <c r="AR18" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS18" s="72">
+        <v>8</v>
+      </c>
+      <c r="AT18" s="72">
+        <v>8</v>
+      </c>
+      <c r="AU18" s="79">
+        <v>20.416666666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="D19" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V19" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB19" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG19" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI19" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM19" s="72">
+        <v>17</v>
+      </c>
+      <c r="AN19" s="72">
+        <v>1990</v>
+      </c>
+      <c r="AO19" s="72">
+        <v>640</v>
+      </c>
+      <c r="AP19" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ19" s="72">
+        <v>1280</v>
+      </c>
+      <c r="AR19" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS19" s="72">
+        <v>8</v>
+      </c>
+      <c r="AT19" s="72">
+        <v>8.5</v>
+      </c>
+      <c r="AU19" s="79">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="D20" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V20" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB20" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG20" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI20" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM20" s="72">
+        <v>18</v>
+      </c>
+      <c r="AN20" s="72">
+        <v>1940</v>
+      </c>
+      <c r="AO20" s="72">
+        <v>620</v>
+      </c>
+      <c r="AP20" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ20" s="72">
+        <v>1240</v>
+      </c>
+      <c r="AR20" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS20" s="72">
+        <v>8.5</v>
+      </c>
+      <c r="AT20" s="72">
+        <v>8.5</v>
+      </c>
+      <c r="AU20" s="79">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="D21" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V21" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB21" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG21" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI21" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM21" s="72">
+        <v>19</v>
+      </c>
+      <c r="AN21" s="72">
+        <v>1870</v>
+      </c>
+      <c r="AO21" s="72">
+        <v>590</v>
+      </c>
+      <c r="AP21" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ21" s="72">
+        <v>1180</v>
+      </c>
+      <c r="AR21" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS21" s="72">
+        <v>8.5</v>
+      </c>
+      <c r="AT21" s="72">
+        <v>9</v>
+      </c>
+      <c r="AU21" s="79">
+        <v>17.416666666666668</v>
+      </c>
+    </row>
+    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="D22" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V22" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB22" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG22" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI22" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM22" s="72">
+        <v>20</v>
+      </c>
+      <c r="AN22" s="72">
+        <v>1800</v>
+      </c>
+      <c r="AO22" s="72">
+        <v>560</v>
+      </c>
+      <c r="AP22" s="72">
+        <v>650</v>
+      </c>
+      <c r="AQ22" s="72">
+        <v>1120</v>
+      </c>
+      <c r="AR22" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS22" s="72">
+        <v>9</v>
+      </c>
+      <c r="AT22" s="72">
+        <v>9</v>
+      </c>
+      <c r="AU22" s="79">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="D23" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB23" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG23" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI23" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM23" s="72">
+        <v>21</v>
+      </c>
+      <c r="AN23" s="72">
+        <v>1700</v>
+      </c>
+      <c r="AO23" s="72">
+        <v>520</v>
+      </c>
+      <c r="AP23" s="72">
+        <v>630</v>
+      </c>
+      <c r="AQ23" s="72">
+        <v>1040</v>
+      </c>
+      <c r="AR23" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS23" s="72">
+        <v>9</v>
+      </c>
+      <c r="AT23" s="72">
+        <v>9.5</v>
+      </c>
+      <c r="AU23" s="79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="D24" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P24" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V24" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB24" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG24" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI24" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM24" s="72">
+        <v>22</v>
+      </c>
+      <c r="AN24" s="72">
+        <v>1600</v>
+      </c>
+      <c r="AO24" s="72">
+        <v>480</v>
+      </c>
+      <c r="AP24" s="72">
+        <v>600</v>
+      </c>
+      <c r="AQ24" s="72">
+        <v>960</v>
+      </c>
+      <c r="AR24" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS24" s="72">
+        <v>9.5</v>
+      </c>
+      <c r="AT24" s="72">
+        <v>9.5</v>
+      </c>
+      <c r="AU24" s="79">
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="D25" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V25" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB25" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG25" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI25" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM25" s="72">
+        <v>23</v>
+      </c>
+      <c r="AN25" s="72">
+        <v>1500</v>
+      </c>
+      <c r="AO25" s="72">
+        <v>440</v>
+      </c>
+      <c r="AP25" s="72">
+        <v>560</v>
+      </c>
+      <c r="AQ25" s="72">
+        <v>880</v>
+      </c>
+      <c r="AR25" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS25" s="72">
+        <v>9.5</v>
+      </c>
+      <c r="AT25" s="72">
+        <v>10</v>
+      </c>
+      <c r="AU25" s="79">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="D26" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="V26" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB26" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG26" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI26" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM26" s="72">
+        <v>24</v>
+      </c>
+      <c r="AN26" s="72">
+        <v>1350</v>
+      </c>
+      <c r="AO26" s="72">
+        <v>390</v>
+      </c>
+      <c r="AP26" s="72">
+        <v>510</v>
+      </c>
+      <c r="AQ26" s="72">
+        <v>780</v>
+      </c>
+      <c r="AR26" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS26" s="72">
+        <v>10</v>
+      </c>
+      <c r="AT26" s="72">
+        <v>10</v>
+      </c>
+      <c r="AU26" s="79">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="AM27" s="72">
+        <v>25</v>
+      </c>
+      <c r="AN27" s="72">
+        <v>1200</v>
+      </c>
+      <c r="AO27" s="72">
+        <v>340</v>
+      </c>
+      <c r="AP27" s="72">
+        <v>450</v>
+      </c>
+      <c r="AQ27" s="72">
+        <v>680</v>
+      </c>
+      <c r="AR27" s="72">
+        <v>200</v>
+      </c>
+      <c r="AS27" s="72">
+        <v>10</v>
+      </c>
+      <c r="AT27" s="72">
+        <v>10.5</v>
+      </c>
+      <c r="AU27" s="79">
+        <v>9.1666666666666661</v>
+      </c>
+    </row>
+    <row r="28" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="AM28" s="72">
+        <v>26</v>
+      </c>
+      <c r="AN28" s="72">
+        <v>1000</v>
+      </c>
+      <c r="AO28" s="72">
+        <v>280</v>
+      </c>
+      <c r="AP28" s="72">
+        <v>380</v>
+      </c>
+      <c r="AQ28" s="72">
+        <v>560</v>
+      </c>
+      <c r="AR28" s="72">
+        <v>180</v>
+      </c>
+      <c r="AS28" s="72">
+        <v>10.5</v>
+      </c>
+      <c r="AT28" s="72">
+        <v>10.5</v>
+      </c>
+      <c r="AU28" s="79">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="AM29" s="72">
         <v>27</v>
       </c>
-      <c r="P4" s="77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="77">
-        <f t="shared" si="5"/>
-        <v>3.4966442953020134</v>
-      </c>
-      <c r="S4" s="171">
-        <v>521</v>
-      </c>
-      <c r="T4" s="93">
-        <v>149</v>
-      </c>
-      <c r="U4" s="12">
-        <f>V4/Y4</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="78">
-        <f>X4/Y4</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="X4" s="184">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="65">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="72">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="72">
-        <v>2370</v>
-      </c>
-      <c r="AL4" s="72">
-        <v>715</v>
-      </c>
-      <c r="AM4" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN4" s="72">
-        <v>1430</v>
-      </c>
-      <c r="AO4" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP4" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="AQ4" s="72">
-        <v>3</v>
-      </c>
-      <c r="AR4" s="79">
-        <v>25.666666666666668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="74">
-        <f>B5/E5</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="74">
-        <f>D5/E5</f>
-        <v>3.5</v>
-      </c>
-      <c r="D5" s="175">
-        <v>7</v>
-      </c>
-      <c r="E5" s="90">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="75">
-        <f t="shared" si="1"/>
-        <v>3.48</v>
-      </c>
-      <c r="I5" s="182">
-        <v>87</v>
-      </c>
-      <c r="J5" s="91">
-        <v>25</v>
-      </c>
-      <c r="K5" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="76">
-        <f t="shared" si="3"/>
-        <v>3.3571428571428572</v>
-      </c>
-      <c r="N5" s="173">
-        <v>94</v>
-      </c>
-      <c r="O5" s="92">
+      <c r="AN29" s="72">
+        <v>800</v>
+      </c>
+      <c r="AO29" s="72">
+        <v>220</v>
+      </c>
+      <c r="AP29" s="72">
+        <v>300</v>
+      </c>
+      <c r="AQ29" s="72">
+        <v>440</v>
+      </c>
+      <c r="AR29" s="72">
+        <v>150</v>
+      </c>
+      <c r="AS29" s="72">
+        <v>10.5</v>
+      </c>
+      <c r="AT29" s="72">
+        <v>11</v>
+      </c>
+      <c r="AU29" s="79">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="AM30" s="72">
         <v>28</v>
       </c>
-      <c r="P5" s="77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="77">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="S5" s="171">
-        <v>63</v>
-      </c>
-      <c r="T5" s="93">
-        <v>18</v>
-      </c>
-      <c r="U5" s="12">
-        <f>V5/Y5</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="78">
-        <f>X5/Y5</f>
-        <v>3.4727272727272727</v>
-      </c>
-      <c r="X5" s="184">
-        <v>191</v>
-      </c>
-      <c r="Y5" s="65">
-        <v>55</v>
-      </c>
-      <c r="AJ5" s="72">
-        <v>3</v>
-      </c>
-      <c r="AK5" s="72">
-        <v>2360</v>
-      </c>
-      <c r="AL5" s="72">
-        <v>715</v>
-      </c>
-      <c r="AM5" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN5" s="72">
-        <v>1430</v>
-      </c>
-      <c r="AO5" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP5" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="AQ5" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="AR5" s="79">
-        <v>25.625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="74" t="s">
+      <c r="AN30" s="72">
+        <v>600</v>
+      </c>
+      <c r="AO30" s="72">
+        <v>160</v>
+      </c>
+      <c r="AP30" s="72">
+        <v>210</v>
+      </c>
+      <c r="AQ30" s="72">
+        <v>320</v>
+      </c>
+      <c r="AR30" s="72">
         <v>110</v>
       </c>
-      <c r="F6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="75">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I6" s="182">
-        <v>12</v>
-      </c>
-      <c r="J6" s="91">
-        <v>4</v>
-      </c>
-      <c r="K6" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="76">
-        <f t="shared" si="3"/>
-        <v>3.3157894736842106</v>
-      </c>
-      <c r="N6" s="173">
-        <v>63</v>
-      </c>
-      <c r="O6" s="92">
-        <v>19</v>
-      </c>
-      <c r="P6" s="77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="77">
-        <f t="shared" si="5"/>
-        <v>3.5142857142857142</v>
-      </c>
-      <c r="S6" s="171">
-        <v>123</v>
-      </c>
-      <c r="T6" s="93">
-        <v>35</v>
-      </c>
-      <c r="U6" s="12">
-        <f>V6/Y6</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="78">
-        <f>X6/Y6</f>
-        <v>3.6</v>
-      </c>
-      <c r="X6" s="184">
-        <v>90</v>
-      </c>
-      <c r="Y6" s="65">
-        <v>25</v>
-      </c>
-      <c r="AJ6" s="72">
-        <v>4</v>
-      </c>
-      <c r="AK6" s="72">
-        <v>2350</v>
-      </c>
-      <c r="AL6" s="72">
-        <v>715</v>
-      </c>
-      <c r="AM6" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN6" s="72">
-        <v>1430</v>
-      </c>
-      <c r="AO6" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP6" s="72">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="72">
-        <v>3.5</v>
-      </c>
-      <c r="AR6" s="79">
-        <v>25.541666666666668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="74" t="s">
+      <c r="AS30" s="72">
+        <v>11</v>
+      </c>
+      <c r="AT30" s="72">
+        <v>11</v>
+      </c>
+      <c r="AU30" s="79">
+        <v>3.9166666666666665</v>
+      </c>
+    </row>
+    <row r="31" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="AM31" s="72">
+        <v>29</v>
+      </c>
+      <c r="AN31" s="72">
+        <v>300</v>
+      </c>
+      <c r="AO31" s="72">
+        <v>80</v>
+      </c>
+      <c r="AP31" s="72">
         <v>110</v>
       </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="75">
-        <f t="shared" si="1"/>
-        <v>3.5118110236220472</v>
-      </c>
-      <c r="I7" s="182">
-        <v>446</v>
-      </c>
-      <c r="J7" s="91">
-        <v>127</v>
-      </c>
-      <c r="K7" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="76">
-        <f t="shared" si="3"/>
-        <v>3.6842105263157894</v>
-      </c>
-      <c r="N7" s="173">
-        <v>70</v>
-      </c>
-      <c r="O7" s="92">
-        <v>19</v>
-      </c>
-      <c r="P7" s="77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="77">
-        <f t="shared" si="5"/>
-        <v>3.8181818181818183</v>
-      </c>
-      <c r="S7" s="171">
-        <v>42</v>
-      </c>
-      <c r="T7" s="93">
+      <c r="AQ31" s="72">
+        <v>160</v>
+      </c>
+      <c r="AR31" s="72">
+        <v>60</v>
+      </c>
+      <c r="AS31" s="72">
         <v>11</v>
       </c>
-      <c r="U7" s="12">
-        <f>V7/Y7</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="78">
-        <f>X7/Y7</f>
-        <v>3.5925925925925926</v>
-      </c>
-      <c r="X7" s="184">
-        <v>194</v>
-      </c>
-      <c r="Y7" s="94">
-        <v>54</v>
-      </c>
-      <c r="AJ7" s="72">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="72">
-        <v>2340</v>
-      </c>
-      <c r="AL7" s="72">
-        <v>715</v>
-      </c>
-      <c r="AM7" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN7" s="72">
-        <v>1430</v>
-      </c>
-      <c r="AO7" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP7" s="72">
-        <v>4</v>
-      </c>
-      <c r="AQ7" s="72">
-        <v>4</v>
-      </c>
-      <c r="AR7" s="79">
-        <v>25.416666666666668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="75">
-        <f t="shared" si="1"/>
-        <v>3.4133333333333336</v>
-      </c>
-      <c r="I8" s="182">
-        <v>256</v>
-      </c>
-      <c r="J8" s="91">
-        <v>75</v>
-      </c>
-      <c r="K8" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="76">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N8" s="173">
-        <v>4</v>
-      </c>
-      <c r="O8" s="92">
-        <v>1</v>
-      </c>
-      <c r="P8" s="77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="77">
-        <f t="shared" si="5"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="S8" s="171">
-        <v>22</v>
-      </c>
-      <c r="T8" s="93">
-        <v>6</v>
-      </c>
-      <c r="W8" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC8" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF8" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ8" s="72">
-        <v>6</v>
-      </c>
-      <c r="AK8" s="72">
-        <v>2320</v>
-      </c>
-      <c r="AL8" s="72">
-        <v>715</v>
-      </c>
-      <c r="AM8" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN8" s="72">
-        <v>1430</v>
-      </c>
-      <c r="AO8" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP8" s="72">
-        <v>4.5</v>
-      </c>
-      <c r="AQ8" s="72">
-        <v>4</v>
-      </c>
-      <c r="AR8" s="79">
-        <v>25.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="75">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="I9" s="182">
-        <v>140</v>
-      </c>
-      <c r="J9" s="91">
-        <v>40</v>
-      </c>
-      <c r="M9" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W9" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC9" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF9" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ9" s="72">
-        <v>7</v>
-      </c>
-      <c r="AK9" s="72">
-        <v>2300</v>
-      </c>
-      <c r="AL9" s="72">
-        <v>715</v>
-      </c>
-      <c r="AM9" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN9" s="72">
-        <v>1430</v>
-      </c>
-      <c r="AO9" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP9" s="72">
-        <v>4.5</v>
-      </c>
-      <c r="AQ9" s="72">
-        <v>4.5</v>
-      </c>
-      <c r="AR9" s="79">
-        <v>25.041666666666668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="75">
-        <f t="shared" si="1"/>
-        <v>3.4545454545454546</v>
-      </c>
-      <c r="I10" s="182">
-        <v>608</v>
-      </c>
-      <c r="J10" s="91">
-        <v>176</v>
-      </c>
-      <c r="M10" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W10" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC10" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF10" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ10" s="72">
-        <v>8</v>
-      </c>
-      <c r="AK10" s="72">
-        <v>2280</v>
-      </c>
-      <c r="AL10" s="72">
-        <v>715</v>
-      </c>
-      <c r="AM10" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN10" s="72">
-        <v>1430</v>
-      </c>
-      <c r="AO10" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP10" s="72">
-        <v>5</v>
-      </c>
-      <c r="AQ10" s="72">
-        <v>4.5</v>
-      </c>
-      <c r="AR10" s="79">
-        <v>24.791666666666668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="75">
-        <f t="shared" si="1"/>
-        <v>3.1111111111111112</v>
-      </c>
-      <c r="I11" s="182">
-        <v>28</v>
-      </c>
-      <c r="J11" s="91">
-        <v>9</v>
-      </c>
-      <c r="M11" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W11" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC11" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF11" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ11" s="72">
-        <v>9</v>
-      </c>
-      <c r="AK11" s="72">
-        <v>2260</v>
-      </c>
-      <c r="AL11" s="72">
-        <v>715</v>
-      </c>
-      <c r="AM11" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN11" s="72">
-        <v>1430</v>
-      </c>
-      <c r="AO11" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP11" s="72">
-        <v>5</v>
-      </c>
-      <c r="AQ11" s="72">
-        <v>5</v>
-      </c>
-      <c r="AR11" s="79">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="75">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="I12" s="182">
-        <v>60</v>
-      </c>
-      <c r="J12" s="91">
-        <v>18</v>
-      </c>
-      <c r="M12" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W12" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC12" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF12" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ12" s="72">
-        <v>10</v>
-      </c>
-      <c r="AK12" s="72">
-        <v>2240</v>
-      </c>
-      <c r="AL12" s="72">
-        <v>715</v>
-      </c>
-      <c r="AM12" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN12" s="72">
-        <v>1430</v>
-      </c>
-      <c r="AO12" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP12" s="72">
-        <v>5.5</v>
-      </c>
-      <c r="AQ12" s="72">
-        <v>5</v>
-      </c>
-      <c r="AR12" s="79">
-        <v>24.166666666666668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="75">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
-      </c>
-      <c r="I13" s="182">
-        <v>13</v>
-      </c>
-      <c r="J13" s="91">
-        <v>4</v>
-      </c>
-      <c r="M13" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R13" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W13" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC13" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF13" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ13" s="72">
-        <v>11</v>
-      </c>
-      <c r="AK13" s="72">
-        <v>2210</v>
-      </c>
-      <c r="AL13" s="72">
-        <v>710</v>
-      </c>
-      <c r="AM13" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN13" s="72">
-        <v>1420</v>
-      </c>
-      <c r="AO13" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP13" s="72">
-        <v>5.5</v>
-      </c>
-      <c r="AQ13" s="72">
-        <v>5.5</v>
-      </c>
-      <c r="AR13" s="79">
-        <v>23.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="75">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="I14" s="182">
-        <v>18</v>
-      </c>
-      <c r="J14" s="91">
-        <v>5</v>
-      </c>
-      <c r="M14" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R14" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W14" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC14" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF14" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ14" s="72">
-        <v>12</v>
-      </c>
-      <c r="AK14" s="72">
-        <v>2180</v>
-      </c>
-      <c r="AL14" s="72">
-        <v>705</v>
-      </c>
-      <c r="AM14" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN14" s="72">
-        <v>1410</v>
-      </c>
-      <c r="AO14" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP14" s="72">
-        <v>6</v>
-      </c>
-      <c r="AQ14" s="72">
-        <v>5.5</v>
-      </c>
-      <c r="AR14" s="79">
-        <v>23.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="75">
-        <f t="shared" si="1"/>
-        <v>3.3529411764705883</v>
-      </c>
-      <c r="I15" s="182">
-        <v>57</v>
-      </c>
-      <c r="J15" s="91">
-        <v>17</v>
-      </c>
-      <c r="M15" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R15" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W15" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC15" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF15" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ15" s="72">
-        <v>13</v>
-      </c>
-      <c r="AK15" s="72">
-        <v>2150</v>
-      </c>
-      <c r="AL15" s="72">
-        <v>700</v>
-      </c>
-      <c r="AM15" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN15" s="72">
-        <v>1400</v>
-      </c>
-      <c r="AO15" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP15" s="72">
-        <v>6</v>
-      </c>
-      <c r="AQ15" s="72">
-        <v>6</v>
-      </c>
-      <c r="AR15" s="79">
-        <v>22.666666666666668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="75">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I16" s="182">
-        <v>15</v>
-      </c>
-      <c r="J16" s="91">
-        <v>5</v>
-      </c>
-      <c r="M16" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W16" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC16" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF16" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ16" s="72">
-        <v>15</v>
-      </c>
-      <c r="AK16" s="72">
-        <v>2120</v>
-      </c>
-      <c r="AL16" s="72">
-        <v>690</v>
-      </c>
-      <c r="AM16" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN16" s="72">
-        <v>1380</v>
-      </c>
-      <c r="AO16" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP16" s="72">
-        <v>6.5</v>
-      </c>
-      <c r="AQ16" s="72">
-        <v>6</v>
-      </c>
-      <c r="AR16" s="79">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="75">
-        <f t="shared" si="1"/>
-        <v>3.40625</v>
-      </c>
-      <c r="I17" s="182">
-        <v>109</v>
-      </c>
-      <c r="J17" s="91">
-        <v>32</v>
-      </c>
-      <c r="M17" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R17" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W17" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC17" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF17" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ17" s="72">
-        <v>15</v>
-      </c>
-      <c r="AK17" s="72">
-        <v>2120</v>
-      </c>
-      <c r="AL17" s="72">
-        <v>690</v>
-      </c>
-      <c r="AM17" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN17" s="72">
-        <v>1380</v>
-      </c>
-      <c r="AO17" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP17" s="72">
-        <v>6.5</v>
-      </c>
-      <c r="AQ17" s="72">
-        <v>6</v>
-      </c>
-      <c r="AR17" s="79">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R18" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W18" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC18" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF18" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ18" s="72">
-        <v>16</v>
-      </c>
-      <c r="AK18" s="72">
-        <v>2040</v>
-      </c>
-      <c r="AL18" s="72">
-        <v>660</v>
-      </c>
-      <c r="AM18" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN18" s="72">
-        <v>1320</v>
-      </c>
-      <c r="AO18" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP18" s="72">
-        <v>8</v>
-      </c>
-      <c r="AQ18" s="72">
-        <v>8</v>
-      </c>
-      <c r="AR18" s="79">
-        <v>20.416666666666668</v>
-      </c>
-    </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R19" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W19" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC19" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF19" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ19" s="72">
-        <v>17</v>
-      </c>
-      <c r="AK19" s="72">
-        <v>1990</v>
-      </c>
-      <c r="AL19" s="72">
-        <v>640</v>
-      </c>
-      <c r="AM19" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN19" s="72">
-        <v>1280</v>
-      </c>
-      <c r="AO19" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP19" s="72">
-        <v>8</v>
-      </c>
-      <c r="AQ19" s="72">
-        <v>8.5</v>
-      </c>
-      <c r="AR19" s="79">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R20" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W20" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC20" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF20" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ20" s="72">
-        <v>18</v>
-      </c>
-      <c r="AK20" s="72">
-        <v>1940</v>
-      </c>
-      <c r="AL20" s="72">
-        <v>620</v>
-      </c>
-      <c r="AM20" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN20" s="72">
-        <v>1240</v>
-      </c>
-      <c r="AO20" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP20" s="72">
-        <v>8.5</v>
-      </c>
-      <c r="AQ20" s="72">
-        <v>8.5</v>
-      </c>
-      <c r="AR20" s="79">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="M21" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R21" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W21" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC21" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF21" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ21" s="72">
-        <v>19</v>
-      </c>
-      <c r="AK21" s="72">
-        <v>1870</v>
-      </c>
-      <c r="AL21" s="72">
-        <v>590</v>
-      </c>
-      <c r="AM21" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN21" s="72">
-        <v>1180</v>
-      </c>
-      <c r="AO21" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP21" s="72">
-        <v>8.5</v>
-      </c>
-      <c r="AQ21" s="72">
-        <v>9</v>
-      </c>
-      <c r="AR21" s="79">
-        <v>17.416666666666668</v>
-      </c>
-    </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="M22" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R22" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W22" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC22" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF22" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ22" s="72">
-        <v>20</v>
-      </c>
-      <c r="AK22" s="72">
-        <v>1800</v>
-      </c>
-      <c r="AL22" s="72">
-        <v>560</v>
-      </c>
-      <c r="AM22" s="72">
-        <v>650</v>
-      </c>
-      <c r="AN22" s="72">
-        <v>1120</v>
-      </c>
-      <c r="AO22" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP22" s="72">
-        <v>9</v>
-      </c>
-      <c r="AQ22" s="72">
-        <v>9</v>
-      </c>
-      <c r="AR22" s="79">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R23" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W23" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC23" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF23" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ23" s="72">
-        <v>21</v>
-      </c>
-      <c r="AK23" s="72">
-        <v>1700</v>
-      </c>
-      <c r="AL23" s="72">
-        <v>520</v>
-      </c>
-      <c r="AM23" s="72">
-        <v>630</v>
-      </c>
-      <c r="AN23" s="72">
-        <v>1040</v>
-      </c>
-      <c r="AO23" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP23" s="72">
-        <v>9</v>
-      </c>
-      <c r="AQ23" s="72">
-        <v>9.5</v>
-      </c>
-      <c r="AR23" s="79">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R24" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W24" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC24" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF24" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ24" s="72">
-        <v>22</v>
-      </c>
-      <c r="AK24" s="72">
-        <v>1600</v>
-      </c>
-      <c r="AL24" s="72">
-        <v>480</v>
-      </c>
-      <c r="AM24" s="72">
-        <v>600</v>
-      </c>
-      <c r="AN24" s="72">
-        <v>960</v>
-      </c>
-      <c r="AO24" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP24" s="72">
-        <v>9.5</v>
-      </c>
-      <c r="AQ24" s="72">
-        <v>9.5</v>
-      </c>
-      <c r="AR24" s="79">
-        <v>13.666666666666666</v>
-      </c>
-    </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R25" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W25" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC25" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF25" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ25" s="72">
-        <v>23</v>
-      </c>
-      <c r="AK25" s="72">
-        <v>1500</v>
-      </c>
-      <c r="AL25" s="72">
-        <v>440</v>
-      </c>
-      <c r="AM25" s="72">
-        <v>560</v>
-      </c>
-      <c r="AN25" s="72">
-        <v>880</v>
-      </c>
-      <c r="AO25" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP25" s="72">
-        <v>9.5</v>
-      </c>
-      <c r="AQ25" s="72">
-        <v>10</v>
-      </c>
-      <c r="AR25" s="79">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="R26" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="W26" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC26" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF26" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ26" s="72">
-        <v>24</v>
-      </c>
-      <c r="AK26" s="72">
-        <v>1350</v>
-      </c>
-      <c r="AL26" s="72">
-        <v>390</v>
-      </c>
-      <c r="AM26" s="72">
-        <v>510</v>
-      </c>
-      <c r="AN26" s="72">
-        <v>780</v>
-      </c>
-      <c r="AO26" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP26" s="72">
-        <v>10</v>
-      </c>
-      <c r="AQ26" s="72">
-        <v>10</v>
-      </c>
-      <c r="AR26" s="79">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="AJ27" s="72">
-        <v>25</v>
-      </c>
-      <c r="AK27" s="72">
-        <v>1200</v>
-      </c>
-      <c r="AL27" s="72">
-        <v>340</v>
-      </c>
-      <c r="AM27" s="72">
-        <v>450</v>
-      </c>
-      <c r="AN27" s="72">
-        <v>680</v>
-      </c>
-      <c r="AO27" s="72">
-        <v>200</v>
-      </c>
-      <c r="AP27" s="72">
-        <v>10</v>
-      </c>
-      <c r="AQ27" s="72">
-        <v>10.5</v>
-      </c>
-      <c r="AR27" s="79">
-        <v>9.1666666666666661</v>
-      </c>
-    </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="AJ28" s="72">
-        <v>26</v>
-      </c>
-      <c r="AK28" s="72">
-        <v>1000</v>
-      </c>
-      <c r="AL28" s="72">
-        <v>280</v>
-      </c>
-      <c r="AM28" s="72">
-        <v>380</v>
-      </c>
-      <c r="AN28" s="72">
-        <v>560</v>
-      </c>
-      <c r="AO28" s="72">
-        <v>180</v>
-      </c>
-      <c r="AP28" s="72">
-        <v>10.5</v>
-      </c>
-      <c r="AQ28" s="72">
-        <v>10.5</v>
-      </c>
-      <c r="AR28" s="79">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="AJ29" s="72">
-        <v>27</v>
-      </c>
-      <c r="AK29" s="72">
-        <v>800</v>
-      </c>
-      <c r="AL29" s="72">
-        <v>220</v>
-      </c>
-      <c r="AM29" s="72">
-        <v>300</v>
-      </c>
-      <c r="AN29" s="72">
-        <v>440</v>
-      </c>
-      <c r="AO29" s="72">
-        <v>150</v>
-      </c>
-      <c r="AP29" s="72">
-        <v>10.5</v>
-      </c>
-      <c r="AQ29" s="72">
-        <v>11</v>
-      </c>
-      <c r="AR29" s="79">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="AJ30" s="72">
-        <v>28</v>
-      </c>
-      <c r="AK30" s="72">
-        <v>600</v>
-      </c>
-      <c r="AL30" s="72">
-        <v>160</v>
-      </c>
-      <c r="AM30" s="72">
-        <v>210</v>
-      </c>
-      <c r="AN30" s="72">
-        <v>320</v>
-      </c>
-      <c r="AO30" s="72">
-        <v>110</v>
-      </c>
-      <c r="AP30" s="72">
-        <v>11</v>
-      </c>
-      <c r="AQ30" s="72">
-        <v>11</v>
-      </c>
-      <c r="AR30" s="79">
-        <v>3.9166666666666665</v>
-      </c>
-    </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="AJ31" s="72">
-        <v>29</v>
-      </c>
-      <c r="AK31" s="72">
-        <v>300</v>
-      </c>
-      <c r="AL31" s="72">
-        <v>80</v>
-      </c>
-      <c r="AM31" s="72">
-        <v>110</v>
-      </c>
-      <c r="AN31" s="72">
-        <v>160</v>
-      </c>
-      <c r="AO31" s="72">
-        <v>60</v>
-      </c>
-      <c r="AP31" s="72">
-        <v>11</v>
-      </c>
-      <c r="AQ31" s="72">
+      <c r="AT31" s="72">
         <v>11.5</v>
       </c>
-      <c r="AR31" s="79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AU31" s="79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
-      <c r="AJ32" s="72">
+      <c r="AM32" s="72">
         <v>30</v>
-      </c>
-      <c r="AK32" s="72">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="72">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="72">
-        <v>0</v>
       </c>
       <c r="AN32" s="72">
         <v>0</v>
@@ -16287,12 +16226,21 @@
         <v>0</v>
       </c>
       <c r="AP32" s="72">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="72">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="72">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="72">
         <v>11.5</v>
       </c>
-      <c r="AQ32" s="72">
+      <c r="AT32" s="72">
         <v>11.5</v>
       </c>
-      <c r="AR32" s="79">
+      <c r="AU32" s="79">
         <v>0</v>
       </c>
     </row>
@@ -16300,29 +16248,32 @@
       <c r="B33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AE2"/>
+  <mergeCells count="25">
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AJ1:AR1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AM1:AU1"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dragalia Data.xlsx
+++ b/Dragalia Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maple\OneDrive\文件\DL\dragalia-data-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2165" documentId="14_{049F9EFC-050E-4651-8DC8-B33E922A69AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E90F5CA9-D0F6-42E8-B403-C4157F87BFE3}"/>
+  <xr:revisionPtr revIDLastSave="2167" documentId="14_{049F9EFC-050E-4651-8DC8-B33E922A69AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{52D7CB36-CF28-4F8D-A6F5-01FE4BDD914E}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1080" windowWidth="21960" windowHeight="13395" activeTab="6" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
+    <workbookView xWindow="675" yWindow="1080" windowWidth="21960" windowHeight="13395" activeTab="5" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raid" sheetId="16" r:id="rId1"/>
@@ -1927,22 +1927,172 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1954,9 +2104,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1966,117 +2113,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,6 +2179,87 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2114,168 +2276,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2765,30 +2765,30 @@
       <c r="A1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="283">
+      <c r="B1" s="308">
         <v>43523.916666666664</v>
       </c>
-      <c r="C1" s="283"/>
+      <c r="C1" s="308"/>
       <c r="D1" s="36" t="s">
         <v>100</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="279" t="s">
+      <c r="F1" s="309" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="283">
+      <c r="B2" s="308">
         <v>43535.916666666664</v>
       </c>
-      <c r="C2" s="283"/>
+      <c r="C2" s="308"/>
       <c r="D2" s="38" t="str">
         <f ca="1">IF(RAID_TIME_END-NOW()&lt;0,"",RAID_TIME_END-NOW())</f>
         <v/>
@@ -2797,12 +2797,12 @@
         <f>B2-B1</f>
         <v>12</v>
       </c>
-      <c r="F2" s="284" t="str">
+      <c r="F2" s="310" t="str">
         <f ca="1">IF(NOW() &gt; $B$2,"",(NOW()-$B$1)/($B$2-$B$1))</f>
         <v/>
       </c>
-      <c r="G2" s="284"/>
-      <c r="H2" s="284"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
@@ -2818,10 +2818,10 @@
       <c r="E4" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="280" t="s">
+      <c r="F4" s="307" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="280"/>
+      <c r="G4" s="307"/>
       <c r="H4" s="22" t="s">
         <v>93</v>
       </c>
@@ -2840,27 +2840,27 @@
       </c>
       <c r="C5" s="30">
         <f ca="1">$E$5*(NOW()-$B$1)/$E$2</f>
-        <v>549009.5486111386</v>
+        <v>549016.53935185098</v>
       </c>
       <c r="D5" s="30">
         <f ca="1">B5*$E$2/(NOW()-$B$1)</f>
-        <v>38025.568139592913</v>
+        <v>38025.083952199187</v>
       </c>
       <c r="E5" s="169">
         <v>150000</v>
       </c>
-      <c r="F5" s="281">
+      <c r="F5" s="311">
         <f>B5/E5</f>
         <v>0.92784</v>
       </c>
-      <c r="G5" s="281"/>
+      <c r="G5" s="311"/>
       <c r="H5" s="33">
         <f ca="1">B5 - (E5*(NOW()-$B$1)/$E$2)</f>
-        <v>-409833.5486111386</v>
+        <v>-409840.53935185098</v>
       </c>
       <c r="I5" s="33">
         <f ca="1">D5-RAID_GOAL_EMBLEM</f>
-        <v>-111974.43186040709</v>
+        <v>-111974.91604780081</v>
       </c>
       <c r="J5" s="21"/>
     </row>
@@ -2874,53 +2874,53 @@
       </c>
       <c r="C6" s="30">
         <f ca="1">$E$6*(NOW()-$B$1)/$E$2</f>
-        <v>366006.36574075907</v>
+        <v>366011.02623456734</v>
       </c>
       <c r="D6" s="30">
         <f ca="1">B6*$E$2/(NOW()-$B$1)</f>
-        <v>33260.350473309649</v>
+        <v>33259.926962414269</v>
       </c>
       <c r="E6" s="169">
         <v>100000</v>
       </c>
-      <c r="F6" s="281">
+      <c r="F6" s="311">
         <f>B6/E6</f>
         <v>1.2173499999999999</v>
       </c>
-      <c r="G6" s="281"/>
+      <c r="G6" s="311"/>
       <c r="H6" s="33">
         <f ca="1">B6 - (E6*(NOW()-$B$1)/$E$2)</f>
-        <v>-244271.36574075907</v>
+        <v>-244276.02623456734</v>
       </c>
       <c r="I6" s="33">
         <f ca="1">D6-RAID_GOAL_BLAZON</f>
-        <v>-66739.649526690351</v>
+        <v>-66740.073037585738</v>
       </c>
       <c r="J6" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="306" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="282"/>
-      <c r="D8" s="280" t="s">
+      <c r="C8" s="306"/>
+      <c r="D8" s="307" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="280"/>
-      <c r="F8" s="280" t="s">
+      <c r="E8" s="307"/>
+      <c r="F8" s="307" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="280"/>
-      <c r="H8" s="279" t="s">
+      <c r="G8" s="307"/>
+      <c r="H8" s="309" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="279"/>
-      <c r="J8" s="279" t="s">
+      <c r="I8" s="309"/>
+      <c r="J8" s="309" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="279"/>
-      <c r="L8" s="279"/>
+      <c r="K8" s="309"/>
+      <c r="L8" s="309"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
@@ -4754,6 +4754,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -4761,11 +4766,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="F2">
     <cfRule type="dataBar" priority="36">
@@ -9575,7 +9575,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="293" t="s">
+      <c r="A2" s="325" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="194" t="s">
@@ -9678,7 +9678,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="294"/>
+      <c r="A3" s="326"/>
       <c r="B3" s="175" t="s">
         <v>107</v>
       </c>
@@ -9779,7 +9779,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="299" t="s">
+      <c r="A4" s="331" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="216" t="s">
@@ -9858,7 +9858,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="300"/>
+      <c r="A5" s="332"/>
       <c r="B5" s="221" t="s">
         <v>107</v>
       </c>
@@ -9961,7 +9961,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="295" t="s">
+      <c r="A6" s="327" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="226" t="s">
@@ -10067,7 +10067,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="296"/>
+      <c r="A7" s="328"/>
       <c r="B7" s="231" t="s">
         <v>107</v>
       </c>
@@ -10145,7 +10145,7 @@
       <c r="AI7" s="62"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="301" t="s">
+      <c r="A8" s="333" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="236" t="s">
@@ -10228,10 +10228,10 @@
       <c r="W8" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="309" t="s">
+      <c r="X8" s="312" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="309"/>
+      <c r="Y8" s="312"/>
       <c r="Z8" s="7" t="s">
         <v>23</v>
       </c>
@@ -10258,7 +10258,7 @@
       <c r="AI8" s="62"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="302"/>
+      <c r="A9" s="334"/>
       <c r="B9" s="241" t="s">
         <v>107</v>
       </c>
@@ -10333,7 +10333,7 @@
         <f>SUM('資料-迎擊'!X:X)</f>
         <v>502</v>
       </c>
-      <c r="V9" s="307" t="s">
+      <c r="V9" s="323" t="s">
         <v>20</v>
       </c>
       <c r="W9" s="84">
@@ -10354,7 +10354,7 @@
         <f t="shared" ref="AA9:AA16" si="13">IFERROR(Z9*BOOST_PRICE,"")</f>
         <v/>
       </c>
-      <c r="AB9" s="308" t="s">
+      <c r="AB9" s="324" t="s">
         <v>13</v>
       </c>
       <c r="AC9" s="84">
@@ -10379,7 +10379,7 @@
       <c r="AI9" s="62"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="297" t="s">
+      <c r="A10" s="329" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="246" t="s">
@@ -10456,7 +10456,7 @@
         <f>SUM('資料-迎擊'!AA:AA)</f>
         <v>372</v>
       </c>
-      <c r="V10" s="307"/>
+      <c r="V10" s="323"/>
       <c r="W10" s="84">
         <v>30</v>
       </c>
@@ -10475,7 +10475,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AB10" s="308"/>
+      <c r="AB10" s="324"/>
       <c r="AC10" s="84">
         <v>30</v>
       </c>
@@ -10498,7 +10498,7 @@
       <c r="AI10" s="62"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="298"/>
+      <c r="A11" s="330"/>
       <c r="B11" s="251" t="s">
         <v>107</v>
       </c>
@@ -10573,7 +10573,7 @@
         <f>SUM('資料-迎擊'!AD:AD)</f>
         <v>89</v>
       </c>
-      <c r="V11" s="306" t="s">
+      <c r="V11" s="322" t="s">
         <v>10</v>
       </c>
       <c r="W11" s="85">
@@ -10594,7 +10594,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AB11" s="310" t="s">
+      <c r="AB11" s="313" t="s">
         <v>7</v>
       </c>
       <c r="AC11" s="85">
@@ -10619,7 +10619,7 @@
       <c r="AI11" s="62"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="285" t="s">
+      <c r="A12" s="335" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="256" t="s">
@@ -10665,15 +10665,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P12" s="292">
+      <c r="P12" s="317">
         <f>MAX(SUM(P2,P4,P6,P8,P10),SUM(P3,P5,P7,P9,P11),P14,P15,P16)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="292">
+      <c r="Q12" s="317">
         <f>MAX(SUM(Q2,Q4,Q6,Q8,Q10),SUM(Q3,Q5,Q7,Q9,Q11),P14,P15,P16)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="312">
+      <c r="R12" s="315">
         <f>MAX(SUM(R2,R4,R6,R8,R10),SUM(R3,R5,R7,R9,R11),R14,R15,R16)</f>
         <v>0</v>
       </c>
@@ -10685,7 +10685,7 @@
         <f>SUM(T2,T4,T6,T8,T10)</f>
         <v>3611</v>
       </c>
-      <c r="V12" s="306"/>
+      <c r="V12" s="322"/>
       <c r="W12" s="85">
         <v>30</v>
       </c>
@@ -10704,7 +10704,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AB12" s="310"/>
+      <c r="AB12" s="313"/>
       <c r="AC12" s="85">
         <v>30</v>
       </c>
@@ -10727,7 +10727,7 @@
       <c r="AI12" s="62"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="286"/>
+      <c r="A13" s="336"/>
       <c r="B13" s="57" t="s">
         <v>107</v>
       </c>
@@ -10771,9 +10771,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P13" s="288"/>
-      <c r="Q13" s="288"/>
-      <c r="R13" s="313"/>
+      <c r="P13" s="318"/>
+      <c r="Q13" s="318"/>
+      <c r="R13" s="316"/>
       <c r="S13" s="191">
         <f>(S3*T3+S5*T5+S7*T7+S9*T9+S11*T11) / T$13</f>
         <v>1.5262267343485618</v>
@@ -10782,7 +10782,7 @@
         <f>SUM(T3,T5,T7,T9,T11)</f>
         <v>591</v>
       </c>
-      <c r="V13" s="305" t="s">
+      <c r="V13" s="321" t="s">
         <v>5</v>
       </c>
       <c r="W13" s="86">
@@ -10803,7 +10803,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AB13" s="311" t="s">
+      <c r="AB13" s="314" t="s">
         <v>4</v>
       </c>
       <c r="AC13" s="86">
@@ -10828,7 +10828,7 @@
       <c r="AI13" s="62"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="286"/>
+      <c r="A14" s="336"/>
       <c r="B14" s="57" t="s">
         <v>118</v>
       </c>
@@ -10865,11 +10865,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P14" s="288">
+      <c r="P14" s="318">
         <f>IFERROR(ROUND(N14/S14,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="288"/>
+      <c r="Q14" s="318"/>
       <c r="R14" s="193">
         <f>P14/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -10878,11 +10878,11 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!AE:AE,'資料-迎擊'!AK:AK)/T$14,"")</f>
         <v>1.7191201353637902</v>
       </c>
-      <c r="T14" s="290">
+      <c r="T14" s="339">
         <f>SUM('資料-迎擊'!AK:AK)</f>
         <v>591</v>
       </c>
-      <c r="V14" s="305"/>
+      <c r="V14" s="321"/>
       <c r="W14" s="86">
         <v>30</v>
       </c>
@@ -10901,7 +10901,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AB14" s="311"/>
+      <c r="AB14" s="314"/>
       <c r="AC14" s="86">
         <v>30</v>
       </c>
@@ -10924,7 +10924,7 @@
       <c r="AI14" s="62"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="286"/>
+      <c r="A15" s="336"/>
       <c r="B15" s="57" t="s">
         <v>119</v>
       </c>
@@ -10961,11 +10961,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P15" s="288">
+      <c r="P15" s="318">
         <f>IFERROR(ROUND(N15/S15,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="288"/>
+      <c r="Q15" s="318"/>
       <c r="R15" s="193">
         <f>P15/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -10974,8 +10974,8 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!AG:AG,'資料-迎擊'!AK:AK)/T$14,"")</f>
         <v>1.9120135363790187</v>
       </c>
-      <c r="T15" s="290"/>
-      <c r="V15" s="304" t="s">
+      <c r="T15" s="339"/>
+      <c r="V15" s="320" t="s">
         <v>3</v>
       </c>
       <c r="W15" s="87">
@@ -10996,7 +10996,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AB15" s="303" t="s">
+      <c r="AB15" s="319" t="s">
         <v>2</v>
       </c>
       <c r="AC15" s="88">
@@ -11021,7 +11021,7 @@
       <c r="AI15" s="62"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="287"/>
+      <c r="A16" s="337"/>
       <c r="B16" s="264" t="s">
         <v>120</v>
       </c>
@@ -11058,11 +11058,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P16" s="289">
+      <c r="P16" s="338">
         <f>IFERROR(ROUND(N16/S16,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="289"/>
+      <c r="Q16" s="338"/>
       <c r="R16" s="269">
         <f>Q16/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -11071,8 +11071,8 @@
         <f>IFERROR(SUMPRODUCT('資料-迎擊'!AI:AI,'資料-迎擊'!AK:AK)/T$14,"")</f>
         <v>12.343485617597294</v>
       </c>
-      <c r="T16" s="291"/>
-      <c r="V16" s="304"/>
+      <c r="T16" s="340"/>
+      <c r="V16" s="320"/>
       <c r="W16" s="87">
         <v>30</v>
       </c>
@@ -11091,7 +11091,7 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AB16" s="303"/>
+      <c r="AB16" s="319"/>
       <c r="AC16" s="88">
         <v>30</v>
       </c>
@@ -11114,28 +11114,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="AB15:AB16"/>
     <mergeCell ref="V15:V16"/>
     <mergeCell ref="V13:V14"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="Q12:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="O3">
     <cfRule type="dataBar" priority="23">
@@ -11446,102 +11446,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="341" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="315" t="s">
+      <c r="B1" s="341"/>
+      <c r="C1" s="346" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="315" t="s">
+      <c r="D1" s="346" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315" t="s">
+      <c r="E1" s="346"/>
+      <c r="F1" s="346" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="328" t="s">
+      <c r="G1" s="352" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="328"/>
-      <c r="I1" s="314" t="s">
+      <c r="H1" s="352"/>
+      <c r="I1" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="314" t="s">
+      <c r="J1" s="347" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="314"/>
-      <c r="L1" s="314" t="s">
+      <c r="K1" s="347"/>
+      <c r="L1" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="327" t="s">
+      <c r="M1" s="351" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="327"/>
-      <c r="O1" s="326" t="s">
+      <c r="N1" s="351"/>
+      <c r="O1" s="348" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="326" t="s">
+      <c r="P1" s="348" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326" t="s">
+      <c r="Q1" s="348"/>
+      <c r="R1" s="348" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="320" t="s">
+      <c r="S1" s="355" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="320"/>
-      <c r="U1" s="319" t="s">
+      <c r="T1" s="355"/>
+      <c r="U1" s="349" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="319" t="s">
+      <c r="V1" s="349" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="319"/>
-      <c r="X1" s="319" t="s">
+      <c r="W1" s="349"/>
+      <c r="X1" s="349" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="318" t="s">
+      <c r="Y1" s="354" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="318"/>
-      <c r="AA1" s="317" t="s">
+      <c r="Z1" s="354"/>
+      <c r="AA1" s="350" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="317" t="s">
+      <c r="AB1" s="350" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="317"/>
-      <c r="AD1" s="317" t="s">
+      <c r="AC1" s="350"/>
+      <c r="AD1" s="350" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="324" t="s">
+      <c r="AE1" s="344" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" s="324"/>
-      <c r="AG1" s="325" t="s">
+      <c r="AF1" s="344"/>
+      <c r="AG1" s="345" t="s">
         <v>119</v>
       </c>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="322" t="s">
+      <c r="AH1" s="345"/>
+      <c r="AI1" s="342" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="322"/>
-      <c r="AK1" s="323" t="s">
+      <c r="AJ1" s="342"/>
+      <c r="AK1" s="343" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="316" t="s">
+      <c r="AM1" s="353" t="s">
         <v>71</v>
       </c>
-      <c r="AN1" s="316"/>
-      <c r="AO1" s="316"/>
-      <c r="AP1" s="316"/>
-      <c r="AQ1" s="316"/>
-      <c r="AR1" s="316"/>
-      <c r="AS1" s="316"/>
-      <c r="AT1" s="316"/>
-      <c r="AU1" s="316"/>
+      <c r="AN1" s="353"/>
+      <c r="AO1" s="353"/>
+      <c r="AP1" s="353"/>
+      <c r="AQ1" s="353"/>
+      <c r="AR1" s="353"/>
+      <c r="AS1" s="353"/>
+      <c r="AT1" s="353"/>
+      <c r="AU1" s="353"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="150" t="s">
@@ -11550,70 +11550,70 @@
       <c r="B2" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="315"/>
+      <c r="C2" s="346"/>
       <c r="D2" s="149" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="315"/>
+      <c r="F2" s="346"/>
       <c r="G2" s="130" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="314"/>
+      <c r="I2" s="347"/>
       <c r="J2" s="148" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="314"/>
+      <c r="L2" s="347"/>
       <c r="M2" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="326"/>
+      <c r="O2" s="348"/>
       <c r="P2" s="131" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="326"/>
+      <c r="R2" s="348"/>
       <c r="S2" s="132" t="s">
         <v>32</v>
       </c>
       <c r="T2" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="U2" s="319"/>
+      <c r="U2" s="349"/>
       <c r="V2" s="132" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="X2" s="319"/>
+      <c r="X2" s="349"/>
       <c r="Y2" s="133" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" s="317"/>
+      <c r="AA2" s="350"/>
       <c r="AB2" s="133" t="s">
         <v>32</v>
       </c>
       <c r="AC2" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="AD2" s="317"/>
+      <c r="AD2" s="350"/>
       <c r="AE2" s="136" t="s">
         <v>32</v>
       </c>
@@ -11632,7 +11632,7 @@
       <c r="AJ2" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="AK2" s="323"/>
+      <c r="AK2" s="343"/>
       <c r="AM2" s="62" t="s">
         <v>19</v>
       </c>
@@ -13494,6 +13494,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AM1:AU1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AK2"/>
@@ -13510,15 +13519,6 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AM1:AU1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13551,15 +13551,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="358" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="358"/>
+      <c r="D1" s="358"/>
+      <c r="E1" s="358"/>
+      <c r="F1" s="358"/>
+      <c r="G1" s="358"/>
       <c r="J1" s="24"/>
       <c r="K1" s="23" t="s">
         <v>31</v>
@@ -13581,19 +13581,19 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="361" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="335" t="s">
+      <c r="B2" s="361"/>
+      <c r="C2" s="362" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="335"/>
-      <c r="E2" s="333" t="s">
+      <c r="D2" s="362"/>
+      <c r="E2" s="360" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
       <c r="J2" s="23" t="s">
         <v>57</v>
       </c>
@@ -13633,11 +13633,11 @@
       <c r="E3" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="329">
+      <c r="F3" s="356">
         <f>_xlfn.FLOOR.MATH(B7/MAX(DATA_DRAG_ACCU_EXP))</f>
         <v>8</v>
       </c>
-      <c r="G3" s="329"/>
+      <c r="G3" s="356"/>
       <c r="J3" s="23" t="s">
         <v>58</v>
       </c>
@@ -13677,11 +13677,11 @@
       <c r="E4" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="329">
+      <c r="F4" s="356">
         <f>MATCH(B10,DATA_DRAG_ACCU_EXP,0)</f>
         <v>97</v>
       </c>
-      <c r="G4" s="329"/>
+      <c r="G4" s="356"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -13706,11 +13706,11 @@
       <c r="E5" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="329">
+      <c r="F5" s="356">
         <f>INDEX(DATA_DRAG_LV_EXP,F4)-(B9-B10)</f>
         <v>36940</v>
       </c>
-      <c r="G5" s="329"/>
+      <c r="G5" s="356"/>
       <c r="J5" s="22" t="s">
         <v>76</v>
       </c>
@@ -13722,11 +13722,11 @@
       <c r="M5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="332">
+      <c r="N5" s="359">
         <f>IF(K6&gt;0,K5/K6,"")</f>
         <v>2478.125</v>
       </c>
-      <c r="O5" s="332"/>
+      <c r="O5" s="359"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13770,11 +13770,11 @@
       <c r="D7" s="103">
         <v>32600</v>
       </c>
-      <c r="E7" s="279" t="s">
+      <c r="E7" s="309" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -13791,10 +13791,10 @@
         <f>D3*DRAGON_EXP_60+D4*DRAGON_EXP_80+D5*DRAGON_EXP_100+INDEX(DATA_DRAG_ACCU_EXP,D6)+(INDEX(DATA_DRAG_LV_EXP,D6)-D7)</f>
         <v>1207420</v>
       </c>
-      <c r="E8" s="279" t="s">
+      <c r="E8" s="309" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="330">
+      <c r="F8" s="357">
         <f>IF(G9 &gt; 0,SUM(DATA_DRAGON_EXP)/G9,0)</f>
         <v>2673.9277652370201</v>
       </c>
@@ -13814,8 +13814,8 @@
         <f>MOD(B7,DRAGON_EXP_100)</f>
         <v>1126220</v>
       </c>
-      <c r="E9" s="279"/>
-      <c r="F9" s="330"/>
+      <c r="E9" s="309"/>
+      <c r="F9" s="357"/>
       <c r="G9" s="96">
         <f>SUM(DATA_DRAGON_PLAYS)</f>
         <v>443</v>
@@ -15535,8 +15535,8 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15561,7 +15561,7 @@
       <c r="E1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="395" t="s">
+      <c r="F1" s="363" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="24"/>
@@ -15598,7 +15598,7 @@
       <c r="E2" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="395"/>
+      <c r="F2" s="363"/>
       <c r="H2" s="23" t="s">
         <v>57</v>
       </c>
@@ -15622,22 +15622,22 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="280" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="393">
+      <c r="B3" s="304">
         <f>IF(VOID_FIRE_GOLEM_GOLD&gt;0,F3/VOID_FIRE_GOLEM_GOLD,"")</f>
         <v>21.833333333333332</v>
       </c>
-      <c r="C3" s="393">
+      <c r="C3" s="304">
         <f>IF(VOID_FIRE_GOLEM_SILVER&gt;0,VOID_FIRE_GOLEM_SILVER/F3,"")</f>
         <v>2.3282442748091605</v>
       </c>
-      <c r="D3" s="393" t="str">
+      <c r="D3" s="304" t="str">
         <f>IF(VOID_FIRE_GOLEM_SILVER2&gt;0,VOID_FIRE_GOLEM_SILVER2/F3,"")</f>
         <v/>
       </c>
-      <c r="E3" s="394">
+      <c r="E3" s="305">
         <f>IF(VOID_FIRE_GOLEM_SPEC&gt;0,F3/VOID_FIRE_GOLEM_SPEC,"")</f>
         <v>5.9545454545454541</v>
       </c>
@@ -15668,22 +15668,22 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="280" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="393" t="str">
+      <c r="B4" s="304" t="str">
         <f>IF(VOID_FIRE_GHOST_GOLD&gt;0,F4/VOID_FIRE_GOLEM_GOLD,"")</f>
         <v/>
       </c>
-      <c r="C4" s="393" t="str">
+      <c r="C4" s="304" t="str">
         <f>IF(VOID_FIRE_GHOST_SILVER&gt;0,VOID_FIRE_GHOST_SILVER/F4,"")</f>
         <v/>
       </c>
-      <c r="D4" s="393" t="str">
+      <c r="D4" s="304" t="str">
         <f>IF(VOID_FIRE_GHOST_SILVER2&gt;0,VOID_FIRE_GHOST_SILVER2/F4,"")</f>
         <v/>
       </c>
-      <c r="E4" s="394" t="str">
+      <c r="E4" s="305" t="str">
         <f>IF(VOID_FIRE_GHOST_SPEC&gt;0,F4/VOID_FIRE_GHOST_SPEC,"")</f>
         <v/>
       </c>
@@ -15693,22 +15693,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="280" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="393" t="str">
+      <c r="B5" s="304" t="str">
         <f>IF(VOID_FIRE_AGNI_GOLD&gt;0,F5/VOID_FIRE_GOLEM_GOLD,"")</f>
         <v/>
       </c>
-      <c r="C5" s="393" t="str">
+      <c r="C5" s="304" t="str">
         <f>IF(VOID_FIRE_AGNI_SILVER&gt;0,VOID_FIRE_AGNI_SILVER/F5,"")</f>
         <v/>
       </c>
-      <c r="D5" s="393" t="str">
+      <c r="D5" s="304" t="str">
         <f>IF(VOID_FIRE_AGNI_SILVER2&gt;0,VOID_FIRE_AGNI_SILVER2/F5,"")</f>
         <v/>
       </c>
-      <c r="E5" s="394" t="str">
+      <c r="E5" s="305" t="str">
         <f>IF(VOID_FIRE_AGNI_SPEC&gt;0,F5/VOID_FIRE_AGNI_SPEC,"")</f>
         <v/>
       </c>
@@ -15733,22 +15733,22 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="365" t="s">
+      <c r="A6" s="285" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="393" t="str">
+      <c r="B6" s="304" t="str">
         <f>IF(VOID_WATER_HERMIT_GOLD&gt;0,F6/VOID_FIRE_GOLEM_GOLD,"")</f>
         <v/>
       </c>
-      <c r="C6" s="393" t="str">
+      <c r="C6" s="304" t="str">
         <f>IF(VOID_WATER_HERMIT_SILVER&gt;0,VOID_WATER_HERMIT_SILVER/F6,"")</f>
         <v/>
       </c>
-      <c r="D6" s="393" t="str">
+      <c r="D6" s="304" t="str">
         <f>IF(VOID_WATER_HERMIT_SILVER2&gt;0,VOID_WATER_HERMIT_SILVER2/F6,"")</f>
         <v/>
       </c>
-      <c r="E6" s="394" t="str">
+      <c r="E6" s="305" t="str">
         <f>IF(VOID_WATER_HERMIT_SPEC&gt;0,F6/VOID_WATER_HERMIT_SPEC,"")</f>
         <v/>
       </c>
@@ -15781,22 +15781,22 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="373" t="s">
+      <c r="A7" s="290" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="393">
+      <c r="B7" s="304">
         <f>IF(VOID_WIND_WYVERN_GOLD&gt;0,F7/VOID_FIRE_GOLEM_GOLD,"")</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="C7" s="393">
+      <c r="C7" s="304">
         <f>IF(VOID_WIND_WYVERN_SILVER&gt;0,VOID_WIND_WYVERN_SILVER/F7,"")</f>
         <v>3.0612244897959182</v>
       </c>
-      <c r="D7" s="393">
+      <c r="D7" s="304">
         <f>IF(VOID_WIND_WYVERN_SILVER2&gt;0,VOID_WIND_WYVERN_SILVER2/F7,"")</f>
         <v>4.1836734693877551</v>
       </c>
-      <c r="E7" s="394">
+      <c r="E7" s="305">
         <f>IF(VOID_WIND_WYVERN_SPEC&gt;0,F7/VOID_WIND_WYVERN_SPEC,"")</f>
         <v>16.333333333333332</v>
       </c>
@@ -15825,22 +15825,22 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="381" t="s">
+      <c r="A8" s="295" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="393" t="str">
+      <c r="B8" s="304" t="str">
         <f>IF(VOID_LIGHT_MUSH_GOLD&gt;0,F8/VOID_FIRE_GOLEM_GOLD,"")</f>
         <v/>
       </c>
-      <c r="C8" s="393">
+      <c r="C8" s="304">
         <f>IF(VOID_LIGHT_MUSH_SILVER&gt;0,VOID_LIGHT_MUSH_SILVER/F8,"")</f>
         <v>1.4186046511627908</v>
       </c>
-      <c r="D8" s="393" t="str">
+      <c r="D8" s="304" t="str">
         <f>IF(VOID_LIGHT_MUSH_SILVER2&gt;0,VOID_LIGHT_MUSH_SILVER2/F8,"")</f>
         <v/>
       </c>
-      <c r="E8" s="394">
+      <c r="E8" s="305">
         <f>IF(VOID_LIGHT_MUSH_SPEC&gt;0,F8/VOID_LIGHT_MUSH_SPEC,"")</f>
         <v>21.5</v>
       </c>
@@ -15850,22 +15850,22 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="389" t="s">
+      <c r="A9" s="300" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="393">
+      <c r="B9" s="304">
         <f>IF(VOID_DARK_MTCORE_GOLD&gt;0,F9/VOID_FIRE_GOLEM_GOLD,"")</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="C9" s="393">
+      <c r="C9" s="304">
         <f>IF(VOID_DARK_MTCORE_SILVER&gt;0,VOID_DARK_MTCORE_SILVER/F9,"")</f>
         <v>2.5130434782608697</v>
       </c>
-      <c r="D9" s="393">
+      <c r="D9" s="304">
         <f>IF(VOID_DARK_MTCORE_SILVER2&gt;0,VOID_DARK_MTCORE_SILVER2/F9,"")</f>
         <v>3.1130434782608694</v>
       </c>
-      <c r="E9" s="394">
+      <c r="E9" s="305">
         <f>IF(VOID_DARK_MTCORE_SPEC&gt;0,F9/VOID_DARK_MTCORE_SPEC,"")</f>
         <v>28.75</v>
       </c>
@@ -15898,22 +15898,22 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="389" t="s">
+      <c r="A10" s="300" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="393">
+      <c r="B10" s="304">
         <f>IF(VOID_DARK_GOLEM_GOLD&gt;0,F10/VOID_FIRE_GOLEM_GOLD,"")</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="C10" s="393">
+      <c r="C10" s="304">
         <f>IF(VOID_DARK_GOLEM_SILVER&gt;0,VOID_DARK_GOLEM_SILVER/F10,"")</f>
         <v>3.375</v>
       </c>
-      <c r="D10" s="393">
+      <c r="D10" s="304">
         <f>IF(VOID_DARK_GOLEM_SILVER2&gt;0,VOID_DARK_GOLEM_SILVER2/F10,"")</f>
         <v>0.5</v>
       </c>
-      <c r="E10" s="394">
+      <c r="E10" s="305">
         <f>IF(VOID_DARK_GOLEM_SPEC&gt;0,F10/VOID_DARK_GOLEM_SPEC,"")</f>
         <v>8</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="272"/>
-      <c r="H10" s="357" t="s">
+      <c r="H10" s="280" t="s">
         <v>101</v>
       </c>
       <c r="I10" s="272" t="s">
@@ -15939,7 +15939,7 @@
       <c r="E11" s="272"/>
       <c r="F11" s="272"/>
       <c r="G11" s="272"/>
-      <c r="H11" s="357" t="s">
+      <c r="H11" s="280" t="s">
         <v>128</v>
       </c>
       <c r="I11" s="272"/>
@@ -15956,12 +15956,12 @@
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="272"/>
       <c r="E12" s="272"/>
-      <c r="F12" s="272">
+      <c r="F12" s="96">
         <f>SUM(F3:F11)</f>
         <v>346</v>
       </c>
       <c r="G12" s="272"/>
-      <c r="H12" s="357" t="s">
+      <c r="H12" s="280" t="s">
         <v>130</v>
       </c>
       <c r="I12" s="272"/>
@@ -15986,7 +15986,7 @@
       <c r="E13" s="272"/>
       <c r="F13" s="272"/>
       <c r="G13" s="272"/>
-      <c r="H13" s="365" t="s">
+      <c r="H13" s="285" t="s">
         <v>129</v>
       </c>
       <c r="I13" s="272" t="s">
@@ -16010,7 +16010,7 @@
       <c r="E14" s="272"/>
       <c r="F14" s="272"/>
       <c r="G14" s="272"/>
-      <c r="H14" s="373" t="s">
+      <c r="H14" s="290" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="272" t="s">
@@ -16028,7 +16028,7 @@
       <c r="E15" s="272"/>
       <c r="F15" s="272"/>
       <c r="G15" s="272"/>
-      <c r="H15" s="381" t="s">
+      <c r="H15" s="295" t="s">
         <v>102</v>
       </c>
       <c r="I15" s="272" t="s">
@@ -16058,7 +16058,7 @@
       <c r="E16" s="272"/>
       <c r="F16" s="272"/>
       <c r="G16" s="272"/>
-      <c r="H16" s="389" t="s">
+      <c r="H16" s="300" t="s">
         <v>104</v>
       </c>
       <c r="I16" s="272"/>
@@ -16071,7 +16071,7 @@
       <c r="E17" s="272"/>
       <c r="F17" s="272"/>
       <c r="G17" s="272"/>
-      <c r="H17" s="389" t="s">
+      <c r="H17" s="300" t="s">
         <v>105</v>
       </c>
       <c r="I17" s="272"/>
@@ -16304,6 +16304,7 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16314,221 +16315,221 @@
   </sheetPr>
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V19" sqref="U19:V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="359" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="282" customWidth="1"/>
     <col min="2" max="4" width="3.85546875" style="278" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="360" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="359" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="283" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="282" customWidth="1"/>
     <col min="7" max="9" width="3.85546875" style="278" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="360" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" style="359" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="283" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" style="282" customWidth="1"/>
     <col min="12" max="14" width="3.85546875" style="278" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" style="360" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" style="367" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" style="283" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" style="287" customWidth="1"/>
     <col min="17" max="19" width="3.85546875" style="277" customWidth="1"/>
-    <col min="20" max="20" width="3.85546875" style="368" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" style="375" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" style="288" customWidth="1"/>
+    <col min="21" max="21" width="3.85546875" style="292" customWidth="1"/>
     <col min="22" max="24" width="3.85546875" style="276" customWidth="1"/>
-    <col min="25" max="25" width="3.85546875" style="376" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" style="383" customWidth="1"/>
+    <col min="25" max="25" width="3.85546875" style="293" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" style="297" customWidth="1"/>
     <col min="27" max="29" width="3.85546875" style="275" customWidth="1"/>
-    <col min="30" max="30" width="3.85546875" style="384" customWidth="1"/>
-    <col min="31" max="31" width="3.85546875" style="391" customWidth="1"/>
+    <col min="30" max="30" width="3.85546875" style="298" customWidth="1"/>
+    <col min="31" max="31" width="3.85546875" style="302" customWidth="1"/>
     <col min="32" max="34" width="3.85546875" style="274" customWidth="1"/>
-    <col min="35" max="35" width="3.85546875" style="392" customWidth="1"/>
-    <col min="36" max="36" width="3.85546875" style="391" customWidth="1"/>
+    <col min="35" max="35" width="3.85546875" style="303" customWidth="1"/>
+    <col min="36" max="36" width="3.85546875" style="302" customWidth="1"/>
     <col min="37" max="39" width="3.85546875" style="274" customWidth="1"/>
-    <col min="40" max="40" width="3.85546875" style="392" customWidth="1"/>
+    <col min="40" max="40" width="3.85546875" style="303" customWidth="1"/>
     <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="271" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="367" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="355"/>
-      <c r="F1" s="353" t="s">
+      <c r="B1" s="368"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="367" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
-      <c r="J1" s="355"/>
-      <c r="K1" s="353" t="s">
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="369"/>
+      <c r="K1" s="367" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
-      <c r="O1" s="355"/>
-      <c r="P1" s="361" t="s">
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
+      <c r="N1" s="368"/>
+      <c r="O1" s="369"/>
+      <c r="P1" s="376" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="362"/>
-      <c r="R1" s="362"/>
-      <c r="S1" s="362"/>
-      <c r="T1" s="363"/>
-      <c r="U1" s="369" t="s">
+      <c r="Q1" s="377"/>
+      <c r="R1" s="377"/>
+      <c r="S1" s="377"/>
+      <c r="T1" s="378"/>
+      <c r="U1" s="373" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="370"/>
-      <c r="W1" s="370"/>
-      <c r="X1" s="370"/>
-      <c r="Y1" s="371"/>
-      <c r="Z1" s="377" t="s">
+      <c r="V1" s="374"/>
+      <c r="W1" s="374"/>
+      <c r="X1" s="374"/>
+      <c r="Y1" s="375"/>
+      <c r="Z1" s="370" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="378"/>
-      <c r="AB1" s="378"/>
-      <c r="AC1" s="378"/>
-      <c r="AD1" s="379"/>
-      <c r="AE1" s="385" t="s">
+      <c r="AA1" s="371"/>
+      <c r="AB1" s="371"/>
+      <c r="AC1" s="371"/>
+      <c r="AD1" s="372"/>
+      <c r="AE1" s="364" t="s">
         <v>104</v>
       </c>
-      <c r="AF1" s="386"/>
-      <c r="AG1" s="386"/>
-      <c r="AH1" s="386"/>
-      <c r="AI1" s="387"/>
-      <c r="AJ1" s="385" t="s">
+      <c r="AF1" s="365"/>
+      <c r="AG1" s="365"/>
+      <c r="AH1" s="365"/>
+      <c r="AI1" s="366"/>
+      <c r="AJ1" s="364" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="386"/>
-      <c r="AL1" s="386"/>
-      <c r="AM1" s="386"/>
-      <c r="AN1" s="387"/>
+      <c r="AK1" s="365"/>
+      <c r="AL1" s="365"/>
+      <c r="AM1" s="365"/>
+      <c r="AN1" s="366"/>
     </row>
     <row r="2" spans="1:40" s="271" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="356" t="s">
+      <c r="A2" s="279" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="357" t="s">
+      <c r="B2" s="280" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="357" t="s">
+      <c r="C2" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="357" t="s">
+      <c r="D2" s="280" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="358" t="s">
+      <c r="E2" s="281" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="356" t="s">
+      <c r="F2" s="279" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="357" t="s">
+      <c r="G2" s="280" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="357" t="s">
+      <c r="H2" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="357" t="s">
+      <c r="I2" s="280" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="358" t="s">
+      <c r="J2" s="281" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="356" t="s">
+      <c r="K2" s="279" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="357" t="s">
+      <c r="L2" s="280" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="357" t="s">
+      <c r="M2" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="357" t="s">
+      <c r="N2" s="280" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="358" t="s">
+      <c r="O2" s="281" t="s">
         <v>127</v>
       </c>
-      <c r="P2" s="364" t="s">
+      <c r="P2" s="284" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="365" t="s">
+      <c r="Q2" s="285" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="365" t="s">
+      <c r="R2" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="365" t="s">
+      <c r="S2" s="285" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="366" t="s">
+      <c r="T2" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="U2" s="372" t="s">
+      <c r="U2" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="373" t="s">
+      <c r="V2" s="290" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="373" t="s">
+      <c r="W2" s="290" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="373" t="s">
+      <c r="X2" s="290" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="374" t="s">
+      <c r="Y2" s="291" t="s">
         <v>127</v>
       </c>
-      <c r="Z2" s="380" t="s">
+      <c r="Z2" s="294" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="381" t="s">
+      <c r="AA2" s="295" t="s">
         <v>77</v>
       </c>
-      <c r="AB2" s="381" t="s">
+      <c r="AB2" s="295" t="s">
         <v>78</v>
       </c>
-      <c r="AC2" s="381" t="s">
+      <c r="AC2" s="295" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="382" t="s">
+      <c r="AD2" s="296" t="s">
         <v>127</v>
       </c>
-      <c r="AE2" s="388" t="s">
+      <c r="AE2" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="389" t="s">
+      <c r="AF2" s="300" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" s="389" t="s">
+      <c r="AG2" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="389" t="s">
+      <c r="AH2" s="300" t="s">
         <v>85</v>
       </c>
-      <c r="AI2" s="390" t="s">
+      <c r="AI2" s="301" t="s">
         <v>127</v>
       </c>
-      <c r="AJ2" s="388" t="s">
+      <c r="AJ2" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" s="389" t="s">
+      <c r="AK2" s="300" t="s">
         <v>77</v>
       </c>
-      <c r="AL2" s="389" t="s">
+      <c r="AL2" s="300" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="389" t="s">
+      <c r="AM2" s="300" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" s="390" t="s">
+      <c r="AN2" s="301" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="359">
+      <c r="A3" s="282">
         <v>37</v>
       </c>
       <c r="B3" s="278">
@@ -16540,10 +16541,10 @@
       <c r="D3" s="278">
         <v>0</v>
       </c>
-      <c r="E3" s="360">
-        <v>3</v>
-      </c>
-      <c r="U3" s="375">
+      <c r="E3" s="283">
+        <v>3</v>
+      </c>
+      <c r="U3" s="292">
         <v>21</v>
       </c>
       <c r="V3" s="276">
@@ -16555,10 +16556,10 @@
       <c r="X3" s="276">
         <v>86</v>
       </c>
-      <c r="Y3" s="376">
+      <c r="Y3" s="293">
         <v>1</v>
       </c>
-      <c r="Z3" s="383">
+      <c r="Z3" s="297">
         <v>9</v>
       </c>
       <c r="AA3" s="275">
@@ -16570,10 +16571,10 @@
       <c r="AC3" s="275">
         <v>0</v>
       </c>
-      <c r="AD3" s="384">
+      <c r="AD3" s="298">
         <v>1</v>
       </c>
-      <c r="AE3" s="391">
+      <c r="AE3" s="302">
         <v>13</v>
       </c>
       <c r="AF3" s="274">
@@ -16585,10 +16586,10 @@
       <c r="AH3" s="274">
         <v>42</v>
       </c>
-      <c r="AI3" s="392">
+      <c r="AI3" s="303">
         <v>0</v>
       </c>
-      <c r="AJ3" s="391">
+      <c r="AJ3" s="302">
         <v>8</v>
       </c>
       <c r="AK3" s="274">
@@ -16600,12 +16601,12 @@
       <c r="AM3" s="274">
         <v>4</v>
       </c>
-      <c r="AN3" s="392">
+      <c r="AN3" s="303">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="359">
+      <c r="A4" s="282">
         <v>67</v>
       </c>
       <c r="B4" s="278">
@@ -16617,10 +16618,10 @@
       <c r="D4" s="278">
         <v>0</v>
       </c>
-      <c r="E4" s="360">
+      <c r="E4" s="283">
         <v>15</v>
       </c>
-      <c r="U4" s="375">
+      <c r="U4" s="292">
         <v>17</v>
       </c>
       <c r="V4" s="276">
@@ -16632,10 +16633,10 @@
       <c r="X4" s="276">
         <v>68</v>
       </c>
-      <c r="Y4" s="376">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="383">
+      <c r="Y4" s="293">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="297">
         <v>30</v>
       </c>
       <c r="AA4" s="275">
@@ -16647,10 +16648,10 @@
       <c r="AC4" s="275">
         <v>0</v>
       </c>
-      <c r="AD4" s="384">
+      <c r="AD4" s="298">
         <v>1</v>
       </c>
-      <c r="AE4" s="391">
+      <c r="AE4" s="302">
         <v>58</v>
       </c>
       <c r="AF4" s="274">
@@ -16662,12 +16663,12 @@
       <c r="AH4" s="274">
         <v>153</v>
       </c>
-      <c r="AI4" s="392">
+      <c r="AI4" s="303">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="359">
+      <c r="A5" s="282">
         <v>27</v>
       </c>
       <c r="B5" s="278">
@@ -16679,10 +16680,10 @@
       <c r="D5" s="278">
         <v>0</v>
       </c>
-      <c r="E5" s="360">
+      <c r="E5" s="283">
         <v>4</v>
       </c>
-      <c r="U5" s="375">
+      <c r="U5" s="292">
         <v>11</v>
       </c>
       <c r="V5" s="276">
@@ -16694,10 +16695,10 @@
       <c r="X5" s="276">
         <v>51</v>
       </c>
-      <c r="Y5" s="376">
+      <c r="Y5" s="293">
         <v>0</v>
       </c>
-      <c r="Z5" s="383">
+      <c r="Z5" s="297">
         <v>4</v>
       </c>
       <c r="AA5" s="275">
@@ -16709,10 +16710,10 @@
       <c r="AC5" s="275">
         <v>0</v>
       </c>
-      <c r="AD5" s="384">
+      <c r="AD5" s="298">
         <v>0</v>
       </c>
-      <c r="AE5" s="391">
+      <c r="AE5" s="302">
         <v>13</v>
       </c>
       <c r="AF5" s="274">
@@ -16724,12 +16725,12 @@
       <c r="AH5" s="274">
         <v>46</v>
       </c>
-      <c r="AI5" s="392">
+      <c r="AI5" s="303">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE6" s="391">
+      <c r="AE6" s="302">
         <v>30</v>
       </c>
       <c r="AF6" s="274">
@@ -16741,13 +16742,13 @@
       <c r="AH6" s="274">
         <v>114</v>
       </c>
-      <c r="AI6" s="392">
+      <c r="AI6" s="303">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="359"/>
-      <c r="AE7" s="391">
+      <c r="B7" s="282"/>
+      <c r="AE7" s="302">
         <v>1</v>
       </c>
       <c r="AF7" s="274">
@@ -16759,7 +16760,7 @@
       <c r="AH7" s="274">
         <v>3</v>
       </c>
-      <c r="AI7" s="392">
+      <c r="AI7" s="303">
         <v>0</v>
       </c>
     </row>
@@ -16825,38 +16826,38 @@
         <v>32</v>
       </c>
       <c r="I1" s="75"/>
-      <c r="J1" s="279" t="s">
+      <c r="J1" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="352" t="s">
+      <c r="K1" s="385" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352" t="s">
+      <c r="L1" s="385"/>
+      <c r="M1" s="385" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="352"/>
-      <c r="O1" s="351" t="s">
+      <c r="N1" s="385"/>
+      <c r="O1" s="384" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="279" t="s">
+      <c r="P1" s="309" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="279"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="279"/>
-      <c r="T1" s="279"/>
-      <c r="U1" s="279" t="s">
+      <c r="Q1" s="309"/>
+      <c r="R1" s="309"/>
+      <c r="S1" s="309"/>
+      <c r="T1" s="309"/>
+      <c r="U1" s="309" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="279"/>
-      <c r="W1" s="279"/>
+      <c r="V1" s="309"/>
+      <c r="W1" s="309"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="340" t="s">
+      <c r="A2" s="394" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="341">
+      <c r="B2" s="395">
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTA(DATA_HDRAG_HBRUN),"")</f>
         <v>295</v>
       </c>
@@ -16876,12 +16877,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=5"),"")</f>
         <v>11</v>
       </c>
-      <c r="G2" s="350">
+      <c r="G2" s="383">
         <f>IF(HDRAG_HAS_REC_HBRUN,AVERAGE(DATA_HDRAG_HBRUN),"")</f>
         <v>2.4305084745762713</v>
       </c>
       <c r="I2" s="75"/>
-      <c r="J2" s="279"/>
+      <c r="J2" s="309"/>
       <c r="K2" s="41" t="s">
         <v>50</v>
       </c>
@@ -16894,7 +16895,7 @@
       <c r="N2" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="351"/>
+      <c r="O2" s="384"/>
       <c r="P2" s="75">
         <v>2</v>
       </c>
@@ -16921,8 +16922,8 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="340"/>
-      <c r="B3" s="341"/>
+      <c r="A3" s="394"/>
+      <c r="B3" s="395"/>
       <c r="C3" s="104">
         <f>IF(HDRAG_HAS_REC_HBRUN,C2/$B2,"")</f>
         <v>0.68813559322033901</v>
@@ -16939,7 +16940,7 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,F2/$B2,"")</f>
         <v>3.7288135593220341E-2</v>
       </c>
-      <c r="G3" s="350"/>
+      <c r="G3" s="383"/>
       <c r="I3" s="73" t="s">
         <v>34</v>
       </c>
@@ -16998,10 +16999,10 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="338" t="s">
+      <c r="A4" s="392" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="339" t="str">
+      <c r="B4" s="393" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTA(DATA_HDRAG_HMERC),"")</f>
         <v/>
       </c>
@@ -17021,7 +17022,7 @@
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G4" s="349" t="str">
+      <c r="G4" s="382" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,AVERAGE(DATA_HDRAG_HMERC),"")</f>
         <v/>
       </c>
@@ -17077,8 +17078,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="338"/>
-      <c r="B5" s="339"/>
+      <c r="A5" s="392"/>
+      <c r="B5" s="393"/>
       <c r="C5" s="106" t="str">
         <f>IF(HDRAG_HAS_REC_HMERC,C4/$B4,"")</f>
         <v/>
@@ -17095,7 +17096,7 @@
         <f>IF(HDRAG_HAS_REC_HMERC,F4/$B4,"")</f>
         <v/>
       </c>
-      <c r="G5" s="349"/>
+      <c r="G5" s="382"/>
       <c r="I5" s="114" t="s">
         <v>35</v>
       </c>
@@ -17154,10 +17155,10 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="336" t="s">
+      <c r="A6" s="390" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="337">
+      <c r="B6" s="391">
         <f>IF(HDRAG_HAS_REC_HMID,COUNTA(DATA_HDRAG_HMID),"")</f>
         <v>799</v>
       </c>
@@ -17177,7 +17178,7 @@
         <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=5"),"")</f>
         <v>49</v>
       </c>
-      <c r="G6" s="348">
+      <c r="G6" s="381">
         <f>IF(HDRAG_HAS_REC_HMID,AVERAGE(DATA_HDRAG_HMID),"")</f>
         <v>2.5519399249061325</v>
       </c>
@@ -17233,8 +17234,8 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="336"/>
-      <c r="B7" s="337"/>
+      <c r="A7" s="390"/>
+      <c r="B7" s="391"/>
       <c r="C7" s="108">
         <f>IF(HDRAG_HAS_REC_HMID,C6/$B6,"")</f>
         <v>0.6483103879849812</v>
@@ -17251,7 +17252,7 @@
         <f>IF(HDRAG_HAS_REC_HMID,F6/$B6,"")</f>
         <v>6.1326658322903627E-2</v>
       </c>
-      <c r="G7" s="348"/>
+      <c r="G7" s="381"/>
       <c r="I7" s="74" t="s">
         <v>48</v>
       </c>
@@ -17304,10 +17305,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="344" t="s">
+      <c r="A8" s="388" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="345" t="str">
+      <c r="B8" s="389" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTA(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
@@ -17327,14 +17328,14 @@
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G8" s="347" t="str">
+      <c r="G8" s="380" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,AVERAGE(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="344"/>
-      <c r="B9" s="345"/>
+      <c r="A9" s="388"/>
+      <c r="B9" s="389"/>
       <c r="C9" s="110" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,C8/$B8,"")</f>
         <v/>
@@ -17351,13 +17352,13 @@
         <f>IF(HDRAG_HAS_REC_HJUP,F8/$B8,"")</f>
         <v/>
       </c>
-      <c r="G9" s="347"/>
+      <c r="G9" s="380"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="342" t="s">
+      <c r="A10" s="386" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="343" t="str">
+      <c r="B10" s="387" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTA(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
@@ -17377,14 +17378,14 @@
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G10" s="346" t="str">
+      <c r="G10" s="379" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,AVERAGE(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="342"/>
-      <c r="B11" s="343"/>
+      <c r="A11" s="386"/>
+      <c r="B11" s="387"/>
       <c r="C11" s="111" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,C10/$B10,"")</f>
         <v/>
@@ -17401,18 +17402,18 @@
         <f>IF(HDRAG_HAS_REC_HZOD,F10/$B10,"")</f>
         <v/>
       </c>
-      <c r="G11" s="346"/>
+      <c r="G11" s="379"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="B13" s="279" t="s">
+      <c r="B13" s="309" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="279"/>
-      <c r="D13" s="279"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="279"/>
+      <c r="C13" s="309"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="309"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
@@ -17565,14 +17566,14 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
-      <c r="B20" s="279" t="s">
+      <c r="B20" s="309" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="279"/>
-      <c r="D20" s="279"/>
-      <c r="E20" s="279"/>
-      <c r="F20" s="279"/>
-      <c r="G20" s="279"/>
+      <c r="C20" s="309"/>
+      <c r="D20" s="309"/>
+      <c r="E20" s="309"/>
+      <c r="F20" s="309"/>
+      <c r="G20" s="309"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
@@ -17725,14 +17726,14 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="279" t="s">
+      <c r="B27" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="279"/>
-      <c r="D27" s="279"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
+      <c r="E27" s="309"/>
+      <c r="F27" s="309"/>
+      <c r="G27" s="309"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
@@ -17885,14 +17886,14 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
-      <c r="B34" s="279" t="s">
+      <c r="B34" s="309" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="279"/>
-      <c r="D34" s="279"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="279"/>
-      <c r="G34" s="279"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="309"/>
+      <c r="E34" s="309"/>
+      <c r="F34" s="309"/>
+      <c r="G34" s="309"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
@@ -18057,6 +18058,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="G10:G11"/>
@@ -18068,20 +18083,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="K1">
     <cfRule type="dataBar" priority="6">

--- a/Dragalia Data.xlsx
+++ b/Dragalia Data.xlsx
@@ -5,64 +5,76 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maple\OneDrive\文件\DL\dragalia-data-track\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2167" documentId="14_{049F9EFC-050E-4651-8DC8-B33E922A69AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{52D7CB36-CF28-4F8D-A6F5-01FE4BDD914E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E209365D-5669-4541-BA1B-EBB718C718BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{20D400FA-83E1-45C8-9F3C-59349DAE93B6}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1080" windowWidth="21960" windowHeight="13395" activeTab="5" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
+    <workbookView xWindow="3600" yWindow="1650" windowWidth="18960" windowHeight="13485" firstSheet="2" activeTab="7" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raid" sheetId="16" r:id="rId1"/>
     <sheet name="迎擊" sheetId="18" r:id="rId2"/>
-    <sheet name="資料-迎擊" sheetId="7" r:id="rId3"/>
-    <sheet name="龍之試煉" sheetId="19" r:id="rId4"/>
-    <sheet name="資料-龍試煉" sheetId="4" r:id="rId5"/>
+    <sheet name="D迎擊" sheetId="7" r:id="rId3"/>
+    <sheet name="龍煉" sheetId="19" r:id="rId4"/>
+    <sheet name="D龍煉" sheetId="4" r:id="rId5"/>
     <sheet name="虛空" sheetId="21" r:id="rId6"/>
-    <sheet name="資料-虛空" sheetId="15" r:id="rId7"/>
-    <sheet name="真龍試煉" sheetId="20" r:id="rId8"/>
-    <sheet name="資料-真龍" sheetId="9" state="hidden" r:id="rId9"/>
-    <sheet name="掉落-真火" sheetId="10" r:id="rId10"/>
-    <sheet name="掉落-真水" sheetId="11" state="hidden" r:id="rId11"/>
-    <sheet name="掉落-真風" sheetId="14" r:id="rId12"/>
-    <sheet name="掉落-真光" sheetId="13" state="hidden" r:id="rId13"/>
-    <sheet name="掉落-真暗" sheetId="12" state="hidden" r:id="rId14"/>
+    <sheet name="D虛空" sheetId="15" r:id="rId7"/>
+    <sheet name="爪草" sheetId="22" r:id="rId8"/>
+    <sheet name="D爪草" sheetId="23" r:id="rId9"/>
+    <sheet name="真龍" sheetId="20" r:id="rId10"/>
+    <sheet name="D真龍" sheetId="9" state="hidden" r:id="rId11"/>
+    <sheet name="D真火" sheetId="10" state="hidden" r:id="rId12"/>
+    <sheet name="D真水" sheetId="11" r:id="rId13"/>
+    <sheet name="D真風" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet name="D真光" sheetId="13" state="hidden" r:id="rId15"/>
+    <sheet name="D真暗" sheetId="12" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="BOOST_PRICE" comment="Price to boost the building. Unit is Diams/Time.">BOOST_UNIT_DIAMS/BOOST_UNIT_TIME</definedName>
     <definedName name="BOOST_UNIT_DIAMS" comment="The count of diamantiums of a unit which is used for calculating the cost of boosting the building speed.">1</definedName>
     <definedName name="BOOST_UNIT_TIME" comment="The time period of a unit which is used for calculating the cost of boosting the building speed.">0.00833333333333333</definedName>
-    <definedName name="DATA_DRAG_ACCU_EXP">'資料-龍試煉'!$G$2:$G$101</definedName>
-    <definedName name="DATA_DRAG_LV_EXP">'資料-龍試煉'!$F$2:$F$101</definedName>
-    <definedName name="DATA_DRAGON_EXP">'資料-龍試煉'!$A:$A</definedName>
-    <definedName name="DATA_DRAGON_PLAYS">'資料-龍試煉'!$B:$B</definedName>
-    <definedName name="DATA_HDRAG_HBRUN" comment="Raw drop data of High Brunhilda">'掉落-真火'!$1:$1048576</definedName>
-    <definedName name="DATA_HDRAG_HJUP" comment="Raw drop data of High Jupiter">'掉落-真光'!$1:$1048576</definedName>
-    <definedName name="DATA_HDRAG_HMERC" comment="Raw drop data of High Mercury">'掉落-真水'!$1:$1048576</definedName>
-    <definedName name="DATA_HDRAG_HMID" comment="Raw drop data of High Midgarsormr">'掉落-真風'!$1:$1048576</definedName>
-    <definedName name="DATA_HDRAG_HZOD" comment="Raw drop data of High Zodiac">'掉落-真暗'!$1:$1048576</definedName>
-    <definedName name="DATA_HDRAGS_BUILDING" comment="Table of orbs required for upgrading the building of high dragons.">'資料-真龍'!$A$2:$A$32</definedName>
-    <definedName name="DATA_HDRAGS_DRAGON" comment="Table of orbs required for limit breaking the high dragons.">'資料-真龍'!$B$2:$B$7</definedName>
-    <definedName name="DATA_IO" comment="Raw data for building Imperial Onslaught related facilities.">'資料-迎擊'!$AM$3:$AU$32</definedName>
+    <definedName name="CLOVER_EXP_GAMES">SUM(D爪草!$B$4:$B$1048576)</definedName>
+    <definedName name="CLOVER_EXP_SUM">SUM(D爪草!$A$4:$A$1048576)</definedName>
+    <definedName name="CLOVER_RUBY_GAMES">SUM(D爪草!$D$4:$D$1048576)</definedName>
+    <definedName name="CLOVER_RUBY_SUM">SUM(D爪草!$C$4:$C$1048576)</definedName>
+    <definedName name="CLOVER_RUIN_GAMES">SUM(D爪草!$F$4:$F$1048576)</definedName>
+    <definedName name="CLOVER_RUIN_SUM">SUM(D爪草!$E$4:$E$1048576)</definedName>
+    <definedName name="DATA_DRAG_ACCU_EXP">D龍煉!$G$2:$G$101</definedName>
+    <definedName name="DATA_DRAG_LV_EXP">D龍煉!$F$2:$F$101</definedName>
+    <definedName name="DATA_DRAGON_EXP">D龍煉!$A:$A</definedName>
+    <definedName name="DATA_DRAGON_PLAYS">D龍煉!$B:$B</definedName>
+    <definedName name="DATA_HDRAG_HBRUN" comment="Raw drop data of High Brunhilda">D真火!$1:$1048576</definedName>
+    <definedName name="DATA_HDRAG_HJUP" comment="Raw drop data of High Jupiter">D真光!$1:$1048576</definedName>
+    <definedName name="DATA_HDRAG_HMERC" comment="Raw drop data of High Mercury">D真水!$1:$1048576</definedName>
+    <definedName name="DATA_HDRAG_HMID" comment="Raw drop data of High Midgarsormr">D真風!$1:$1048576</definedName>
+    <definedName name="DATA_HDRAG_HZOD" comment="Raw drop data of High Zodiac">D真暗!$1:$1048576</definedName>
+    <definedName name="DATA_HDRAGS_BUILDING" comment="Table of orbs required for upgrading the building of high dragons.">D真龍!$A$2:$A$32</definedName>
+    <definedName name="DATA_HDRAGS_DRAGON" comment="Table of orbs required for limit breaking the high dragons.">D真龍!$C$2:$C$7</definedName>
+    <definedName name="DATA_HDRAGS_TALON">D真龍!$B$2:$B$31</definedName>
+    <definedName name="DATA_IO" comment="Raw data for building Imperial Onslaught related facilities.">D迎擊!$AM$3:$AU$32</definedName>
     <definedName name="DATA_IO_EXTRA_EXCHANGED_BIG">(迎擊!$K$3,迎擊!$K$5,迎擊!$K$7,迎擊!$K$9,迎擊!$K$11)</definedName>
     <definedName name="DATA_IO_EXTRA_EXCHANGED_SMALL">(迎擊!$K$2,迎擊!$K$4,迎擊!$K$6,迎擊!$K$8,迎擊!$K$10)</definedName>
     <definedName name="DATA_IO_OWNED_BIG">(迎擊!$C$3,迎擊!$C$5,迎擊!$C$7,迎擊!$C$9,迎擊!$C$11)</definedName>
     <definedName name="DATA_IO_OWNED_SMALL">(迎擊!$C$2,迎擊!$C$4,迎擊!$C$6,迎擊!$C$8,迎擊!$C$10)</definedName>
+    <definedName name="DRACOLITH_TALON">D爪草!$O$3:$O$22</definedName>
+    <definedName name="DRACOLITH_TALON_MAX">MAX(DRACOLITH_TALON)</definedName>
     <definedName name="DRAGEXP_L" comment="Experience points of a large dragon fruit.">3500</definedName>
     <definedName name="DRAGEXP_M" comment="Experience points of a medium dragon fruit.">1000</definedName>
     <definedName name="DRAGEXP_S" comment="Experience points of a small dragon fruit.">150</definedName>
-    <definedName name="DRAGON_EXP_100">'資料-龍試煉'!$G$101</definedName>
-    <definedName name="DRAGON_EXP_60">'資料-龍試煉'!$G$61</definedName>
-    <definedName name="DRAGON_EXP_80">'資料-龍試煉'!$G$81</definedName>
+    <definedName name="DRAGON_EXP_100">D龍煉!$G$101</definedName>
+    <definedName name="DRAGON_EXP_60">D龍煉!$G$61</definedName>
+    <definedName name="DRAGON_EXP_80">D龍煉!$G$81</definedName>
     <definedName name="HDRAG_HAS_REC_HBRUN" comment="Has the record of High Brunhilda or not.">COUNTA(DATA_HDRAG_HBRUN) &gt; 0</definedName>
     <definedName name="HDRAG_HAS_REC_HJUP" comment="Has the record of High Jupiter or not.">COUNTA(DATA_HDRAG_HJUP) &gt; 0</definedName>
     <definedName name="HDRAG_HAS_REC_HMERC" comment="Has the record of High Mercury or not.">COUNTA(DATA_HDRAG_HMERC) &gt; 0</definedName>
     <definedName name="HDRAG_HAS_REC_HMID" comment="Has the record of High Midgarsormr or not.">COUNTA(DATA_HDRAG_HMID) &gt; 0</definedName>
     <definedName name="HDRAG_HAS_REC_HZOD" comment="Has the record of High Zodiac or not.">COUNTA(DATA_HDRAG_HZOD) &gt; 0</definedName>
-    <definedName name="HDRAGS_MAX_ALL" comment="Value of required orbs for maxing all high dragons related objects.">HDRAGS_MAX_BUILDING + HDRAGS_MAX_DRAGON</definedName>
-    <definedName name="HDRAGS_MAX_BUILDING" comment="Value of orbs required for maxing the building of the high dragons.">MAX(DATA_HDRAGS_BUILDING)</definedName>
-    <definedName name="HDRAGS_MAX_DRAGON" comment="Value of orbs required for maxing the limit break of the high dragons.">MAX(DATA_HDRAGS_DRAGON)</definedName>
-    <definedName name="HDRAGS_MAX_DRAGON_BLD_16" comment="Value of required orbs for max limit break the dragon and upgrade the building to Lv.16.">MAX(DATA_HDRAGS_DRAGON)+INDEX(DATA_HDRAGS_BUILDING,16)</definedName>
+    <definedName name="HDRAG_MAX_ALL" comment="Value of required orbs for maxing all high dragons related objects.">HDRAG_MAX_BUILDING + HDRAG_MAX_DRAGON</definedName>
+    <definedName name="HDRAG_MAX_BUILDING" comment="Value of orbs required for maxing the building of the high dragons.">MAX(DATA_HDRAGS_BUILDING)</definedName>
+    <definedName name="HDRAG_MAX_DRAGON" comment="Value of orbs required for maxing the limit break of the high dragons.">MAX(DATA_HDRAGS_DRAGON)</definedName>
+    <definedName name="HDRAG_MAX_DRAGON_BLD_16" comment="Value of required orbs for max limit break the dragon and upgrade the building to Lv.16.">MAX(DATA_HDRAGS_DRAGON)+INDEX(DATA_HDRAGS_BUILDING,16)</definedName>
+    <definedName name="HDRAG_MAX_TALON">MAX(DATA_HDRAGS_TALON)</definedName>
     <definedName name="IO_EXCHANGE_BIG_TO_SMALL" comment="Exchange rate of big elemental emblem to small elemental emblem. (Small/1 Big)">3</definedName>
     <definedName name="IO_EXCHANGE_SMALL_TO_BIG" comment="Exchange rate of small elemental emblem to big elemental emblem. (Big/1 Small)">1/6</definedName>
     <definedName name="IO_WEAPON_434">250</definedName>
@@ -72,46 +84,52 @@
     <definedName name="RAID_TIME_DURATION">Raid!$E$2</definedName>
     <definedName name="RAID_TIME_END">Raid!$B$2</definedName>
     <definedName name="RAID_TIME_START">Raid!$B$1</definedName>
-    <definedName name="VOID_DARK_GOLEM_GAMES">SUM('資料-虛空'!$AJ:$AJ)</definedName>
-    <definedName name="VOID_DARK_GOLEM_GOLD">SUM('資料-虛空'!$AK:$AK)</definedName>
-    <definedName name="VOID_DARK_GOLEM_SILVER">SUM('資料-虛空'!$AL:$AL)</definedName>
-    <definedName name="VOID_DARK_GOLEM_SILVER2">SUM('資料-虛空'!$AM:$AM)</definedName>
-    <definedName name="VOID_DARK_GOLEM_SPEC">SUM('資料-虛空'!$AN:$AN)</definedName>
-    <definedName name="VOID_DARK_MTCORE_GAMES">SUM('資料-虛空'!$AE:$AE)</definedName>
-    <definedName name="VOID_DARK_MTCORE_GOLD">SUM('資料-虛空'!$AF:$AF)</definedName>
-    <definedName name="VOID_DARK_MTCORE_SILVER">SUM('資料-虛空'!$AG:$AG)</definedName>
-    <definedName name="VOID_DARK_MTCORE_SILVER2">SUM('資料-虛空'!$AH:$AH)</definedName>
-    <definedName name="VOID_DARK_MTCORE_SPEC">SUM('資料-虛空'!$AI:$AI)</definedName>
-    <definedName name="VOID_FIRE_AGNI_GAMES">SUM('資料-虛空'!$K:$K)</definedName>
-    <definedName name="VOID_FIRE_AGNI_GOLD">SUM('資料-虛空'!$L:$L)</definedName>
-    <definedName name="VOID_FIRE_AGNI_SILVER">SUM('資料-虛空'!$M:$M)</definedName>
-    <definedName name="VOID_FIRE_AGNI_SILVER2">SUM('資料-虛空'!$N:$N)</definedName>
-    <definedName name="VOID_FIRE_AGNI_SPEC">SUM('資料-虛空'!$O:$O)</definedName>
-    <definedName name="VOID_FIRE_GHOST_GAMES">SUM('資料-虛空'!$F:$F)</definedName>
-    <definedName name="VOID_FIRE_GHOST_GOLD">SUM('資料-虛空'!$G:$G)</definedName>
-    <definedName name="VOID_FIRE_GHOST_SILVER">SUM('資料-虛空'!$H:$H)</definedName>
-    <definedName name="VOID_FIRE_GHOST_SILVER2">SUM('資料-虛空'!$I:$I)</definedName>
-    <definedName name="VOID_FIRE_GHOST_SPEC">SUM('資料-虛空'!$J:$J)</definedName>
-    <definedName name="VOID_FIRE_GOLEM_GAMES">SUM('資料-虛空'!$A:$A)</definedName>
-    <definedName name="VOID_FIRE_GOLEM_GOLD">SUM('資料-虛空'!$B:$B)</definedName>
-    <definedName name="VOID_FIRE_GOLEM_SILVER">SUM('資料-虛空'!$C:$C)</definedName>
-    <definedName name="VOID_FIRE_GOLEM_SILVER2">SUM('資料-虛空'!$D:$D)</definedName>
-    <definedName name="VOID_FIRE_GOLEM_SPEC">SUM('資料-虛空'!$E:$E)</definedName>
-    <definedName name="VOID_LIGHT_MUSH_GAMES">SUM('資料-虛空'!$Z:$Z)</definedName>
-    <definedName name="VOID_LIGHT_MUSH_GOLD">SUM('資料-虛空'!$AA:$AA)</definedName>
-    <definedName name="VOID_LIGHT_MUSH_SILVER">SUM('資料-虛空'!$AB:$AB)</definedName>
-    <definedName name="VOID_LIGHT_MUSH_SILVER2">SUM('資料-虛空'!$AC:$AC)</definedName>
-    <definedName name="VOID_LIGHT_MUSH_SPEC">SUM('資料-虛空'!$AD:$AD)</definedName>
-    <definedName name="VOID_WATER_HERMIT_GAMES">SUM('資料-虛空'!$P:$P)</definedName>
-    <definedName name="VOID_WATER_HERMIT_GOLD">SUM('資料-虛空'!$Q:$Q)</definedName>
-    <definedName name="VOID_WATER_HERMIT_SILVER">SUM('資料-虛空'!$R:$R)</definedName>
-    <definedName name="VOID_WATER_HERMIT_SILVER2">SUM('資料-虛空'!$S:$S)</definedName>
-    <definedName name="VOID_WATER_HERMIT_SPEC">SUM('資料-虛空'!$T:$T)</definedName>
-    <definedName name="VOID_WIND_WYVERN_GAMES">SUM('資料-虛空'!$U:$U)</definedName>
-    <definedName name="VOID_WIND_WYVERN_GOLD">SUM('資料-虛空'!$V:$V)</definedName>
-    <definedName name="VOID_WIND_WYVERN_SILVER">SUM('資料-虛空'!$W:$W)</definedName>
-    <definedName name="VOID_WIND_WYVERN_SILVER2">SUM('資料-虛空'!$X:$X)</definedName>
-    <definedName name="VOID_WIND_WYVERN_SPEC">SUM('資料-虛空'!$Y:$Y)</definedName>
+    <definedName name="TALON_R3_CLOVER">SUM(D爪草!$G$4:$G$1048576)</definedName>
+    <definedName name="TALON_R3_TALON">SUM(D爪草!$H$4:$H$1048576)</definedName>
+    <definedName name="TALON_R4_CLOVER">SUM(D爪草!$I$4:$I$1048576)</definedName>
+    <definedName name="TALON_R4_TALON">SUM(D爪草!$J$4:$J$1048576)</definedName>
+    <definedName name="TALON_R5_CLOVER">SUM(D爪草!$K$4:$K$1048576)</definedName>
+    <definedName name="TALON_R5_TALON">SUM(D爪草!$G$4:$L$1048576)</definedName>
+    <definedName name="VOID_DARK_GOLEM_GAMES">SUM(D虛空!$AJ:$AJ)</definedName>
+    <definedName name="VOID_DARK_GOLEM_GOLD">SUM(D虛空!$AK:$AK)</definedName>
+    <definedName name="VOID_DARK_GOLEM_SILVER">SUM(D虛空!$AL:$AL)</definedName>
+    <definedName name="VOID_DARK_GOLEM_SILVER2">SUM(D虛空!$AM:$AM)</definedName>
+    <definedName name="VOID_DARK_GOLEM_SPEC">SUM(D虛空!$AN:$AN)</definedName>
+    <definedName name="VOID_DARK_MTCORE_GAMES">SUM(D虛空!$AE:$AE)</definedName>
+    <definedName name="VOID_DARK_MTCORE_GOLD">SUM(D虛空!$AF:$AF)</definedName>
+    <definedName name="VOID_DARK_MTCORE_SILVER">SUM(D虛空!$AG:$AG)</definedName>
+    <definedName name="VOID_DARK_MTCORE_SILVER2">SUM(D虛空!$AH:$AH)</definedName>
+    <definedName name="VOID_DARK_MTCORE_SPEC">SUM(D虛空!$AI:$AI)</definedName>
+    <definedName name="VOID_FIRE_AGNI_GAMES">SUM(D虛空!$K:$K)</definedName>
+    <definedName name="VOID_FIRE_AGNI_GOLD">SUM(D虛空!$L:$L)</definedName>
+    <definedName name="VOID_FIRE_AGNI_SILVER">SUM(D虛空!$M:$M)</definedName>
+    <definedName name="VOID_FIRE_AGNI_SILVER2">SUM(D虛空!$N:$N)</definedName>
+    <definedName name="VOID_FIRE_AGNI_SPEC">SUM(D虛空!$O:$O)</definedName>
+    <definedName name="VOID_FIRE_GHOST_GAMES">SUM(D虛空!$F:$F)</definedName>
+    <definedName name="VOID_FIRE_GHOST_GOLD">SUM(D虛空!$G:$G)</definedName>
+    <definedName name="VOID_FIRE_GHOST_SILVER">SUM(D虛空!$H:$H)</definedName>
+    <definedName name="VOID_FIRE_GHOST_SILVER2">SUM(D虛空!$I:$I)</definedName>
+    <definedName name="VOID_FIRE_GHOST_SPEC">SUM(D虛空!$J:$J)</definedName>
+    <definedName name="VOID_FIRE_GOLEM_GAMES">SUM(D虛空!$A:$A)</definedName>
+    <definedName name="VOID_FIRE_GOLEM_GOLD">SUM(D虛空!$B:$B)</definedName>
+    <definedName name="VOID_FIRE_GOLEM_SILVER">SUM(D虛空!$C:$C)</definedName>
+    <definedName name="VOID_FIRE_GOLEM_SILVER2">SUM(D虛空!$D:$D)</definedName>
+    <definedName name="VOID_FIRE_GOLEM_SPEC">SUM(D虛空!$E:$E)</definedName>
+    <definedName name="VOID_LIGHT_MUSH_GAMES">SUM(D虛空!$Z:$Z)</definedName>
+    <definedName name="VOID_LIGHT_MUSH_GOLD">SUM(D虛空!$AA:$AA)</definedName>
+    <definedName name="VOID_LIGHT_MUSH_SILVER">SUM(D虛空!$AB:$AB)</definedName>
+    <definedName name="VOID_LIGHT_MUSH_SILVER2">SUM(D虛空!$AC:$AC)</definedName>
+    <definedName name="VOID_LIGHT_MUSH_SPEC">SUM(D虛空!$AD:$AD)</definedName>
+    <definedName name="VOID_WATER_HERMIT_GAMES">SUM(D虛空!$P:$P)</definedName>
+    <definedName name="VOID_WATER_HERMIT_GOLD">SUM(D虛空!$Q:$Q)</definedName>
+    <definedName name="VOID_WATER_HERMIT_SILVER">SUM(D虛空!$R:$R)</definedName>
+    <definedName name="VOID_WATER_HERMIT_SILVER2">SUM(D虛空!$S:$S)</definedName>
+    <definedName name="VOID_WATER_HERMIT_SPEC">SUM(D虛空!$T:$T)</definedName>
+    <definedName name="VOID_WIND_WYVERN_GAMES">SUM(D虛空!$U:$U)</definedName>
+    <definedName name="VOID_WIND_WYVERN_GOLD">SUM(D虛空!$V:$V)</definedName>
+    <definedName name="VOID_WIND_WYVERN_SILVER">SUM(D虛空!$W:$W)</definedName>
+    <definedName name="VOID_WIND_WYVERN_SILVER2">SUM(D虛空!$X:$X)</definedName>
+    <definedName name="VOID_WIND_WYVERN_SPEC">SUM(D虛空!$Y:$Y)</definedName>
     <definedName name="WINGS_CONSUME_DRAGON" comment="Count of wings needed for a Dragon's Trial (Master).">2</definedName>
     <definedName name="WINGS_CONSUME_IO" comment="Count of wings needed for an Imperial Onslaught (Master).">2</definedName>
     <definedName name="WINGS_CONSUME_VOID" comment="Count of wings needed for a Void.">2</definedName>
@@ -128,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="172">
   <si>
     <t>STR %</t>
   </si>
@@ -546,6 +564,105 @@
   <si>
     <t>O</t>
   </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>場次需求</t>
+  </si>
+  <si>
+    <t>16滿龍</t>
+  </si>
+  <si>
+    <t>金錢</t>
+  </si>
+  <si>
+    <t>幸運草</t>
+  </si>
+  <si>
+    <t>龍爪石</t>
+  </si>
+  <si>
+    <t>爪/草</t>
+  </si>
+  <si>
+    <t>★3</t>
+  </si>
+  <si>
+    <t>★4</t>
+  </si>
+  <si>
+    <t>★5</t>
+  </si>
+  <si>
+    <t>成長</t>
+  </si>
+  <si>
+    <t>遺跡</t>
+  </si>
+  <si>
+    <t>龍泣碑</t>
+  </si>
+  <si>
+    <t>需求龍爪</t>
+  </si>
+  <si>
+    <t>真火塔</t>
+  </si>
+  <si>
+    <t>真風塔</t>
+  </si>
+  <si>
+    <t>真水塔</t>
+  </si>
+  <si>
+    <t>真光塔</t>
+  </si>
+  <si>
+    <t>真暗塔</t>
+  </si>
+  <si>
+    <t>火龍泣碑</t>
+  </si>
+  <si>
+    <t>風龍泣碑</t>
+  </si>
+  <si>
+    <t>水龍泣碑</t>
+  </si>
+  <si>
+    <t>光龍泣碑</t>
+  </si>
+  <si>
+    <t>暗龍泣碑</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>爪</t>
+  </si>
+  <si>
+    <t>餵食</t>
+  </si>
+  <si>
+    <t>龍爪</t>
+  </si>
+  <si>
+    <t>Talon</t>
+  </si>
+  <si>
+    <t>擁有數量</t>
+  </si>
+  <si>
+    <t>換算進度</t>
+  </si>
+  <si>
+    <t>換算爪</t>
+  </si>
+  <si>
+    <t>爪需求</t>
+  </si>
 </sst>
 </file>
 
@@ -568,7 +685,7 @@
     <numFmt numFmtId="177" formatCode="[&gt;3][h]\ \H;[&lt;=3][h]\ \H\ mm\ \M"/>
     <numFmt numFmtId="178" formatCode="[hh]\ \H"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,8 +887,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,8 +1028,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1088,12 +1218,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2008,22 +2147,226 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,76 +2384,25 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2128,36 +2420,15 @@
     <xf numFmtId="166" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2227,6 +2498,54 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2248,34 +2567,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2423,12 +2715,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFF2CC"/>
+      <color rgb="FFFFC000"/>
       <color rgb="FFC9C9C9"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FFCD7F32"/>
+      <color rgb="FFD0B9FF"/>
       <color rgb="FFDDEBF7"/>
       <color rgb="FFE2EFDA"/>
-      <color rgb="FFD0B9FF"/>
-      <color rgb="FFFFF2CC"/>
       <color rgb="FFFFBDBD"/>
       <color rgb="FFD0CECE"/>
     </mruColors>
@@ -2742,12 +3035,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB47385-ECEF-4EFC-B1CD-4CC17E531B40}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFF2CC"/>
   </sheetPr>
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,30 +3058,30 @@
       <c r="A1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="308">
+      <c r="B1" s="354">
         <v>43523.916666666664</v>
       </c>
-      <c r="C1" s="308"/>
+      <c r="C1" s="354"/>
       <c r="D1" s="36" t="s">
         <v>100</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="309" t="s">
+      <c r="F1" s="350" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="308">
+      <c r="B2" s="354">
         <v>43535.916666666664</v>
       </c>
-      <c r="C2" s="308"/>
+      <c r="C2" s="354"/>
       <c r="D2" s="38" t="str">
         <f ca="1">IF(RAID_TIME_END-NOW()&lt;0,"",RAID_TIME_END-NOW())</f>
         <v/>
@@ -2797,12 +3090,12 @@
         <f>B2-B1</f>
         <v>12</v>
       </c>
-      <c r="F2" s="310" t="str">
+      <c r="F2" s="355" t="str">
         <f ca="1">IF(NOW() &gt; $B$2,"",(NOW()-$B$1)/($B$2-$B$1))</f>
         <v/>
       </c>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="355"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
@@ -2818,10 +3111,10 @@
       <c r="E4" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="307" t="s">
+      <c r="F4" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="307"/>
+      <c r="G4" s="351"/>
       <c r="H4" s="22" t="s">
         <v>93</v>
       </c>
@@ -2840,27 +3133,27 @@
       </c>
       <c r="C5" s="30">
         <f ca="1">$E$5*(NOW()-$B$1)/$E$2</f>
-        <v>549016.53935185098</v>
+        <v>743723.53009266593</v>
       </c>
       <c r="D5" s="30">
         <f ca="1">B5*$E$2/(NOW()-$B$1)</f>
-        <v>38025.083952199187</v>
+        <v>28070.108252994036</v>
       </c>
       <c r="E5" s="169">
         <v>150000</v>
       </c>
-      <c r="F5" s="311">
+      <c r="F5" s="352">
         <f>B5/E5</f>
         <v>0.92784</v>
       </c>
-      <c r="G5" s="311"/>
+      <c r="G5" s="352"/>
       <c r="H5" s="33">
         <f ca="1">B5 - (E5*(NOW()-$B$1)/$E$2)</f>
-        <v>-409840.53935185098</v>
+        <v>-604547.53009266593</v>
       </c>
       <c r="I5" s="33">
         <f ca="1">D5-RAID_GOAL_EMBLEM</f>
-        <v>-111974.91604780081</v>
+        <v>-121929.89174700597</v>
       </c>
       <c r="J5" s="21"/>
     </row>
@@ -2874,53 +3167,53 @@
       </c>
       <c r="C6" s="30">
         <f ca="1">$E$6*(NOW()-$B$1)/$E$2</f>
-        <v>366011.02623456734</v>
+        <v>495815.68672844395</v>
       </c>
       <c r="D6" s="30">
         <f ca="1">B6*$E$2/(NOW()-$B$1)</f>
-        <v>33259.926962414269</v>
+        <v>24552.470455956696</v>
       </c>
       <c r="E6" s="169">
         <v>100000</v>
       </c>
-      <c r="F6" s="311">
+      <c r="F6" s="352">
         <f>B6/E6</f>
         <v>1.2173499999999999</v>
       </c>
-      <c r="G6" s="311"/>
+      <c r="G6" s="352"/>
       <c r="H6" s="33">
         <f ca="1">B6 - (E6*(NOW()-$B$1)/$E$2)</f>
-        <v>-244276.02623456734</v>
+        <v>-374080.68672844395</v>
       </c>
       <c r="I6" s="33">
         <f ca="1">D6-RAID_GOAL_BLAZON</f>
-        <v>-66740.073037585738</v>
+        <v>-75447.529544043296</v>
       </c>
       <c r="J6" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="306" t="s">
+      <c r="B8" s="353" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="306"/>
-      <c r="D8" s="307" t="s">
+      <c r="C8" s="353"/>
+      <c r="D8" s="351" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="307"/>
-      <c r="F8" s="307" t="s">
+      <c r="E8" s="351"/>
+      <c r="F8" s="351" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="307"/>
-      <c r="H8" s="309" t="s">
+      <c r="G8" s="351"/>
+      <c r="H8" s="350" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="309"/>
-      <c r="J8" s="309" t="s">
+      <c r="I8" s="350"/>
+      <c r="J8" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="309"/>
-      <c r="L8" s="309"/>
+      <c r="K8" s="350"/>
+      <c r="L8" s="350"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
@@ -4754,11 +5047,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -4766,6 +5054,11 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="F2">
     <cfRule type="dataBar" priority="36">
@@ -5094,6 +5387,3150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CF0C7A-867C-4937-8E37-8415D5B411C1}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:T43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="62"/>
+    <col min="2" max="6" width="6.85546875" style="62" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="62" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="62" customWidth="1"/>
+    <col min="10" max="14" width="5.7109375" style="62" customWidth="1"/>
+    <col min="15" max="16" width="5.7109375" style="310" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="70" customWidth="1"/>
+    <col min="18" max="20" width="23.7109375" style="62" customWidth="1"/>
+    <col min="21" max="16384" width="8.5703125" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="75"/>
+      <c r="B1" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="75"/>
+      <c r="J1" s="350" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="445" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="445"/>
+      <c r="M1" s="445" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="445"/>
+      <c r="O1" s="314" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="314" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="444" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="350" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="350"/>
+      <c r="T1" s="350"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="433" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="434">
+        <f>IF(HDRAG_HAS_REC_HBRUN,COUNTA(DATA_HDRAG_HBRUN),"")</f>
+        <v>295</v>
+      </c>
+      <c r="C2" s="58">
+        <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=2"),"")</f>
+        <v>203</v>
+      </c>
+      <c r="D2" s="58">
+        <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=3"),"")</f>
+        <v>68</v>
+      </c>
+      <c r="E2" s="58">
+        <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=4"),"")</f>
+        <v>13</v>
+      </c>
+      <c r="F2" s="58">
+        <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=5"),"")</f>
+        <v>11</v>
+      </c>
+      <c r="G2" s="443">
+        <f>IF(HDRAG_HAS_REC_HBRUN,AVERAGE(DATA_HDRAG_HBRUN),"")</f>
+        <v>2.4305084745762713</v>
+      </c>
+      <c r="I2" s="75"/>
+      <c r="J2" s="350"/>
+      <c r="K2" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="444"/>
+      <c r="R2" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="433"/>
+      <c r="B3" s="434"/>
+      <c r="C3" s="104">
+        <f>IF(HDRAG_HAS_REC_HBRUN,C2/$B2,"")</f>
+        <v>0.68813559322033901</v>
+      </c>
+      <c r="D3" s="104">
+        <f>IF(HDRAG_HAS_REC_HBRUN,D2/$B2,"")</f>
+        <v>0.23050847457627119</v>
+      </c>
+      <c r="E3" s="104">
+        <f>IF(HDRAG_HAS_REC_HBRUN,E2/$B2,"")</f>
+        <v>4.4067796610169491E-2</v>
+      </c>
+      <c r="F3" s="104">
+        <f>IF(HDRAG_HAS_REC_HBRUN,F2/$B2,"")</f>
+        <v>3.7288135593220341E-2</v>
+      </c>
+      <c r="G3" s="443"/>
+      <c r="I3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="163">
+        <v>30</v>
+      </c>
+      <c r="K3" s="39">
+        <v>30</v>
+      </c>
+      <c r="L3" s="39">
+        <f>IF(HDRAG_HAS_REC_HBRUN,INDEX(DATA_HDRAGS_BUILDING,K3 + 1),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="39">
+        <v>4</v>
+      </c>
+      <c r="N3" s="39">
+        <f>IF(HDRAG_HAS_REC_HBRUN,INDEX(DATA_HDRAGS_DRAGON,IF(ISBLANK(M3),1,M3 + 2)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="311">
+        <f>IF(HDRAG_HAS_REC_HBRUN,N3+MAX(L3-INDEX(DATA_HDRAGS_BUILDING,16),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="311">
+        <f>IF(HDRAG_HAS_REC_HBRUN,L3+N3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="70">
+        <f>IFERROR(IF(L3+N3=0,0,L3+N3-J3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="54">
+        <f>IFERROR(IF(N3=0,100%,(HDRAG_MAX_DRAGON - N3)/HDRAG_MAX_DRAGON),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="54">
+        <f>IFERROR(IF(L3=0,100%,(HDRAG_MAX_BUILDING - L3)/HDRAG_MAX_BUILDING),"")</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="54">
+        <f>IFERROR(IF(Q3=0,100%,(HDRAG_MAX_ALL - Q3)/HDRAG_MAX_ALL),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="431" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="432">
+        <f>IF(HDRAG_HAS_REC_HMERC,COUNTA(DATA_HDRAG_HMERC),"")</f>
+        <v>89</v>
+      </c>
+      <c r="C4" s="105">
+        <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=2"),"")</f>
+        <v>66</v>
+      </c>
+      <c r="D4" s="105">
+        <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=3"),"")</f>
+        <v>14</v>
+      </c>
+      <c r="E4" s="105">
+        <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=4"),"")</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="105">
+        <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=5"),"")</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="442">
+        <f>IF(HDRAG_HAS_REC_HMERC,AVERAGE(DATA_HDRAG_HMERC),"")</f>
+        <v>2.404494382022472</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="163">
+        <v>188</v>
+      </c>
+      <c r="K4" s="39">
+        <v>12</v>
+      </c>
+      <c r="L4" s="39">
+        <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_BUILDING,K4 + 1),"")</f>
+        <v>705</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39">
+        <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_DRAGON,IF(ISBLANK(M4),1,M4 + 2)),"")</f>
+        <v>485</v>
+      </c>
+      <c r="O4" s="311">
+        <f>IF(HDRAG_HAS_REC_HMERC,N4+MAX(L4-INDEX(DATA_HDRAGS_BUILDING,16),0),"")</f>
+        <v>530</v>
+      </c>
+      <c r="P4" s="311">
+        <f>IF(HDRAG_HAS_REC_HMERC,L4+N4,"")</f>
+        <v>1190</v>
+      </c>
+      <c r="Q4" s="70">
+        <f>IFERROR(IF(L4+N4=0,0,L4+N4-J4),"")</f>
+        <v>1002</v>
+      </c>
+      <c r="R4" s="54">
+        <f>IFERROR(IF(N4=0,100%,(HDRAG_MAX_DRAGON - N4)/HDRAG_MAX_DRAGON),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="54">
+        <f>IFERROR(IF(L4=0,100%,(HDRAG_MAX_BUILDING - L4)/HDRAG_MAX_BUILDING),"")</f>
+        <v>0.13602941176470587</v>
+      </c>
+      <c r="T4" s="54">
+        <f>IFERROR(IF(Q4=0,100%,(HDRAG_MAX_ALL - Q4)/HDRAG_MAX_ALL),"")</f>
+        <v>0.22982321291314373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="431"/>
+      <c r="B5" s="432"/>
+      <c r="C5" s="106">
+        <f>IF(HDRAG_HAS_REC_HMERC,C4/$B4,"")</f>
+        <v>0.7415730337078652</v>
+      </c>
+      <c r="D5" s="106">
+        <f>IF(HDRAG_HAS_REC_HMERC,D4/$B4,"")</f>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="E5" s="106">
+        <f>IF(HDRAG_HAS_REC_HMERC,E4/$B4,"")</f>
+        <v>5.6179775280898875E-2</v>
+      </c>
+      <c r="F5" s="106">
+        <f>IF(HDRAG_HAS_REC_HMERC,F4/$B4,"")</f>
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="G5" s="442"/>
+      <c r="I5" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="163">
+        <v>141</v>
+      </c>
+      <c r="K5" s="39">
+        <v>30</v>
+      </c>
+      <c r="L5" s="39">
+        <f>IF(HDRAG_HAS_REC_HMID,INDEX(DATA_HDRAGS_BUILDING,K5 + 1),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="39">
+        <v>4</v>
+      </c>
+      <c r="N5" s="39">
+        <f>IF(HDRAG_HAS_REC_HMID,INDEX(DATA_HDRAGS_DRAGON,IF(ISBLANK(M5),1,M5 + 2)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="311">
+        <f>IF(HDRAG_HAS_REC_HMID,N5+MAX(L5-INDEX(DATA_HDRAGS_BUILDING,16),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="311">
+        <f>IF(HDRAG_HAS_REC_HMID,L5+N5,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="70">
+        <f>IFERROR(IF(L5+N5=0,0,L5+N5-J5),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="54">
+        <f>IFERROR(IF(N5=0,100%,(HDRAG_MAX_DRAGON - N5)/HDRAG_MAX_DRAGON),"")</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="54">
+        <f>IFERROR(IF(L5=0,100%,(HDRAG_MAX_BUILDING - L5)/HDRAG_MAX_BUILDING),"")</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="54">
+        <f>IFERROR(IF(Q5=0,100%,(HDRAG_MAX_ALL - Q5)/HDRAG_MAX_ALL),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="429" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="430">
+        <f>IF(HDRAG_HAS_REC_HMID,COUNTA(DATA_HDRAG_HMID),"")</f>
+        <v>801</v>
+      </c>
+      <c r="C6" s="107">
+        <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=2"),"")</f>
+        <v>518</v>
+      </c>
+      <c r="D6" s="107">
+        <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=3"),"")</f>
+        <v>171</v>
+      </c>
+      <c r="E6" s="107">
+        <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=4"),"")</f>
+        <v>62</v>
+      </c>
+      <c r="F6" s="107">
+        <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=5"),"")</f>
+        <v>49</v>
+      </c>
+      <c r="G6" s="441">
+        <f>IF(HDRAG_HAS_REC_HMID,AVERAGE(DATA_HDRAG_HMID),"")</f>
+        <v>2.5525000000000002</v>
+      </c>
+      <c r="I6" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="163"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,INDEX(DATA_HDRAGS_BUILDING,K6 + 1),"")</f>
+        <v/>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,INDEX(DATA_HDRAGS_DRAGON,IF(ISBLANK(M6),1,M6 + 2)),"")</f>
+        <v/>
+      </c>
+      <c r="O6" s="311" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,N6+MAX(L6-INDEX(DATA_HDRAGS_BUILDING,16),0),"")</f>
+        <v/>
+      </c>
+      <c r="P6" s="311" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,L6+N6,"")</f>
+        <v/>
+      </c>
+      <c r="Q6" s="70" t="str">
+        <f>IFERROR(IF(L6+N6=0,0,L6+N6-J6),"")</f>
+        <v/>
+      </c>
+      <c r="R6" s="54" t="str">
+        <f>IFERROR(IF(N6=0,100%,(HDRAG_MAX_DRAGON - N6)/HDRAG_MAX_DRAGON),"")</f>
+        <v/>
+      </c>
+      <c r="S6" s="54" t="str">
+        <f>IFERROR(IF(L6=0,100%,(HDRAG_MAX_BUILDING - L6)/HDRAG_MAX_BUILDING),"")</f>
+        <v/>
+      </c>
+      <c r="T6" s="54" t="str">
+        <f>IFERROR(IF(Q6=0,100%,(HDRAG_MAX_ALL - Q6)/HDRAG_MAX_ALL),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="429"/>
+      <c r="B7" s="430"/>
+      <c r="C7" s="108">
+        <f>IF(HDRAG_HAS_REC_HMID,C6/$B6,"")</f>
+        <v>0.64669163545568042</v>
+      </c>
+      <c r="D7" s="108">
+        <f>IF(HDRAG_HAS_REC_HMID,D6/$B6,"")</f>
+        <v>0.21348314606741572</v>
+      </c>
+      <c r="E7" s="108">
+        <f>IF(HDRAG_HAS_REC_HMID,E6/$B6,"")</f>
+        <v>7.740324594257178E-2</v>
+      </c>
+      <c r="F7" s="108">
+        <f>IF(HDRAG_HAS_REC_HMID,F6/$B6,"")</f>
+        <v>6.117353308364544E-2</v>
+      </c>
+      <c r="G7" s="441"/>
+      <c r="I7" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="163"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,INDEX(DATA_HDRAGS_BUILDING,K7 + 1),"")</f>
+        <v/>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,INDEX(DATA_HDRAGS_DRAGON,IF(ISBLANK(M7),1,M7 + 2)),"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="311" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,N7+MAX(L7-INDEX(DATA_HDRAGS_BUILDING,16),0),"")</f>
+        <v/>
+      </c>
+      <c r="P7" s="311" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,L7+N7,"")</f>
+        <v/>
+      </c>
+      <c r="Q7" s="70" t="str">
+        <f>IFERROR(IF(L7+N7=0,0,L7+N7-J7),"")</f>
+        <v/>
+      </c>
+      <c r="R7" s="54" t="str">
+        <f>IFERROR(IF(N7=0,100%,(HDRAG_MAX_DRAGON - N7)/HDRAG_MAX_DRAGON),"")</f>
+        <v/>
+      </c>
+      <c r="S7" s="54" t="str">
+        <f>IFERROR(IF(L7=0,100%,(HDRAG_MAX_BUILDING - L7)/HDRAG_MAX_BUILDING),"")</f>
+        <v/>
+      </c>
+      <c r="T7" s="54" t="str">
+        <f>IFERROR(IF(Q7=0,100%,(HDRAG_MAX_ALL - Q7)/HDRAG_MAX_ALL),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="437" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="438" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,COUNTA(DATA_HDRAG_HJUP),"")</f>
+        <v/>
+      </c>
+      <c r="C8" s="109" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=2"),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="109" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=3"),"")</f>
+        <v/>
+      </c>
+      <c r="E8" s="109" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=4"),"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="109" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=5"),"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="440" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,AVERAGE(DATA_HDRAG_HJUP),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="437"/>
+      <c r="B9" s="438"/>
+      <c r="C9" s="110" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,C8/$B8,"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="110" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,D8/$B8,"")</f>
+        <v/>
+      </c>
+      <c r="E9" s="110" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,E8/$B8,"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="110" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,F8/$B8,"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="440"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="435" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="436" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,COUNTA(DATA_HDRAG_HZOD),"")</f>
+        <v/>
+      </c>
+      <c r="C10" s="61" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=2"),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="61" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=3"),"")</f>
+        <v/>
+      </c>
+      <c r="E10" s="61" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=4"),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="61" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=5"),"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="439" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,AVERAGE(DATA_HDRAG_HZOD),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="435"/>
+      <c r="B11" s="436"/>
+      <c r="C11" s="111" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,C10/$B10,"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="111" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,D10/$B10,"")</f>
+        <v/>
+      </c>
+      <c r="E11" s="111" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,E10/$B10,"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="111" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,F10/$B10,"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="439"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="350" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="350"/>
+      <c r="D13" s="350"/>
+      <c r="E13" s="350"/>
+      <c r="F13" s="350"/>
+      <c r="G13" s="350"/>
+      <c r="K13" s="407" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="407"/>
+      <c r="M13" s="407"/>
+      <c r="N13" s="407"/>
+      <c r="O13" s="407"/>
+      <c r="P13" s="407"/>
+      <c r="Q13" s="407"/>
+      <c r="R13" s="407"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="75">
+        <v>2</v>
+      </c>
+      <c r="D14" s="75">
+        <v>3</v>
+      </c>
+      <c r="E14" s="75">
+        <v>4</v>
+      </c>
+      <c r="F14" s="75">
+        <v>5</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="313">
+        <v>2</v>
+      </c>
+      <c r="L14" s="313">
+        <v>3</v>
+      </c>
+      <c r="M14" s="313">
+        <v>4</v>
+      </c>
+      <c r="N14" s="313">
+        <v>5</v>
+      </c>
+      <c r="O14" s="312" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="404" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="404"/>
+      <c r="R14" s="404"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G2)*C3),"")</f>
+        <v>138</v>
+      </c>
+      <c r="D15" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G2)*D3),"")</f>
+        <v>46</v>
+      </c>
+      <c r="E15" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G2)*E3),"")</f>
+        <v>9</v>
+      </c>
+      <c r="F15" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G2)*F3),"")</f>
+        <v>8</v>
+      </c>
+      <c r="G15" s="121">
+        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(C15:F15),"")</f>
+        <v>201</v>
+      </c>
+      <c r="J15" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($N3/$G$2)*C3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($N3/$G$2)*D3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($N3/$G$2)*E3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($N3/$G$2)*F3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K15:N15),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="446">
+        <f>IFERROR((G15-O15)/G15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="446"/>
+      <c r="R15" s="446"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*C5),"")</f>
+        <v>150</v>
+      </c>
+      <c r="D16" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*D5),"")</f>
+        <v>32</v>
+      </c>
+      <c r="E16" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*E5),"")</f>
+        <v>12</v>
+      </c>
+      <c r="F16" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*F5),"")</f>
+        <v>10</v>
+      </c>
+      <c r="G16" s="122">
+        <f>IF(HDRAG_HAS_REC_HMERC,SUM(C16:F16),"")</f>
+        <v>204</v>
+      </c>
+      <c r="J16" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*C5),"")</f>
+        <v>150</v>
+      </c>
+      <c r="L16" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*D5),"")</f>
+        <v>32</v>
+      </c>
+      <c r="M16" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*E5),"")</f>
+        <v>12</v>
+      </c>
+      <c r="N16" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*F5),"")</f>
+        <v>10</v>
+      </c>
+      <c r="O16" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,SUM(K16:N16),"")</f>
+        <v>204</v>
+      </c>
+      <c r="P16" s="446">
+        <f>IFERROR((G16-O16)/G16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="446"/>
+      <c r="R16" s="446"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G6)*C7),"")</f>
+        <v>123</v>
+      </c>
+      <c r="D17" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G6)*D7),"")</f>
+        <v>41</v>
+      </c>
+      <c r="E17" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G6)*E7),"")</f>
+        <v>15</v>
+      </c>
+      <c r="F17" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G6)*F7),"")</f>
+        <v>12</v>
+      </c>
+      <c r="G17" s="123">
+        <f>IF(HDRAG_HAS_REC_HMID,SUM(C17:F17),"")</f>
+        <v>191</v>
+      </c>
+      <c r="J17" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($N5/$G$6)*C7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($N5/$G$6)*D7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($N5/$G$6)*E7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($N5/$G$6)*F7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,SUM(K17:N17),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="446">
+        <f>IFERROR((G17-O17)/G17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="446"/>
+      <c r="R17" s="446"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G8)*C9),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G8)*D9),"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G8)*E9),"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G8)*F9),"")</f>
+        <v/>
+      </c>
+      <c r="G18" s="124" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,SUM(C18:F18),"")</f>
+        <v/>
+      </c>
+      <c r="J18" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($N6/$G$8)*C9),"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($N6/$G$8)*D9),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($N6/$G$8)*E9),"")</f>
+        <v/>
+      </c>
+      <c r="N18" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($N6/$G$8)*F9),"")</f>
+        <v/>
+      </c>
+      <c r="O18" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,SUM(K18:N18),"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="446" t="str">
+        <f>IFERROR((G18-O18)/G18,"")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="446"/>
+      <c r="R18" s="446"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G10)*C11),"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G10)*D11),"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G10)*E11),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G10)*F11),"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="125" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,SUM(C19:F19),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="309" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($N7/$G$10)*C11),"")</f>
+        <v/>
+      </c>
+      <c r="L19" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($N7/$G$10)*D11),"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($N7/$G$10)*E11),"")</f>
+        <v/>
+      </c>
+      <c r="N19" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($N7/$G$10)*F11),"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,SUM(K19:N19),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="446" t="str">
+        <f>IFERROR((G19-O19)/G19,"")</f>
+        <v/>
+      </c>
+      <c r="Q19" s="446"/>
+      <c r="R19" s="446"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="350" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="350"/>
+      <c r="D20" s="350"/>
+      <c r="E20" s="350"/>
+      <c r="F20" s="350"/>
+      <c r="G20" s="350"/>
+      <c r="K20" s="407" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="407"/>
+      <c r="M20" s="407"/>
+      <c r="N20" s="407"/>
+      <c r="O20" s="407"/>
+      <c r="P20" s="407"/>
+      <c r="Q20" s="407"/>
+      <c r="R20" s="407"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="75">
+        <v>2</v>
+      </c>
+      <c r="D21" s="75">
+        <v>3</v>
+      </c>
+      <c r="E21" s="75">
+        <v>4</v>
+      </c>
+      <c r="F21" s="75">
+        <v>5</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="313">
+        <v>2</v>
+      </c>
+      <c r="L21" s="313">
+        <v>3</v>
+      </c>
+      <c r="M21" s="313">
+        <v>4</v>
+      </c>
+      <c r="N21" s="313">
+        <v>5</v>
+      </c>
+      <c r="O21" s="312" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="404" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="404"/>
+      <c r="R21" s="404"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G2)*C3),"")</f>
+        <v>232</v>
+      </c>
+      <c r="D22" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G2)*D3),"")</f>
+        <v>78</v>
+      </c>
+      <c r="E22" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G2)*E3),"")</f>
+        <v>15</v>
+      </c>
+      <c r="F22" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G2)*F3),"")</f>
+        <v>13</v>
+      </c>
+      <c r="G22" s="121">
+        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(C22:F22),"")</f>
+        <v>338</v>
+      </c>
+      <c r="J22" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($L3/$G$2)*C3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($L3/$G$2)*D3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($L3/$G$2)*E3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($L3/$G$2)*F3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K22:N22),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="446">
+        <f>IFERROR((G22-O22)/G22,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="446"/>
+      <c r="R22" s="446"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*C5),"")</f>
+        <v>252</v>
+      </c>
+      <c r="D23" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*D5),"")</f>
+        <v>54</v>
+      </c>
+      <c r="E23" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*E5),"")</f>
+        <v>20</v>
+      </c>
+      <c r="F23" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*F5),"")</f>
+        <v>16</v>
+      </c>
+      <c r="G23" s="122">
+        <f>IF(HDRAG_HAS_REC_HMERC,SUM(C23:F23),"")</f>
+        <v>342</v>
+      </c>
+      <c r="J23" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*C5),"")</f>
+        <v>218</v>
+      </c>
+      <c r="L23" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*D5),"")</f>
+        <v>47</v>
+      </c>
+      <c r="M23" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*E5),"")</f>
+        <v>17</v>
+      </c>
+      <c r="N23" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*F5),"")</f>
+        <v>14</v>
+      </c>
+      <c r="O23" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,SUM(K23:N23),"")</f>
+        <v>296</v>
+      </c>
+      <c r="P23" s="446">
+        <f>IFERROR((G23-O23)/G23,"")</f>
+        <v>0.13450292397660818</v>
+      </c>
+      <c r="Q23" s="446"/>
+      <c r="R23" s="446"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G6)*C7),"")</f>
+        <v>207</v>
+      </c>
+      <c r="D24" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G6)*D7),"")</f>
+        <v>69</v>
+      </c>
+      <c r="E24" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G6)*E7),"")</f>
+        <v>25</v>
+      </c>
+      <c r="F24" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G6)*F7),"")</f>
+        <v>20</v>
+      </c>
+      <c r="G24" s="123">
+        <f>IF(HDRAG_HAS_REC_HMID,SUM(C24:F24),"")</f>
+        <v>321</v>
+      </c>
+      <c r="J24" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($L5/$G$6)*C7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($L5/$G$6)*D7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($L5/$G$6)*E7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($L5/$G$6)*F7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,SUM(K24:N24),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="446">
+        <f>IFERROR((G24-O24)/G24,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="446"/>
+      <c r="R24" s="446"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G8)*C9),"")</f>
+        <v/>
+      </c>
+      <c r="D25" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G8)*D9),"")</f>
+        <v/>
+      </c>
+      <c r="E25" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G8)*E9),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G8)*F9),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="124" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,SUM(C25:F25),"")</f>
+        <v/>
+      </c>
+      <c r="J25" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($L6/$G$8)*C9),"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($L6/$G$8)*D9),"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($L6/$G$8)*E9),"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($L6/$G$8)*F9),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,SUM(K25:N25),"")</f>
+        <v/>
+      </c>
+      <c r="P25" s="446" t="str">
+        <f>IFERROR((G25-O25)/G25,"")</f>
+        <v/>
+      </c>
+      <c r="Q25" s="446"/>
+      <c r="R25" s="446"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G10)*C11),"")</f>
+        <v/>
+      </c>
+      <c r="D26" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G10)*D11),"")</f>
+        <v/>
+      </c>
+      <c r="E26" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G10)*E11),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G10)*F11),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="125" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,SUM(C26:F26),"")</f>
+        <v/>
+      </c>
+      <c r="J26" s="309" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($L7/$G$10)*C11),"")</f>
+        <v/>
+      </c>
+      <c r="L26" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($L7/$G$10)*D11),"")</f>
+        <v/>
+      </c>
+      <c r="M26" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($L7/$G$10)*E11),"")</f>
+        <v/>
+      </c>
+      <c r="N26" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($L7/$G$10)*F11),"")</f>
+        <v/>
+      </c>
+      <c r="O26" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,SUM(K26:N26),"")</f>
+        <v/>
+      </c>
+      <c r="P26" s="446" t="str">
+        <f>IFERROR((G26-O26)/G26,"")</f>
+        <v/>
+      </c>
+      <c r="Q26" s="446"/>
+      <c r="R26" s="446"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="350" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="350"/>
+      <c r="D27" s="350"/>
+      <c r="E27" s="350"/>
+      <c r="F27" s="350"/>
+      <c r="G27" s="350"/>
+      <c r="K27" s="407" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" s="407"/>
+      <c r="M27" s="407"/>
+      <c r="N27" s="407"/>
+      <c r="O27" s="407"/>
+      <c r="P27" s="407"/>
+      <c r="Q27" s="407"/>
+      <c r="R27" s="407"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="75">
+        <v>2</v>
+      </c>
+      <c r="D28" s="75">
+        <v>3</v>
+      </c>
+      <c r="E28" s="75">
+        <v>4</v>
+      </c>
+      <c r="F28" s="75">
+        <v>5</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="313">
+        <v>2</v>
+      </c>
+      <c r="L28" s="313">
+        <v>3</v>
+      </c>
+      <c r="M28" s="313">
+        <v>4</v>
+      </c>
+      <c r="N28" s="313">
+        <v>5</v>
+      </c>
+      <c r="O28" s="312" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="404" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="404"/>
+      <c r="R28" s="404"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="173" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G2)*C3),"")</f>
+        <v>325</v>
+      </c>
+      <c r="D29" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G2)*D3),"")</f>
+        <v>109</v>
+      </c>
+      <c r="E29" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G2)*E3),"")</f>
+        <v>21</v>
+      </c>
+      <c r="F29" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G2)*F3),"")</f>
+        <v>18</v>
+      </c>
+      <c r="G29" s="121">
+        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(C29:F29),"")</f>
+        <v>473</v>
+      </c>
+      <c r="J29" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($O3/$G$2)*C3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="315" t="str">
+        <f>IF(OR($O3=0,$O3=""),"",_xlfn.CEILING.MATH(($O3/$G$2)*D3))</f>
+        <v/>
+      </c>
+      <c r="M29" s="315" t="str">
+        <f>IF(OR($O3=0,$O3=""),"",_xlfn.CEILING.MATH(($O3/$G$2)*E3))</f>
+        <v/>
+      </c>
+      <c r="N29" s="315" t="str">
+        <f>IF(OR($O3=0,$O3=""),"",_xlfn.CEILING.MATH(($O3/$G$2)*F3))</f>
+        <v/>
+      </c>
+      <c r="O29" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K29:N29),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="446">
+        <f>IFERROR((G29-O29)/G29,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="446"/>
+      <c r="R29" s="446"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*C5),"")</f>
+        <v>354</v>
+      </c>
+      <c r="D30" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*D5),"")</f>
+        <v>75</v>
+      </c>
+      <c r="E30" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*E5),"")</f>
+        <v>27</v>
+      </c>
+      <c r="F30" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*F5),"")</f>
+        <v>22</v>
+      </c>
+      <c r="G30" s="122">
+        <f>IF(HDRAG_HAS_REC_HMERC,SUM(C30:F30),"")</f>
+        <v>478</v>
+      </c>
+      <c r="J30" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($O4/$G$4)*C5),"")</f>
+        <v>164</v>
+      </c>
+      <c r="L30" s="316">
+        <f>IF(OR($O4=0,$O4=""),"",_xlfn.CEILING.MATH(($O4/$G$4)*D5))</f>
+        <v>35</v>
+      </c>
+      <c r="M30" s="316">
+        <f>IF(OR($O4=0,$O4=""),"",_xlfn.CEILING.MATH(($O4/$G$4)*E5))</f>
+        <v>13</v>
+      </c>
+      <c r="N30" s="316">
+        <f>IF(OR($O4=0,$O4=""),"",_xlfn.CEILING.MATH(($O4/$G$4)*F5))</f>
+        <v>10</v>
+      </c>
+      <c r="O30" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,SUM(K30:N30),"")</f>
+        <v>222</v>
+      </c>
+      <c r="P30" s="446">
+        <f>IFERROR((G30-O30)/G30,"")</f>
+        <v>0.53556485355648531</v>
+      </c>
+      <c r="Q30" s="446"/>
+      <c r="R30" s="446"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G6)*C7),"")</f>
+        <v>291</v>
+      </c>
+      <c r="D31" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G6)*D7),"")</f>
+        <v>96</v>
+      </c>
+      <c r="E31" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G6)*E7),"")</f>
+        <v>35</v>
+      </c>
+      <c r="F31" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G6)*F7),"")</f>
+        <v>28</v>
+      </c>
+      <c r="G31" s="123">
+        <f>IF(HDRAG_HAS_REC_HMID,SUM(C31:F31),"")</f>
+        <v>450</v>
+      </c>
+      <c r="J31" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($O5/$G$6)*C7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="317" t="str">
+        <f>IF(OR($O5=0,$O5=""),"",_xlfn.CEILING.MATH(($O5/$G$6)*D7))</f>
+        <v/>
+      </c>
+      <c r="M31" s="317" t="str">
+        <f>IF(OR($O5=0,$O5=""),"",_xlfn.CEILING.MATH(($O5/$G$6)*E7))</f>
+        <v/>
+      </c>
+      <c r="N31" s="317" t="str">
+        <f>IF(OR($O5=0,$O5=""),"",_xlfn.CEILING.MATH(($O5/$G$6)*F7))</f>
+        <v/>
+      </c>
+      <c r="O31" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,SUM(K31:N31),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="446">
+        <f>IFERROR((G31-O31)/G31,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="446"/>
+      <c r="R31" s="446"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G8)*C9),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G8)*D9),"")</f>
+        <v/>
+      </c>
+      <c r="E32" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G8)*E9),"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G8)*F9),"")</f>
+        <v/>
+      </c>
+      <c r="G32" s="124" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,SUM(C32:F32),"")</f>
+        <v/>
+      </c>
+      <c r="J32" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($O6/$G$8)*C9),"")</f>
+        <v/>
+      </c>
+      <c r="L32" s="318" t="str">
+        <f>IF(OR($O6=0,$O6=""),"",_xlfn.CEILING.MATH(($O6/$G$8)*D9))</f>
+        <v/>
+      </c>
+      <c r="M32" s="318" t="str">
+        <f>IF(OR($O6=0,$O6=""),"",_xlfn.CEILING.MATH(($O6/$G$8)*E9))</f>
+        <v/>
+      </c>
+      <c r="N32" s="318" t="str">
+        <f>IF(OR($O6=0,$O6=""),"",_xlfn.CEILING.MATH(($O6/$G$8)*F9))</f>
+        <v/>
+      </c>
+      <c r="O32" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,SUM(K32:N32),"")</f>
+        <v/>
+      </c>
+      <c r="P32" s="446" t="str">
+        <f>IFERROR((G32-O32)/G32,"")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="446"/>
+      <c r="R32" s="446"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G10)*C11),"")</f>
+        <v/>
+      </c>
+      <c r="D33" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G10)*D11),"")</f>
+        <v/>
+      </c>
+      <c r="E33" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G10)*E11),"")</f>
+        <v/>
+      </c>
+      <c r="F33" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G10)*F11),"")</f>
+        <v/>
+      </c>
+      <c r="G33" s="125" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,SUM(C33:F33),"")</f>
+        <v/>
+      </c>
+      <c r="J33" s="309" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($O7/$G$10)*C11),"")</f>
+        <v/>
+      </c>
+      <c r="L33" s="319" t="str">
+        <f>IF(OR($O7=0,$O7=""),"",_xlfn.CEILING.MATH(($O7/$G$10)*D11))</f>
+        <v/>
+      </c>
+      <c r="M33" s="319" t="str">
+        <f>IF(OR($O7=0,$O7=""),"",_xlfn.CEILING.MATH(($O7/$G$10)*E11))</f>
+        <v/>
+      </c>
+      <c r="N33" s="319" t="str">
+        <f>IF(OR($O7=0,$O7=""),"",_xlfn.CEILING.MATH(($O7/$G$10)*F11))</f>
+        <v/>
+      </c>
+      <c r="O33" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,SUM(K33:N33),"")</f>
+        <v/>
+      </c>
+      <c r="P33" s="446" t="str">
+        <f>IFERROR((G33-O33)/G33,"")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="446"/>
+      <c r="R33" s="446"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="350" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="350"/>
+      <c r="D34" s="350"/>
+      <c r="E34" s="350"/>
+      <c r="F34" s="350"/>
+      <c r="G34" s="350"/>
+      <c r="K34" s="407" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" s="407"/>
+      <c r="M34" s="407"/>
+      <c r="N34" s="407"/>
+      <c r="O34" s="407"/>
+      <c r="P34" s="407"/>
+      <c r="Q34" s="407"/>
+      <c r="R34" s="407"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="75">
+        <v>2</v>
+      </c>
+      <c r="D35" s="75">
+        <v>3</v>
+      </c>
+      <c r="E35" s="75">
+        <v>4</v>
+      </c>
+      <c r="F35" s="75">
+        <v>5</v>
+      </c>
+      <c r="G35" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="313">
+        <v>2</v>
+      </c>
+      <c r="L35" s="313">
+        <v>3</v>
+      </c>
+      <c r="M35" s="313">
+        <v>4</v>
+      </c>
+      <c r="N35" s="313">
+        <v>5</v>
+      </c>
+      <c r="O35" s="312" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="404" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="404"/>
+      <c r="R35" s="404"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G2)*C3),"")</f>
+        <v>369</v>
+      </c>
+      <c r="D36" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G2)*D3),"")</f>
+        <v>124</v>
+      </c>
+      <c r="E36" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G2)*E3),"")</f>
+        <v>24</v>
+      </c>
+      <c r="F36" s="116">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G2)*F3),"")</f>
+        <v>20</v>
+      </c>
+      <c r="G36" s="121">
+        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(C36:F36),"")</f>
+        <v>537</v>
+      </c>
+      <c r="J36" s="308" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($P3/$G$2)*C3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($P3/$G$2)*D3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($P3/$G$2)*E3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH(($P3/$G$2)*F3),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="315">
+        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K36:N36),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="446">
+        <f>IFERROR((G36-O36)/G36,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="446"/>
+      <c r="R36" s="446"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*C5),"")</f>
+        <v>402</v>
+      </c>
+      <c r="D37" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*D5),"")</f>
+        <v>86</v>
+      </c>
+      <c r="E37" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*E5),"")</f>
+        <v>31</v>
+      </c>
+      <c r="F37" s="117">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*F5),"")</f>
+        <v>25</v>
+      </c>
+      <c r="G37" s="122">
+        <f>IF(HDRAG_HAS_REC_HMERC,SUM(C37:F37),"")</f>
+        <v>544</v>
+      </c>
+      <c r="J37" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*C5),"")</f>
+        <v>368</v>
+      </c>
+      <c r="L37" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*D5),"")</f>
+        <v>78</v>
+      </c>
+      <c r="M37" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*E5),"")</f>
+        <v>28</v>
+      </c>
+      <c r="N37" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*F5),"")</f>
+        <v>23</v>
+      </c>
+      <c r="O37" s="316">
+        <f>IF(HDRAG_HAS_REC_HMERC,SUM(K37:N37),"")</f>
+        <v>497</v>
+      </c>
+      <c r="P37" s="446">
+        <f>IFERROR((G37-O37)/G37,"")</f>
+        <v>8.639705882352941E-2</v>
+      </c>
+      <c r="Q37" s="446"/>
+      <c r="R37" s="446"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G6)*C7),"")</f>
+        <v>330</v>
+      </c>
+      <c r="D38" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G6)*D7),"")</f>
+        <v>109</v>
+      </c>
+      <c r="E38" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G6)*E7),"")</f>
+        <v>40</v>
+      </c>
+      <c r="F38" s="118">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G6)*F7),"")</f>
+        <v>32</v>
+      </c>
+      <c r="G38" s="123">
+        <f>IF(HDRAG_HAS_REC_HMID,SUM(C38:F38),"")</f>
+        <v>511</v>
+      </c>
+      <c r="J38" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($P5/$G$6)*C7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($P5/$G$6)*D7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($P5/$G$6)*E7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH(($P5/$G$6)*F7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="317">
+        <f>IF(HDRAG_HAS_REC_HMID,SUM(K38:N38),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="446">
+        <f>IFERROR((G38-O38)/G38,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="446"/>
+      <c r="R38" s="446"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G8)*C9),"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G8)*D9),"")</f>
+        <v/>
+      </c>
+      <c r="E39" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G8)*E9),"")</f>
+        <v/>
+      </c>
+      <c r="F39" s="119" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G8)*F9),"")</f>
+        <v/>
+      </c>
+      <c r="G39" s="124" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,SUM(C39:F39),"")</f>
+        <v/>
+      </c>
+      <c r="J39" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($P6/$G$8)*C9),"")</f>
+        <v/>
+      </c>
+      <c r="L39" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($P6/$G$8)*D9),"")</f>
+        <v/>
+      </c>
+      <c r="M39" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($P6/$G$8)*E9),"")</f>
+        <v/>
+      </c>
+      <c r="N39" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH(($P6/$G$8)*F9),"")</f>
+        <v/>
+      </c>
+      <c r="O39" s="318" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,SUM(K39:N39),"")</f>
+        <v/>
+      </c>
+      <c r="P39" s="446" t="str">
+        <f>IFERROR((G39-O39)/G39,"")</f>
+        <v/>
+      </c>
+      <c r="Q39" s="446"/>
+      <c r="R39" s="446"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G10)*C11),"")</f>
+        <v/>
+      </c>
+      <c r="D40" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G10)*D11),"")</f>
+        <v/>
+      </c>
+      <c r="E40" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G10)*E11),"")</f>
+        <v/>
+      </c>
+      <c r="F40" s="120" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G10)*F11),"")</f>
+        <v/>
+      </c>
+      <c r="G40" s="125" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,SUM(C40:F40),"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="309" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($P7/$G$10)*C11),"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($P7/$G$10)*D11),"")</f>
+        <v/>
+      </c>
+      <c r="M40" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($P7/$G$10)*E11),"")</f>
+        <v/>
+      </c>
+      <c r="N40" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH(($P7/$G$10)*F11),"")</f>
+        <v/>
+      </c>
+      <c r="O40" s="319" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,SUM(K40:N40),"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="446" t="str">
+        <f>IFERROR((G40-O40)/G40,"")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="446"/>
+      <c r="R40" s="446"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF9191"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0056DFAE-24A5-405B-A2E1-A2F499662CCA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71A13B54-27C1-4A68-9DA5-5272B5C9C1A6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFD0B9FF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E76542C4-A65B-46E7-A44A-52024589876F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:T3">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF9191"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{180D55D6-69FA-411D-A793-6D974A034317}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:T4">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A688F774-7739-43AF-B6DF-D58ACEE232CA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:T5">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB4AD01C-E76D-42AE-9233-2CC3C02A3571}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:T6">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B331CDED-E6DC-4642-B38C-805ACD8F6793}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:T7">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFD0B9FF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63D294E8-9400-4F6F-868B-B48804566345}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF9191"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{23FDE34A-FFD1-4A02-ADC4-D144B0730B16}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6BBFAA59-116F-4D35-B341-0324729A60A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B2885A79-C94D-44E5-9327-7A3394732409}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{953BE283-7DDF-4499-B558-F10C55141BB2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFD0B9FF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{44CAFD59-541F-4ABA-B6FF-F0B32A33CF27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF9191"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4AF1B20F-F446-428D-B477-2FBFFD9153F1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EF638F43-1911-44A4-B751-2E8AE3AC29D8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{35F1B57D-A455-463A-98DD-BD91EDA7D2D5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{00A9CE74-8E49-415E-9ADE-5790C2F9365C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFD0B9FF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F3917113-48AC-45D0-8CFB-B85DE6473CEA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF9191"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66D55E34-D251-4B7B-8B7B-52507483F74C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P30">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{963AC8BA-4AA8-4F4C-8180-345ECA276559}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{84723150-ABE0-4592-9CE7-C01263B739BD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{48B92046-F56E-46C0-AA42-3A45CB793A86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFD0B9FF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66F134FF-0A93-4A71-973A-43CA694D5CF9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF9191"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3390BA82-FE5F-4200-9C87-06B6028548B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0CAF94CB-E7B8-450E-A78E-7800D3B43DD6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB11CCE3-F9C3-4CB4-A9B6-9A4730FACA19}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2397C74D-7E3E-4743-84F7-02B88E1E31E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFD0B9FF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{733977E7-CC28-4BED-98E5-FCC3E89F0A74}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0056DFAE-24A5-405B-A2E1-A2F499662CCA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF9191"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71A13B54-27C1-4A68-9DA5-5272B5C9C1A6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="9" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E76542C4-A65B-46E7-A44A-52024589876F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFD0B9FF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{180D55D6-69FA-411D-A793-6D974A034317}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF9191"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R3:T3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A688F774-7739-43AF-B6DF-D58ACEE232CA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="8" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R4:T4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EB4AD01C-E76D-42AE-9233-2CC3C02A3571}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="9" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R5:T5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B331CDED-E6DC-4642-B38C-805ACD8F6793}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="7" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R6:T6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63D294E8-9400-4F6F-868B-B48804566345}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFD0B9FF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R7:T7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{23FDE34A-FFD1-4A02-ADC4-D144B0730B16}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF9191"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6BBFAA59-116F-4D35-B341-0324729A60A3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="8" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B2885A79-C94D-44E5-9327-7A3394732409}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="9" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{953BE283-7DDF-4499-B558-F10C55141BB2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="7" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{44CAFD59-541F-4ABA-B6FF-F0B32A33CF27}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFD0B9FF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4AF1B20F-F446-428D-B477-2FBFFD9153F1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF9191"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EF638F43-1911-44A4-B751-2E8AE3AC29D8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="8" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{35F1B57D-A455-463A-98DD-BD91EDA7D2D5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="9" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{00A9CE74-8E49-415E-9ADE-5790C2F9365C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="7" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F3917113-48AC-45D0-8CFB-B85DE6473CEA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFD0B9FF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66D55E34-D251-4B7B-8B7B-52507483F74C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF9191"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{963AC8BA-4AA8-4F4C-8180-345ECA276559}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="8" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{84723150-ABE0-4592-9CE7-C01263B739BD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="9" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{48B92046-F56E-46C0-AA42-3A45CB793A86}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="7" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66F134FF-0A93-4A71-973A-43CA694D5CF9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFD0B9FF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3390BA82-FE5F-4200-9C87-06B6028548B7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF9191"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0CAF94CB-E7B8-450E-A78E-7800D3B43DD6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="8" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EB11CCE3-F9C3-4CB4-A9B6-9A4730FACA19}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="9" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2397C74D-7E3E-4743-84F7-02B88E1E31E6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="7" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{733977E7-CC28-4BED-98E5-FCC3E89F0A74}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFD0B9FF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P40</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F3A600-DCA6-49F5-831E-ACD6AC06071D}">
+  <sheetPr codeName="Sheet6">
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>816</v>
+      </c>
+      <c r="B2" s="1">
+        <v>800</v>
+      </c>
+      <c r="C2" s="1">
+        <v>485</v>
+      </c>
+      <c r="D2" s="324"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>786</v>
+      </c>
+      <c r="B3" s="1">
+        <v>800</v>
+      </c>
+      <c r="C3" s="1">
+        <v>480</v>
+      </c>
+      <c r="D3" s="324"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>783</v>
+      </c>
+      <c r="B4" s="1">
+        <v>800</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C3-120</f>
+        <v>360</v>
+      </c>
+      <c r="D4" s="324"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>780</v>
+      </c>
+      <c r="B5" s="1">
+        <v>800</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C4-120</f>
+        <v>240</v>
+      </c>
+      <c r="D5" s="324"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>775</v>
+      </c>
+      <c r="B6" s="1">
+        <v>800</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C5-120</f>
+        <v>120</v>
+      </c>
+      <c r="D6" s="324"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>770</v>
+      </c>
+      <c r="B7" s="1">
+        <v>790</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C6-120</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="324"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>763</v>
+      </c>
+      <c r="B8" s="1">
+        <v>780</v>
+      </c>
+      <c r="D8" s="324"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>756</v>
+      </c>
+      <c r="B9" s="1">
+        <v>770</v>
+      </c>
+      <c r="D9" s="324"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>749</v>
+      </c>
+      <c r="B10" s="1">
+        <v>760</v>
+      </c>
+      <c r="D10" s="324"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>739</v>
+      </c>
+      <c r="B11" s="1">
+        <v>750</v>
+      </c>
+      <c r="D11" s="324"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>729</v>
+      </c>
+      <c r="B12" s="1">
+        <v>730</v>
+      </c>
+      <c r="D12" s="324"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>717</v>
+      </c>
+      <c r="B13" s="1">
+        <v>710</v>
+      </c>
+      <c r="D13" s="324"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>705</v>
+      </c>
+      <c r="B14" s="1">
+        <v>690</v>
+      </c>
+      <c r="D14" s="324"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>690</v>
+      </c>
+      <c r="B15" s="1">
+        <v>670</v>
+      </c>
+      <c r="D15" s="324"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>675</v>
+      </c>
+      <c r="B16" s="1">
+        <v>650</v>
+      </c>
+      <c r="D16" s="324"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>660</v>
+      </c>
+      <c r="B17" s="1">
+        <v>620</v>
+      </c>
+      <c r="D17" s="324"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>640</v>
+      </c>
+      <c r="B18" s="1">
+        <v>590</v>
+      </c>
+      <c r="D18" s="324"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>620</v>
+      </c>
+      <c r="B19" s="1">
+        <v>560</v>
+      </c>
+      <c r="D19" s="324"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>600</v>
+      </c>
+      <c r="B20" s="1">
+        <v>530</v>
+      </c>
+      <c r="D20" s="324"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>570</v>
+      </c>
+      <c r="B21" s="1">
+        <v>500</v>
+      </c>
+      <c r="D21" s="324"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>540</v>
+      </c>
+      <c r="B22" s="1">
+        <v>460</v>
+      </c>
+      <c r="D22" s="324"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>500</v>
+      </c>
+      <c r="B23" s="1">
+        <v>420</v>
+      </c>
+      <c r="D23" s="324"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>460</v>
+      </c>
+      <c r="B24" s="1">
+        <v>380</v>
+      </c>
+      <c r="D24" s="324"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>420</v>
+      </c>
+      <c r="B25" s="1">
+        <v>340</v>
+      </c>
+      <c r="D25" s="324"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>370</v>
+      </c>
+      <c r="B26" s="1">
+        <v>300</v>
+      </c>
+      <c r="D26" s="324"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>320</v>
+      </c>
+      <c r="B27" s="1">
+        <v>240</v>
+      </c>
+      <c r="D27" s="324"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>260</v>
+      </c>
+      <c r="B28" s="1">
+        <v>180</v>
+      </c>
+      <c r="D28" s="324"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>200</v>
+      </c>
+      <c r="B29" s="1">
+        <v>120</v>
+      </c>
+      <c r="D29" s="324"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>140</v>
+      </c>
+      <c r="B30" s="1">
+        <v>60</v>
+      </c>
+      <c r="D30" s="324"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA80CDF-D24A-4FB8-9671-F01C933B841B}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="5"/>
@@ -6039,27 +9476,335 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D6C20F-FF2F-4963-89B7-F435E6497A7A}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="2.85546875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE47D310-33CE-46A2-B35D-DF129779300D}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -6067,7 +9812,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6642,7 +10387,9 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
+      <c r="AI8" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
@@ -6760,7 +10507,9 @@
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -9418,7 +13167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BE3DDB-749F-4B41-A9B1-4DD9836EDC31}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -9438,7 +13187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDAFC9C-A4C0-4709-8639-7097D9F704B6}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -9465,8 +13214,8 @@
   </sheetPr>
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9575,7 +13324,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="325" t="s">
+      <c r="A2" s="364" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="194" t="s">
@@ -9586,11 +13335,11 @@
       </c>
       <c r="D2" s="198">
         <f>(C2-MIN(DATA_IO_OWNED_SMALL))/(MAX(DATA_IO_OWNED_SMALL)-MIN(DATA_IO_OWNED_SMALL))</f>
-        <v>0.14535315985130112</v>
+        <v>0.26075504828797191</v>
       </c>
       <c r="E2" s="195">
         <f>C2-MAX(DATA_IO_OWNED_SMALL)</f>
-        <v>-2299</v>
+        <v>-2526</v>
       </c>
       <c r="F2" s="196">
         <f>VLOOKUP($W$9,DATA_IO,5,TRUE)+VLOOKUP($W$10,DATA_IO,5,TRUE)+VLOOKUP($AC$9,DATA_IO,5,TRUE)+VLOOKUP($AC$10,DATA_IO,5,TRUE)</f>
@@ -9601,7 +13350,7 @@
         <v>5720</v>
       </c>
       <c r="H2" s="197">
-        <f>'資料-迎擊'!$AQ$3*4</f>
+        <f>D迎擊!$AQ$3*4</f>
         <v>5720</v>
       </c>
       <c r="I2" s="195">
@@ -9618,11 +13367,11 @@
       </c>
       <c r="L2" s="198">
         <f>(K2-MIN(DATA_IO_EXTRA_EXCHANGED_SMALL))/(MAX(DATA_IO_EXTRA_EXCHANGED_SMALL)-MIN(DATA_IO_EXTRA_EXCHANGED_SMALL))</f>
-        <v>0</v>
+        <v>0.11211959423384944</v>
       </c>
       <c r="M2" s="195">
         <f>K2-MAX(DATA_IO_EXTRA_EXCHANGED_SMALL)</f>
-        <v>-5113</v>
+        <v>-4989</v>
       </c>
       <c r="N2" s="195">
         <f t="shared" ref="N2:N11" si="1">IF(F2-C2 &lt; 0,0,F2-C2)</f>
@@ -9645,40 +13394,40 @@
         <v>0</v>
       </c>
       <c r="S2" s="202">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!A:A,'資料-迎擊'!C:C)/SUM('資料-迎擊'!C:C),0)</f>
+        <f>IFERROR(SUMPRODUCT(D迎擊!A:A,D迎擊!C:C)/SUM(D迎擊!C:C),0)</f>
         <v>3.5347793567688854</v>
       </c>
       <c r="T2" s="203">
-        <f>SUM('資料-迎擊'!C:C)</f>
+        <f>SUM(D迎擊!C:C)</f>
         <v>1337</v>
       </c>
       <c r="V2" s="46" t="s">
         <v>57</v>
       </c>
       <c r="W2" s="89">
-        <v>91351</v>
+        <v>67611</v>
       </c>
       <c r="X2" s="89">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="89">
-        <v>2184</v>
+        <v>3531</v>
       </c>
       <c r="Z2" s="89">
-        <v>2268</v>
+        <v>383</v>
       </c>
       <c r="AA2" s="89">
-        <v>6811</v>
+        <v>7163</v>
       </c>
       <c r="AB2" s="89">
-        <v>9500</v>
+        <v>10018</v>
       </c>
       <c r="AC2" s="89">
-        <v>80228</v>
+        <v>81708</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="326"/>
+      <c r="A3" s="365"/>
       <c r="B3" s="175" t="s">
         <v>107</v>
       </c>
@@ -9687,11 +13436,11 @@
       </c>
       <c r="D3" s="179">
         <f>(C3-MIN(DATA_IO_OWNED_BIG))/(MAX(DATA_IO_OWNED_BIG)-MIN(DATA_IO_OWNED_BIG))</f>
-        <v>0</v>
+        <v>0.4658990256864482</v>
       </c>
       <c r="E3" s="176">
         <f>C3-MAX(DATA_IO_OWNED_BIG)</f>
-        <v>-938</v>
+        <v>-1206</v>
       </c>
       <c r="F3" s="177">
         <f>VLOOKUP($W$9,DATA_IO,6,TRUE)+VLOOKUP($W$10,DATA_IO,6,TRUE)+VLOOKUP($AC$9,DATA_IO,6,TRUE)+VLOOKUP($AC$10,DATA_IO,6,TRUE)</f>
@@ -9702,7 +13451,7 @@
         <v>800</v>
       </c>
       <c r="H3" s="178">
-        <f>'資料-迎擊'!$AR$3*4</f>
+        <f>D迎擊!$AR$3*4</f>
         <v>800</v>
       </c>
       <c r="I3" s="176">
@@ -9719,11 +13468,11 @@
       </c>
       <c r="L3" s="179">
         <f>(K3-MIN(DATA_IO_EXTRA_EXCHANGED_BIG))/(MAX(DATA_IO_EXTRA_EXCHANGED_BIG)-MIN(DATA_IO_EXTRA_EXCHANGED_BIG))</f>
-        <v>0</v>
+        <v>0.30549503752118135</v>
       </c>
       <c r="M3" s="176">
         <f>K3-MAX(DATA_IO_EXTRA_EXCHANGED_BIG)</f>
-        <v>-1321.1666666666663</v>
+        <v>-1434.4999999999998</v>
       </c>
       <c r="N3" s="176">
         <f t="shared" si="1"/>
@@ -9746,47 +13495,47 @@
         <v>0</v>
       </c>
       <c r="S3" s="183">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!D:D,'資料-迎擊'!F:F)/$T3,0)</f>
+        <f>IFERROR(SUMPRODUCT(D迎擊!D:D,D迎擊!F:F)/$T3,0)</f>
         <v>0</v>
       </c>
       <c r="T3" s="204">
-        <f>SUM('資料-迎擊'!F:F)</f>
+        <f>SUM(D迎擊!F:F)</f>
         <v>0</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>58</v>
       </c>
       <c r="W3" s="89">
-        <v>91351</v>
+        <v>67611</v>
       </c>
       <c r="X3" s="89">
         <v>0</v>
       </c>
       <c r="Y3" s="89">
-        <v>2184</v>
+        <v>3551</v>
       </c>
       <c r="Z3" s="89">
-        <v>2268</v>
+        <v>391</v>
       </c>
       <c r="AA3" s="89">
-        <v>6811</v>
+        <v>7175</v>
       </c>
       <c r="AB3" s="89">
-        <v>9500</v>
+        <v>10029</v>
       </c>
       <c r="AC3" s="89">
-        <v>80228</v>
+        <v>81782</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="331" t="s">
+      <c r="A4" s="370" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="216" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="195">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="D4" s="198">
         <f>(C4-MIN(DATA_IO_OWNED_SMALL))/(MAX(DATA_IO_OWNED_SMALL)-MIN(DATA_IO_OWNED_SMALL))</f>
@@ -9794,7 +13543,7 @@
       </c>
       <c r="E4" s="195">
         <f>C4-MAX(DATA_IO_OWNED_SMALL)</f>
-        <v>-2690</v>
+        <v>-3417</v>
       </c>
       <c r="F4" s="196">
         <f>VLOOKUP($W$11,DATA_IO,5,TRUE)+VLOOKUP($W$12,DATA_IO,5,TRUE)+VLOOKUP($AC$11,DATA_IO,5,TRUE)+VLOOKUP($AC$12,DATA_IO,5,TRUE)</f>
@@ -9805,28 +13554,28 @@
         <v>5720</v>
       </c>
       <c r="H4" s="197">
-        <f>'資料-迎擊'!$AQ$3*4</f>
+        <f>D迎擊!$AQ$3*4</f>
         <v>5720</v>
       </c>
       <c r="I4" s="195">
         <f>IF(F4-C4 &lt;= 0,ABS(F4-C4),"")</f>
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="J4" s="195">
         <f>IFERROR(FLOOR(I4/IO_WEAPON_434,1),"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="195">
         <f>I4+I5*IO_EXCHANGE_BIG_TO_SMALL</f>
-        <v>7071</v>
+        <v>7771</v>
       </c>
       <c r="L4" s="198">
         <f>(K4-MIN(DATA_IO_EXTRA_EXCHANGED_SMALL))/(MAX(DATA_IO_EXTRA_EXCHANGED_SMALL)-MIN(DATA_IO_EXTRA_EXCHANGED_SMALL))</f>
-        <v>0.39292000782319575</v>
+        <v>0.59423384943940205</v>
       </c>
       <c r="M4" s="195">
         <f>K4-MAX(DATA_IO_EXTRA_EXCHANGED_SMALL)</f>
-        <v>-3104</v>
+        <v>-2280</v>
       </c>
       <c r="N4" s="195">
         <f t="shared" si="1"/>
@@ -9841,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="217">
-        <f t="shared" ref="Q4" si="6">IFERROR(ROUND(N4/$S$12,0),0)</f>
+        <f>IFERROR(ROUND(N4/$S$12,0),0)</f>
         <v>0</v>
       </c>
       <c r="R4" s="218">
@@ -9849,29 +13598,29 @@
         <v>0</v>
       </c>
       <c r="S4" s="219">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!G:G,'資料-迎擊'!I:I)/SUM('資料-迎擊'!I:I),0)</f>
+        <f>IFERROR(SUMPRODUCT(D迎擊!G:G,D迎擊!I:I)/SUM(D迎擊!I:I),0)</f>
         <v>3.4778660612939842</v>
       </c>
       <c r="T4" s="220">
-        <f>SUM('資料-迎擊'!I:I)</f>
+        <f>SUM(D迎擊!I:I)</f>
         <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="332"/>
+      <c r="A5" s="371"/>
       <c r="B5" s="221" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="176">
-        <v>2163</v>
+        <v>2563</v>
       </c>
       <c r="D5" s="179">
         <f>(C5-MIN(DATA_IO_OWNED_BIG))/(MAX(DATA_IO_OWNED_BIG)-MIN(DATA_IO_OWNED_BIG))</f>
-        <v>0.85287846481876328</v>
+        <v>0.99734278122232067</v>
       </c>
       <c r="E5" s="176">
         <f>C5-MAX(DATA_IO_OWNED_BIG)</f>
-        <v>-138</v>
+        <v>-6</v>
       </c>
       <c r="F5" s="177">
         <f>VLOOKUP($W$11,DATA_IO,6,TRUE)+VLOOKUP($W$12,DATA_IO,6,TRUE)+VLOOKUP($AC$11,DATA_IO,6,TRUE)+VLOOKUP($AC$12,DATA_IO,6,TRUE)</f>
@@ -9882,28 +13631,28 @@
         <v>800</v>
       </c>
       <c r="H5" s="178">
-        <f>'資料-迎擊'!$AR$3*4</f>
+        <f>D迎擊!$AR$3*4</f>
         <v>800</v>
       </c>
       <c r="I5" s="176">
         <f t="shared" si="4"/>
-        <v>2163</v>
+        <v>2563</v>
       </c>
       <c r="J5" s="176">
         <f>IFERROR(FLOOR(I5/IO_WEAPON_530,1),"")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K5" s="176">
         <f>I5+I4*IO_EXCHANGE_SMALL_TO_BIG</f>
-        <v>2260</v>
+        <v>2576.6666666666665</v>
       </c>
       <c r="L5" s="179">
         <f>(K5-MIN(DATA_IO_EXTRA_EXCHANGED_BIG))/(MAX(DATA_IO_EXTRA_EXCHANGED_BIG)-MIN(DATA_IO_EXTRA_EXCHANGED_BIG))</f>
-        <v>0.55620032799293562</v>
+        <v>0.81457274267731783</v>
       </c>
       <c r="M5" s="176">
         <f>K5-MAX(DATA_IO_EXTRA_EXCHANGED_BIG)</f>
-        <v>-586.33333333333303</v>
+        <v>-383</v>
       </c>
       <c r="N5" s="176">
         <f t="shared" si="1"/>
@@ -9918,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="222">
-        <f t="shared" ref="Q5" si="7">IFERROR(ROUND(N5/$S$13,0),0)</f>
+        <f>IFERROR(ROUND(N5/$S$13,0),0)</f>
         <v>0</v>
       </c>
       <c r="R5" s="223">
@@ -9926,11 +13675,11 @@
         <v>0</v>
       </c>
       <c r="S5" s="224">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!J:J,'資料-迎擊'!L:L)/$T5,0)</f>
+        <f>IFERROR(SUMPRODUCT(D迎擊!J:J,D迎擊!L:L)/$T5,0)</f>
         <v>0</v>
       </c>
       <c r="T5" s="225">
-        <f>SUM('資料-迎擊'!L:L)</f>
+        <f>SUM(D迎擊!L:L)</f>
         <v>0</v>
       </c>
       <c r="V5" s="46" t="s">
@@ -9941,34 +13690,34 @@
       </c>
       <c r="Y5" s="19">
         <f>Y3-Y2</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z5" s="19">
         <f>Z3-Z2</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA5" s="19">
         <f>AA3-AA2</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB5" s="19">
         <f>AB3-AB2</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC5" s="19">
         <f>AC3-AC2</f>
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="327" t="s">
+      <c r="A6" s="366" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="226" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="195">
-        <v>3272</v>
+        <v>3499</v>
       </c>
       <c r="D6" s="198">
         <f>(C6-MIN(DATA_IO_OWNED_SMALL))/(MAX(DATA_IO_OWNED_SMALL)-MIN(DATA_IO_OWNED_SMALL))</f>
@@ -9987,12 +13736,12 @@
         <v>5720</v>
       </c>
       <c r="H6" s="197">
-        <f>'資料-迎擊'!$AQ$3*4</f>
+        <f>D迎擊!$AQ$3*4</f>
         <v>5720</v>
       </c>
       <c r="I6" s="195">
         <f>IF(F6-C6 &lt;= 0,ABS(F6-C6),"")</f>
-        <v>3272</v>
+        <v>3499</v>
       </c>
       <c r="J6" s="195">
         <f>IFERROR(FLOOR(I6/IO_WEAPON_434,1),"")</f>
@@ -10000,15 +13749,15 @@
       </c>
       <c r="K6" s="195">
         <f>I6+I7*IO_EXCHANGE_BIG_TO_SMALL</f>
-        <v>10175</v>
+        <v>4432</v>
       </c>
       <c r="L6" s="198">
         <f>(K6-MIN(DATA_IO_EXTRA_EXCHANGED_SMALL))/(MAX(DATA_IO_EXTRA_EXCHANGED_SMALL)-MIN(DATA_IO_EXTRA_EXCHANGED_SMALL))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="195">
         <f>K6-MAX(DATA_IO_EXTRA_EXCHANGED_SMALL)</f>
-        <v>0</v>
+        <v>-5619</v>
       </c>
       <c r="N6" s="195">
         <f t="shared" si="1"/>
@@ -10023,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="227">
-        <f t="shared" ref="Q6" si="8">IFERROR(ROUND(N6/$S$12,0),0)</f>
+        <f>IFERROR(ROUND(N6/$S$12,0),0)</f>
         <v>0</v>
       </c>
       <c r="R6" s="228">
@@ -10031,56 +13780,56 @@
         <v>0</v>
       </c>
       <c r="S6" s="229">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!M:M,'資料-迎擊'!O:O)/SUM('資料-迎擊'!O:O),0)</f>
-        <v>3.492957746478873</v>
+        <f>IFERROR(SUMPRODUCT(D迎擊!M:M,D迎擊!O:O)/SUM(D迎擊!O:O),0)</f>
+        <v>3.4935064935064934</v>
       </c>
       <c r="T6" s="230">
-        <f>SUM('資料-迎擊'!O:O)</f>
-        <v>142</v>
+        <f>SUM(D迎擊!O:O)</f>
+        <v>154</v>
       </c>
       <c r="V6" s="81">
         <f>(W2-W3)/WINGS_RECOVER_DIAMS*6 + (X2-X3)/WINGS_CONSUME_VOID</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X6" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" s="19" t="str">
+      <c r="Y6" s="19">
         <f>IFERROR(Y5/$V$6,"")</f>
-        <v/>
-      </c>
-      <c r="Z6" s="19" t="str">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="Z6" s="19">
         <f>IFERROR(Z5/$V$6,"")</f>
-        <v/>
-      </c>
-      <c r="AA6" s="19" t="str">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AA6" s="19">
         <f>IFERROR(AA5/$V$6,"")</f>
-        <v/>
-      </c>
-      <c r="AB6" s="19" t="str">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="19">
         <f>IFERROR(AB5/$V$6,"")</f>
-        <v/>
-      </c>
-      <c r="AC6" s="19" t="str">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="AC6" s="19">
         <f>IFERROR(AC5/$V$6,"")</f>
-        <v/>
+        <v>12.333333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="328"/>
+      <c r="A7" s="367"/>
       <c r="B7" s="231" t="s">
         <v>107</v>
       </c>
       <c r="C7" s="176">
-        <v>2301</v>
+        <v>311</v>
       </c>
       <c r="D7" s="179">
         <f>(C7-MIN(DATA_IO_OWNED_BIG))/(MAX(DATA_IO_OWNED_BIG)-MIN(DATA_IO_OWNED_BIG))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="176">
         <f>C7-MAX(DATA_IO_OWNED_BIG)</f>
-        <v>0</v>
+        <v>-2258</v>
       </c>
       <c r="F7" s="177">
         <f>VLOOKUP($W$13,DATA_IO,6,TRUE)+VLOOKUP($W$14,DATA_IO,6,TRUE)+VLOOKUP($AC$13,DATA_IO,6,TRUE)+VLOOKUP($AC$14,DATA_IO,6,TRUE)</f>
@@ -10091,28 +13840,28 @@
         <v>800</v>
       </c>
       <c r="H7" s="178">
-        <f>'資料-迎擊'!$AR$3*4</f>
+        <f>D迎擊!$AR$3*4</f>
         <v>800</v>
       </c>
       <c r="I7" s="176">
         <f t="shared" si="4"/>
-        <v>2301</v>
+        <v>311</v>
       </c>
       <c r="J7" s="176">
         <f>IFERROR(FLOOR(I7/IO_WEAPON_530,1),"")</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K7" s="176">
         <f>I7+I6*IO_EXCHANGE_SMALL_TO_BIG</f>
-        <v>2846.333333333333</v>
+        <v>894.16666666666663</v>
       </c>
       <c r="L7" s="179">
         <f>(K7-MIN(DATA_IO_EXTRA_EXCHANGED_BIG))/(MAX(DATA_IO_EXTRA_EXCHANGED_BIG)-MIN(DATA_IO_EXTRA_EXCHANGED_BIG))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="176">
         <f>K7-MAX(DATA_IO_EXTRA_EXCHANGED_BIG)</f>
-        <v>0</v>
+        <v>-2065.5</v>
       </c>
       <c r="N7" s="176">
         <f t="shared" si="1"/>
@@ -10127,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="232">
-        <f t="shared" ref="Q7" si="9">IFERROR(ROUND(N7/$S$13,0),0)</f>
+        <f>IFERROR(ROUND(N7/$S$13,0),0)</f>
         <v>0</v>
       </c>
       <c r="R7" s="233">
@@ -10135,32 +13884,32 @@
         <v>0</v>
       </c>
       <c r="S7" s="234">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!P:P,'資料-迎擊'!R:R)/$T7,0)</f>
-        <v>0</v>
+        <f>IFERROR(SUMPRODUCT(D迎擊!P:P,D迎擊!R:R)/$T7,0)</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T7" s="235">
-        <f>SUM('資料-迎擊'!R:R)</f>
-        <v>0</v>
+        <f>SUM(D迎擊!R:R)</f>
+        <v>12</v>
       </c>
       <c r="AI7" s="62"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="333" t="s">
+      <c r="A8" s="372" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="236" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="195">
-        <v>2184</v>
+        <v>2344</v>
       </c>
       <c r="D8" s="198">
         <f>(C8-MIN(DATA_IO_OWNED_SMALL))/(MAX(DATA_IO_OWNED_SMALL)-MIN(DATA_IO_OWNED_SMALL))</f>
-        <v>0.59553903345724912</v>
+        <v>0.66198419666374009</v>
       </c>
       <c r="E8" s="195">
         <f>C8-MAX(DATA_IO_OWNED_SMALL)</f>
-        <v>-1088</v>
+        <v>-1155</v>
       </c>
       <c r="F8" s="196">
         <f>VLOOKUP($W$15,DATA_IO,5,TRUE)+VLOOKUP($W$16,DATA_IO,5,TRUE)</f>
@@ -10171,28 +13920,28 @@
         <v>2860</v>
       </c>
       <c r="H8" s="197">
-        <f>'資料-迎擊'!$AQ$3*2</f>
+        <f>D迎擊!$AQ$3*2</f>
         <v>2860</v>
       </c>
       <c r="I8" s="195">
         <f>IF(F8-C8 &lt;= 0,ABS(F8-C8),"")</f>
-        <v>2184</v>
+        <v>2344</v>
       </c>
       <c r="J8" s="195">
         <f>IFERROR(FLOOR(I8/IO_WEAPON_434,1),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K8" s="195">
         <f>I8+I9*IO_EXCHANGE_BIG_TO_SMALL</f>
-        <v>8988</v>
+        <v>10051</v>
       </c>
       <c r="L8" s="198">
         <f>(K8-MIN(DATA_IO_EXTRA_EXCHANGED_SMALL))/(MAX(DATA_IO_EXTRA_EXCHANGED_SMALL)-MIN(DATA_IO_EXTRA_EXCHANGED_SMALL))</f>
-        <v>0.76784666536280066</v>
+        <v>1</v>
       </c>
       <c r="M8" s="195">
         <f>K8-MAX(DATA_IO_EXTRA_EXCHANGED_SMALL)</f>
-        <v>-1187</v>
+        <v>0</v>
       </c>
       <c r="N8" s="195">
         <f t="shared" si="1"/>
@@ -10207,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="237">
-        <f t="shared" ref="Q8" si="10">IFERROR(ROUND(N8/$S$12,0),0)</f>
+        <f>IFERROR(ROUND(N8/$S$12,0),0)</f>
         <v>0</v>
       </c>
       <c r="R8" s="238">
@@ -10215,11 +13964,11 @@
         <v>0</v>
       </c>
       <c r="S8" s="239">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!S:S,'資料-迎擊'!U:U)/T$8,0)</f>
+        <f>IFERROR(SUMPRODUCT(D迎擊!S:S,D迎擊!U:U)/T$8,0)</f>
         <v>3.5164960182025027</v>
       </c>
       <c r="T8" s="240">
-        <f>SUM('資料-迎擊'!U:U)</f>
+        <f>SUM(D迎擊!U:U)</f>
         <v>879</v>
       </c>
       <c r="V8" s="46" t="s">
@@ -10228,10 +13977,10 @@
       <c r="W8" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="312" t="s">
+      <c r="X8" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="312"/>
+      <c r="Y8" s="380"/>
       <c r="Z8" s="7" t="s">
         <v>23</v>
       </c>
@@ -10258,20 +14007,20 @@
       <c r="AI8" s="62"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="334"/>
+      <c r="A9" s="373"/>
       <c r="B9" s="241" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="176">
-        <v>2268</v>
+        <v>2569</v>
       </c>
       <c r="D9" s="179">
         <f>(C9-MIN(DATA_IO_OWNED_BIG))/(MAX(DATA_IO_OWNED_BIG)-MIN(DATA_IO_OWNED_BIG))</f>
-        <v>0.96481876332622596</v>
+        <v>1</v>
       </c>
       <c r="E9" s="176">
         <f>C9-MAX(DATA_IO_OWNED_BIG)</f>
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="F9" s="177">
         <f>VLOOKUP($W$15,DATA_IO,6,TRUE)+VLOOKUP($W$16,DATA_IO,6,TRUE)</f>
@@ -10282,28 +14031,28 @@
         <v>400</v>
       </c>
       <c r="H9" s="178">
-        <f>'資料-迎擊'!$AR$3*2</f>
+        <f>D迎擊!$AR$3*2</f>
         <v>400</v>
       </c>
       <c r="I9" s="176">
         <f t="shared" si="4"/>
-        <v>2268</v>
+        <v>2569</v>
       </c>
       <c r="J9" s="176">
         <f>IFERROR(FLOOR(I9/IO_WEAPON_530,1),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" s="176">
         <f>I9+I8*IO_EXCHANGE_SMALL_TO_BIG</f>
-        <v>2632</v>
+        <v>2959.6666666666665</v>
       </c>
       <c r="L9" s="179">
         <f>(K9-MIN(DATA_IO_EXTRA_EXCHANGED_BIG))/(MAX(DATA_IO_EXTRA_EXCHANGED_BIG)-MIN(DATA_IO_EXTRA_EXCHANGED_BIG))</f>
-        <v>0.83776964803835008</v>
+        <v>1</v>
       </c>
       <c r="M9" s="176">
         <f>K9-MAX(DATA_IO_EXTRA_EXCHANGED_BIG)</f>
-        <v>-214.33333333333303</v>
+        <v>0</v>
       </c>
       <c r="N9" s="176">
         <f t="shared" si="1"/>
@@ -10318,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="242">
-        <f t="shared" ref="Q9" si="11">IFERROR(ROUND(N9/$S$13,0),0)</f>
+        <f>IFERROR(ROUND(N9/$S$13,0),0)</f>
         <v>0</v>
       </c>
       <c r="R9" s="243">
@@ -10326,14 +14075,14 @@
         <v>0</v>
       </c>
       <c r="S9" s="244">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!V:V,'資料-迎擊'!X:X)/T$9,0)</f>
+        <f>IFERROR(SUMPRODUCT(D迎擊!V:V,D迎擊!X:X)/T$9,0)</f>
         <v>1.5298804780876494</v>
       </c>
       <c r="T9" s="245">
-        <f>SUM('資料-迎擊'!X:X)</f>
+        <f>SUM(D迎擊!X:X)</f>
         <v>502</v>
       </c>
-      <c r="V9" s="323" t="s">
+      <c r="V9" s="378" t="s">
         <v>20</v>
       </c>
       <c r="W9" s="84">
@@ -10347,14 +14096,14 @@
         <v>23</v>
       </c>
       <c r="Z9" s="90" t="str">
-        <f t="shared" ref="Z9:Z16" si="12">IF(VLOOKUP(W9,DATA_IO,9)=0,"",VLOOKUP(W9,DATA_IO,9))</f>
+        <f t="shared" ref="Z9:Z16" si="6">IF(VLOOKUP(W9,DATA_IO,9)=0,"",VLOOKUP(W9,DATA_IO,9))</f>
         <v/>
       </c>
       <c r="AA9" s="47" t="str">
-        <f t="shared" ref="AA9:AA16" si="13">IFERROR(Z9*BOOST_PRICE,"")</f>
-        <v/>
-      </c>
-      <c r="AB9" s="324" t="s">
+        <f t="shared" ref="AA9:AA16" si="7">IFERROR(Z9*BOOST_PRICE,"")</f>
+        <v/>
+      </c>
+      <c r="AB9" s="379" t="s">
         <v>13</v>
       </c>
       <c r="AC9" s="84">
@@ -10369,17 +14118,17 @@
         <v>23</v>
       </c>
       <c r="AG9" s="91" t="str">
-        <f t="shared" ref="AG9:AG16" si="14">IF(VLOOKUP(AC9,DATA_IO,9)=0,"",VLOOKUP(AC9,DATA_IO,9))</f>
+        <f t="shared" ref="AG9:AG16" si="8">IF(VLOOKUP(AC9,DATA_IO,9)=0,"",VLOOKUP(AC9,DATA_IO,9))</f>
         <v/>
       </c>
       <c r="AH9" s="58" t="str">
-        <f t="shared" ref="AH9:AH16" si="15">IFERROR(AG9*BOOST_PRICE,"")</f>
+        <f t="shared" ref="AH9:AH16" si="9">IFERROR(AG9*BOOST_PRICE,"")</f>
         <v/>
       </c>
       <c r="AI9" s="62"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="329" t="s">
+      <c r="A10" s="368" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="246" t="s">
@@ -10390,11 +14139,11 @@
       </c>
       <c r="D10" s="198">
         <f>(C10-MIN(DATA_IO_OWNED_SMALL))/(MAX(DATA_IO_OWNED_SMALL)-MIN(DATA_IO_OWNED_SMALL))</f>
-        <v>0.63754646840148699</v>
+        <v>0.64822944103014335</v>
       </c>
       <c r="E10" s="195">
         <f>C10-MAX(DATA_IO_OWNED_SMALL)</f>
-        <v>-975</v>
+        <v>-1202</v>
       </c>
       <c r="F10" s="196">
         <f>VLOOKUP($AC$15,DATA_IO,5,TRUE)+VLOOKUP($AC$16,DATA_IO,5,TRUE)</f>
@@ -10405,7 +14154,7 @@
         <v>2860</v>
       </c>
       <c r="H10" s="197">
-        <f>'資料-迎擊'!$AQ$3*2</f>
+        <f>D迎擊!$AQ$3*2</f>
         <v>2860</v>
       </c>
       <c r="I10" s="195">
@@ -10422,11 +14171,11 @@
       </c>
       <c r="L10" s="198">
         <f>(K10-MIN(DATA_IO_EXTRA_EXCHANGED_SMALL))/(MAX(DATA_IO_EXTRA_EXCHANGED_SMALL)-MIN(DATA_IO_EXTRA_EXCHANGED_SMALL))</f>
-        <v>0.5135928026598866</v>
+        <v>0.57946253781811707</v>
       </c>
       <c r="M10" s="195">
         <f>K10-MAX(DATA_IO_EXTRA_EXCHANGED_SMALL)</f>
-        <v>-2487</v>
+        <v>-2363</v>
       </c>
       <c r="N10" s="195">
         <f t="shared" si="1"/>
@@ -10441,7 +14190,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="247">
-        <f t="shared" ref="Q10" si="16">IFERROR(ROUND(N10/$S$12,0),0)</f>
+        <f>IFERROR(ROUND(N10/$S$12,0),0)</f>
         <v>0</v>
       </c>
       <c r="R10" s="248">
@@ -10449,14 +14198,14 @@
         <v>0</v>
       </c>
       <c r="S10" s="249">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!Y:Y,'資料-迎擊'!AA:AA)/T$10,"")</f>
+        <f>IFERROR(SUMPRODUCT(D迎擊!Y:Y,D迎擊!AA:AA)/T$10,"")</f>
         <v>3.532258064516129</v>
       </c>
       <c r="T10" s="250">
-        <f>SUM('資料-迎擊'!AA:AA)</f>
+        <f>SUM(D迎擊!AA:AA)</f>
         <v>372</v>
       </c>
-      <c r="V10" s="323"/>
+      <c r="V10" s="378"/>
       <c r="W10" s="84">
         <v>30</v>
       </c>
@@ -10468,14 +14217,14 @@
         <v>23</v>
       </c>
       <c r="Z10" s="91" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA10" s="47" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AB10" s="324"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB10" s="379"/>
       <c r="AC10" s="84">
         <v>30</v>
       </c>
@@ -10488,17 +14237,17 @@
         <v>23</v>
       </c>
       <c r="AG10" s="91" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH10" s="58" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI10" s="62"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="330"/>
+      <c r="A11" s="369"/>
       <c r="B11" s="251" t="s">
         <v>107</v>
       </c>
@@ -10507,11 +14256,11 @@
       </c>
       <c r="D11" s="179">
         <f>(C11-MIN(DATA_IO_OWNED_BIG))/(MAX(DATA_IO_OWNED_BIG)-MIN(DATA_IO_OWNED_BIG))</f>
-        <v>0.46268656716417911</v>
+        <v>0.6581045172719221</v>
       </c>
       <c r="E11" s="176">
         <f>C11-MAX(DATA_IO_OWNED_BIG)</f>
-        <v>-504</v>
+        <v>-772</v>
       </c>
       <c r="F11" s="177">
         <f>VLOOKUP($AC$15,DATA_IO,6,TRUE)+VLOOKUP($AC$16,DATA_IO,6,TRUE)</f>
@@ -10522,7 +14271,7 @@
         <v>400</v>
       </c>
       <c r="H11" s="178">
-        <f>'資料-迎擊'!$AR$3*2</f>
+        <f>D迎擊!$AR$3*2</f>
         <v>400</v>
       </c>
       <c r="I11" s="176">
@@ -10539,11 +14288,11 @@
       </c>
       <c r="L11" s="179">
         <f>(K11-MIN(DATA_IO_EXTRA_EXCHANGED_BIG))/(MAX(DATA_IO_EXTRA_EXCHANGED_BIG)-MIN(DATA_IO_EXTRA_EXCHANGED_BIG))</f>
-        <v>0.49552163491863271</v>
+        <v>0.62244815621721949</v>
       </c>
       <c r="M11" s="176">
         <f>K11-MAX(DATA_IO_EXTRA_EXCHANGED_BIG)</f>
-        <v>-666.49999999999955</v>
+        <v>-779.83333333333303</v>
       </c>
       <c r="N11" s="176">
         <f t="shared" si="1"/>
@@ -10558,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="252">
-        <f t="shared" ref="Q11" si="17">IFERROR(ROUND(N11/$S$13,0),0)</f>
+        <f>IFERROR(ROUND(N11/$S$13,0),0)</f>
         <v>0</v>
       </c>
       <c r="R11" s="253">
@@ -10566,14 +14315,14 @@
         <v>0</v>
       </c>
       <c r="S11" s="254">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!AB:AB,'資料-迎擊'!AD:AD)/T$11,0)</f>
+        <f>IFERROR(SUMPRODUCT(D迎擊!AB:AB,D迎擊!AD:AD)/T$11,0)</f>
         <v>1.5056179775280898</v>
       </c>
       <c r="T11" s="255">
-        <f>SUM('資料-迎擊'!AD:AD)</f>
+        <f>SUM(D迎擊!AD:AD)</f>
         <v>89</v>
       </c>
-      <c r="V11" s="322" t="s">
+      <c r="V11" s="377" t="s">
         <v>10</v>
       </c>
       <c r="W11" s="85">
@@ -10587,14 +14336,14 @@
         <v>23</v>
       </c>
       <c r="Z11" s="92" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA11" s="45" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AB11" s="313" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB11" s="381" t="s">
         <v>7</v>
       </c>
       <c r="AC11" s="85">
@@ -10609,83 +14358,83 @@
         <v>23</v>
       </c>
       <c r="AG11" s="92" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH11" s="59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI11" s="62"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="335" t="s">
+      <c r="A12" s="356" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="256" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="257">
-        <f t="shared" ref="C12:N13" si="18">SUM(C2,C4,C6,C8,C10)</f>
-        <v>9308</v>
+        <f t="shared" ref="C12:N13" si="10">SUM(C2,C4,C6,C8,C10)</f>
+        <v>9195</v>
       </c>
       <c r="D12" s="258"/>
       <c r="E12" s="258"/>
       <c r="F12" s="196">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G12" s="197">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>22880</v>
       </c>
       <c r="H12" s="197">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>22880</v>
       </c>
       <c r="I12" s="259">
-        <f t="shared" si="18"/>
-        <v>9308</v>
+        <f t="shared" si="10"/>
+        <v>9195</v>
       </c>
       <c r="J12" s="259">
-        <f t="shared" si="18"/>
-        <v>35</v>
+        <f t="shared" si="10"/>
+        <v>34</v>
       </c>
       <c r="K12" s="258">
         <f>I12+I13*IO_EXCHANGE_BIG_TO_SMALL</f>
-        <v>38984</v>
+        <v>35004</v>
       </c>
       <c r="L12" s="258"/>
       <c r="M12" s="258"/>
       <c r="N12" s="260">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O12" s="199">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P12" s="317">
+      <c r="P12" s="363">
         <f>MAX(SUM(P2,P4,P6,P8,P10),SUM(P3,P5,P7,P9,P11),P14,P15,P16)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="317">
+      <c r="Q12" s="363">
         <f>MAX(SUM(Q2,Q4,Q6,Q8,Q10),SUM(Q3,Q5,Q7,Q9,Q11),P14,P15,P16)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="315">
+      <c r="R12" s="383">
         <f>MAX(SUM(R2,R4,R6,R8,R10),SUM(R3,R5,R7,R9,R11),R14,R15,R16)</f>
         <v>0</v>
       </c>
       <c r="S12" s="261">
         <f>(S2*T2+S4*T4+S6*T6+S8*T8+S10*T10) / T$12</f>
-        <v>3.5145389088895045</v>
+        <v>3.5144907535191829</v>
       </c>
       <c r="T12" s="262">
         <f>SUM(T2,T4,T6,T8,T10)</f>
-        <v>3611</v>
-      </c>
-      <c r="V12" s="322"/>
+        <v>3623</v>
+      </c>
+      <c r="V12" s="377"/>
       <c r="W12" s="85">
         <v>30</v>
       </c>
@@ -10697,14 +14446,14 @@
         <v>23</v>
       </c>
       <c r="Z12" s="92" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA12" s="45" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AB12" s="313"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB12" s="381"/>
       <c r="AC12" s="85">
         <v>30</v>
       </c>
@@ -10717,72 +14466,72 @@
         <v>23</v>
       </c>
       <c r="AG12" s="92" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH12" s="59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI12" s="62"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="336"/>
+      <c r="A13" s="357"/>
       <c r="B13" s="57" t="s">
         <v>107</v>
       </c>
       <c r="C13" s="187">
-        <f t="shared" si="18"/>
-        <v>9892</v>
+        <f t="shared" si="10"/>
+        <v>8603</v>
       </c>
       <c r="D13" s="188"/>
       <c r="E13" s="188"/>
       <c r="F13" s="184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G13" s="185">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>3200</v>
       </c>
       <c r="H13" s="185">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>3200</v>
       </c>
       <c r="I13" s="189">
-        <f t="shared" si="18"/>
-        <v>9892</v>
+        <f t="shared" si="10"/>
+        <v>8603</v>
       </c>
       <c r="J13" s="189">
-        <f t="shared" si="18"/>
-        <v>46</v>
+        <f t="shared" si="10"/>
+        <v>39</v>
       </c>
       <c r="K13" s="188">
         <f>I13+I12*IO_EXCHANGE_SMALL_TO_BIG</f>
-        <v>11443.333333333334</v>
+        <v>10135.5</v>
       </c>
       <c r="L13" s="188"/>
       <c r="M13" s="188"/>
       <c r="N13" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O13" s="186">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P13" s="318"/>
-      <c r="Q13" s="318"/>
-      <c r="R13" s="316"/>
+      <c r="P13" s="359"/>
+      <c r="Q13" s="359"/>
+      <c r="R13" s="384"/>
       <c r="S13" s="191">
         <f>(S3*T3+S5*T5+S7*T7+S9*T9+S11*T11) / T$13</f>
-        <v>1.5262267343485618</v>
+        <v>1.5223880597014925</v>
       </c>
       <c r="T13" s="263">
         <f>SUM(T3,T5,T7,T9,T11)</f>
-        <v>591</v>
-      </c>
-      <c r="V13" s="321" t="s">
+        <v>603</v>
+      </c>
+      <c r="V13" s="376" t="s">
         <v>5</v>
       </c>
       <c r="W13" s="86">
@@ -10796,14 +14545,14 @@
         <v>23</v>
       </c>
       <c r="Z13" s="93" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA13" s="44" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AB13" s="314" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB13" s="382" t="s">
         <v>4</v>
       </c>
       <c r="AC13" s="86">
@@ -10818,22 +14567,22 @@
         <v>23</v>
       </c>
       <c r="AG13" s="93" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH13" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI13" s="62"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="336"/>
+      <c r="A14" s="357"/>
       <c r="B14" s="57" t="s">
         <v>118</v>
       </c>
       <c r="C14" s="192">
-        <v>6811</v>
+        <v>7148</v>
       </c>
       <c r="D14" s="188"/>
       <c r="E14" s="188"/>
@@ -10846,12 +14595,12 @@
         <v>10400</v>
       </c>
       <c r="H14" s="185">
-        <f>'資料-迎擊'!$AP$3*16</f>
+        <f>D迎擊!$AP$3*16</f>
         <v>10400</v>
       </c>
       <c r="I14" s="189">
         <f>IF(F14-C14 &lt;= 0,ABS(F14-C14),"")</f>
-        <v>6811</v>
+        <v>7148</v>
       </c>
       <c r="J14" s="189"/>
       <c r="K14" s="188"/>
@@ -10865,24 +14614,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P14" s="318">
+      <c r="P14" s="359">
         <f>IFERROR(ROUND(N14/S14,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="318"/>
+      <c r="Q14" s="359"/>
       <c r="R14" s="193">
         <f>P14/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
       </c>
       <c r="S14" s="191">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!AE:AE,'資料-迎擊'!AK:AK)/T$14,"")</f>
-        <v>1.7191201353637902</v>
-      </c>
-      <c r="T14" s="339">
-        <f>SUM('資料-迎擊'!AK:AK)</f>
-        <v>591</v>
-      </c>
-      <c r="V14" s="321"/>
+        <f>IFERROR(SUMPRODUCT(D迎擊!AE:AE,D迎擊!AK:AK)/T$14,"")</f>
+        <v>1.7213930348258706</v>
+      </c>
+      <c r="T14" s="361">
+        <f>SUM(D迎擊!AK:AK)</f>
+        <v>603</v>
+      </c>
+      <c r="V14" s="376"/>
       <c r="W14" s="86">
         <v>30</v>
       </c>
@@ -10894,14 +14643,14 @@
         <v>23</v>
       </c>
       <c r="Z14" s="93" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA14" s="44" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AB14" s="314"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB14" s="382"/>
       <c r="AC14" s="86">
         <v>30</v>
       </c>
@@ -10914,22 +14663,22 @@
         <v>23</v>
       </c>
       <c r="AG14" s="93" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH14" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI14" s="62"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="336"/>
+      <c r="A15" s="357"/>
       <c r="B15" s="57" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="192">
-        <v>9500</v>
+        <v>9941</v>
       </c>
       <c r="D15" s="188"/>
       <c r="E15" s="188"/>
@@ -10942,12 +14691,12 @@
         <v>11440</v>
       </c>
       <c r="H15" s="185">
-        <f>'資料-迎擊'!$AO$3*16</f>
+        <f>D迎擊!$AO$3*16</f>
         <v>11440</v>
       </c>
       <c r="I15" s="189">
         <f>IF(F15-C15 &lt;= 0,ABS(F15-C15),"")</f>
-        <v>9500</v>
+        <v>9941</v>
       </c>
       <c r="J15" s="189"/>
       <c r="K15" s="188"/>
@@ -10961,21 +14710,21 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P15" s="318">
+      <c r="P15" s="359">
         <f>IFERROR(ROUND(N15/S15,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="318"/>
+      <c r="Q15" s="359"/>
       <c r="R15" s="193">
         <f>P15/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
       </c>
       <c r="S15" s="191">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!AG:AG,'資料-迎擊'!AK:AK)/T$14,"")</f>
-        <v>1.9120135363790187</v>
-      </c>
-      <c r="T15" s="339"/>
-      <c r="V15" s="320" t="s">
+        <f>IFERROR(SUMPRODUCT(D迎擊!AG:AG,D迎擊!AK:AK)/T$14,"")</f>
+        <v>1.9104477611940298</v>
+      </c>
+      <c r="T15" s="361"/>
+      <c r="V15" s="375" t="s">
         <v>3</v>
       </c>
       <c r="W15" s="87">
@@ -10989,14 +14738,14 @@
         <v>23</v>
       </c>
       <c r="Z15" s="94" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA15" s="43" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AB15" s="319" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB15" s="374" t="s">
         <v>2</v>
       </c>
       <c r="AC15" s="88">
@@ -11011,22 +14760,22 @@
         <v>23</v>
       </c>
       <c r="AG15" s="95" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH15" s="61" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI15" s="62"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="337"/>
+      <c r="A16" s="358"/>
       <c r="B16" s="264" t="s">
         <v>120</v>
       </c>
       <c r="C16" s="265">
-        <v>80228</v>
+        <v>81595</v>
       </c>
       <c r="D16" s="266"/>
       <c r="E16" s="266"/>
@@ -11039,12 +14788,12 @@
         <v>38080</v>
       </c>
       <c r="H16" s="178">
-        <f>'資料-迎擊'!$AN$3*16</f>
+        <f>D迎擊!$AN$3*16</f>
         <v>38080</v>
       </c>
       <c r="I16" s="267">
         <f>IF(F16-C16 &lt;= 0,ABS(F16-C16),"")</f>
-        <v>80228</v>
+        <v>81595</v>
       </c>
       <c r="J16" s="267"/>
       <c r="K16" s="266"/>
@@ -11058,21 +14807,21 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P16" s="338">
+      <c r="P16" s="360">
         <f>IFERROR(ROUND(N16/S16,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="338"/>
+      <c r="Q16" s="360"/>
       <c r="R16" s="269">
         <f>Q16/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
       </c>
       <c r="S16" s="270">
-        <f>IFERROR(SUMPRODUCT('資料-迎擊'!AI:AI,'資料-迎擊'!AK:AK)/T$14,"")</f>
-        <v>12.343485617597294</v>
-      </c>
-      <c r="T16" s="340"/>
-      <c r="V16" s="320"/>
+        <f>IFERROR(SUMPRODUCT(D迎擊!AI:AI,D迎擊!AK:AK)/T$14,"")</f>
+        <v>12.344941956882256</v>
+      </c>
+      <c r="T16" s="362"/>
+      <c r="V16" s="375"/>
       <c r="W16" s="87">
         <v>30</v>
       </c>
@@ -11084,14 +14833,14 @@
         <v>23</v>
       </c>
       <c r="Z16" s="94" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA16" s="43" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AB16" s="319"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB16" s="374"/>
       <c r="AC16" s="88">
         <v>30</v>
       </c>
@@ -11104,38 +14853,38 @@
         <v>23</v>
       </c>
       <c r="AG16" s="95" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH16" s="61" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="T14:T16"/>
     <mergeCell ref="P12:P13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="Q12:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="O3">
     <cfRule type="dataBar" priority="23">
@@ -11395,8 +15144,8 @@
   </sheetPr>
   <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI17:AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11446,102 +15195,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="392" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="392"/>
+      <c r="C1" s="386" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="346" t="s">
+      <c r="D1" s="386" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346" t="s">
+      <c r="E1" s="386"/>
+      <c r="F1" s="386" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="352" t="s">
+      <c r="G1" s="399" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="352"/>
-      <c r="I1" s="347" t="s">
+      <c r="H1" s="399"/>
+      <c r="I1" s="385" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="347" t="s">
+      <c r="J1" s="385" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347" t="s">
+      <c r="K1" s="385"/>
+      <c r="L1" s="385" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="351" t="s">
+      <c r="M1" s="398" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="351"/>
-      <c r="O1" s="348" t="s">
+      <c r="N1" s="398"/>
+      <c r="O1" s="397" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="348" t="s">
+      <c r="P1" s="397" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="348"/>
-      <c r="R1" s="348" t="s">
+      <c r="Q1" s="397"/>
+      <c r="R1" s="397" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="355" t="s">
+      <c r="S1" s="391" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="355"/>
-      <c r="U1" s="349" t="s">
+      <c r="T1" s="391"/>
+      <c r="U1" s="390" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="349" t="s">
+      <c r="V1" s="390" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="349"/>
-      <c r="X1" s="349" t="s">
+      <c r="W1" s="390"/>
+      <c r="X1" s="390" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="354" t="s">
+      <c r="Y1" s="389" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="354"/>
-      <c r="AA1" s="350" t="s">
+      <c r="Z1" s="389"/>
+      <c r="AA1" s="388" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="350" t="s">
+      <c r="AB1" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="350"/>
-      <c r="AD1" s="350" t="s">
+      <c r="AC1" s="388"/>
+      <c r="AD1" s="388" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="344" t="s">
+      <c r="AE1" s="395" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" s="344"/>
-      <c r="AG1" s="345" t="s">
+      <c r="AF1" s="395"/>
+      <c r="AG1" s="396" t="s">
         <v>119</v>
       </c>
-      <c r="AH1" s="345"/>
-      <c r="AI1" s="342" t="s">
+      <c r="AH1" s="396"/>
+      <c r="AI1" s="393" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="342"/>
-      <c r="AK1" s="343" t="s">
+      <c r="AJ1" s="393"/>
+      <c r="AK1" s="394" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="353" t="s">
+      <c r="AM1" s="387" t="s">
         <v>71</v>
       </c>
-      <c r="AN1" s="353"/>
-      <c r="AO1" s="353"/>
-      <c r="AP1" s="353"/>
-      <c r="AQ1" s="353"/>
-      <c r="AR1" s="353"/>
-      <c r="AS1" s="353"/>
-      <c r="AT1" s="353"/>
-      <c r="AU1" s="353"/>
+      <c r="AN1" s="387"/>
+      <c r="AO1" s="387"/>
+      <c r="AP1" s="387"/>
+      <c r="AQ1" s="387"/>
+      <c r="AR1" s="387"/>
+      <c r="AS1" s="387"/>
+      <c r="AT1" s="387"/>
+      <c r="AU1" s="387"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="150" t="s">
@@ -11550,70 +15299,70 @@
       <c r="B2" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="346"/>
+      <c r="C2" s="386"/>
       <c r="D2" s="149" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="346"/>
+      <c r="F2" s="386"/>
       <c r="G2" s="130" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="347"/>
+      <c r="I2" s="385"/>
       <c r="J2" s="148" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="347"/>
+      <c r="L2" s="385"/>
       <c r="M2" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="348"/>
+      <c r="O2" s="397"/>
       <c r="P2" s="131" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="348"/>
+      <c r="R2" s="397"/>
       <c r="S2" s="132" t="s">
         <v>32</v>
       </c>
       <c r="T2" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="U2" s="349"/>
+      <c r="U2" s="390"/>
       <c r="V2" s="132" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="X2" s="349"/>
+      <c r="X2" s="390"/>
       <c r="Y2" s="133" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" s="350"/>
+      <c r="AA2" s="388"/>
       <c r="AB2" s="133" t="s">
         <v>32</v>
       </c>
       <c r="AC2" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="AD2" s="350"/>
+      <c r="AD2" s="388"/>
       <c r="AE2" s="136" t="s">
         <v>32</v>
       </c>
@@ -11632,7 +15381,7 @@
       <c r="AJ2" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="AK2" s="343"/>
+      <c r="AK2" s="394"/>
       <c r="AM2" s="62" t="s">
         <v>19</v>
       </c>
@@ -11684,7 +15433,7 @@
         <v>328</v>
       </c>
       <c r="M3" s="66">
-        <f t="shared" ref="M3:M8" si="1">N3/O3</f>
+        <f t="shared" ref="M3:M9" si="1">N3/O3</f>
         <v>3.5833333333333335</v>
       </c>
       <c r="N3" s="145">
@@ -11692,6 +15441,16 @@
       </c>
       <c r="O3" s="78">
         <v>48</v>
+      </c>
+      <c r="P3" s="66">
+        <f>Q3/R3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q3" s="145">
+        <v>8</v>
+      </c>
+      <c r="R3" s="78">
+        <v>6</v>
       </c>
       <c r="S3" s="67">
         <f t="shared" ref="S3:S10" si="2">T3/U3</f>
@@ -11734,21 +15493,21 @@
         <v>50</v>
       </c>
       <c r="AE3" s="151">
-        <f>AF3/AK3</f>
+        <f t="shared" ref="AE3:AE9" si="4">AF3/AK3</f>
         <v>1.68</v>
       </c>
       <c r="AF3" s="158">
         <v>84</v>
       </c>
       <c r="AG3" s="138">
-        <f>AH3/AK3</f>
+        <f t="shared" ref="AG3:AG9" si="5">AH3/AK3</f>
         <v>1.96</v>
       </c>
       <c r="AH3" s="160">
         <v>98</v>
       </c>
       <c r="AI3" s="141">
-        <f>AJ3/AK3</f>
+        <f t="shared" ref="AI3:AI9" si="6">AJ3/AK3</f>
         <v>12.24</v>
       </c>
       <c r="AJ3" s="162">
@@ -11817,6 +15576,16 @@
       <c r="O4" s="78">
         <v>27</v>
       </c>
+      <c r="P4" s="66">
+        <f>Q4/R4</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q4" s="145">
+        <v>8</v>
+      </c>
+      <c r="R4" s="78">
+        <v>6</v>
+      </c>
       <c r="S4" s="67">
         <f t="shared" si="2"/>
         <v>3.4966442953020134</v>
@@ -11858,28 +15627,28 @@
         <v>1</v>
       </c>
       <c r="AE4" s="151">
-        <f>AF4/AK4</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AF4" s="158">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AG4" s="138">
-        <f>AH4/AK4</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AH4" s="160">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AI4" s="141">
-        <f>AJ4/AK4</f>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>12.5</v>
       </c>
       <c r="AJ4" s="162">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="AK4" s="172">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AM4" s="62">
         <v>2</v>
@@ -11972,21 +15741,21 @@
         <v>38</v>
       </c>
       <c r="AE5" s="151">
-        <f t="shared" ref="AE5:AE7" si="4">AF5/AK5</f>
+        <f t="shared" si="4"/>
         <v>1.7894736842105263</v>
       </c>
       <c r="AF5" s="158">
         <v>68</v>
       </c>
       <c r="AG5" s="138">
-        <f>AH5/AK5</f>
+        <f t="shared" si="5"/>
         <v>1.8947368421052631</v>
       </c>
       <c r="AH5" s="160">
         <v>72</v>
       </c>
       <c r="AI5" s="141">
-        <f>AJ5/AK5</f>
+        <f t="shared" si="6"/>
         <v>12.315789473684211</v>
       </c>
       <c r="AJ5" s="162">
@@ -12079,14 +15848,14 @@
         <v>250</v>
       </c>
       <c r="AG6" s="138">
-        <f>AH6/AK6</f>
+        <f t="shared" si="5"/>
         <v>1.8630136986301369</v>
       </c>
       <c r="AH6" s="160">
         <v>272</v>
       </c>
       <c r="AI6" s="141">
-        <f>AJ6/AK6</f>
+        <f t="shared" si="6"/>
         <v>12.191780821917808</v>
       </c>
       <c r="AJ6" s="162">
@@ -12177,14 +15946,14 @@
         <v>612</v>
       </c>
       <c r="AG7" s="138">
-        <f>AH7/AK7</f>
+        <f t="shared" si="5"/>
         <v>1.9269662921348314</v>
       </c>
       <c r="AH7" s="160">
         <v>686</v>
       </c>
       <c r="AI7" s="141">
-        <f>AJ7/AK7</f>
+        <f t="shared" si="6"/>
         <v>12.421348314606741</v>
       </c>
       <c r="AJ7" s="162">
@@ -12238,13 +16007,13 @@
       </c>
       <c r="M8" s="66">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="N8" s="145">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="O8" s="78">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S8" s="67">
         <f t="shared" si="2"/>
@@ -12266,11 +16035,29 @@
       <c r="AA8" s="80">
         <v>50</v>
       </c>
-      <c r="AG8" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI8" s="141" t="s">
-        <v>109</v>
+      <c r="AE8" s="151">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AF8" s="158">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="138">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AH8" s="160">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="141">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AJ8" s="162">
+        <v>13</v>
+      </c>
+      <c r="AK8" s="172">
+        <v>1</v>
       </c>
       <c r="AM8" s="62">
         <v>6</v>
@@ -12315,8 +16102,15 @@
       <c r="I9" s="77">
         <v>40</v>
       </c>
-      <c r="M9" s="66" t="s">
-        <v>109</v>
+      <c r="M9" s="66">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N9" s="145">
+        <v>20</v>
+      </c>
+      <c r="O9" s="78">
+        <v>6</v>
       </c>
       <c r="S9" s="67">
         <f t="shared" si="2"/>
@@ -12338,11 +16132,29 @@
       <c r="AA9" s="80">
         <v>1</v>
       </c>
-      <c r="AG9" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI9" s="141" t="s">
-        <v>109</v>
+      <c r="AE9" s="151">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AF9" s="158">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="138">
+        <f t="shared" si="5"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="AH9" s="160">
+        <v>11</v>
+      </c>
+      <c r="AI9" s="141">
+        <f t="shared" si="6"/>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="AJ9" s="162">
+        <v>74</v>
+      </c>
+      <c r="AK9" s="172">
+        <v>6</v>
       </c>
       <c r="AM9" s="62">
         <v>7</v>
@@ -13494,15 +17306,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AM1:AU1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AK2"/>
@@ -13519,6 +17322,15 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AM1:AU1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13532,7 +17344,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13551,15 +17363,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="402" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="358"/>
-      <c r="C1" s="358"/>
-      <c r="D1" s="358"/>
-      <c r="E1" s="358"/>
-      <c r="F1" s="358"/>
-      <c r="G1" s="358"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
       <c r="J1" s="24"/>
       <c r="K1" s="23" t="s">
         <v>31</v>
@@ -13581,19 +17393,19 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="361" t="s">
+      <c r="A2" s="405" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="361"/>
-      <c r="C2" s="362" t="s">
+      <c r="B2" s="405"/>
+      <c r="C2" s="406" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="362"/>
-      <c r="E2" s="360" t="s">
+      <c r="D2" s="406"/>
+      <c r="E2" s="404" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
       <c r="J2" s="23" t="s">
         <v>57</v>
       </c>
@@ -13622,7 +17434,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="101">
-        <v>7672</v>
+        <v>1635</v>
       </c>
       <c r="C3" s="102" t="s">
         <v>121</v>
@@ -13633,11 +17445,11 @@
       <c r="E3" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="356">
+      <c r="F3" s="400">
         <f>_xlfn.FLOOR.MATH(B7/MAX(DATA_DRAG_ACCU_EXP))</f>
         <v>8</v>
       </c>
-      <c r="G3" s="356"/>
+      <c r="G3" s="400"/>
       <c r="J3" s="23" t="s">
         <v>58</v>
       </c>
@@ -13666,7 +17478,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="101">
-        <v>2038</v>
+        <v>3102</v>
       </c>
       <c r="C4" s="102" t="s">
         <v>122</v>
@@ -13677,11 +17489,11 @@
       <c r="E4" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="356">
+      <c r="F4" s="400">
         <f>MATCH(B10,DATA_DRAG_ACCU_EXP,0)</f>
-        <v>97</v>
-      </c>
-      <c r="G4" s="356"/>
+        <v>56</v>
+      </c>
+      <c r="G4" s="400"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -13695,7 +17507,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="101">
-        <v>2590</v>
+        <v>1945</v>
       </c>
       <c r="C5" s="127" t="s">
         <v>70</v>
@@ -13706,11 +17518,11 @@
       <c r="E5" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="356">
+      <c r="F5" s="400">
         <f>INDEX(DATA_DRAG_LV_EXP,F4)-(B9-B10)</f>
-        <v>36940</v>
-      </c>
-      <c r="G5" s="356"/>
+        <v>6790</v>
+      </c>
+      <c r="G5" s="400"/>
       <c r="J5" s="22" t="s">
         <v>76</v>
       </c>
@@ -13722,11 +17534,11 @@
       <c r="M5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="359">
+      <c r="N5" s="403">
         <f>IF(K6&gt;0,K5/K6,"")</f>
         <v>2478.125</v>
       </c>
-      <c r="O5" s="359"/>
+      <c r="O5" s="403"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13735,13 +17547,13 @@
       </c>
       <c r="B6" s="165">
         <f>B3*DRAGEXP_S+B4*DRAGEXP_M+B5*DRAGEXP_L</f>
-        <v>12253800</v>
+        <v>10154750</v>
       </c>
       <c r="C6" s="102" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="103">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>29</v>
@@ -13762,19 +17574,17 @@
       </c>
       <c r="B7" s="165">
         <f>B6-B8</f>
-        <v>11046380</v>
+        <v>10154510</v>
       </c>
       <c r="C7" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="103">
-        <v>32600</v>
-      </c>
-      <c r="E7" s="309" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="350" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
+      <c r="F7" s="350"/>
+      <c r="G7" s="350"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -13789,12 +17599,12 @@
       </c>
       <c r="B8" s="129">
         <f>D3*DRAGON_EXP_60+D4*DRAGON_EXP_80+D5*DRAGON_EXP_100+INDEX(DATA_DRAG_ACCU_EXP,D6)+(INDEX(DATA_DRAG_LV_EXP,D6)-D7)</f>
-        <v>1207420</v>
-      </c>
-      <c r="E8" s="309" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="350" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="357">
+      <c r="F8" s="401">
         <f>IF(G9 &gt; 0,SUM(DATA_DRAGON_EXP)/G9,0)</f>
         <v>2673.9277652370201</v>
       </c>
@@ -13812,10 +17622,10 @@
       </c>
       <c r="B9" s="129">
         <f>MOD(B7,DRAGON_EXP_100)</f>
-        <v>1126220</v>
-      </c>
-      <c r="E9" s="309"/>
-      <c r="F9" s="357"/>
+        <v>234350</v>
+      </c>
+      <c r="E9" s="350"/>
+      <c r="F9" s="401"/>
       <c r="G9" s="96">
         <f>SUM(DATA_DRAGON_PLAYS)</f>
         <v>443</v>
@@ -13831,7 +17641,7 @@
       </c>
       <c r="B10" s="129">
         <f>SMALL(DATA_DRAG_ACCU_EXP,COUNTIF(DATA_DRAG_ACCU_EXP,"&lt;"&amp;B9))</f>
-        <v>1126080</v>
+        <v>229800</v>
       </c>
       <c r="E10" s="126">
         <v>60</v>
@@ -15535,16 +19345,16 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.5703125" style="39"/>
-    <col min="3" max="3" width="9.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="39"/>
-    <col min="5" max="7" width="8.5703125" style="273"/>
+    <col min="1" max="1" width="8.5703125" style="39"/>
+    <col min="2" max="4" width="9.28515625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="273" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" style="273"/>
     <col min="8" max="16384" width="8.5703125" style="39"/>
   </cols>
   <sheetData>
@@ -15561,7 +19371,7 @@
       <c r="E1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="363" t="s">
+      <c r="F1" s="407" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="24"/>
@@ -15598,27 +19408,27 @@
       <c r="E2" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="363"/>
+      <c r="F2" s="407"/>
       <c r="H2" s="23" t="s">
         <v>57</v>
       </c>
       <c r="I2" s="168">
-        <v>126399</v>
+        <v>90451</v>
       </c>
       <c r="J2" s="168">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="168">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L2" s="168">
-        <v>430</v>
+        <v>334</v>
       </c>
       <c r="M2" s="168">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="N2" s="168">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15642,29 +19452,29 @@
         <v>5.9545454545454541</v>
       </c>
       <c r="F3" s="272">
-        <f>VOID_FIRE_GOLEM_GAMES</f>
+        <f>IF(VOID_FIRE_GOLEM_GAMES&gt;0,VOID_FIRE_GOLEM_GAMES,"")</f>
         <v>131</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>58</v>
       </c>
       <c r="I3" s="168">
-        <v>126399</v>
+        <v>90451</v>
       </c>
       <c r="J3" s="168">
+        <v>0</v>
+      </c>
+      <c r="K3" s="168">
+        <v>24</v>
+      </c>
+      <c r="L3" s="168">
+        <v>334</v>
+      </c>
+      <c r="M3" s="168">
+        <v>128</v>
+      </c>
+      <c r="N3" s="168">
         <v>6</v>
-      </c>
-      <c r="K3" s="168">
-        <v>1</v>
-      </c>
-      <c r="L3" s="168">
-        <v>435</v>
-      </c>
-      <c r="M3" s="168">
-        <v>13</v>
-      </c>
-      <c r="N3" s="168">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15687,9 +19497,9 @@
         <f>IF(VOID_FIRE_GHOST_SPEC&gt;0,F4/VOID_FIRE_GHOST_SPEC,"")</f>
         <v/>
       </c>
-      <c r="F4" s="272">
-        <f>VOID_FIRE_GHOST_GAMES</f>
-        <v>0</v>
+      <c r="F4" s="272" t="str">
+        <f>IF(VOID_FIRE_GHOST_GAMES&gt;0,VOID_FIRE_GHOST_GAMES,"")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15712,9 +19522,9 @@
         <f>IF(VOID_FIRE_AGNI_SPEC&gt;0,F5/VOID_FIRE_AGNI_SPEC,"")</f>
         <v/>
       </c>
-      <c r="F5" s="272">
-        <f>VOID_FIRE_AGNI_GAMES</f>
-        <v>0</v>
+      <c r="F5" s="272" t="str">
+        <f>IF(VOID_FIRE_AGNI_GAMES&gt;0,VOID_FIRE_AGNI_GAMES,"")</f>
+        <v/>
       </c>
       <c r="H5" s="39" t="s">
         <v>29</v>
@@ -15740,25 +19550,25 @@
         <f>IF(VOID_WATER_HERMIT_GOLD&gt;0,F6/VOID_FIRE_GOLEM_GOLD,"")</f>
         <v/>
       </c>
-      <c r="C6" s="304" t="str">
+      <c r="C6" s="304">
         <f>IF(VOID_WATER_HERMIT_SILVER&gt;0,VOID_WATER_HERMIT_SILVER/F6,"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="304" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="D6" s="304">
         <f>IF(VOID_WATER_HERMIT_SILVER2&gt;0,VOID_WATER_HERMIT_SILVER2/F6,"")</f>
-        <v/>
-      </c>
-      <c r="E6" s="305" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="305">
         <f>IF(VOID_WATER_HERMIT_SPEC&gt;0,F6/VOID_WATER_HERMIT_SPEC,"")</f>
-        <v/>
+        <v>2.5</v>
       </c>
       <c r="F6" s="272">
-        <f>VOID_WATER_HERMIT_GAMES</f>
-        <v>0</v>
+        <f>IF(VOID_WATER_HERMIT_GAMES&gt;0,VOID_WATER_HERMIT_GAMES,"")</f>
+        <v>10</v>
       </c>
       <c r="H6" s="20">
         <f>(I2-I3)/WINGS_RECOVER_DIAMS*6 + (J2-J3)/WINGS_CONSUME_VOID</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>79</v>
@@ -15769,11 +19579,11 @@
       </c>
       <c r="L6" s="20">
         <f>L3-L2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="20">
         <f>M3-M2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="20">
         <f>N3-N2</f>
@@ -15801,7 +19611,7 @@
         <v>16.333333333333332</v>
       </c>
       <c r="F7" s="272">
-        <f>VOID_WIND_WYVERN_GAMES</f>
+        <f>IF(VOID_WIND_WYVERN_GAMES&gt;0,VOID_WIND_WYVERN_GAMES,"")</f>
         <v>49</v>
       </c>
       <c r="J7" s="39" t="s">
@@ -15813,11 +19623,11 @@
       </c>
       <c r="L7" s="20">
         <f>IFERROR(L6/$H$6,"")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M7" s="20">
         <f>IFERROR(M6/$H$6,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="20">
         <f>IFERROR(N6/$H$6,"")</f>
@@ -15845,7 +19655,7 @@
         <v>21.5</v>
       </c>
       <c r="F8" s="272">
-        <f>VOID_LIGHT_MUSH_GAMES</f>
+        <f>IF(VOID_LIGHT_MUSH_GAMES&gt;0,VOID_LIGHT_MUSH_GAMES,"")</f>
         <v>43</v>
       </c>
     </row>
@@ -15870,7 +19680,7 @@
         <v>28.75</v>
       </c>
       <c r="F9" s="272">
-        <f>VOID_DARK_MTCORE_GAMES</f>
+        <f>IF(VOID_DARK_MTCORE_GAMES&gt;0,VOID_DARK_MTCORE_GAMES,"")</f>
         <v>115</v>
       </c>
       <c r="G9" s="272"/>
@@ -15918,7 +19728,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="272">
-        <f>VOID_DARK_GOLEM_GAMES</f>
+        <f>IF(VOID_DARK_GOLEM_GAMES&gt;0,VOID_DARK_GOLEM_GAMES,"")</f>
         <v>8</v>
       </c>
       <c r="G10" s="272"/>
@@ -15954,11 +19764,25 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="272"/>
-      <c r="E12" s="272"/>
+      <c r="B12" s="306">
+        <f>$F$12/(VOID_FIRE_GOLEM_GOLD+VOID_FIRE_GHOST_GOLD+VOID_FIRE_AGNI_GOLD+VOID_WATER_HERMIT_GOLD+VOID_WIND_WYVERN_GOLD+VOID_LIGHT_MUSH_GOLD+VOID_DARK_MTCORE_GOLD+VOID_DARK_GOLEM_GOLD)</f>
+        <v>16.952380952380953</v>
+      </c>
+      <c r="C12" s="306">
+        <f>(VOID_FIRE_GOLEM_SILVER+VOID_FIRE_GHOST_SILVER+VOID_FIRE_AGNI_SILVER+VOID_WATER_HERMIT_SILVER+VOID_WIND_WYVERN_SILVER+VOID_LIGHT_MUSH_SILVER+VOID_DARK_MTCORE_SILVER+VOID_DARK_GOLEM_SILVER)/$F$12</f>
+        <v>2.3960674157303372</v>
+      </c>
+      <c r="D12" s="306">
+        <f>(VOID_FIRE_GOLEM_SILVER2+VOID_FIRE_GHOST_SILVER2+VOID_FIRE_AGNI_SILVER2+VOID_WATER_HERMIT_SILVER2+VOID_WIND_WYVERN_SILVER2+VOID_LIGHT_MUSH_SILVER2+VOID_DARK_MTCORE_SILVER2+VOID_DARK_GOLEM_SILVER2)/$F$12</f>
+        <v>1.6853932584269662</v>
+      </c>
+      <c r="E12" s="306">
+        <f>$F$12/(VOID_FIRE_GOLEM_SPEC+VOID_FIRE_GHOST_SPEC+VOID_FIRE_AGNI_SPEC+VOID_WATER_HERMIT_SPEC+VOID_WIND_WYVERN_SPEC+VOID_LIGHT_MUSH_SPEC+VOID_DARK_MTCORE_SPEC+VOID_DARK_GOLEM_SPEC)</f>
+        <v>9.8888888888888893</v>
+      </c>
       <c r="F12" s="96">
         <f>SUM(F3:F11)</f>
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="G12" s="272"/>
       <c r="H12" s="280" t="s">
@@ -16315,8 +20139,8 @@
   </sheetPr>
   <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V19" sqref="U19:V20"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16349,62 +20173,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="271" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="367" t="s">
+      <c r="A1" s="411" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="367" t="s">
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="413"/>
+      <c r="F1" s="411" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="369"/>
-      <c r="K1" s="367" t="s">
+      <c r="G1" s="412"/>
+      <c r="H1" s="412"/>
+      <c r="I1" s="412"/>
+      <c r="J1" s="413"/>
+      <c r="K1" s="411" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
-      <c r="O1" s="369"/>
-      <c r="P1" s="376" t="s">
+      <c r="L1" s="412"/>
+      <c r="M1" s="412"/>
+      <c r="N1" s="412"/>
+      <c r="O1" s="413"/>
+      <c r="P1" s="420" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="377"/>
-      <c r="R1" s="377"/>
-      <c r="S1" s="377"/>
-      <c r="T1" s="378"/>
-      <c r="U1" s="373" t="s">
+      <c r="Q1" s="421"/>
+      <c r="R1" s="421"/>
+      <c r="S1" s="421"/>
+      <c r="T1" s="422"/>
+      <c r="U1" s="417" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="374"/>
-      <c r="W1" s="374"/>
-      <c r="X1" s="374"/>
-      <c r="Y1" s="375"/>
-      <c r="Z1" s="370" t="s">
+      <c r="V1" s="418"/>
+      <c r="W1" s="418"/>
+      <c r="X1" s="418"/>
+      <c r="Y1" s="419"/>
+      <c r="Z1" s="414" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="371"/>
-      <c r="AB1" s="371"/>
-      <c r="AC1" s="371"/>
-      <c r="AD1" s="372"/>
-      <c r="AE1" s="364" t="s">
+      <c r="AA1" s="415"/>
+      <c r="AB1" s="415"/>
+      <c r="AC1" s="415"/>
+      <c r="AD1" s="416"/>
+      <c r="AE1" s="408" t="s">
         <v>104</v>
       </c>
-      <c r="AF1" s="365"/>
-      <c r="AG1" s="365"/>
-      <c r="AH1" s="365"/>
-      <c r="AI1" s="366"/>
-      <c r="AJ1" s="364" t="s">
+      <c r="AF1" s="409"/>
+      <c r="AG1" s="409"/>
+      <c r="AH1" s="409"/>
+      <c r="AI1" s="410"/>
+      <c r="AJ1" s="408" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="365"/>
-      <c r="AL1" s="365"/>
-      <c r="AM1" s="365"/>
-      <c r="AN1" s="366"/>
+      <c r="AK1" s="409"/>
+      <c r="AL1" s="409"/>
+      <c r="AM1" s="409"/>
+      <c r="AN1" s="410"/>
     </row>
     <row r="2" spans="1:40" s="271" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="279" t="s">
@@ -16544,6 +20368,21 @@
       <c r="E3" s="283">
         <v>3</v>
       </c>
+      <c r="P3" s="287">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="277">
+        <v>0</v>
+      </c>
+      <c r="R3" s="277">
+        <v>8</v>
+      </c>
+      <c r="S3" s="277">
+        <v>12</v>
+      </c>
+      <c r="T3" s="288">
+        <v>4</v>
+      </c>
       <c r="U3" s="292">
         <v>21</v>
       </c>
@@ -16621,6 +20460,21 @@
       <c r="E4" s="283">
         <v>15</v>
       </c>
+      <c r="P4" s="287">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="277">
+        <v>0</v>
+      </c>
+      <c r="R4" s="277">
+        <v>13</v>
+      </c>
+      <c r="S4" s="277">
+        <v>21</v>
+      </c>
+      <c r="T4" s="288">
+        <v>0</v>
+      </c>
       <c r="U4" s="292">
         <v>17</v>
       </c>
@@ -16730,6 +20584,8 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="307"/>
+      <c r="B6" s="307"/>
       <c r="AE6" s="302">
         <v>30</v>
       </c>
@@ -16747,7 +20603,8 @@
       </c>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="282"/>
+      <c r="A7" s="307"/>
+      <c r="B7" s="307"/>
       <c r="AE7" s="302">
         <v>1</v>
       </c>
@@ -16781,1311 +20638,394 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CF0C7A-867C-4937-8E37-8415D5B411C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59991623-F3F9-4D5F-BC15-FCC9FC0B4272}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="62"/>
-    <col min="2" max="6" width="6.85546875" style="62" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="62" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" style="62" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="62" customWidth="1"/>
-    <col min="10" max="14" width="4.7109375" style="62" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="70" customWidth="1"/>
-    <col min="16" max="20" width="4.7109375" style="62" customWidth="1"/>
-    <col min="21" max="23" width="23.7109375" style="62" customWidth="1"/>
-    <col min="24" max="16384" width="8.5703125" style="62"/>
+    <col min="1" max="2" width="9.28515625" style="324"/>
+    <col min="3" max="3" width="2.140625" style="340" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" style="324"/>
+    <col min="6" max="6" width="2.28515625" style="324" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="324" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" style="324" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" style="324" customWidth="1"/>
+    <col min="11" max="16384" width="9.28515625" style="324"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="309" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="385" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="385"/>
-      <c r="M1" s="385" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="385"/>
-      <c r="O1" s="384" t="s">
+    <row r="1" spans="1:10" s="320" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="397" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="397"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="423" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="423"/>
+      <c r="G1" s="324"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="324"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="320"/>
+      <c r="B2" s="320" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="338"/>
+      <c r="D2" s="320" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="320" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="348" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="348" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="320" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="323" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="335" t="str">
+        <f>IFERROR(CLOVER_EXP_GAMES/CLOVER_EXP_SUM,"")</f>
+        <v/>
+      </c>
+      <c r="C3" s="339"/>
+      <c r="D3" s="331" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="141">
+        <f>IFERROR(TALON_R3_TALON/TALON_R3_CLOVER,"")</f>
+        <v>0.9932432432432432</v>
+      </c>
+      <c r="G3" s="331" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="331">
+        <f>IFERROR(_xlfn.FLOOR.MATH($E$7+$E3*$B$7),"")</f>
+        <v>472</v>
+      </c>
+      <c r="I3" s="331">
+        <f>IFERROR($I$23-H3,"")</f>
+        <v>307</v>
+      </c>
+      <c r="J3" s="325">
+        <f>IFERROR(IF(H3/$I$23&gt;1,1,H3/$I$23),"")</f>
+        <v>0.60590500641848521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="336">
+        <f>IFERROR(CLOVER_RUBY_GAMES/CLOVER_RUBY_SUM,"")</f>
+        <v>10.85</v>
+      </c>
+      <c r="C4" s="339"/>
+      <c r="D4" s="332" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="333">
+        <f>IFERROR(TALON_R4_TALON/TALON_R4_CLOVER,"")</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G4" s="332" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="332">
+        <f>IFERROR(_xlfn.FLOOR.MATH($E$7+$E4*$B$7),"")</f>
+        <v>515</v>
+      </c>
+      <c r="I4" s="332">
+        <f>IFERROR($I$23-H4,"")</f>
+        <v>264</v>
+      </c>
+      <c r="J4" s="325">
+        <f>IFERROR(IF(H4/$I$23&gt;1,1,H4/$I$23),"")</f>
+        <v>0.6611039794608472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="337" t="str">
+        <f>IFERROR(CLOVER_RUIN_GAMES/CLOVER_RUIN_SUM,"")</f>
+        <v/>
+      </c>
+      <c r="C5" s="339"/>
+      <c r="D5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="334" t="str">
+        <f>IFERROR(TALON_R5_TALON/TALON_R5_CLOVER,"")</f>
+        <v/>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="26" t="str">
+        <f>IFERROR(_xlfn.FLOOR.MATH($E$7+$E5*$B$7),"")</f>
+        <v/>
+      </c>
+      <c r="I5" s="26" t="str">
+        <f>IFERROR($I$23-H5,"")</f>
+        <v/>
+      </c>
+      <c r="J5" s="325" t="str">
+        <f>IFERROR(IF(H5/$I$23&gt;1,1,H5/$I$23),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="324" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="163">
+        <v>127</v>
+      </c>
+      <c r="D7" s="324" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="163">
+        <v>346</v>
+      </c>
+      <c r="G7" s="320"/>
+      <c r="H7" s="320" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="349" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="320" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="322" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="343">
+        <v>12</v>
+      </c>
+      <c r="I8" s="321">
+        <f>IF(ISNUMBER(H8),INDEX(DRACOLITH_TALON,H8),"")</f>
+        <v>69</v>
+      </c>
+      <c r="J8" s="325">
+        <f>IFERROR((DRACOLITH_TALON_MAX-I8)/DRACOLITH_TALON_MAX,"")</f>
+        <v>0.26595744680851063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="344">
+        <v>20</v>
+      </c>
+      <c r="I9" s="342">
+        <f>IF(ISNUMBER(H9),INDEX(DRACOLITH_TALON,H9),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="325">
+        <f>IFERROR((DRACOLITH_TALON_MAX-I9)/DRACOLITH_TALON_MAX,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="345">
+        <v>20</v>
+      </c>
+      <c r="I10" s="341">
+        <f>IF(ISNUMBER(H10),INDEX(DRACOLITH_TALON,H10),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="325">
+        <f>IFERROR((DRACOLITH_TALON_MAX-I10)/DRACOLITH_TALON_MAX,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="115" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="346"/>
+      <c r="I11" s="326" t="str">
+        <f>IF(ISNUMBER(H11),INDEX(DRACOLITH_TALON,H11),"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="325" t="str">
+        <f>IFERROR((DRACOLITH_TALON_MAX-I11)/DRACOLITH_TALON_MAX,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="323" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="347"/>
+      <c r="I12" s="170" t="str">
+        <f>IF(ISNUMBER(H12),INDEX(DRACOLITH_TALON,H12),"")</f>
+        <v/>
+      </c>
+      <c r="J12" s="325" t="str">
+        <f>IFERROR((DRACOLITH_TALON_MAX-I12)/DRACOLITH_TALON_MAX,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="320" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="324">
+        <f>SUM(I8:I12)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="320"/>
+      <c r="H15" s="320" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="349" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="320" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="322" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="321">
+        <f>IF(真龍!K3&lt;&gt;0,真龍!K3,"")</f>
+        <v>30</v>
+      </c>
+      <c r="I16" s="321">
+        <f>IF(HDRAG_HAS_REC_HBRUN,INDEX(DATA_HDRAGS_TALON,H16),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="325">
+        <f>IFERROR((HDRAG_MAX_TALON-I16)/HDRAG_MAX_TALON,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="342">
+        <f>IF(真龍!K4&lt;&gt;0,真龍!K4,"")</f>
+        <v>12</v>
+      </c>
+      <c r="I17" s="342">
+        <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_TALON,H17),"")</f>
+        <v>710</v>
+      </c>
+      <c r="J17" s="325">
+        <f>IFERROR((HDRAG_MAX_TALON-I17)/HDRAG_MAX_TALON,"")</f>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="341">
+        <f>IF(真龍!K5&lt;&gt;0,真龍!K5,"")</f>
+        <v>30</v>
+      </c>
+      <c r="I18" s="341">
+        <f>IF(HDRAG_HAS_REC_HMID,INDEX(DATA_HDRAGS_TALON,H18),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="325">
+        <f>IFERROR((HDRAG_MAX_TALON-I18)/HDRAG_MAX_TALON,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="326" t="str">
+        <f>IF(真龍!K6&lt;&gt;0,真龍!K6,"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="326" t="str">
+        <f>IF(HDRAG_HAS_REC_HJUP,INDEX(DATA_HDRAGS_TALON,H19),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="325" t="str">
+        <f>IFERROR((HDRAG_MAX_TALON-I19)/HDRAG_MAX_TALON,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="323" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="170" t="str">
+        <f>IF(真龍!K7&lt;&gt;0,真龍!K7,"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="170" t="str">
+        <f>IF(HDRAG_HAS_REC_HZOD,INDEX(DATA_HDRAGS_TALON,H20),"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="325" t="str">
+        <f>IFERROR((HDRAG_MAX_TALON-I20)/HDRAG_MAX_TALON,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="320" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="324">
+        <f>SUM(I16:I20)</f>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="320" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="309" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="309"/>
-      <c r="R1" s="309"/>
-      <c r="S1" s="309"/>
-      <c r="T1" s="309"/>
-      <c r="U1" s="309" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="309"/>
-      <c r="W1" s="309"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="394" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="395">
-        <f>IF(HDRAG_HAS_REC_HBRUN,COUNTA(DATA_HDRAG_HBRUN),"")</f>
-        <v>295</v>
-      </c>
-      <c r="C2" s="58">
-        <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=2"),"")</f>
-        <v>203</v>
-      </c>
-      <c r="D2" s="58">
-        <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=3"),"")</f>
-        <v>68</v>
-      </c>
-      <c r="E2" s="58">
-        <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=4"),"")</f>
-        <v>13</v>
-      </c>
-      <c r="F2" s="58">
-        <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=5"),"")</f>
-        <v>11</v>
-      </c>
-      <c r="G2" s="383">
-        <f>IF(HDRAG_HAS_REC_HBRUN,AVERAGE(DATA_HDRAG_HBRUN),"")</f>
-        <v>2.4305084745762713</v>
-      </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="384"/>
-      <c r="P2" s="75">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="75">
-        <v>3</v>
-      </c>
-      <c r="R2" s="75">
-        <v>4</v>
-      </c>
-      <c r="S2" s="75">
-        <v>5</v>
-      </c>
-      <c r="T2" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="394"/>
-      <c r="B3" s="395"/>
-      <c r="C3" s="104">
-        <f>IF(HDRAG_HAS_REC_HBRUN,C2/$B2,"")</f>
-        <v>0.68813559322033901</v>
-      </c>
-      <c r="D3" s="104">
-        <f>IF(HDRAG_HAS_REC_HBRUN,D2/$B2,"")</f>
-        <v>0.23050847457627119</v>
-      </c>
-      <c r="E3" s="104">
-        <f>IF(HDRAG_HAS_REC_HBRUN,E2/$B2,"")</f>
-        <v>4.4067796610169491E-2</v>
-      </c>
-      <c r="F3" s="104">
-        <f>IF(HDRAG_HAS_REC_HBRUN,F2/$B2,"")</f>
-        <v>3.7288135593220341E-2</v>
-      </c>
-      <c r="G3" s="383"/>
-      <c r="I3" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="163">
-        <v>414</v>
-      </c>
-      <c r="K3" s="39">
-        <v>30</v>
-      </c>
-      <c r="L3" s="39">
-        <f>IF(HDRAG_HAS_REC_HBRUN,INDEX(DATA_HDRAGS_BUILDING,K3 + 1),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="39">
-        <v>4</v>
-      </c>
-      <c r="N3" s="39">
-        <f>IF(HDRAG_HAS_REC_HBRUN,INDEX(DATA_HDRAGS_DRAGON,IF(ISBLANK(M3),1,M3 + 2)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="70">
-        <f>IFERROR(IF(L3+N3=0,0,L3+N3-J3),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="39" t="str">
-        <f>IFERROR(IF($O3=0,"",_xlfn.CEILING.MATH(($O3/C17)*D15)),"")</f>
-        <v/>
-      </c>
-      <c r="Q3" s="39" t="str">
-        <f>IFERROR(IF($O3=0,"",_xlfn.CEILING.MATH(($O3/C17)*#REF!)),"")</f>
-        <v/>
-      </c>
-      <c r="R3" s="39" t="str">
-        <f>IFERROR(IF($O3=0,"",_xlfn.CEILING.MATH(($O3/C17)*D16)),"")</f>
-        <v/>
-      </c>
-      <c r="S3" s="39" t="str">
-        <f>IFERROR(IF($O3=0,"",_xlfn.CEILING.MATH(($O3/C17)*#REF!)),"")</f>
-        <v/>
-      </c>
-      <c r="T3" s="39" t="str">
-        <f>IF(AND(HDRAG_HAS_REC_HBRUN,O3&gt;0),SUM(P3:S3),"")</f>
-        <v/>
-      </c>
-      <c r="U3" s="54">
-        <f>IFERROR(IF(N3=0,100%,(HDRAGS_MAX_DRAGON - N3)/HDRAGS_MAX_DRAGON),"")</f>
-        <v>1</v>
-      </c>
-      <c r="V3" s="54">
-        <f>IFERROR(IF(L3=0,100%,(HDRAGS_MAX_BUILDING - L3)/HDRAGS_MAX_BUILDING),"")</f>
-        <v>1</v>
-      </c>
-      <c r="W3" s="54">
-        <f>IFERROR(IF(O3=0,100%,(HDRAGS_MAX_ALL - O3)/HDRAGS_MAX_ALL),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="392" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="393" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,COUNTA(DATA_HDRAG_HMERC),"")</f>
-        <v/>
-      </c>
-      <c r="C4" s="105" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=2"),"")</f>
-        <v/>
-      </c>
-      <c r="D4" s="105" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=3"),"")</f>
-        <v/>
-      </c>
-      <c r="E4" s="105" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=4"),"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="105" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=5"),"")</f>
-        <v/>
-      </c>
-      <c r="G4" s="382" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,AVERAGE(DATA_HDRAG_HMERC),"")</f>
-        <v/>
-      </c>
-      <c r="I4" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="163"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_BUILDING,K4 + 1),"")</f>
-        <v/>
-      </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_DRAGON,IF(ISBLANK(M4),1,M4 + 2)),"")</f>
-        <v/>
-      </c>
-      <c r="O4" s="70" t="str">
-        <f>IFERROR(IF(L4+N4=0,0,L4+N4-J4),"")</f>
-        <v/>
-      </c>
-      <c r="P4" s="39" t="str">
-        <f>IFERROR(IF($O4=0,"",_xlfn.CEILING.MATH(($O4/E17)*F15)),"")</f>
-        <v/>
-      </c>
-      <c r="Q4" s="39" t="str">
-        <f>IFERROR(IF($O4=0,"",_xlfn.CEILING.MATH(($O4/E17)*#REF!)),"")</f>
-        <v/>
-      </c>
-      <c r="R4" s="39" t="str">
-        <f>IFERROR(IF($O4=0,"",_xlfn.CEILING.MATH(($O4/E17)*F16)),"")</f>
-        <v/>
-      </c>
-      <c r="S4" s="39" t="str">
-        <f>IFERROR(IF($O4=0,"",_xlfn.CEILING.MATH(($O4/E17)*#REF!)),"")</f>
-        <v/>
-      </c>
-      <c r="T4" s="39" t="str">
-        <f>IF(AND(HDRAG_HAS_REC_HMERC,O4&gt;0),SUM(P4:S4),"")</f>
-        <v/>
-      </c>
-      <c r="U4" s="54" t="str">
-        <f>IFERROR(IF(N4=0,100%,(HDRAGS_MAX_DRAGON - N4)/HDRAGS_MAX_DRAGON),"")</f>
-        <v/>
-      </c>
-      <c r="V4" s="54" t="str">
-        <f>IFERROR(IF(L4=0,100%,(HDRAGS_MAX_BUILDING - L4)/HDRAGS_MAX_BUILDING),"")</f>
-        <v/>
-      </c>
-      <c r="W4" s="54" t="str">
-        <f>IFERROR(IF(O4=0,100%,(HDRAGS_MAX_ALL - O4)/HDRAGS_MAX_ALL),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="392"/>
-      <c r="B5" s="393"/>
-      <c r="C5" s="106" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,C4/$B4,"")</f>
-        <v/>
-      </c>
-      <c r="D5" s="106" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,D4/$B4,"")</f>
-        <v/>
-      </c>
-      <c r="E5" s="106" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,E4/$B4,"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="106" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,F4/$B4,"")</f>
-        <v/>
-      </c>
-      <c r="G5" s="382"/>
-      <c r="I5" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="163">
-        <v>76</v>
-      </c>
-      <c r="K5" s="39">
-        <v>30</v>
-      </c>
-      <c r="L5" s="39">
-        <f>IF(HDRAG_HAS_REC_HMID,INDEX(DATA_HDRAGS_BUILDING,K5 + 1),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="39">
-        <v>4</v>
-      </c>
-      <c r="N5" s="39">
-        <f>IF(HDRAG_HAS_REC_HMID,INDEX(DATA_HDRAGS_DRAGON,IF(ISBLANK(M5),1,M5 + 2)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="70">
-        <f>IFERROR(IF(L5+N5=0,0,L5+N5-J5),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="39" t="str">
-        <f>IF($O5=0,"",_xlfn.CEILING.MATH(($O5/G17)*C22))</f>
-        <v/>
-      </c>
-      <c r="Q5" s="39" t="str">
-        <f>IF($O5=0,"",_xlfn.CEILING.MATH(($O5/G17)*#REF!))</f>
-        <v/>
-      </c>
-      <c r="R5" s="39" t="str">
-        <f>IF($O5=0,"",_xlfn.CEILING.MATH(($O5/G17)*C23))</f>
-        <v/>
-      </c>
-      <c r="S5" s="39" t="str">
-        <f>IF($O5=0,"",_xlfn.CEILING.MATH(($O5/G17)*#REF!))</f>
-        <v/>
-      </c>
-      <c r="T5" s="39" t="str">
-        <f>IF(AND(HDRAG_HAS_REC_HMID,O5&gt;0),SUM(P5:S5),"")</f>
-        <v/>
-      </c>
-      <c r="U5" s="54">
-        <f>IFERROR(IF(N5=0,100%,(HDRAGS_MAX_DRAGON - N5)/HDRAGS_MAX_DRAGON),"")</f>
-        <v>1</v>
-      </c>
-      <c r="V5" s="54">
-        <f>IFERROR(IF(L5=0,100%,(HDRAGS_MAX_BUILDING - L5)/HDRAGS_MAX_BUILDING),"")</f>
-        <v>1</v>
-      </c>
-      <c r="W5" s="54">
-        <f>IFERROR(IF(O5=0,100%,(HDRAGS_MAX_ALL - O5)/HDRAGS_MAX_ALL),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="390" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="391">
-        <f>IF(HDRAG_HAS_REC_HMID,COUNTA(DATA_HDRAG_HMID),"")</f>
-        <v>799</v>
-      </c>
-      <c r="C6" s="107">
-        <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=2"),"")</f>
-        <v>518</v>
-      </c>
-      <c r="D6" s="107">
-        <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=3"),"")</f>
-        <v>170</v>
-      </c>
-      <c r="E6" s="107">
-        <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=4"),"")</f>
-        <v>62</v>
-      </c>
-      <c r="F6" s="107">
-        <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=5"),"")</f>
-        <v>49</v>
-      </c>
-      <c r="G6" s="381">
-        <f>IF(HDRAG_HAS_REC_HMID,AVERAGE(DATA_HDRAG_HMID),"")</f>
-        <v>2.5519399249061325</v>
-      </c>
-      <c r="I6" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="163"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,INDEX(DATA_HDRAGS_BUILDING,K6 + 1),"")</f>
-        <v/>
-      </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,INDEX(DATA_HDRAGS_DRAGON,IF(ISBLANK(M6),1,M6 + 2)),"")</f>
-        <v/>
-      </c>
-      <c r="O6" s="70" t="str">
-        <f>IFERROR(IF(L6+N6=0,0,L6+N6-J6),"")</f>
-        <v/>
-      </c>
-      <c r="P6" s="39" t="str">
-        <f>IFERROR(IF($O6=0,"",_xlfn.CEILING.MATH(($O6/D24)*E22)),"")</f>
-        <v/>
-      </c>
-      <c r="Q6" s="39" t="str">
-        <f>IFERROR(IF($O6=0,"",_xlfn.CEILING.MATH(($O6/D24)*#REF!)),"")</f>
-        <v/>
-      </c>
-      <c r="R6" s="39" t="str">
-        <f>IFERROR(IF($O6=0,"",_xlfn.CEILING.MATH(($O6/D24)*E23)),"")</f>
-        <v/>
-      </c>
-      <c r="S6" s="39" t="str">
-        <f>IFERROR(IF($O6=0,"",_xlfn.CEILING.MATH(($O6/D24)*#REF!)),"")</f>
-        <v/>
-      </c>
-      <c r="T6" s="39" t="str">
-        <f>IF(AND(HDRAG_HAS_REC_HJUP,O6&gt;0),SUM(P6:S6),"")</f>
-        <v/>
-      </c>
-      <c r="U6" s="54" t="str">
-        <f>IFERROR(IF(N6=0,100%,(HDRAGS_MAX_DRAGON - N6)/HDRAGS_MAX_DRAGON),"")</f>
-        <v/>
-      </c>
-      <c r="V6" s="54" t="str">
-        <f>IFERROR(IF(L6=0,100%,(HDRAGS_MAX_BUILDING - L6)/HDRAGS_MAX_BUILDING),"")</f>
-        <v/>
-      </c>
-      <c r="W6" s="54" t="str">
-        <f>IFERROR(IF(O6=0,100%,(HDRAGS_MAX_ALL - O6)/HDRAGS_MAX_ALL),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="390"/>
-      <c r="B7" s="391"/>
-      <c r="C7" s="108">
-        <f>IF(HDRAG_HAS_REC_HMID,C6/$B6,"")</f>
-        <v>0.6483103879849812</v>
-      </c>
-      <c r="D7" s="108">
-        <f>IF(HDRAG_HAS_REC_HMID,D6/$B6,"")</f>
-        <v>0.21276595744680851</v>
-      </c>
-      <c r="E7" s="108">
-        <f>IF(HDRAG_HAS_REC_HMID,E6/$B6,"")</f>
-        <v>7.7596996245306638E-2</v>
-      </c>
-      <c r="F7" s="108">
-        <f>IF(HDRAG_HAS_REC_HMID,F6/$B6,"")</f>
-        <v>6.1326658322903627E-2</v>
-      </c>
-      <c r="G7" s="381"/>
-      <c r="I7" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="163"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,INDEX(DATA_HDRAGS_BUILDING,K7 + 1),"")</f>
-        <v/>
-      </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,INDEX(DATA_HDRAGS_DRAGON,IF(ISBLANK(M7),1,M7 + 2)),"")</f>
-        <v/>
-      </c>
-      <c r="O7" s="70" t="str">
-        <f>IFERROR(IF(L7+N7=0,0,L7+N7-J7),"")</f>
-        <v/>
-      </c>
-      <c r="P7" s="39" t="str">
-        <f>IFERROR(IF($O7=0,"",_xlfn.CEILING.MATH(($O7/F24)*G22)),"")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="39" t="str">
-        <f>IFERROR(IF($O7=0,"",_xlfn.CEILING.MATH(($O7/F24)*#REF!)),"")</f>
-        <v/>
-      </c>
-      <c r="R7" s="39" t="str">
-        <f>IFERROR(IF($O7=0,"",_xlfn.CEILING.MATH(($O7/F24)*G23)),"")</f>
-        <v/>
-      </c>
-      <c r="S7" s="39" t="str">
-        <f>IFERROR(IF($O7=0,"",_xlfn.CEILING.MATH(($O7/F24)*#REF!)),"")</f>
-        <v/>
-      </c>
-      <c r="T7" s="39" t="str">
-        <f>IF(AND(HDRAG_HAS_REC_HZOD,O7&gt;0),SUM(P7:S7),"")</f>
-        <v/>
-      </c>
-      <c r="U7" s="54" t="str">
-        <f>IFERROR(IF(N7=0,100%,(HDRAGS_MAX_DRAGON - N7)/HDRAGS_MAX_DRAGON),"")</f>
-        <v/>
-      </c>
-      <c r="V7" s="54" t="str">
-        <f>IFERROR(IF(L7=0,100%,(HDRAGS_MAX_BUILDING - L7)/HDRAGS_MAX_BUILDING),"")</f>
-        <v/>
-      </c>
-      <c r="W7" s="54" t="str">
-        <f>IFERROR(IF(O7=0,100%,(HDRAGS_MAX_ALL - O7)/HDRAGS_MAX_ALL),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="388" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="389" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,COUNTA(DATA_HDRAG_HJUP),"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="109" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=2"),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="109" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=3"),"")</f>
-        <v/>
-      </c>
-      <c r="E8" s="109" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=4"),"")</f>
-        <v/>
-      </c>
-      <c r="F8" s="109" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=5"),"")</f>
-        <v/>
-      </c>
-      <c r="G8" s="380" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,AVERAGE(DATA_HDRAG_HJUP),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="388"/>
-      <c r="B9" s="389"/>
-      <c r="C9" s="110" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,C8/$B8,"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="110" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,D8/$B8,"")</f>
-        <v/>
-      </c>
-      <c r="E9" s="110" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,E8/$B8,"")</f>
-        <v/>
-      </c>
-      <c r="F9" s="110" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,F8/$B8,"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="380"/>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="386" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="387" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,COUNTA(DATA_HDRAG_HZOD),"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="61" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=2"),"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="61" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=3"),"")</f>
-        <v/>
-      </c>
-      <c r="E10" s="61" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=4"),"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="61" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=5"),"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="379" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,AVERAGE(DATA_HDRAG_HZOD),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="386"/>
-      <c r="B11" s="387"/>
-      <c r="C11" s="111" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,C10/$B10,"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="111" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,D10/$B10,"")</f>
-        <v/>
-      </c>
-      <c r="E11" s="111" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,E10/$B10,"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="111" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,F10/$B10,"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="379"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="309" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="309"/>
-      <c r="D13" s="309"/>
-      <c r="E13" s="309"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="309"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="75">
-        <v>2</v>
-      </c>
-      <c r="D14" s="75">
-        <v>3</v>
-      </c>
-      <c r="E14" s="75">
-        <v>4</v>
-      </c>
-      <c r="F14" s="75">
-        <v>5</v>
-      </c>
-      <c r="G14" s="75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G2)*C3),"")</f>
-        <v>138</v>
-      </c>
-      <c r="D15" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G2)*D3),"")</f>
-        <v>46</v>
-      </c>
-      <c r="E15" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G2)*E3),"")</f>
-        <v>9</v>
-      </c>
-      <c r="F15" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G2)*F3),"")</f>
-        <v>8</v>
-      </c>
-      <c r="G15" s="121">
-        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(C15:F15),"")</f>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G4)*C5),"")</f>
-        <v/>
-      </c>
-      <c r="D16" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G4)*D5),"")</f>
-        <v/>
-      </c>
-      <c r="E16" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G4)*E5),"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G4)*F5),"")</f>
-        <v/>
-      </c>
-      <c r="G16" s="122" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,SUM(C16:F16),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G6)*C7),"")</f>
-        <v>124</v>
-      </c>
-      <c r="D17" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G6)*D7),"")</f>
-        <v>41</v>
-      </c>
-      <c r="E17" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G6)*E7),"")</f>
-        <v>15</v>
-      </c>
-      <c r="F17" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G6)*F7),"")</f>
-        <v>12</v>
-      </c>
-      <c r="G17" s="123">
-        <f>IF(HDRAG_HAS_REC_HMID,SUM(C17:F17),"")</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G8)*C9),"")</f>
-        <v/>
-      </c>
-      <c r="D18" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G8)*D9),"")</f>
-        <v/>
-      </c>
-      <c r="E18" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G8)*E9),"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G8)*F9),"")</f>
-        <v/>
-      </c>
-      <c r="G18" s="124" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,SUM(C18:F18),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G10)*C11),"")</f>
-        <v/>
-      </c>
-      <c r="D19" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G10)*D11),"")</f>
-        <v/>
-      </c>
-      <c r="E19" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G10)*E11),"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON/$G10)*F11),"")</f>
-        <v/>
-      </c>
-      <c r="G19" s="125" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,SUM(C19:F19),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="309" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="309"/>
-      <c r="D20" s="309"/>
-      <c r="E20" s="309"/>
-      <c r="F20" s="309"/>
-      <c r="G20" s="309"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="75">
-        <v>2</v>
-      </c>
-      <c r="D21" s="75">
-        <v>3</v>
-      </c>
-      <c r="E21" s="75">
-        <v>4</v>
-      </c>
-      <c r="F21" s="75">
-        <v>5</v>
-      </c>
-      <c r="G21" s="75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G2)*C3),"")</f>
-        <v>232</v>
-      </c>
-      <c r="D22" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G2)*D3),"")</f>
-        <v>78</v>
-      </c>
-      <c r="E22" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G2)*E3),"")</f>
-        <v>15</v>
-      </c>
-      <c r="F22" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G2)*F3),"")</f>
-        <v>13</v>
-      </c>
-      <c r="G22" s="121">
-        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(C22:F22),"")</f>
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G4)*C5),"")</f>
-        <v/>
-      </c>
-      <c r="D23" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G4)*D5),"")</f>
-        <v/>
-      </c>
-      <c r="E23" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G4)*E5),"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G4)*F5),"")</f>
-        <v/>
-      </c>
-      <c r="G23" s="122" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,SUM(C23:F23),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G6)*C7),"")</f>
-        <v>208</v>
-      </c>
-      <c r="D24" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G6)*D7),"")</f>
-        <v>69</v>
-      </c>
-      <c r="E24" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G6)*E7),"")</f>
-        <v>25</v>
-      </c>
-      <c r="F24" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G6)*F7),"")</f>
-        <v>20</v>
-      </c>
-      <c r="G24" s="123">
-        <f>IF(HDRAG_HAS_REC_HMID,SUM(C24:F24),"")</f>
-        <v>322</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G8)*C9),"")</f>
-        <v/>
-      </c>
-      <c r="D25" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G8)*D9),"")</f>
-        <v/>
-      </c>
-      <c r="E25" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G8)*E9),"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G8)*F9),"")</f>
-        <v/>
-      </c>
-      <c r="G25" s="124" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,SUM(C25:F25),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G10)*C11),"")</f>
-        <v/>
-      </c>
-      <c r="D26" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G10)*D11),"")</f>
-        <v/>
-      </c>
-      <c r="E26" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G10)*E11),"")</f>
-        <v/>
-      </c>
-      <c r="F26" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_BUILDING/$G10)*F11),"")</f>
-        <v/>
-      </c>
-      <c r="G26" s="125" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,SUM(C26:F26),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="309" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
-      <c r="E27" s="309"/>
-      <c r="F27" s="309"/>
-      <c r="G27" s="309"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="75">
-        <v>2</v>
-      </c>
-      <c r="D28" s="75">
-        <v>3</v>
-      </c>
-      <c r="E28" s="75">
-        <v>4</v>
-      </c>
-      <c r="F28" s="75">
-        <v>5</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="173" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G2)*C3),"")</f>
-        <v>325</v>
-      </c>
-      <c r="D29" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G2)*D3),"")</f>
-        <v>109</v>
-      </c>
-      <c r="E29" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G2)*E3),"")</f>
-        <v>21</v>
-      </c>
-      <c r="F29" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G2)*F3),"")</f>
-        <v>18</v>
-      </c>
-      <c r="G29" s="121">
-        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(C29:F29),"")</f>
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G4)*C5),"")</f>
-        <v/>
-      </c>
-      <c r="D30" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G4)*D5),"")</f>
-        <v/>
-      </c>
-      <c r="E30" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G4)*E5),"")</f>
-        <v/>
-      </c>
-      <c r="F30" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G4)*F5),"")</f>
-        <v/>
-      </c>
-      <c r="G30" s="122" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,SUM(C30:F30),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G6)*C7),"")</f>
-        <v>291</v>
-      </c>
-      <c r="D31" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G6)*D7),"")</f>
-        <v>96</v>
-      </c>
-      <c r="E31" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G6)*E7),"")</f>
-        <v>35</v>
-      </c>
-      <c r="F31" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G6)*F7),"")</f>
-        <v>28</v>
-      </c>
-      <c r="G31" s="123">
-        <f>IF(HDRAG_HAS_REC_HMID,SUM(C31:F31),"")</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G8)*C9),"")</f>
-        <v/>
-      </c>
-      <c r="D32" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G8)*D9),"")</f>
-        <v/>
-      </c>
-      <c r="E32" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G8)*E9),"")</f>
-        <v/>
-      </c>
-      <c r="F32" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G8)*F9),"")</f>
-        <v/>
-      </c>
-      <c r="G32" s="124" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,SUM(C32:F32),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="174" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G10)*C11),"")</f>
-        <v/>
-      </c>
-      <c r="D33" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G10)*D11),"")</f>
-        <v/>
-      </c>
-      <c r="E33" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G10)*E11),"")</f>
-        <v/>
-      </c>
-      <c r="F33" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_DRAGON_BLD_16/$G10)*F11),"")</f>
-        <v/>
-      </c>
-      <c r="G33" s="125" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,SUM(C33:F33),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="309" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="309"/>
-      <c r="D34" s="309"/>
-      <c r="E34" s="309"/>
-      <c r="F34" s="309"/>
-      <c r="G34" s="309"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="75">
-        <v>2</v>
-      </c>
-      <c r="D35" s="75">
-        <v>3</v>
-      </c>
-      <c r="E35" s="75">
-        <v>4</v>
-      </c>
-      <c r="F35" s="75">
-        <v>5</v>
-      </c>
-      <c r="G35" s="75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G2)*C3),"")</f>
-        <v>369</v>
-      </c>
-      <c r="D36" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G2)*D3),"")</f>
-        <v>124</v>
-      </c>
-      <c r="E36" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G2)*E3),"")</f>
-        <v>24</v>
-      </c>
-      <c r="F36" s="116">
-        <f>IF(HDRAG_HAS_REC_HBRUN,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G2)*F3),"")</f>
-        <v>20</v>
-      </c>
-      <c r="G36" s="121">
-        <f>IF(HDRAG_HAS_REC_HBRUN,SUM(C36:F36),"")</f>
-        <v>537</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G4)*C5),"")</f>
-        <v/>
-      </c>
-      <c r="D37" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G4)*D5),"")</f>
-        <v/>
-      </c>
-      <c r="E37" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G4)*E5),"")</f>
-        <v/>
-      </c>
-      <c r="F37" s="117" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G4)*F5),"")</f>
-        <v/>
-      </c>
-      <c r="G37" s="122" t="str">
-        <f>IF(HDRAG_HAS_REC_HMERC,SUM(C37:F37),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G6)*C7),"")</f>
-        <v>331</v>
-      </c>
-      <c r="D38" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G6)*D7),"")</f>
-        <v>109</v>
-      </c>
-      <c r="E38" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G6)*E7),"")</f>
-        <v>40</v>
-      </c>
-      <c r="F38" s="118">
-        <f>IF(HDRAG_HAS_REC_HMID,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G6)*F7),"")</f>
-        <v>32</v>
-      </c>
-      <c r="G38" s="123">
-        <f>IF(HDRAG_HAS_REC_HMID,SUM(C38:F38),"")</f>
-        <v>512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G8)*C9),"")</f>
-        <v/>
-      </c>
-      <c r="D39" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G8)*D9),"")</f>
-        <v/>
-      </c>
-      <c r="E39" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G8)*E9),"")</f>
-        <v/>
-      </c>
-      <c r="F39" s="119" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G8)*F9),"")</f>
-        <v/>
-      </c>
-      <c r="G39" s="124" t="str">
-        <f>IF(HDRAG_HAS_REC_HJUP,SUM(C39:F39),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G10)*C11),"")</f>
-        <v/>
-      </c>
-      <c r="D40" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G10)*D11),"")</f>
-        <v/>
-      </c>
-      <c r="E40" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G10)*E11),"")</f>
-        <v/>
-      </c>
-      <c r="F40" s="120" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,_xlfn.CEILING.MATH((HDRAGS_MAX_ALL/$G10)*F11),"")</f>
-        <v/>
-      </c>
-      <c r="G40" s="125" t="str">
-        <f>IF(HDRAG_HAS_REC_HZOD,SUM(C40:F40),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
+      <c r="I23" s="324">
+        <f>I13+I21</f>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="320"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="J8">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18093,13 +21033,27 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0056DFAE-24A5-405B-A2E1-A2F499662CCA}</x14:id>
+          <x14:id>{5BF4564F-6D94-4131-B9EB-257303939A9C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="J9">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{605EC817-B23C-4991-A11F-EAEC64DE18A2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18107,12 +21061,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71A13B54-27C1-4A68-9DA5-5272B5C9C1A6}</x14:id>
+          <x14:id>{1949A6FB-3A93-4C17-B7C3-B1C948818BB9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
+  <conditionalFormatting sqref="J11">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{16425F0D-1058-405C-9ECD-06CDA7138020}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18121,13 +21089,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E76542C4-A65B-46E7-A44A-52024589876F}</x14:id>
+          <x14:id>{78CF39B2-6233-4143-8115-5163D69C4A40}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:W3">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18135,13 +21103,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{180D55D6-69FA-411D-A793-6D974A034317}</x14:id>
+          <x14:id>{4B0CDBFE-37A1-40D2-9293-E6B8E49EA7E1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:W4">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18149,13 +21117,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A688F774-7739-43AF-B6DF-D58ACEE232CA}</x14:id>
+          <x14:id>{0017BA74-89EE-4D3C-9A61-12B7EE367199}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:W5">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18163,13 +21131,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EB4AD01C-E76D-42AE-9233-2CC3C02A3571}</x14:id>
+          <x14:id>{89294264-F742-4454-B854-4EB384719E76}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U6:W6">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18177,13 +21145,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B331CDED-E6DC-4642-B38C-805ACD8F6793}</x14:id>
+          <x14:id>{36A4A187-696F-491F-96C3-AEEE64D7A01A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:W7">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18191,7 +21159,49 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63D294E8-9400-4F6F-868B-B48804566345}</x14:id>
+          <x14:id>{5174A658-6064-4E15-9AF5-9E368482BB94}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFCD7F32"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EF180161-279F-4A3C-986B-26915F56D689}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFC9C9C9"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71CDF10D-A507-45A9-913A-E5F1F7C08AE7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFC000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F9C17BB0-9E6A-4465-A5E9-187695F60B49}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -18202,7 +21212,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0056DFAE-24A5-405B-A2E1-A2F499662CCA}">
+          <x14:cfRule type="dataBar" id="{5BF4564F-6D94-4131-B9EB-257303939A9C}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -18215,10 +21225,26 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K1</xm:sqref>
+          <xm:sqref>J8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71A13B54-27C1-4A68-9DA5-5272B5C9C1A6}">
+          <x14:cfRule type="dataBar" id="{605EC817-B23C-4991-A11F-EAEC64DE18A2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="8" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1949A6FB-3A93-4C17-B7C3-B1C948818BB9}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -18231,10 +21257,26 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M1</xm:sqref>
+          <xm:sqref>J10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E76542C4-A65B-46E7-A44A-52024589876F}">
+          <x14:cfRule type="dataBar" id="{16425F0D-1058-405C-9ECD-06CDA7138020}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="7" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{78CF39B2-6233-4143-8115-5163D69C4A40}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -18247,10 +21289,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O1</xm:sqref>
+          <xm:sqref>J12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{180D55D6-69FA-411D-A793-6D974A034317}">
+          <x14:cfRule type="dataBar" id="{4B0CDBFE-37A1-40D2-9293-E6B8E49EA7E1}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -18263,10 +21305,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U3:W3</xm:sqref>
+          <xm:sqref>J16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A688F774-7739-43AF-B6DF-D58ACEE232CA}">
+          <x14:cfRule type="dataBar" id="{0017BA74-89EE-4D3C-9A61-12B7EE367199}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -18279,10 +21321,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U4:W4</xm:sqref>
+          <xm:sqref>J17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EB4AD01C-E76D-42AE-9233-2CC3C02A3571}">
+          <x14:cfRule type="dataBar" id="{89294264-F742-4454-B854-4EB384719E76}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -18295,10 +21337,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U5:W5</xm:sqref>
+          <xm:sqref>J18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B331CDED-E6DC-4642-B38C-805ACD8F6793}">
+          <x14:cfRule type="dataBar" id="{36A4A187-696F-491F-96C3-AEEE64D7A01A}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -18311,10 +21353,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U6:W6</xm:sqref>
+          <xm:sqref>J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63D294E8-9400-4F6F-868B-B48804566345}">
+          <x14:cfRule type="dataBar" id="{5174A658-6064-4E15-9AF5-9E368482BB94}">
             <x14:dataBar minLength="0" maxLength="100" border="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -18327,7 +21369,55 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U7:W7</xm:sqref>
+          <xm:sqref>J20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EF180161-279F-4A3C-986B-26915F56D689}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF9191"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71CDF10D-A507-45A9-913A-E5F1F7C08AE7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="8" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F9C17BB0-9E6A-4465-A5E9-187695F60B49}">
+            <x14:dataBar minLength="0" maxLength="100" border="1">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="9" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -18336,207 +21426,332 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F3A600-DCA6-49F5-831E-ACD6AC06071D}">
-  <sheetPr codeName="Sheet6">
-    <tabColor theme="5" tint="0.59999389629810485"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5EF10C-1E91-4DFF-88B0-05D1167F5074}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="5.42578125" style="170" customWidth="1"/>
+    <col min="3" max="4" width="5.42578125" style="326" customWidth="1"/>
+    <col min="5" max="6" width="5.42578125" style="327" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="330" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="329" customWidth="1"/>
+    <col min="9" max="10" width="5.42578125" style="327" customWidth="1"/>
+    <col min="11" max="12" width="5.42578125" style="328" customWidth="1"/>
+    <col min="13" max="16384" width="9.28515625" style="324"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>816</v>
-      </c>
-      <c r="B2" s="1">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>786</v>
-      </c>
-      <c r="B3" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>783</v>
-      </c>
-      <c r="B4" s="1">
-        <f>B3-120</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>780</v>
-      </c>
-      <c r="B5" s="1">
-        <f>B4-120</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>775</v>
-      </c>
-      <c r="B6" s="1">
-        <f>B5-120</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>770</v>
-      </c>
-      <c r="B7" s="1">
-        <f>B6-120</f>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="402" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="402"/>
+      <c r="I1" s="402"/>
+      <c r="J1" s="402"/>
+      <c r="K1" s="402"/>
+      <c r="L1" s="402"/>
+      <c r="N1" s="402" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="402"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="424" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="424"/>
+      <c r="C2" s="426" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="426"/>
+      <c r="E2" s="425" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="425"/>
+      <c r="G2" s="428" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="428"/>
+      <c r="I2" s="425" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="425"/>
+      <c r="K2" s="427" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="427"/>
+      <c r="N2" s="324" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="324" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="170" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="326" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="326" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="327" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="327" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="330" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="329" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="327" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="327" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="328" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="328" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="324">
+        <v>1</v>
+      </c>
+      <c r="O3" s="324">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="326">
+        <v>5</v>
+      </c>
+      <c r="D4" s="326">
+        <v>53</v>
+      </c>
+      <c r="G4" s="330">
+        <v>148</v>
+      </c>
+      <c r="H4" s="329">
+        <v>147</v>
+      </c>
+      <c r="I4" s="327">
+        <v>6</v>
+      </c>
+      <c r="J4" s="327">
+        <v>8</v>
+      </c>
+      <c r="N4" s="324">
+        <v>2</v>
+      </c>
+      <c r="O4" s="324">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="326">
+        <v>4</v>
+      </c>
+      <c r="D5" s="326">
+        <v>51</v>
+      </c>
+      <c r="N5" s="324">
+        <v>3</v>
+      </c>
+      <c r="O5" s="324">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="326">
+        <v>2</v>
+      </c>
+      <c r="D6" s="326">
+        <v>53</v>
+      </c>
+      <c r="N6" s="324">
+        <v>4</v>
+      </c>
+      <c r="O6" s="324">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="326">
+        <v>3</v>
+      </c>
+      <c r="D7" s="326">
+        <v>12</v>
+      </c>
+      <c r="N7" s="324">
+        <v>5</v>
+      </c>
+      <c r="O7" s="324">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="326">
+        <v>6</v>
+      </c>
+      <c r="D8" s="326">
+        <v>48</v>
+      </c>
+      <c r="N8" s="324">
+        <v>6</v>
+      </c>
+      <c r="O8" s="324">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="324">
+        <v>7</v>
+      </c>
+      <c r="O9" s="324">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="324">
+        <v>8</v>
+      </c>
+      <c r="O10" s="324">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N11" s="324">
+        <v>9</v>
+      </c>
+      <c r="O11" s="324">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="324">
+        <v>10</v>
+      </c>
+      <c r="O12" s="324">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="324">
+        <v>11</v>
+      </c>
+      <c r="O13" s="324">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="324">
+        <v>12</v>
+      </c>
+      <c r="O14" s="324">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="324">
+        <v>13</v>
+      </c>
+      <c r="O15" s="324">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="324">
+        <v>14</v>
+      </c>
+      <c r="O16" s="324">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="324">
+        <v>15</v>
+      </c>
+      <c r="O17" s="324">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="324">
+        <v>16</v>
+      </c>
+      <c r="O18" s="324">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="324">
+        <v>17</v>
+      </c>
+      <c r="O19" s="324">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="324">
+        <v>18</v>
+      </c>
+      <c r="O20" s="324">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="324">
+        <v>19</v>
+      </c>
+      <c r="O21" s="324">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N22" s="324">
+        <v>20</v>
+      </c>
+      <c r="O22" s="324">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dragalia Data.xlsx
+++ b/Dragalia Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E209365D-5669-4541-BA1B-EBB718C718BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{20D400FA-83E1-45C8-9F3C-59349DAE93B6}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{E209365D-5669-4541-BA1B-EBB718C718BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B250268E-D039-4CAC-8408-E746F3F7983D}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1650" windowWidth="18960" windowHeight="13485" firstSheet="2" activeTab="7" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
+    <workbookView xWindow="1335" yWindow="375" windowWidth="18960" windowHeight="13485" firstSheet="2" activeTab="5" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raid" sheetId="16" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="172">
   <si>
     <t>STR %</t>
   </si>
@@ -1232,7 +1232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2279,22 +2279,94 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,9 +2378,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2318,117 +2387,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2516,6 +2519,42 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2532,42 +2571,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3058,30 +3061,30 @@
       <c r="A1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="354">
+      <c r="B1" s="353">
         <v>43523.916666666664</v>
       </c>
-      <c r="C1" s="354"/>
+      <c r="C1" s="353"/>
       <c r="D1" s="36" t="s">
         <v>100</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="350" t="s">
+      <c r="F1" s="354" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="354">
+      <c r="B2" s="353">
         <v>43535.916666666664</v>
       </c>
-      <c r="C2" s="354"/>
+      <c r="C2" s="353"/>
       <c r="D2" s="38" t="str">
         <f ca="1">IF(RAID_TIME_END-NOW()&lt;0,"",RAID_TIME_END-NOW())</f>
         <v/>
@@ -3111,10 +3114,10 @@
       <c r="E4" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="351" t="s">
+      <c r="F4" s="352" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="351"/>
+      <c r="G4" s="352"/>
       <c r="H4" s="22" t="s">
         <v>93</v>
       </c>
@@ -3133,27 +3136,27 @@
       </c>
       <c r="C5" s="30">
         <f ca="1">$E$5*(NOW()-$B$1)/$E$2</f>
-        <v>743723.53009266593</v>
+        <v>788032.56221071945</v>
       </c>
       <c r="D5" s="30">
         <f ca="1">B5*$E$2/(NOW()-$B$1)</f>
-        <v>28070.108252994036</v>
+        <v>26491.798690950116</v>
       </c>
       <c r="E5" s="169">
         <v>150000</v>
       </c>
-      <c r="F5" s="352">
+      <c r="F5" s="356">
         <f>B5/E5</f>
         <v>0.92784</v>
       </c>
-      <c r="G5" s="352"/>
+      <c r="G5" s="356"/>
       <c r="H5" s="33">
         <f ca="1">B5 - (E5*(NOW()-$B$1)/$E$2)</f>
-        <v>-604547.53009266593</v>
+        <v>-648856.56221071945</v>
       </c>
       <c r="I5" s="33">
         <f ca="1">D5-RAID_GOAL_EMBLEM</f>
-        <v>-121929.89174700597</v>
+        <v>-123508.20130904988</v>
       </c>
       <c r="J5" s="21"/>
     </row>
@@ -3167,53 +3170,53 @@
       </c>
       <c r="C6" s="30">
         <f ca="1">$E$6*(NOW()-$B$1)/$E$2</f>
-        <v>495815.68672844395</v>
+        <v>525355.04147381289</v>
       </c>
       <c r="D6" s="30">
         <f ca="1">B6*$E$2/(NOW()-$B$1)</f>
-        <v>24552.470455956696</v>
+        <v>23171.948566152299</v>
       </c>
       <c r="E6" s="169">
         <v>100000</v>
       </c>
-      <c r="F6" s="352">
+      <c r="F6" s="356">
         <f>B6/E6</f>
         <v>1.2173499999999999</v>
       </c>
-      <c r="G6" s="352"/>
+      <c r="G6" s="356"/>
       <c r="H6" s="33">
         <f ca="1">B6 - (E6*(NOW()-$B$1)/$E$2)</f>
-        <v>-374080.68672844395</v>
+        <v>-403620.04147381289</v>
       </c>
       <c r="I6" s="33">
         <f ca="1">D6-RAID_GOAL_BLAZON</f>
-        <v>-75447.529544043296</v>
+        <v>-76828.051433847693</v>
       </c>
       <c r="J6" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="353" t="s">
+      <c r="B8" s="351" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="353"/>
-      <c r="D8" s="351" t="s">
+      <c r="C8" s="351"/>
+      <c r="D8" s="352" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="351"/>
-      <c r="F8" s="351" t="s">
+      <c r="E8" s="352"/>
+      <c r="F8" s="352" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="351"/>
-      <c r="H8" s="350" t="s">
+      <c r="G8" s="352"/>
+      <c r="H8" s="354" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="350"/>
-      <c r="J8" s="350" t="s">
+      <c r="I8" s="354"/>
+      <c r="J8" s="354" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="350"/>
-      <c r="L8" s="350"/>
+      <c r="K8" s="354"/>
+      <c r="L8" s="354"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
@@ -5047,6 +5050,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -5054,11 +5062,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="F2">
     <cfRule type="dataBar" priority="36">
@@ -5393,7 +5396,7 @@
   </sheetPr>
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="G11" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -5404,8 +5407,8 @@
     <col min="7" max="7" width="11.85546875" style="62" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" style="62" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="62" customWidth="1"/>
-    <col min="10" max="14" width="5.7109375" style="62" customWidth="1"/>
-    <col min="15" max="16" width="5.7109375" style="310" customWidth="1"/>
+    <col min="10" max="14" width="5.5703125" style="62" customWidth="1"/>
+    <col min="15" max="16" width="5.5703125" style="310" customWidth="1"/>
     <col min="17" max="17" width="7.28515625" style="70" customWidth="1"/>
     <col min="18" max="20" width="23.7109375" style="62" customWidth="1"/>
     <col min="21" max="16384" width="8.5703125" style="62"/>
@@ -5432,37 +5435,37 @@
         <v>32</v>
       </c>
       <c r="I1" s="75"/>
-      <c r="J1" s="350" t="s">
+      <c r="J1" s="354" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="445" t="s">
+      <c r="K1" s="437" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="445"/>
-      <c r="M1" s="445" t="s">
+      <c r="L1" s="437"/>
+      <c r="M1" s="437" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="445"/>
+      <c r="N1" s="437"/>
       <c r="O1" s="314" t="s">
         <v>141</v>
       </c>
       <c r="P1" s="314" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="444" t="s">
+      <c r="Q1" s="436" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="350" t="s">
+      <c r="R1" s="354" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="350"/>
-      <c r="T1" s="350"/>
+      <c r="S1" s="354"/>
+      <c r="T1" s="354"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="433" t="s">
+      <c r="A2" s="446" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="434">
+      <c r="B2" s="447">
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTA(DATA_HDRAG_HBRUN),"")</f>
         <v>295</v>
       </c>
@@ -5482,12 +5485,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=5"),"")</f>
         <v>11</v>
       </c>
-      <c r="G2" s="443">
+      <c r="G2" s="435">
         <f>IF(HDRAG_HAS_REC_HBRUN,AVERAGE(DATA_HDRAG_HBRUN),"")</f>
         <v>2.4305084745762713</v>
       </c>
       <c r="I2" s="75"/>
-      <c r="J2" s="350"/>
+      <c r="J2" s="354"/>
       <c r="K2" s="41" t="s">
         <v>50</v>
       </c>
@@ -5506,7 +5509,7 @@
       <c r="P2" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="444"/>
+      <c r="Q2" s="436"/>
       <c r="R2" s="75" t="s">
         <v>52</v>
       </c>
@@ -5518,8 +5521,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="433"/>
-      <c r="B3" s="434"/>
+      <c r="A3" s="446"/>
+      <c r="B3" s="447"/>
       <c r="C3" s="104">
         <f>IF(HDRAG_HAS_REC_HBRUN,C2/$B2,"")</f>
         <v>0.68813559322033901</v>
@@ -5536,7 +5539,7 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,F2/$B2,"")</f>
         <v>3.7288135593220341E-2</v>
       </c>
-      <c r="G3" s="443"/>
+      <c r="G3" s="435"/>
       <c r="I3" s="73" t="s">
         <v>34</v>
       </c>
@@ -5583,45 +5586,45 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="431" t="s">
+      <c r="A4" s="444" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="432">
+      <c r="B4" s="445">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTA(DATA_HDRAG_HMERC),"")</f>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" s="105">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=2"),"")</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="105">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=3"),"")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="105">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=4"),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="105">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=5"),"")</f>
         <v>4</v>
       </c>
-      <c r="G4" s="442">
+      <c r="G4" s="434">
         <f>IF(HDRAG_HAS_REC_HMERC,AVERAGE(DATA_HDRAG_HMERC),"")</f>
-        <v>2.404494382022472</v>
+        <v>2.4193548387096775</v>
       </c>
       <c r="I4" s="113" t="s">
         <v>46</v>
       </c>
       <c r="J4" s="163">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="K4" s="39">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="39">
         <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_BUILDING,K4 + 1),"")</f>
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="M4" s="39"/>
       <c r="N4" s="39">
@@ -5630,15 +5633,15 @@
       </c>
       <c r="O4" s="311">
         <f>IF(HDRAG_HAS_REC_HMERC,N4+MAX(L4-INDEX(DATA_HDRAGS_BUILDING,16),0),"")</f>
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="P4" s="311">
         <f>IF(HDRAG_HAS_REC_HMERC,L4+N4,"")</f>
-        <v>1190</v>
+        <v>1160</v>
       </c>
       <c r="Q4" s="70">
         <f>IFERROR(IF(L4+N4=0,0,L4+N4-J4),"")</f>
-        <v>1002</v>
+        <v>943</v>
       </c>
       <c r="R4" s="54">
         <f>IFERROR(IF(N4=0,100%,(HDRAG_MAX_DRAGON - N4)/HDRAG_MAX_DRAGON),"")</f>
@@ -5646,33 +5649,33 @@
       </c>
       <c r="S4" s="54">
         <f>IFERROR(IF(L4=0,100%,(HDRAG_MAX_BUILDING - L4)/HDRAG_MAX_BUILDING),"")</f>
-        <v>0.13602941176470587</v>
+        <v>0.17279411764705882</v>
       </c>
       <c r="T4" s="54">
         <f>IFERROR(IF(Q4=0,100%,(HDRAG_MAX_ALL - Q4)/HDRAG_MAX_ALL),"")</f>
-        <v>0.22982321291314373</v>
+        <v>0.2751729438893159</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="431"/>
-      <c r="B5" s="432"/>
+      <c r="A5" s="444"/>
+      <c r="B5" s="445"/>
       <c r="C5" s="106">
         <f>IF(HDRAG_HAS_REC_HMERC,C4/$B4,"")</f>
-        <v>0.7415730337078652</v>
+        <v>0.73118279569892475</v>
       </c>
       <c r="D5" s="106">
         <f>IF(HDRAG_HAS_REC_HMERC,D4/$B4,"")</f>
-        <v>0.15730337078651685</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="E5" s="106">
         <f>IF(HDRAG_HAS_REC_HMERC,E4/$B4,"")</f>
-        <v>5.6179775280898875E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="F5" s="106">
         <f>IF(HDRAG_HAS_REC_HMERC,F4/$B4,"")</f>
-        <v>4.49438202247191E-2</v>
-      </c>
-      <c r="G5" s="442"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+      <c r="G5" s="434"/>
       <c r="I5" s="114" t="s">
         <v>35</v>
       </c>
@@ -5719,10 +5722,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="429" t="s">
+      <c r="A6" s="442" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="430">
+      <c r="B6" s="443">
         <f>IF(HDRAG_HAS_REC_HMID,COUNTA(DATA_HDRAG_HMID),"")</f>
         <v>801</v>
       </c>
@@ -5742,7 +5745,7 @@
         <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=5"),"")</f>
         <v>49</v>
       </c>
-      <c r="G6" s="441">
+      <c r="G6" s="433">
         <f>IF(HDRAG_HAS_REC_HMID,AVERAGE(DATA_HDRAG_HMID),"")</f>
         <v>2.5525000000000002</v>
       </c>
@@ -5786,8 +5789,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="429"/>
-      <c r="B7" s="430"/>
+      <c r="A7" s="442"/>
+      <c r="B7" s="443"/>
       <c r="C7" s="108">
         <f>IF(HDRAG_HAS_REC_HMID,C6/$B6,"")</f>
         <v>0.64669163545568042</v>
@@ -5804,7 +5807,7 @@
         <f>IF(HDRAG_HAS_REC_HMID,F6/$B6,"")</f>
         <v>6.117353308364544E-2</v>
       </c>
-      <c r="G7" s="441"/>
+      <c r="G7" s="433"/>
       <c r="I7" s="74" t="s">
         <v>48</v>
       </c>
@@ -5845,10 +5848,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="437" t="s">
+      <c r="A8" s="440" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="438" t="str">
+      <c r="B8" s="441" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTA(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
@@ -5868,14 +5871,14 @@
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G8" s="440" t="str">
+      <c r="G8" s="432" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,AVERAGE(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="437"/>
-      <c r="B9" s="438"/>
+      <c r="A9" s="440"/>
+      <c r="B9" s="441"/>
       <c r="C9" s="110" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,C8/$B8,"")</f>
         <v/>
@@ -5892,13 +5895,13 @@
         <f>IF(HDRAG_HAS_REC_HJUP,F8/$B8,"")</f>
         <v/>
       </c>
-      <c r="G9" s="440"/>
+      <c r="G9" s="432"/>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="435" t="s">
+      <c r="A10" s="438" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="436" t="str">
+      <c r="B10" s="439" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTA(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
@@ -5918,14 +5921,14 @@
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G10" s="439" t="str">
+      <c r="G10" s="431" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,AVERAGE(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="435"/>
-      <c r="B11" s="436"/>
+      <c r="A11" s="438"/>
+      <c r="B11" s="439"/>
       <c r="C11" s="111" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,C10/$B10,"")</f>
         <v/>
@@ -5942,28 +5945,28 @@
         <f>IF(HDRAG_HAS_REC_HZOD,F10/$B10,"")</f>
         <v/>
       </c>
-      <c r="G11" s="439"/>
+      <c r="G11" s="431"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="B13" s="350" t="s">
+      <c r="B13" s="354" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="350"/>
-      <c r="D13" s="350"/>
-      <c r="E13" s="350"/>
-      <c r="F13" s="350"/>
-      <c r="G13" s="350"/>
-      <c r="K13" s="407" t="s">
+      <c r="C13" s="354"/>
+      <c r="D13" s="354"/>
+      <c r="E13" s="354"/>
+      <c r="F13" s="354"/>
+      <c r="G13" s="354"/>
+      <c r="K13" s="408" t="s">
         <v>140</v>
       </c>
-      <c r="L13" s="407"/>
-      <c r="M13" s="407"/>
-      <c r="N13" s="407"/>
-      <c r="O13" s="407"/>
-      <c r="P13" s="407"/>
-      <c r="Q13" s="407"/>
-      <c r="R13" s="407"/>
+      <c r="L13" s="408"/>
+      <c r="M13" s="408"/>
+      <c r="N13" s="408"/>
+      <c r="O13" s="408"/>
+      <c r="P13" s="408"/>
+      <c r="Q13" s="408"/>
+      <c r="R13" s="408"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
@@ -5998,11 +6001,11 @@
       <c r="O14" s="312" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="404" t="s">
+      <c r="P14" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="404"/>
-      <c r="R14" s="404"/>
+      <c r="Q14" s="405"/>
+      <c r="R14" s="405"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
@@ -6052,12 +6055,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K15:N15),"")</f>
         <v>0</v>
       </c>
-      <c r="P15" s="446">
+      <c r="P15" s="430">
         <f>IFERROR((G15-O15)/G15,"")</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="446"/>
-      <c r="R15" s="446"/>
+      <c r="Q15" s="430"/>
+      <c r="R15" s="430"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -6066,53 +6069,53 @@
       </c>
       <c r="C16" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*C5),"")</f>
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D16" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*D5),"")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*E5),"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*F5),"")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="122">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(C16:F16),"")</f>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J16" s="113" t="s">
         <v>46</v>
       </c>
       <c r="K16" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*C5),"")</f>
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L16" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*D5),"")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*E5),"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N16" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*F5),"")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(K16:N16),"")</f>
-        <v>204</v>
-      </c>
-      <c r="P16" s="446">
+        <v>202</v>
+      </c>
+      <c r="P16" s="430">
         <f>IFERROR((G16-O16)/G16,"")</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="446"/>
-      <c r="R16" s="446"/>
+      <c r="Q16" s="430"/>
+      <c r="R16" s="430"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
@@ -6162,12 +6165,12 @@
         <f>IF(HDRAG_HAS_REC_HMID,SUM(K17:N17),"")</f>
         <v>0</v>
       </c>
-      <c r="P17" s="446">
+      <c r="P17" s="430">
         <f>IFERROR((G17-O17)/G17,"")</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="446"/>
-      <c r="R17" s="446"/>
+      <c r="Q17" s="430"/>
+      <c r="R17" s="430"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
@@ -6217,12 +6220,12 @@
         <f>IF(HDRAG_HAS_REC_HJUP,SUM(K18:N18),"")</f>
         <v/>
       </c>
-      <c r="P18" s="446" t="str">
+      <c r="P18" s="430" t="str">
         <f>IFERROR((G18-O18)/G18,"")</f>
         <v/>
       </c>
-      <c r="Q18" s="446"/>
-      <c r="R18" s="446"/>
+      <c r="Q18" s="430"/>
+      <c r="R18" s="430"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
@@ -6272,33 +6275,33 @@
         <f>IF(HDRAG_HAS_REC_HZOD,SUM(K19:N19),"")</f>
         <v/>
       </c>
-      <c r="P19" s="446" t="str">
+      <c r="P19" s="430" t="str">
         <f>IFERROR((G19-O19)/G19,"")</f>
         <v/>
       </c>
-      <c r="Q19" s="446"/>
-      <c r="R19" s="446"/>
+      <c r="Q19" s="430"/>
+      <c r="R19" s="430"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
-      <c r="B20" s="350" t="s">
+      <c r="B20" s="354" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="350"/>
-      <c r="D20" s="350"/>
-      <c r="E20" s="350"/>
-      <c r="F20" s="350"/>
-      <c r="G20" s="350"/>
-      <c r="K20" s="407" t="s">
+      <c r="C20" s="354"/>
+      <c r="D20" s="354"/>
+      <c r="E20" s="354"/>
+      <c r="F20" s="354"/>
+      <c r="G20" s="354"/>
+      <c r="K20" s="408" t="s">
         <v>140</v>
       </c>
-      <c r="L20" s="407"/>
-      <c r="M20" s="407"/>
-      <c r="N20" s="407"/>
-      <c r="O20" s="407"/>
-      <c r="P20" s="407"/>
-      <c r="Q20" s="407"/>
-      <c r="R20" s="407"/>
+      <c r="L20" s="408"/>
+      <c r="M20" s="408"/>
+      <c r="N20" s="408"/>
+      <c r="O20" s="408"/>
+      <c r="P20" s="408"/>
+      <c r="Q20" s="408"/>
+      <c r="R20" s="408"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
@@ -6333,11 +6336,11 @@
       <c r="O21" s="312" t="s">
         <v>45</v>
       </c>
-      <c r="P21" s="404" t="s">
+      <c r="P21" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="404"/>
-      <c r="R21" s="404"/>
+      <c r="Q21" s="405"/>
+      <c r="R21" s="405"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
@@ -6387,12 +6390,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K22:N22),"")</f>
         <v>0</v>
       </c>
-      <c r="P22" s="446">
+      <c r="P22" s="430">
         <f>IFERROR((G22-O22)/G22,"")</f>
         <v>1</v>
       </c>
-      <c r="Q22" s="446"/>
-      <c r="R22" s="446"/>
+      <c r="Q22" s="430"/>
+      <c r="R22" s="430"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
@@ -6401,53 +6404,53 @@
       </c>
       <c r="C23" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*C5),"")</f>
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D23" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*D5),"")</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*E5),"")</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*F5),"")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="122">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(C23:F23),"")</f>
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J23" s="113" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*C5),"")</f>
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L23" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*D5),"")</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M23" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*E5),"")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*F5),"")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O23" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(K23:N23),"")</f>
-        <v>296</v>
-      </c>
-      <c r="P23" s="446">
+        <v>279</v>
+      </c>
+      <c r="P23" s="430">
         <f>IFERROR((G23-O23)/G23,"")</f>
-        <v>0.13450292397660818</v>
-      </c>
-      <c r="Q23" s="446"/>
-      <c r="R23" s="446"/>
+        <v>0.17699115044247787</v>
+      </c>
+      <c r="Q23" s="430"/>
+      <c r="R23" s="430"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
@@ -6497,12 +6500,12 @@
         <f>IF(HDRAG_HAS_REC_HMID,SUM(K24:N24),"")</f>
         <v>0</v>
       </c>
-      <c r="P24" s="446">
+      <c r="P24" s="430">
         <f>IFERROR((G24-O24)/G24,"")</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="446"/>
-      <c r="R24" s="446"/>
+      <c r="Q24" s="430"/>
+      <c r="R24" s="430"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -6552,12 +6555,12 @@
         <f>IF(HDRAG_HAS_REC_HJUP,SUM(K25:N25),"")</f>
         <v/>
       </c>
-      <c r="P25" s="446" t="str">
+      <c r="P25" s="430" t="str">
         <f>IFERROR((G25-O25)/G25,"")</f>
         <v/>
       </c>
-      <c r="Q25" s="446"/>
-      <c r="R25" s="446"/>
+      <c r="Q25" s="430"/>
+      <c r="R25" s="430"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
@@ -6607,33 +6610,33 @@
         <f>IF(HDRAG_HAS_REC_HZOD,SUM(K26:N26),"")</f>
         <v/>
       </c>
-      <c r="P26" s="446" t="str">
+      <c r="P26" s="430" t="str">
         <f>IFERROR((G26-O26)/G26,"")</f>
         <v/>
       </c>
-      <c r="Q26" s="446"/>
-      <c r="R26" s="446"/>
+      <c r="Q26" s="430"/>
+      <c r="R26" s="430"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="350" t="s">
+      <c r="B27" s="354" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="350"/>
-      <c r="D27" s="350"/>
-      <c r="E27" s="350"/>
-      <c r="F27" s="350"/>
-      <c r="G27" s="350"/>
-      <c r="K27" s="407" t="s">
+      <c r="C27" s="354"/>
+      <c r="D27" s="354"/>
+      <c r="E27" s="354"/>
+      <c r="F27" s="354"/>
+      <c r="G27" s="354"/>
+      <c r="K27" s="408" t="s">
         <v>140</v>
       </c>
-      <c r="L27" s="407"/>
-      <c r="M27" s="407"/>
-      <c r="N27" s="407"/>
-      <c r="O27" s="407"/>
-      <c r="P27" s="407"/>
-      <c r="Q27" s="407"/>
-      <c r="R27" s="407"/>
+      <c r="L27" s="408"/>
+      <c r="M27" s="408"/>
+      <c r="N27" s="408"/>
+      <c r="O27" s="408"/>
+      <c r="P27" s="408"/>
+      <c r="Q27" s="408"/>
+      <c r="R27" s="408"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
@@ -6668,11 +6671,11 @@
       <c r="O28" s="312" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="404" t="s">
+      <c r="P28" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="404"/>
-      <c r="R28" s="404"/>
+      <c r="Q28" s="405"/>
+      <c r="R28" s="405"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
@@ -6722,12 +6725,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K29:N29),"")</f>
         <v>0</v>
       </c>
-      <c r="P29" s="446">
+      <c r="P29" s="430">
         <f>IFERROR((G29-O29)/G29,"")</f>
         <v>1</v>
       </c>
-      <c r="Q29" s="446"/>
-      <c r="R29" s="446"/>
+      <c r="Q29" s="430"/>
+      <c r="R29" s="430"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
@@ -6736,53 +6739,53 @@
       </c>
       <c r="C30" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*C5),"")</f>
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D30" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*D5),"")</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E30" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*E5),"")</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F30" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*F5),"")</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="122">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(C30:F30),"")</f>
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J30" s="113" t="s">
         <v>46</v>
       </c>
       <c r="K30" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($O4/$G$4)*C5),"")</f>
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L30" s="316">
         <f>IF(OR($O4=0,$O4=""),"",_xlfn.CEILING.MATH(($O4/$G$4)*D5))</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M30" s="316">
         <f>IF(OR($O4=0,$O4=""),"",_xlfn.CEILING.MATH(($O4/$G$4)*E5))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N30" s="316">
         <f>IF(OR($O4=0,$O4=""),"",_xlfn.CEILING.MATH(($O4/$G$4)*F5))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(K30:N30),"")</f>
-        <v>222</v>
-      </c>
-      <c r="P30" s="446">
+        <v>209</v>
+      </c>
+      <c r="P30" s="430">
         <f>IFERROR((G30-O30)/G30,"")</f>
-        <v>0.53556485355648531</v>
-      </c>
-      <c r="Q30" s="446"/>
-      <c r="R30" s="446"/>
+        <v>0.56092436974789917</v>
+      </c>
+      <c r="Q30" s="430"/>
+      <c r="R30" s="430"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
@@ -6832,12 +6835,12 @@
         <f>IF(HDRAG_HAS_REC_HMID,SUM(K31:N31),"")</f>
         <v>0</v>
       </c>
-      <c r="P31" s="446">
+      <c r="P31" s="430">
         <f>IFERROR((G31-O31)/G31,"")</f>
         <v>1</v>
       </c>
-      <c r="Q31" s="446"/>
-      <c r="R31" s="446"/>
+      <c r="Q31" s="430"/>
+      <c r="R31" s="430"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
@@ -6887,12 +6890,12 @@
         <f>IF(HDRAG_HAS_REC_HJUP,SUM(K32:N32),"")</f>
         <v/>
       </c>
-      <c r="P32" s="446" t="str">
+      <c r="P32" s="430" t="str">
         <f>IFERROR((G32-O32)/G32,"")</f>
         <v/>
       </c>
-      <c r="Q32" s="446"/>
-      <c r="R32" s="446"/>
+      <c r="Q32" s="430"/>
+      <c r="R32" s="430"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
@@ -6942,33 +6945,33 @@
         <f>IF(HDRAG_HAS_REC_HZOD,SUM(K33:N33),"")</f>
         <v/>
       </c>
-      <c r="P33" s="446" t="str">
+      <c r="P33" s="430" t="str">
         <f>IFERROR((G33-O33)/G33,"")</f>
         <v/>
       </c>
-      <c r="Q33" s="446"/>
-      <c r="R33" s="446"/>
+      <c r="Q33" s="430"/>
+      <c r="R33" s="430"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
-      <c r="B34" s="350" t="s">
+      <c r="B34" s="354" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="350"/>
-      <c r="D34" s="350"/>
-      <c r="E34" s="350"/>
-      <c r="F34" s="350"/>
-      <c r="G34" s="350"/>
-      <c r="K34" s="407" t="s">
+      <c r="C34" s="354"/>
+      <c r="D34" s="354"/>
+      <c r="E34" s="354"/>
+      <c r="F34" s="354"/>
+      <c r="G34" s="354"/>
+      <c r="K34" s="408" t="s">
         <v>140</v>
       </c>
-      <c r="L34" s="407"/>
-      <c r="M34" s="407"/>
-      <c r="N34" s="407"/>
-      <c r="O34" s="407"/>
-      <c r="P34" s="407"/>
-      <c r="Q34" s="407"/>
-      <c r="R34" s="407"/>
+      <c r="L34" s="408"/>
+      <c r="M34" s="408"/>
+      <c r="N34" s="408"/>
+      <c r="O34" s="408"/>
+      <c r="P34" s="408"/>
+      <c r="Q34" s="408"/>
+      <c r="R34" s="408"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
@@ -7003,11 +7006,11 @@
       <c r="O35" s="312" t="s">
         <v>45</v>
       </c>
-      <c r="P35" s="404" t="s">
+      <c r="P35" s="405" t="s">
         <v>28</v>
       </c>
-      <c r="Q35" s="404"/>
-      <c r="R35" s="404"/>
+      <c r="Q35" s="405"/>
+      <c r="R35" s="405"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
@@ -7057,12 +7060,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K36:N36),"")</f>
         <v>0</v>
       </c>
-      <c r="P36" s="446">
+      <c r="P36" s="430">
         <f>IFERROR((G36-O36)/G36,"")</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="446"/>
-      <c r="R36" s="446"/>
+      <c r="Q36" s="430"/>
+      <c r="R36" s="430"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
@@ -7071,30 +7074,30 @@
       </c>
       <c r="C37" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*C5),"")</f>
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D37" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*D5),"")</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E37" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*E5),"")</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F37" s="117">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*F5),"")</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G37" s="122">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(C37:F37),"")</f>
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J37" s="113" t="s">
         <v>46</v>
       </c>
       <c r="K37" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*C5),"")</f>
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="L37" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*D5),"")</f>
@@ -7102,22 +7105,22 @@
       </c>
       <c r="M37" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*E5),"")</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N37" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*F5),"")</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O37" s="316">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(K37:N37),"")</f>
-        <v>497</v>
-      </c>
-      <c r="P37" s="446">
+        <v>481</v>
+      </c>
+      <c r="P37" s="430">
         <f>IFERROR((G37-O37)/G37,"")</f>
-        <v>8.639705882352941E-2</v>
-      </c>
-      <c r="Q37" s="446"/>
-      <c r="R37" s="446"/>
+        <v>0.10925925925925926</v>
+      </c>
+      <c r="Q37" s="430"/>
+      <c r="R37" s="430"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
@@ -7167,12 +7170,12 @@
         <f>IF(HDRAG_HAS_REC_HMID,SUM(K38:N38),"")</f>
         <v>0</v>
       </c>
-      <c r="P38" s="446">
+      <c r="P38" s="430">
         <f>IFERROR((G38-O38)/G38,"")</f>
         <v>1</v>
       </c>
-      <c r="Q38" s="446"/>
-      <c r="R38" s="446"/>
+      <c r="Q38" s="430"/>
+      <c r="R38" s="430"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
@@ -7222,12 +7225,12 @@
         <f>IF(HDRAG_HAS_REC_HJUP,SUM(K39:N39),"")</f>
         <v/>
       </c>
-      <c r="P39" s="446" t="str">
+      <c r="P39" s="430" t="str">
         <f>IFERROR((G39-O39)/G39,"")</f>
         <v/>
       </c>
-      <c r="Q39" s="446"/>
-      <c r="R39" s="446"/>
+      <c r="Q39" s="430"/>
+      <c r="R39" s="430"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
@@ -7277,12 +7280,12 @@
         <f>IF(HDRAG_HAS_REC_HZOD,SUM(K40:N40),"")</f>
         <v/>
       </c>
-      <c r="P40" s="446" t="str">
+      <c r="P40" s="430" t="str">
         <f>IFERROR((G40-O40)/G40,"")</f>
         <v/>
       </c>
-      <c r="Q40" s="446"/>
-      <c r="R40" s="446"/>
+      <c r="Q40" s="430"/>
+      <c r="R40" s="430"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
@@ -7298,19 +7301,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="K27:R27"/>
     <mergeCell ref="K20:R20"/>
     <mergeCell ref="K13:R13"/>
@@ -7326,30 +7340,19 @@
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="P19:R19"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="K34:R34"/>
   </mergeCells>
   <conditionalFormatting sqref="K1">
     <cfRule type="dataBar" priority="26">
@@ -9484,7 +9487,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9658,6 +9661,9 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -9672,6 +9678,9 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -9686,6 +9695,9 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -9712,6 +9724,9 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
         <v>2</v>
       </c>
     </row>
@@ -13224,15 +13239,15 @@
     <col min="2" max="2" width="6.140625" style="39" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="72" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="139" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="139" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="139" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="139" customWidth="1"/>
     <col min="7" max="9" width="6.28515625" style="39" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" style="39" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" style="139" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" style="139" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="139" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="139" customWidth="1"/>
     <col min="14" max="14" width="6.7109375" style="70" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="39" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" style="39" customWidth="1"/>
     <col min="16" max="16" width="6.28515625" style="39" customWidth="1"/>
     <col min="17" max="17" width="6.85546875" style="39" customWidth="1"/>
     <col min="18" max="18" width="7.5703125" style="39" customWidth="1"/>
@@ -13324,7 +13339,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="370" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="194" t="s">
@@ -13427,7 +13442,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="365"/>
+      <c r="A3" s="371"/>
       <c r="B3" s="175" t="s">
         <v>107</v>
       </c>
@@ -13528,7 +13543,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="376" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="216" t="s">
@@ -13607,7 +13622,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="371"/>
+      <c r="A5" s="377"/>
       <c r="B5" s="221" t="s">
         <v>107</v>
       </c>
@@ -13710,7 +13725,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="366" t="s">
+      <c r="A6" s="372" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="226" t="s">
@@ -13816,7 +13831,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="367"/>
+      <c r="A7" s="373"/>
       <c r="B7" s="231" t="s">
         <v>107</v>
       </c>
@@ -13894,7 +13909,7 @@
       <c r="AI7" s="62"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="372" t="s">
+      <c r="A8" s="378" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="236" t="s">
@@ -13977,10 +13992,10 @@
       <c r="W8" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="380" t="s">
+      <c r="X8" s="357" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="380"/>
+      <c r="Y8" s="357"/>
       <c r="Z8" s="7" t="s">
         <v>23</v>
       </c>
@@ -14007,7 +14022,7 @@
       <c r="AI8" s="62"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="373"/>
+      <c r="A9" s="379"/>
       <c r="B9" s="241" t="s">
         <v>107</v>
       </c>
@@ -14082,7 +14097,7 @@
         <f>SUM(D迎擊!X:X)</f>
         <v>502</v>
       </c>
-      <c r="V9" s="378" t="s">
+      <c r="V9" s="368" t="s">
         <v>20</v>
       </c>
       <c r="W9" s="84">
@@ -14103,7 +14118,7 @@
         <f t="shared" ref="AA9:AA16" si="7">IFERROR(Z9*BOOST_PRICE,"")</f>
         <v/>
       </c>
-      <c r="AB9" s="379" t="s">
+      <c r="AB9" s="369" t="s">
         <v>13</v>
       </c>
       <c r="AC9" s="84">
@@ -14128,7 +14143,7 @@
       <c r="AI9" s="62"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="368" t="s">
+      <c r="A10" s="374" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="246" t="s">
@@ -14205,7 +14220,7 @@
         <f>SUM(D迎擊!AA:AA)</f>
         <v>372</v>
       </c>
-      <c r="V10" s="378"/>
+      <c r="V10" s="368"/>
       <c r="W10" s="84">
         <v>30</v>
       </c>
@@ -14224,7 +14239,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB10" s="379"/>
+      <c r="AB10" s="369"/>
       <c r="AC10" s="84">
         <v>30</v>
       </c>
@@ -14247,7 +14262,7 @@
       <c r="AI10" s="62"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="369"/>
+      <c r="A11" s="375"/>
       <c r="B11" s="251" t="s">
         <v>107</v>
       </c>
@@ -14322,7 +14337,7 @@
         <f>SUM(D迎擊!AD:AD)</f>
         <v>89</v>
       </c>
-      <c r="V11" s="377" t="s">
+      <c r="V11" s="367" t="s">
         <v>10</v>
       </c>
       <c r="W11" s="85">
@@ -14343,7 +14358,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB11" s="381" t="s">
+      <c r="AB11" s="358" t="s">
         <v>7</v>
       </c>
       <c r="AC11" s="85">
@@ -14368,7 +14383,7 @@
       <c r="AI11" s="62"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="356" t="s">
+      <c r="A12" s="380" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="256" t="s">
@@ -14414,15 +14429,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P12" s="363">
+      <c r="P12" s="362">
         <f>MAX(SUM(P2,P4,P6,P8,P10),SUM(P3,P5,P7,P9,P11),P14,P15,P16)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="363">
+      <c r="Q12" s="362">
         <f>MAX(SUM(Q2,Q4,Q6,Q8,Q10),SUM(Q3,Q5,Q7,Q9,Q11),P14,P15,P16)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="383">
+      <c r="R12" s="360">
         <f>MAX(SUM(R2,R4,R6,R8,R10),SUM(R3,R5,R7,R9,R11),R14,R15,R16)</f>
         <v>0</v>
       </c>
@@ -14434,7 +14449,7 @@
         <f>SUM(T2,T4,T6,T8,T10)</f>
         <v>3623</v>
       </c>
-      <c r="V12" s="377"/>
+      <c r="V12" s="367"/>
       <c r="W12" s="85">
         <v>30</v>
       </c>
@@ -14453,7 +14468,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB12" s="381"/>
+      <c r="AB12" s="358"/>
       <c r="AC12" s="85">
         <v>30</v>
       </c>
@@ -14476,7 +14491,7 @@
       <c r="AI12" s="62"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="357"/>
+      <c r="A13" s="381"/>
       <c r="B13" s="57" t="s">
         <v>107</v>
       </c>
@@ -14520,9 +14535,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P13" s="359"/>
-      <c r="Q13" s="359"/>
-      <c r="R13" s="384"/>
+      <c r="P13" s="363"/>
+      <c r="Q13" s="363"/>
+      <c r="R13" s="361"/>
       <c r="S13" s="191">
         <f>(S3*T3+S5*T5+S7*T7+S9*T9+S11*T11) / T$13</f>
         <v>1.5223880597014925</v>
@@ -14531,7 +14546,7 @@
         <f>SUM(T3,T5,T7,T9,T11)</f>
         <v>603</v>
       </c>
-      <c r="V13" s="376" t="s">
+      <c r="V13" s="366" t="s">
         <v>5</v>
       </c>
       <c r="W13" s="86">
@@ -14552,7 +14567,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB13" s="382" t="s">
+      <c r="AB13" s="359" t="s">
         <v>4</v>
       </c>
       <c r="AC13" s="86">
@@ -14577,7 +14592,7 @@
       <c r="AI13" s="62"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="357"/>
+      <c r="A14" s="381"/>
       <c r="B14" s="57" t="s">
         <v>118</v>
       </c>
@@ -14614,11 +14629,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P14" s="359">
+      <c r="P14" s="363">
         <f>IFERROR(ROUND(N14/S14,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="359"/>
+      <c r="Q14" s="363"/>
       <c r="R14" s="193">
         <f>P14/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -14627,11 +14642,11 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AE:AE,D迎擊!AK:AK)/T$14,"")</f>
         <v>1.7213930348258706</v>
       </c>
-      <c r="T14" s="361">
+      <c r="T14" s="384">
         <f>SUM(D迎擊!AK:AK)</f>
         <v>603</v>
       </c>
-      <c r="V14" s="376"/>
+      <c r="V14" s="366"/>
       <c r="W14" s="86">
         <v>30</v>
       </c>
@@ -14650,7 +14665,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB14" s="382"/>
+      <c r="AB14" s="359"/>
       <c r="AC14" s="86">
         <v>30</v>
       </c>
@@ -14673,7 +14688,7 @@
       <c r="AI14" s="62"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="357"/>
+      <c r="A15" s="381"/>
       <c r="B15" s="57" t="s">
         <v>119</v>
       </c>
@@ -14710,11 +14725,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P15" s="359">
+      <c r="P15" s="363">
         <f>IFERROR(ROUND(N15/S15,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="359"/>
+      <c r="Q15" s="363"/>
       <c r="R15" s="193">
         <f>P15/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -14723,8 +14738,8 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AG:AG,D迎擊!AK:AK)/T$14,"")</f>
         <v>1.9104477611940298</v>
       </c>
-      <c r="T15" s="361"/>
-      <c r="V15" s="375" t="s">
+      <c r="T15" s="384"/>
+      <c r="V15" s="365" t="s">
         <v>3</v>
       </c>
       <c r="W15" s="87">
@@ -14745,7 +14760,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB15" s="374" t="s">
+      <c r="AB15" s="364" t="s">
         <v>2</v>
       </c>
       <c r="AC15" s="88">
@@ -14770,7 +14785,7 @@
       <c r="AI15" s="62"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="358"/>
+      <c r="A16" s="382"/>
       <c r="B16" s="264" t="s">
         <v>120</v>
       </c>
@@ -14807,11 +14822,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P16" s="360">
+      <c r="P16" s="383">
         <f>IFERROR(ROUND(N16/S16,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="360"/>
+      <c r="Q16" s="383"/>
       <c r="R16" s="269">
         <f>Q16/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -14820,8 +14835,8 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AI:AI,D迎擊!AK:AK)/T$14,"")</f>
         <v>12.344941956882256</v>
       </c>
-      <c r="T16" s="362"/>
-      <c r="V16" s="375"/>
+      <c r="T16" s="385"/>
+      <c r="V16" s="365"/>
       <c r="W16" s="87">
         <v>30</v>
       </c>
@@ -14840,7 +14855,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB16" s="374"/>
+      <c r="AB16" s="364"/>
       <c r="AC16" s="88">
         <v>30</v>
       </c>
@@ -14863,28 +14878,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="AB15:AB16"/>
     <mergeCell ref="V15:V16"/>
     <mergeCell ref="V13:V14"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="Q12:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="O3">
     <cfRule type="dataBar" priority="23">
@@ -15195,102 +15210,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="386" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="386" t="s">
+      <c r="B1" s="386"/>
+      <c r="C1" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="386" t="s">
+      <c r="D1" s="391" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386" t="s">
+      <c r="E1" s="391"/>
+      <c r="F1" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="399" t="s">
+      <c r="G1" s="397" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="399"/>
-      <c r="I1" s="385" t="s">
+      <c r="H1" s="397"/>
+      <c r="I1" s="392" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="385" t="s">
+      <c r="J1" s="392" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="385"/>
-      <c r="L1" s="385" t="s">
+      <c r="K1" s="392"/>
+      <c r="L1" s="392" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="398" t="s">
+      <c r="M1" s="396" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="398"/>
-      <c r="O1" s="397" t="s">
+      <c r="N1" s="396"/>
+      <c r="O1" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="397" t="s">
+      <c r="P1" s="393" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="397"/>
-      <c r="R1" s="397" t="s">
+      <c r="Q1" s="393"/>
+      <c r="R1" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="391" t="s">
+      <c r="S1" s="400" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="391"/>
-      <c r="U1" s="390" t="s">
+      <c r="T1" s="400"/>
+      <c r="U1" s="394" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="390" t="s">
+      <c r="V1" s="394" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="390"/>
-      <c r="X1" s="390" t="s">
+      <c r="W1" s="394"/>
+      <c r="X1" s="394" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="389" t="s">
+      <c r="Y1" s="399" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="389"/>
-      <c r="AA1" s="388" t="s">
+      <c r="Z1" s="399"/>
+      <c r="AA1" s="395" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="388" t="s">
+      <c r="AB1" s="395" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="388"/>
-      <c r="AD1" s="388" t="s">
+      <c r="AC1" s="395"/>
+      <c r="AD1" s="395" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="395" t="s">
+      <c r="AE1" s="389" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" s="395"/>
-      <c r="AG1" s="396" t="s">
+      <c r="AF1" s="389"/>
+      <c r="AG1" s="390" t="s">
         <v>119</v>
       </c>
-      <c r="AH1" s="396"/>
-      <c r="AI1" s="393" t="s">
+      <c r="AH1" s="390"/>
+      <c r="AI1" s="387" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="393"/>
-      <c r="AK1" s="394" t="s">
+      <c r="AJ1" s="387"/>
+      <c r="AK1" s="388" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="387" t="s">
+      <c r="AM1" s="398" t="s">
         <v>71</v>
       </c>
-      <c r="AN1" s="387"/>
-      <c r="AO1" s="387"/>
-      <c r="AP1" s="387"/>
-      <c r="AQ1" s="387"/>
-      <c r="AR1" s="387"/>
-      <c r="AS1" s="387"/>
-      <c r="AT1" s="387"/>
-      <c r="AU1" s="387"/>
+      <c r="AN1" s="398"/>
+      <c r="AO1" s="398"/>
+      <c r="AP1" s="398"/>
+      <c r="AQ1" s="398"/>
+      <c r="AR1" s="398"/>
+      <c r="AS1" s="398"/>
+      <c r="AT1" s="398"/>
+      <c r="AU1" s="398"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="150" t="s">
@@ -15299,70 +15314,70 @@
       <c r="B2" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="386"/>
+      <c r="C2" s="391"/>
       <c r="D2" s="149" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="386"/>
+      <c r="F2" s="391"/>
       <c r="G2" s="130" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="385"/>
+      <c r="I2" s="392"/>
       <c r="J2" s="148" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="385"/>
+      <c r="L2" s="392"/>
       <c r="M2" s="131" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="397"/>
+      <c r="O2" s="393"/>
       <c r="P2" s="131" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="397"/>
+      <c r="R2" s="393"/>
       <c r="S2" s="132" t="s">
         <v>32</v>
       </c>
       <c r="T2" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="U2" s="390"/>
+      <c r="U2" s="394"/>
       <c r="V2" s="132" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="X2" s="390"/>
+      <c r="X2" s="394"/>
       <c r="Y2" s="133" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" s="388"/>
+      <c r="AA2" s="395"/>
       <c r="AB2" s="133" t="s">
         <v>32</v>
       </c>
       <c r="AC2" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="AD2" s="388"/>
+      <c r="AD2" s="395"/>
       <c r="AE2" s="136" t="s">
         <v>32</v>
       </c>
@@ -15381,7 +15396,7 @@
       <c r="AJ2" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="AK2" s="394"/>
+      <c r="AK2" s="388"/>
       <c r="AM2" s="62" t="s">
         <v>19</v>
       </c>
@@ -17306,6 +17321,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AM1:AU1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AK2"/>
@@ -17322,15 +17346,6 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AM1:AU1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17363,15 +17378,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="402" t="s">
+      <c r="A1" s="403" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402"/>
+      <c r="B1" s="403"/>
+      <c r="C1" s="403"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
       <c r="J1" s="24"/>
       <c r="K1" s="23" t="s">
         <v>31</v>
@@ -17393,19 +17408,19 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="405" t="s">
+      <c r="A2" s="406" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="405"/>
-      <c r="C2" s="406" t="s">
+      <c r="B2" s="406"/>
+      <c r="C2" s="407" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="406"/>
-      <c r="E2" s="404" t="s">
+      <c r="D2" s="407"/>
+      <c r="E2" s="405" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
       <c r="J2" s="23" t="s">
         <v>57</v>
       </c>
@@ -17445,11 +17460,11 @@
       <c r="E3" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="400">
+      <c r="F3" s="401">
         <f>_xlfn.FLOOR.MATH(B7/MAX(DATA_DRAG_ACCU_EXP))</f>
         <v>8</v>
       </c>
-      <c r="G3" s="400"/>
+      <c r="G3" s="401"/>
       <c r="J3" s="23" t="s">
         <v>58</v>
       </c>
@@ -17489,11 +17504,11 @@
       <c r="E4" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="400">
+      <c r="F4" s="401">
         <f>MATCH(B10,DATA_DRAG_ACCU_EXP,0)</f>
         <v>56</v>
       </c>
-      <c r="G4" s="400"/>
+      <c r="G4" s="401"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -17518,11 +17533,11 @@
       <c r="E5" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="400">
+      <c r="F5" s="401">
         <f>INDEX(DATA_DRAG_LV_EXP,F4)-(B9-B10)</f>
         <v>6790</v>
       </c>
-      <c r="G5" s="400"/>
+      <c r="G5" s="401"/>
       <c r="J5" s="22" t="s">
         <v>76</v>
       </c>
@@ -17534,11 +17549,11 @@
       <c r="M5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="403">
+      <c r="N5" s="404">
         <f>IF(K6&gt;0,K5/K6,"")</f>
         <v>2478.125</v>
       </c>
-      <c r="O5" s="403"/>
+      <c r="O5" s="404"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17580,11 +17595,11 @@
         <v>67</v>
       </c>
       <c r="D7" s="103"/>
-      <c r="E7" s="350" t="s">
+      <c r="E7" s="354" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="350"/>
-      <c r="G7" s="350"/>
+      <c r="F7" s="354"/>
+      <c r="G7" s="354"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -17601,10 +17616,10 @@
         <f>D3*DRAGON_EXP_60+D4*DRAGON_EXP_80+D5*DRAGON_EXP_100+INDEX(DATA_DRAG_ACCU_EXP,D6)+(INDEX(DATA_DRAG_LV_EXP,D6)-D7)</f>
         <v>240</v>
       </c>
-      <c r="E8" s="350" t="s">
+      <c r="E8" s="354" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="401">
+      <c r="F8" s="402">
         <f>IF(G9 &gt; 0,SUM(DATA_DRAGON_EXP)/G9,0)</f>
         <v>2673.9277652370201</v>
       </c>
@@ -17624,8 +17639,8 @@
         <f>MOD(B7,DRAGON_EXP_100)</f>
         <v>234350</v>
       </c>
-      <c r="E9" s="350"/>
-      <c r="F9" s="401"/>
+      <c r="E9" s="354"/>
+      <c r="F9" s="402"/>
       <c r="G9" s="96">
         <f>SUM(DATA_DRAGON_PLAYS)</f>
         <v>443</v>
@@ -19345,8 +19360,8 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19371,7 +19386,7 @@
       <c r="E1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="407" t="s">
+      <c r="F1" s="408" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="24"/>
@@ -19408,7 +19423,7 @@
       <c r="E2" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="407"/>
+      <c r="F2" s="408"/>
       <c r="H2" s="23" t="s">
         <v>57</v>
       </c>
@@ -19738,10 +19753,13 @@
       <c r="I10" s="272" t="s">
         <v>138</v>
       </c>
-      <c r="L10" s="272" t="s">
+      <c r="J10" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="M10" s="134"/>
+      <c r="L10" s="272"/>
+      <c r="M10" s="350" t="s">
+        <v>138</v>
+      </c>
       <c r="N10" s="134"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19752,16 +19770,17 @@
       <c r="H11" s="280" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="272"/>
-      <c r="J11" s="272" t="s">
+      <c r="I11" s="272" t="s">
         <v>138</v>
       </c>
+      <c r="J11" s="272"/>
       <c r="L11" s="272" t="s">
         <v>138</v>
       </c>
-      <c r="O11" s="272" t="s">
+      <c r="N11" s="39" t="s">
         <v>138</v>
       </c>
+      <c r="O11" s="272"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="306">
@@ -19792,15 +19811,11 @@
       <c r="J12" s="272" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="272" t="s">
-        <v>138</v>
-      </c>
+      <c r="L12" s="272"/>
       <c r="M12" s="272" t="s">
         <v>138</v>
       </c>
-      <c r="N12" s="272" t="s">
-        <v>138</v>
-      </c>
+      <c r="N12" s="272"/>
       <c r="O12" s="272" t="s">
         <v>138</v>
       </c>
@@ -19813,7 +19828,8 @@
       <c r="H13" s="285" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="272" t="s">
+      <c r="I13" s="272"/>
+      <c r="J13" s="39" t="s">
         <v>138</v>
       </c>
       <c r="K13" s="272" t="s">
@@ -19822,9 +19838,7 @@
       <c r="M13" s="272" t="s">
         <v>138</v>
       </c>
-      <c r="N13" s="272" t="s">
-        <v>138</v>
-      </c>
+      <c r="N13" s="272"/>
       <c r="O13" s="272" t="s">
         <v>138</v>
       </c>
@@ -19886,7 +19900,14 @@
         <v>104</v>
       </c>
       <c r="I16" s="272"/>
-      <c r="K16" s="272" t="s">
+      <c r="K16" s="272"/>
+      <c r="L16" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="39" t="s">
         <v>138</v>
       </c>
     </row>
@@ -19899,15 +19920,14 @@
         <v>105</v>
       </c>
       <c r="I17" s="272"/>
-      <c r="J17" s="272" t="s">
-        <v>138</v>
-      </c>
+      <c r="J17" s="272"/>
       <c r="K17" s="272" t="s">
         <v>138</v>
       </c>
-      <c r="M17" s="272" t="s">
+      <c r="L17" s="39" t="s">
         <v>138</v>
       </c>
+      <c r="M17" s="272"/>
       <c r="N17" s="272" t="s">
         <v>138</v>
       </c>
@@ -20173,62 +20193,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="271" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="411" t="s">
+      <c r="A1" s="412" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="412"/>
-      <c r="C1" s="412"/>
-      <c r="D1" s="412"/>
-      <c r="E1" s="413"/>
-      <c r="F1" s="411" t="s">
+      <c r="B1" s="413"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="412" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="412"/>
-      <c r="H1" s="412"/>
-      <c r="I1" s="412"/>
-      <c r="J1" s="413"/>
-      <c r="K1" s="411" t="s">
+      <c r="G1" s="413"/>
+      <c r="H1" s="413"/>
+      <c r="I1" s="413"/>
+      <c r="J1" s="414"/>
+      <c r="K1" s="412" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="412"/>
-      <c r="M1" s="412"/>
-      <c r="N1" s="412"/>
-      <c r="O1" s="413"/>
-      <c r="P1" s="420" t="s">
+      <c r="L1" s="413"/>
+      <c r="M1" s="413"/>
+      <c r="N1" s="413"/>
+      <c r="O1" s="414"/>
+      <c r="P1" s="421" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="421"/>
-      <c r="R1" s="421"/>
-      <c r="S1" s="421"/>
-      <c r="T1" s="422"/>
-      <c r="U1" s="417" t="s">
+      <c r="Q1" s="422"/>
+      <c r="R1" s="422"/>
+      <c r="S1" s="422"/>
+      <c r="T1" s="423"/>
+      <c r="U1" s="418" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="418"/>
-      <c r="W1" s="418"/>
-      <c r="X1" s="418"/>
-      <c r="Y1" s="419"/>
-      <c r="Z1" s="414" t="s">
+      <c r="V1" s="419"/>
+      <c r="W1" s="419"/>
+      <c r="X1" s="419"/>
+      <c r="Y1" s="420"/>
+      <c r="Z1" s="415" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="415"/>
-      <c r="AB1" s="415"/>
-      <c r="AC1" s="415"/>
-      <c r="AD1" s="416"/>
-      <c r="AE1" s="408" t="s">
+      <c r="AA1" s="416"/>
+      <c r="AB1" s="416"/>
+      <c r="AC1" s="416"/>
+      <c r="AD1" s="417"/>
+      <c r="AE1" s="409" t="s">
         <v>104</v>
       </c>
-      <c r="AF1" s="409"/>
-      <c r="AG1" s="409"/>
-      <c r="AH1" s="409"/>
-      <c r="AI1" s="410"/>
-      <c r="AJ1" s="408" t="s">
+      <c r="AF1" s="410"/>
+      <c r="AG1" s="410"/>
+      <c r="AH1" s="410"/>
+      <c r="AI1" s="411"/>
+      <c r="AJ1" s="409" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="409"/>
-      <c r="AL1" s="409"/>
-      <c r="AM1" s="409"/>
-      <c r="AN1" s="410"/>
+      <c r="AK1" s="410"/>
+      <c r="AL1" s="410"/>
+      <c r="AM1" s="410"/>
+      <c r="AN1" s="411"/>
     </row>
     <row r="2" spans="1:40" s="271" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="279" t="s">
@@ -20644,8 +20664,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20661,15 +20681,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="320" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="397" t="s">
+      <c r="A1" s="393" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="397"/>
+      <c r="B1" s="393"/>
       <c r="C1" s="338"/>
-      <c r="D1" s="423" t="s">
+      <c r="D1" s="424" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="423"/>
+      <c r="E1" s="424"/>
       <c r="G1" s="324"/>
       <c r="I1" s="163"/>
       <c r="J1" s="324"/>
@@ -20717,15 +20737,15 @@
       </c>
       <c r="H3" s="331">
         <f>IFERROR(_xlfn.FLOOR.MATH($E$7+$E3*$B$7),"")</f>
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="I3" s="331">
         <f>IFERROR($I$23-H3,"")</f>
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="J3" s="325">
         <f>IFERROR(IF(H3/$I$23&gt;1,1,H3/$I$23),"")</f>
-        <v>0.60590500641848521</v>
+        <v>0.67827298050139273</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -20734,7 +20754,7 @@
       </c>
       <c r="B4" s="336">
         <f>IFERROR(CLOVER_RUBY_GAMES/CLOVER_RUBY_SUM,"")</f>
-        <v>10.85</v>
+        <v>14</v>
       </c>
       <c r="C4" s="339"/>
       <c r="D4" s="332" t="s">
@@ -20749,15 +20769,15 @@
       </c>
       <c r="H4" s="332">
         <f>IFERROR(_xlfn.FLOOR.MATH($E$7+$E4*$B$7),"")</f>
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="I4" s="332">
         <f>IFERROR($I$23-H4,"")</f>
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="J4" s="325">
         <f>IFERROR(IF(H4/$I$23&gt;1,1,H4/$I$23),"")</f>
-        <v>0.6611039794608472</v>
+        <v>0.754874651810585</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -20797,13 +20817,13 @@
         <v>168</v>
       </c>
       <c r="B7" s="163">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="D7" s="324" t="s">
         <v>168</v>
       </c>
       <c r="E7" s="163">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G7" s="320"/>
       <c r="H7" s="320" t="s">
@@ -20821,15 +20841,15 @@
         <v>158</v>
       </c>
       <c r="H8" s="343">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" s="321">
         <f>IF(ISNUMBER(H8),INDEX(DRACOLITH_TALON,H8),"")</f>
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="J8" s="325">
         <f>IFERROR((DRACOLITH_TALON_MAX-I8)/DRACOLITH_TALON_MAX,"")</f>
-        <v>0.26595744680851063</v>
+        <v>0.48936170212765956</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -20898,7 +20918,7 @@
       </c>
       <c r="I13" s="324">
         <f>SUM(I8:I12)</f>
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -20936,15 +20956,15 @@
       </c>
       <c r="H17" s="342">
         <f>IF(真龍!K4&lt;&gt;0,真龍!K4,"")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17" s="342">
         <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_TALON,H17),"")</f>
-        <v>710</v>
+        <v>670</v>
       </c>
       <c r="J17" s="325">
         <f>IFERROR((HDRAG_MAX_TALON-I17)/HDRAG_MAX_TALON,"")</f>
-        <v>0.1125</v>
+        <v>0.16250000000000001</v>
       </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
@@ -21004,7 +21024,7 @@
       </c>
       <c r="I21" s="324">
         <f>SUM(I16:I20)</f>
-        <v>710</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
@@ -21013,7 +21033,7 @@
       </c>
       <c r="I23" s="324">
         <f>I13+I21</f>
-        <v>779</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.25">
@@ -21433,7 +21453,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21449,52 +21469,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="402" t="s">
+      <c r="A1" s="403" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402" t="s">
+      <c r="B1" s="403"/>
+      <c r="C1" s="403"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="402"/>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="402"/>
-      <c r="L1" s="402"/>
-      <c r="N1" s="402" t="s">
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="N1" s="403" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="402"/>
+      <c r="O1" s="403"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="424" t="s">
+      <c r="A2" s="425" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="424"/>
-      <c r="C2" s="426" t="s">
+      <c r="B2" s="425"/>
+      <c r="C2" s="427" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="426"/>
-      <c r="E2" s="425" t="s">
+      <c r="D2" s="427"/>
+      <c r="E2" s="426" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="425"/>
-      <c r="G2" s="428" t="s">
+      <c r="F2" s="426"/>
+      <c r="G2" s="429" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="428"/>
-      <c r="I2" s="425" t="s">
+      <c r="H2" s="429"/>
+      <c r="I2" s="426" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="425"/>
-      <c r="K2" s="427" t="s">
+      <c r="J2" s="426"/>
+      <c r="K2" s="428" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="427"/>
+      <c r="L2" s="428"/>
       <c r="N2" s="324" t="s">
         <v>50</v>
       </c>
@@ -21619,7 +21639,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="326">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N8" s="324">
         <v>6</v>
@@ -21629,6 +21649,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="326">
+        <v>4</v>
+      </c>
+      <c r="D9" s="326">
+        <v>64</v>
+      </c>
       <c r="N9" s="324">
         <v>7</v>
       </c>
@@ -21637,6 +21663,12 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="326">
+        <v>0</v>
+      </c>
+      <c r="D10" s="326">
+        <v>62</v>
+      </c>
       <c r="N10" s="324">
         <v>8</v>
       </c>
@@ -21645,6 +21677,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="326">
+        <v>4</v>
+      </c>
+      <c r="D11" s="326">
+        <v>47</v>
+      </c>
       <c r="N11" s="324">
         <v>9</v>
       </c>
@@ -21653,6 +21691,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="326">
+        <v>1</v>
+      </c>
+      <c r="D12" s="326">
+        <v>8</v>
+      </c>
       <c r="N12" s="324">
         <v>10</v>
       </c>

--- a/Dragalia Data.xlsx
+++ b/Dragalia Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{E209365D-5669-4541-BA1B-EBB718C718BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{24A9E85A-BFEA-40E8-B504-611006BDE96D}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{E209365D-5669-4541-BA1B-EBB718C718BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{59FAB11F-F1C5-400E-95F6-5DC738546443}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1830" windowWidth="18255" windowHeight="11550" firstSheet="1" activeTab="1" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
+    <workbookView xWindow="-22800" yWindow="2325" windowWidth="18255" windowHeight="11550" xr2:uid="{D0E79A60-AC9E-4AFD-A74C-CCE50AE0356B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raid" sheetId="16" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <definedName name="TALON_R4_CLOVER">SUM(D爪草!$I$4:$I$1048576)</definedName>
     <definedName name="TALON_R4_TALON">SUM(D爪草!$J$4:$J$1048576)</definedName>
     <definedName name="TALON_R5_CLOVER">SUM(D爪草!$K$4:$K$1048576)</definedName>
-    <definedName name="TALON_R5_TALON">SUM(D爪草!$G$4:$L$1048576)</definedName>
+    <definedName name="TALON_R5_TALON">SUM(D爪草!$L$4:$L$1048576)</definedName>
     <definedName name="VOID_DARK_GOLEM_GAMES">SUM(D虛空!$AJ:$AJ)</definedName>
     <definedName name="VOID_DARK_GOLEM_GOLD">SUM(D虛空!$AK:$AK)</definedName>
     <definedName name="VOID_DARK_GOLEM_SILVER">SUM(D虛空!$AL:$AL)</definedName>
@@ -137,7 +137,6 @@
     <definedName name="WINGS_RECOVER_NUM" comment="Count of wings can be recovered at once.">12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -152,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="178">
   <si>
     <t>STR %</t>
   </si>
@@ -677,6 +676,15 @@
   </si>
   <si>
     <t>稀有</t>
+  </si>
+  <si>
+    <t>風蘑菇</t>
+  </si>
+  <si>
+    <t>特殊2</t>
+  </si>
+  <si>
+    <t>暗幽靈</t>
   </si>
 </sst>
 </file>
@@ -2306,22 +2314,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2333,9 +2410,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2345,117 +2419,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2546,6 +2554,42 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2562,42 +2606,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3069,8 +3077,8 @@
   </sheetPr>
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,44 +3096,44 @@
       <c r="A1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="360">
-        <v>43523.916666666664</v>
-      </c>
-      <c r="C1" s="360"/>
+      <c r="B1" s="358">
+        <v>43615.958333333336</v>
+      </c>
+      <c r="C1" s="358"/>
       <c r="D1" s="35" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="356" t="s">
+      <c r="F1" s="359" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="356"/>
-      <c r="H1" s="356"/>
+      <c r="G1" s="359"/>
+      <c r="H1" s="359"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="360">
-        <v>43535.916666666664</v>
-      </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="37" t="str">
+      <c r="B2" s="358">
+        <v>43627.958333333336</v>
+      </c>
+      <c r="C2" s="358"/>
+      <c r="D2" s="37">
         <f ca="1">IF(RAID_TIME_END-NOW()&lt;0,"",RAID_TIME_END-NOW())</f>
-        <v/>
+        <v>11.221069675928447</v>
       </c>
       <c r="E2" s="30">
         <f>B2-B1</f>
         <v>12</v>
       </c>
-      <c r="F2" s="361" t="str">
+      <c r="F2" s="360">
         <f ca="1">IF(NOW() &gt; $B$2,"",(NOW()-$B$1)/($B$2-$B$1))</f>
-        <v/>
-      </c>
-      <c r="G2" s="361"/>
-      <c r="H2" s="361"/>
+        <v>6.491086033929605E-2</v>
+      </c>
+      <c r="G2" s="360"/>
+      <c r="H2" s="360"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -3159,31 +3167,31 @@
       </c>
       <c r="B5" s="29">
         <f>LOOKUP(2,1/(NOT(ISBLANK(B:B))),B:B)</f>
-        <v>139176</v>
+        <v>1511</v>
       </c>
       <c r="C5" s="29">
         <f ca="1">$E$5*(NOW()-$B$1)/$E$2</f>
-        <v>972780.29947920004</v>
+        <v>9736.6290508944076</v>
       </c>
       <c r="D5" s="29">
         <f ca="1">B5*$E$2/(NOW()-$B$1)</f>
-        <v>21460.549736848756</v>
+        <v>23278.076921209184</v>
       </c>
       <c r="E5" s="168">
         <v>150000</v>
       </c>
-      <c r="F5" s="358">
+      <c r="F5" s="361">
         <f>B5/E5</f>
-        <v>0.92784</v>
-      </c>
-      <c r="G5" s="358"/>
+        <v>1.0073333333333333E-2</v>
+      </c>
+      <c r="G5" s="361"/>
       <c r="H5" s="32">
         <f ca="1">B5 - (E5*(NOW()-$B$1)/$E$2)</f>
-        <v>-833604.29947920004</v>
+        <v>-8225.6290508944076</v>
       </c>
       <c r="I5" s="32">
         <f ca="1">D5-RAID_GOAL_EMBLEM</f>
-        <v>-128539.45026315124</v>
+        <v>-126721.92307879082</v>
       </c>
       <c r="J5" s="21"/>
     </row>
@@ -3193,40 +3201,40 @@
       </c>
       <c r="B6" s="29">
         <f>LOOKUP(2,1/(NOT(ISBLANK(C:C))),C:C)</f>
-        <v>121735</v>
+        <v>1395</v>
       </c>
       <c r="C6" s="29">
         <f ca="1">$E$6*(NOW()-$B$1)/$E$2</f>
-        <v>648520.19965279999</v>
+        <v>6491.086033929605</v>
       </c>
       <c r="D6" s="29">
         <f ca="1">B6*$E$2/(NOW()-$B$1)</f>
-        <v>18771.196342870058</v>
+        <v>21491.010790924429</v>
       </c>
       <c r="E6" s="168">
         <v>100000</v>
       </c>
-      <c r="F6" s="358">
+      <c r="F6" s="361">
         <f>B6/E6</f>
-        <v>1.2173499999999999</v>
-      </c>
-      <c r="G6" s="358"/>
+        <v>1.3950000000000001E-2</v>
+      </c>
+      <c r="G6" s="361"/>
       <c r="H6" s="32">
         <f ca="1">B6 - (E6*(NOW()-$B$1)/$E$2)</f>
-        <v>-526785.19965279999</v>
+        <v>-5096.086033929605</v>
       </c>
       <c r="I6" s="32">
         <f ca="1">D6-RAID_GOAL_BLAZON</f>
-        <v>-81228.803657129945</v>
+        <v>-78508.989209075575</v>
       </c>
       <c r="J6" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
-      <c r="B8" s="359" t="s">
+      <c r="B8" s="356" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="359"/>
+      <c r="C8" s="356"/>
       <c r="D8" s="357" t="s">
         <v>91</v>
       </c>
@@ -3235,15 +3243,15 @@
         <v>96</v>
       </c>
       <c r="G8" s="357"/>
-      <c r="H8" s="356" t="s">
+      <c r="H8" s="359" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="356"/>
-      <c r="J8" s="356" t="s">
+      <c r="I8" s="359"/>
+      <c r="J8" s="359" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="356"/>
-      <c r="L8" s="356"/>
+      <c r="K8" s="359"/>
+      <c r="L8" s="359"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
@@ -3285,7 +3293,8 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
-        <v>43523.916666666664</v>
+        <f>RAID_TIME_START</f>
+        <v>43615.958333333336</v>
       </c>
       <c r="B10" s="29">
         <v>0</v>
@@ -3321,37 +3330,37 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
-        <v>43527.209027777775</v>
+        <v>43616.736805555556</v>
       </c>
       <c r="B11" s="29">
-        <v>35443</v>
+        <v>1511</v>
       </c>
       <c r="C11" s="29">
-        <v>33148</v>
+        <v>1395</v>
       </c>
       <c r="D11" s="31">
         <f t="shared" si="0"/>
-        <v>41154.513888886868</v>
+        <v>9730.9027777555457</v>
       </c>
       <c r="E11" s="31">
         <f t="shared" si="1"/>
-        <v>27436.342592591245</v>
+        <v>6487.2685185036971</v>
       </c>
       <c r="F11" s="31">
         <f t="shared" si="2"/>
-        <v>129182.67032272308</v>
+        <v>23291.775200766864</v>
       </c>
       <c r="G11" s="31">
         <f t="shared" si="3"/>
-        <v>120817.85277368237</v>
+        <v>21503.657448755643</v>
       </c>
       <c r="H11" s="32">
         <f t="shared" si="4"/>
-        <v>-20817.329677276924</v>
+        <v>-126708.22479923314</v>
       </c>
       <c r="I11" s="32">
         <f t="shared" si="5"/>
-        <v>20817.852773682374</v>
+        <v>-78496.342551244365</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="36" t="str">
@@ -3364,38 +3373,29 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
-        <v>43527.445138888892</v>
-      </c>
-      <c r="B12" s="29">
-        <v>41400</v>
-      </c>
-      <c r="C12" s="29">
-        <v>37937</v>
-      </c>
       <c r="D12" s="31">
         <f t="shared" si="0"/>
-        <v>44105.902777846495</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E12" s="31">
         <f t="shared" si="1"/>
-        <v>29403.935185230996</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F12" s="31">
         <f t="shared" si="2"/>
-        <v>140797.48081064463</v>
+        <v>0</v>
       </c>
       <c r="G12" s="31">
         <f t="shared" si="3"/>
-        <v>129020.14564042092</v>
+        <v>0</v>
       </c>
       <c r="H12" s="32">
         <f t="shared" si="4"/>
-        <v>-9202.5191893553711</v>
+        <v>-150000</v>
       </c>
       <c r="I12" s="32">
         <f t="shared" si="5"/>
-        <v>29020.145640420917</v>
+        <v>-100000</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="36" t="str">
@@ -3408,38 +3408,29 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
-        <v>43527.46875</v>
-      </c>
-      <c r="B13" s="29">
-        <v>41929</v>
-      </c>
-      <c r="C13" s="29">
-        <v>38415</v>
-      </c>
       <c r="D13" s="31">
         <f t="shared" si="0"/>
-        <v>44401.041666696983</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E13" s="31">
         <f t="shared" si="1"/>
-        <v>29600.694444464654</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F13" s="31">
         <f t="shared" si="2"/>
-        <v>141648.70381221999</v>
+        <v>0</v>
       </c>
       <c r="G13" s="31">
         <f t="shared" si="3"/>
-        <v>129777.36070372371</v>
+        <v>0</v>
       </c>
       <c r="H13" s="32">
         <f t="shared" si="4"/>
-        <v>-8351.2961877800117</v>
+        <v>-150000</v>
       </c>
       <c r="I13" s="32">
         <f t="shared" si="5"/>
-        <v>29777.360703723709</v>
+        <v>-100000</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="36" t="str">
@@ -3452,38 +3443,29 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
-        <v>43527.868055555555</v>
-      </c>
-      <c r="B14" s="29">
-        <v>43438</v>
-      </c>
-      <c r="C14" s="29">
-        <v>39551</v>
-      </c>
       <c r="D14" s="31">
         <f t="shared" si="0"/>
-        <v>49392.361111131322</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E14" s="31">
         <f t="shared" si="1"/>
-        <v>32928.240740754212</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F14" s="31">
         <f t="shared" si="2"/>
-        <v>131917.15992964726</v>
+        <v>0</v>
       </c>
       <c r="G14" s="31">
         <f t="shared" si="3"/>
-        <v>120112.70298764856</v>
+        <v>0</v>
       </c>
       <c r="H14" s="32">
         <f t="shared" si="4"/>
-        <v>-18082.840070352744</v>
+        <v>-150000</v>
       </c>
       <c r="I14" s="32">
         <f t="shared" si="5"/>
-        <v>20112.702987648561</v>
+        <v>-100000</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="36" t="str">
@@ -3496,38 +3478,29 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
-        <v>43527.994444444441</v>
-      </c>
-      <c r="B15" s="29">
-        <v>44772</v>
-      </c>
-      <c r="C15" s="29">
-        <v>40959</v>
-      </c>
       <c r="D15" s="31">
         <f t="shared" si="0"/>
-        <v>50972.222222208075</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E15" s="31">
         <f t="shared" si="1"/>
-        <v>33981.481481472052</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F15" s="31">
         <f t="shared" si="2"/>
-        <v>131754.11444145345</v>
+        <v>0</v>
       </c>
       <c r="G15" s="31">
         <f t="shared" si="3"/>
-        <v>120533.29700275825</v>
+        <v>0</v>
       </c>
       <c r="H15" s="32">
         <f t="shared" si="4"/>
-        <v>-18245.88555854655</v>
+        <v>-150000</v>
       </c>
       <c r="I15" s="32">
         <f t="shared" si="5"/>
-        <v>20533.297002758249</v>
+        <v>-100000</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="36" t="str">
@@ -3540,38 +3513,29 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
-        <v>43528.058333333334</v>
-      </c>
-      <c r="B16" s="29">
-        <v>46140</v>
-      </c>
-      <c r="C16" s="29">
-        <v>42221</v>
-      </c>
       <c r="D16" s="31">
         <f t="shared" si="0"/>
-        <v>51770.833333375776</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E16" s="31">
         <f t="shared" si="1"/>
-        <v>34513.888888917187</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F16" s="31">
         <f t="shared" si="2"/>
-        <v>133685.31187111777</v>
+        <v>0</v>
       </c>
       <c r="G16" s="31">
         <f t="shared" si="3"/>
-        <v>122330.46277655967</v>
+        <v>0</v>
       </c>
       <c r="H16" s="32">
         <f t="shared" si="4"/>
-        <v>-16314.688128882233</v>
+        <v>-150000</v>
       </c>
       <c r="I16" s="32">
         <f t="shared" si="5"/>
-        <v>22330.462776559667</v>
+        <v>-100000</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="36" t="str">
@@ -3583,39 +3547,30 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
-        <v>43528.272222222222</v>
-      </c>
-      <c r="B17" s="29">
-        <v>48207</v>
-      </c>
-      <c r="C17" s="29">
-        <v>43929</v>
-      </c>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" s="31">
         <f t="shared" si="0"/>
-        <v>54444.444444470719</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E17" s="31">
         <f t="shared" si="1"/>
-        <v>36296.296296313812</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F17" s="31">
         <f t="shared" si="2"/>
-        <v>132815.20408156855</v>
+        <v>0</v>
       </c>
       <c r="G17" s="31">
         <f t="shared" si="3"/>
-        <v>121028.877550962</v>
+        <v>0</v>
       </c>
       <c r="H17" s="32">
         <f t="shared" si="4"/>
-        <v>-17184.795918431453</v>
+        <v>-150000</v>
       </c>
       <c r="I17" s="32">
         <f t="shared" si="5"/>
-        <v>21028.877550962003</v>
+        <v>-100000</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="36" t="str">
@@ -3627,39 +3582,30 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
-        <v>43528.572222222225</v>
-      </c>
-      <c r="B18" s="29">
-        <v>51946</v>
-      </c>
-      <c r="C18" s="29">
-        <v>47141</v>
-      </c>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" s="31">
         <f t="shared" si="0"/>
-        <v>58194.444444507099</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E18" s="31">
         <f t="shared" si="1"/>
-        <v>38796.296296338063</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F18" s="31">
         <f t="shared" si="2"/>
-        <v>133894.22434353127</v>
+        <v>0</v>
       </c>
       <c r="G18" s="31">
         <f t="shared" si="3"/>
-        <v>121509.02147958278</v>
+        <v>0</v>
       </c>
       <c r="H18" s="32">
         <f t="shared" si="4"/>
-        <v>-16105.77565646873</v>
+        <v>-150000</v>
       </c>
       <c r="I18" s="32">
         <f t="shared" si="5"/>
-        <v>21509.021479582778</v>
+        <v>-100000</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="36" t="str">
@@ -3671,39 +3617,30 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
-        <v>43528.772916666669</v>
-      </c>
-      <c r="B19" s="29">
-        <v>55757</v>
-      </c>
-      <c r="C19" s="29">
-        <v>50060</v>
-      </c>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" s="31">
         <f t="shared" si="0"/>
-        <v>60703.12500005457</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E19" s="31">
         <f t="shared" si="1"/>
-        <v>40468.75000003638</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F19" s="31">
         <f t="shared" si="2"/>
-        <v>137777.91505779119</v>
+        <v>0</v>
       </c>
       <c r="G19" s="31">
         <f t="shared" si="3"/>
-        <v>123700.3861002749</v>
+        <v>0</v>
       </c>
       <c r="H19" s="32">
         <f t="shared" si="4"/>
-        <v>-12222.084942208807</v>
+        <v>-150000</v>
       </c>
       <c r="I19" s="32">
         <f t="shared" si="5"/>
-        <v>23700.386100274904</v>
+        <v>-100000</v>
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="36" t="str">
@@ -3715,39 +3652,30 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
-        <v>43529.173611111109</v>
-      </c>
-      <c r="B20" s="29">
-        <v>56596</v>
-      </c>
-      <c r="C20" s="29">
-        <v>51008</v>
-      </c>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" s="31">
         <f t="shared" si="0"/>
-        <v>65711.805555565661</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E20" s="31">
         <f t="shared" si="1"/>
-        <v>43807.87037037711</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F20" s="31">
         <f t="shared" si="2"/>
-        <v>129191.397622173</v>
+        <v>0</v>
       </c>
       <c r="G20" s="31">
         <f t="shared" si="3"/>
-        <v>116435.69881107853</v>
+        <v>0</v>
       </c>
       <c r="H20" s="32">
         <f t="shared" si="4"/>
-        <v>-20808.602377827003</v>
+        <v>-150000</v>
       </c>
       <c r="I20" s="32">
         <f t="shared" si="5"/>
-        <v>16435.698811078531</v>
+        <v>-100000</v>
       </c>
       <c r="J20" s="21"/>
       <c r="K20" s="36" t="str">
@@ -3759,39 +3687,30 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
-        <v>43529.252083333333</v>
-      </c>
-      <c r="B21" s="29">
-        <v>58035</v>
-      </c>
-      <c r="C21" s="29">
-        <v>52216</v>
-      </c>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" s="31">
         <f t="shared" si="0"/>
-        <v>66692.708333357587</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E21" s="31">
         <f t="shared" si="1"/>
-        <v>44461.805555571722</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F21" s="31">
         <f t="shared" si="2"/>
-        <v>130527.76259268975</v>
+        <v>0</v>
       </c>
       <c r="G21" s="31">
         <f t="shared" si="3"/>
-        <v>117440.12495114823</v>
+        <v>0</v>
       </c>
       <c r="H21" s="32">
         <f t="shared" si="4"/>
-        <v>-19472.237407310255</v>
+        <v>-150000</v>
       </c>
       <c r="I21" s="32">
         <f t="shared" si="5"/>
-        <v>17440.124951148231</v>
+        <v>-100000</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="36" t="str">
@@ -3803,39 +3722,30 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
-        <v>43529.332638888889</v>
-      </c>
-      <c r="B22" s="29">
-        <v>58777</v>
-      </c>
-      <c r="C22" s="29">
-        <v>52824</v>
-      </c>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" s="31">
         <f t="shared" si="0"/>
-        <v>67699.652777810115</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E22" s="31">
         <f t="shared" si="1"/>
-        <v>45133.101851873413</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F22" s="31">
         <f t="shared" si="2"/>
-        <v>130230.35773810935</v>
+        <v>0</v>
       </c>
       <c r="G22" s="31">
         <f t="shared" si="3"/>
-        <v>117040.48211303551</v>
+        <v>0</v>
       </c>
       <c r="H22" s="32">
         <f t="shared" si="4"/>
-        <v>-19769.642261890651</v>
+        <v>-150000</v>
       </c>
       <c r="I22" s="32">
         <f t="shared" si="5"/>
-        <v>17040.482113035512</v>
+        <v>-100000</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="36" t="str">
@@ -3847,39 +3757,30 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
-        <v>43529.574999999997</v>
-      </c>
-      <c r="B23" s="29">
-        <v>62350</v>
-      </c>
-      <c r="C23" s="29">
-        <v>55746</v>
-      </c>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" s="31">
         <f t="shared" si="0"/>
-        <v>70729.166666660603</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E23" s="31">
         <f t="shared" si="1"/>
-        <v>47152.777777773736</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F23" s="31">
         <f t="shared" si="2"/>
-        <v>132229.74963182284</v>
+        <v>0</v>
       </c>
       <c r="G23" s="31">
         <f t="shared" si="3"/>
-        <v>118224.21207659335</v>
+        <v>0</v>
       </c>
       <c r="H23" s="32">
         <f t="shared" si="4"/>
-        <v>-17770.250368177163</v>
+        <v>-150000</v>
       </c>
       <c r="I23" s="32">
         <f t="shared" si="5"/>
-        <v>18224.212076593351</v>
+        <v>-100000</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="36" t="str">
@@ -3891,39 +3792,30 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
-        <v>43529.856249999997</v>
-      </c>
-      <c r="B24" s="29">
-        <v>67839</v>
-      </c>
-      <c r="C24" s="29">
-        <v>60364</v>
-      </c>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" s="31">
         <f t="shared" si="0"/>
-        <v>74244.791666660603</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E24" s="31">
         <f t="shared" si="1"/>
-        <v>49496.527777773736</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F24" s="31">
         <f t="shared" si="2"/>
-        <v>137058.09891267342</v>
+        <v>0</v>
       </c>
       <c r="G24" s="31">
         <f t="shared" si="3"/>
-        <v>121956.02946335616</v>
+        <v>0</v>
       </c>
       <c r="H24" s="32">
         <f t="shared" si="4"/>
-        <v>-12941.90108732658</v>
+        <v>-150000</v>
       </c>
       <c r="I24" s="32">
         <f t="shared" si="5"/>
-        <v>21956.029463356157</v>
+        <v>-100000</v>
       </c>
       <c r="J24" s="21"/>
       <c r="K24" s="36" t="str">
@@ -3935,39 +3827,30 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
-        <v>43530.330555555556</v>
-      </c>
-      <c r="B25" s="29">
-        <v>70607</v>
-      </c>
-      <c r="C25" s="29">
-        <v>62967</v>
-      </c>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" s="31">
         <f t="shared" si="0"/>
-        <v>80173.611111149512</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E25" s="31">
         <f t="shared" si="1"/>
-        <v>53449.074074099677</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F25" s="31">
         <f t="shared" si="2"/>
-        <v>132101.44651357899</v>
+        <v>0</v>
       </c>
       <c r="G25" s="31">
         <f t="shared" si="3"/>
-        <v>117807.46643563002</v>
+        <v>0</v>
       </c>
       <c r="H25" s="32">
         <f t="shared" si="4"/>
-        <v>-17898.553486421006</v>
+        <v>-150000</v>
       </c>
       <c r="I25" s="32">
         <f t="shared" si="5"/>
-        <v>17807.46643563002</v>
+        <v>-100000</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="36" t="str">
@@ -3979,637 +3862,485 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
-        <v>43530.547222222223</v>
-      </c>
-      <c r="B26" s="29">
-        <v>74563</v>
-      </c>
-      <c r="C26" s="29">
-        <v>66120</v>
-      </c>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" s="31">
         <f t="shared" si="0"/>
-        <v>82881.944444488909</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E26" s="31">
         <f t="shared" si="1"/>
-        <v>55254.62962965927</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F26" s="31">
         <f t="shared" si="2"/>
-        <v>134944.34855459875</v>
+        <v>0</v>
       </c>
       <c r="G26" s="31">
         <f t="shared" si="3"/>
-        <v>119664.18098024582</v>
+        <v>0</v>
       </c>
       <c r="H26" s="32">
         <f t="shared" si="4"/>
-        <v>-15055.65144540125</v>
+        <v>-150000</v>
       </c>
       <c r="I26" s="32">
         <f t="shared" si="5"/>
-        <v>19664.180980245816</v>
-      </c>
-      <c r="J26" s="21">
-        <v>23</v>
-      </c>
-      <c r="K26" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43534.967118438748</v>
+        <v/>
       </c>
       <c r="L26" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
-        <v>43530.617361111108</v>
-      </c>
-      <c r="B27" s="29">
-        <v>75335</v>
-      </c>
-      <c r="C27" s="29">
-        <v>67021</v>
-      </c>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" s="31">
         <f t="shared" si="0"/>
-        <v>83758.680555547471</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E27" s="31">
         <f t="shared" si="1"/>
-        <v>55839.120370364981</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F27" s="31">
         <f t="shared" si="2"/>
-        <v>134914.37454659815</v>
+        <v>0</v>
       </c>
       <c r="G27" s="31">
         <f t="shared" si="3"/>
-        <v>120025.17152037639</v>
+        <v>0</v>
       </c>
       <c r="H27" s="32">
         <f t="shared" si="4"/>
-        <v>-15085.625453401852</v>
+        <v>-150000</v>
       </c>
       <c r="I27" s="32">
         <f t="shared" si="5"/>
-        <v>20025.171520376389</v>
-      </c>
-      <c r="J27" s="21">
-        <v>20</v>
-      </c>
-      <c r="K27" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43532.979300359199</v>
+        <v/>
       </c>
       <c r="L27" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
-        <v>43530.895138888889</v>
-      </c>
-      <c r="B28" s="29">
-        <v>76314</v>
-      </c>
-      <c r="C28" s="29">
-        <v>67874</v>
-      </c>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" s="31">
         <f t="shared" si="0"/>
-        <v>87230.902777810115</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E28" s="31">
         <f t="shared" si="1"/>
-        <v>58153.935185206741</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F28" s="31">
         <f t="shared" si="2"/>
-        <v>131227.57687327208</v>
+        <v>0</v>
       </c>
       <c r="G28" s="31">
         <f t="shared" si="3"/>
-        <v>116714.37157921835</v>
+        <v>0</v>
       </c>
       <c r="H28" s="32">
         <f t="shared" si="4"/>
-        <v>-18772.423126727925</v>
+        <v>-150000</v>
       </c>
       <c r="I28" s="32">
         <f t="shared" si="5"/>
-        <v>16714.37157921835</v>
-      </c>
-      <c r="J28" s="21">
-        <v>20</v>
-      </c>
-      <c r="K28" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43545.045125297031</v>
+        <v/>
       </c>
       <c r="L28" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
-        <v>43531.416666666664</v>
-      </c>
-      <c r="B29" s="29">
-        <v>82871</v>
-      </c>
-      <c r="C29" s="29">
-        <v>73536</v>
-      </c>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" s="31">
         <f t="shared" si="0"/>
-        <v>93750</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E29" s="31">
         <f t="shared" si="1"/>
-        <v>62500</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F29" s="31">
         <f t="shared" si="2"/>
-        <v>132593.60000000001</v>
+        <v>0</v>
       </c>
       <c r="G29" s="31">
         <f t="shared" si="3"/>
-        <v>117657.60000000001</v>
+        <v>0</v>
       </c>
       <c r="H29" s="32">
         <f t="shared" si="4"/>
-        <v>-17406.399999999994</v>
+        <v>-150000</v>
       </c>
       <c r="I29" s="32">
         <f t="shared" si="5"/>
-        <v>17657.600000000006</v>
-      </c>
-      <c r="J29" s="21">
-        <v>20</v>
-      </c>
-      <c r="K29" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43540.649566356064</v>
+        <v/>
       </c>
       <c r="L29" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
-        <v>43531.775694444441</v>
-      </c>
-      <c r="B30" s="29">
-        <v>85079</v>
-      </c>
-      <c r="C30" s="29">
-        <v>75412</v>
-      </c>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" s="31">
         <f t="shared" si="0"/>
-        <v>98237.847222208089</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E30" s="31">
         <f t="shared" si="1"/>
-        <v>65491.898148138716</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F30" s="31">
         <f t="shared" si="2"/>
-        <v>129907.67164444744</v>
+        <v>0</v>
       </c>
       <c r="G30" s="31">
         <f t="shared" si="3"/>
-        <v>115147.06724398583</v>
+        <v>0</v>
       </c>
       <c r="H30" s="32">
         <f t="shared" si="4"/>
-        <v>-20092.328355552556</v>
+        <v>-150000</v>
       </c>
       <c r="I30" s="32">
         <f t="shared" si="5"/>
-        <v>15147.067243985832</v>
-      </c>
-      <c r="J30" s="21">
-        <v>20</v>
-      </c>
-      <c r="K30" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43602.16510754398</v>
+        <v/>
       </c>
       <c r="L30" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
-        <v>43533.052777777775</v>
-      </c>
-      <c r="B31" s="29">
-        <v>100956</v>
-      </c>
-      <c r="C31" s="29">
-        <v>89048</v>
-      </c>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" s="31">
         <f t="shared" si="0"/>
-        <v>114201.38888888685</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E31" s="31">
         <f t="shared" si="1"/>
-        <v>76134.259259257917</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F31" s="31">
         <f t="shared" si="2"/>
-        <v>132602.59045302757</v>
+        <v>0</v>
       </c>
       <c r="G31" s="31">
         <f t="shared" si="3"/>
-        <v>116961.79993919331</v>
+        <v>0</v>
       </c>
       <c r="H31" s="32">
         <f t="shared" si="4"/>
-        <v>-17397.409546972427</v>
+        <v>-150000</v>
       </c>
       <c r="I31" s="32">
         <f t="shared" si="5"/>
-        <v>16961.799939193312</v>
-      </c>
-      <c r="J31" s="21">
-        <v>30</v>
-      </c>
-      <c r="K31" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43540.020077059933</v>
+        <v/>
       </c>
       <c r="L31" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
-        <v>43533.246527777781</v>
-      </c>
-      <c r="B32" s="29">
-        <v>105020</v>
-      </c>
-      <c r="C32" s="29">
-        <v>92512</v>
-      </c>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" s="31">
         <f t="shared" si="0"/>
-        <v>116623.26388895961</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E32" s="31">
         <f t="shared" si="1"/>
-        <v>77748.842592639747</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F32" s="31">
         <f t="shared" si="2"/>
-        <v>135075.9657609899</v>
+        <v>0</v>
       </c>
       <c r="G32" s="31">
         <f t="shared" si="3"/>
-        <v>118988.26646810795</v>
+        <v>0</v>
       </c>
       <c r="H32" s="32">
         <f t="shared" si="4"/>
-        <v>-14924.0342390101</v>
+        <v>-150000</v>
       </c>
       <c r="I32" s="32">
         <f t="shared" si="5"/>
-        <v>18988.266468107948</v>
-      </c>
-      <c r="J32" s="21">
-        <v>31</v>
-      </c>
-      <c r="K32" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43534.221840808597</v>
+        <v/>
       </c>
       <c r="L32" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
-        <v>43533.673611111109</v>
-      </c>
-      <c r="B33" s="29">
-        <v>113822</v>
-      </c>
-      <c r="C33" s="29">
-        <v>99777</v>
-      </c>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D33" s="31">
         <f t="shared" si="0"/>
-        <v>121961.80555556568</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E33" s="31">
         <f t="shared" si="1"/>
-        <v>81307.870370377103</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F33" s="31">
         <f t="shared" si="2"/>
-        <v>139988.90818504177</v>
+        <v>0</v>
       </c>
       <c r="G33" s="31">
         <f t="shared" si="3"/>
-        <v>122715.05765123539</v>
+        <v>0</v>
       </c>
       <c r="H33" s="32">
         <f t="shared" si="4"/>
-        <v>-10011.091814958228</v>
+        <v>-150000</v>
       </c>
       <c r="I33" s="32">
         <f t="shared" si="5"/>
-        <v>22715.057651235387</v>
-      </c>
-      <c r="J33" s="21">
-        <v>31</v>
-      </c>
-      <c r="K33" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J33" s="21"/>
+      <c r="K33" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43533.894228108955</v>
+        <v/>
       </c>
       <c r="L33" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
-        <v>43534.036111111112</v>
-      </c>
-      <c r="B34" s="29">
-        <v>117115</v>
-      </c>
-      <c r="C34" s="29">
-        <v>102551</v>
-      </c>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D34" s="31">
         <f t="shared" si="0"/>
-        <v>126493.05555560203</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E34" s="31">
         <f t="shared" si="1"/>
-        <v>84328.703703734689</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F34" s="31">
         <f t="shared" si="2"/>
-        <v>138879.16552286962</v>
+        <v>0</v>
       </c>
       <c r="G34" s="31">
         <f t="shared" si="3"/>
-        <v>121608.65220967258</v>
+        <v>0</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="4"/>
-        <v>-11120.834477130382</v>
+        <v>-150000</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="5"/>
-        <v>21608.652209672582</v>
-      </c>
-      <c r="J34" s="21">
-        <v>31</v>
-      </c>
-      <c r="K34" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43534.795047584827</v>
+        <v/>
       </c>
       <c r="L34" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
-        <v>43534.129166666666</v>
-      </c>
-      <c r="B35" s="29">
-        <v>117115</v>
-      </c>
-      <c r="C35" s="29">
-        <v>102859</v>
-      </c>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D35" s="31">
         <f t="shared" si="0"/>
-        <v>127656.2500000182</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E35" s="31">
         <f t="shared" si="1"/>
-        <v>85104.166666678793</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F35" s="31">
         <f t="shared" si="2"/>
-        <v>137613.70869031086</v>
+        <v>0</v>
       </c>
       <c r="G35" s="31">
         <f t="shared" si="3"/>
-        <v>120862.47246020309</v>
+        <v>0</v>
       </c>
       <c r="H35" s="32">
         <f t="shared" si="4"/>
-        <v>-12386.291309689143</v>
+        <v>-150000</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="5"/>
-        <v>20862.472460203091</v>
-      </c>
-      <c r="J35" s="21">
-        <v>31</v>
-      </c>
-      <c r="K35" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43535.713354860374</v>
+        <v/>
       </c>
       <c r="L35" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
-        <v>43534.231944444444</v>
-      </c>
-      <c r="B36" s="29">
-        <v>119175</v>
-      </c>
-      <c r="C36" s="29">
-        <v>104678</v>
-      </c>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D36" s="31">
         <f t="shared" si="0"/>
-        <v>128940.97222224444</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E36" s="31">
         <f t="shared" si="1"/>
-        <v>85960.648148162974</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F36" s="31">
         <f t="shared" si="2"/>
-        <v>138639.01979262455</v>
+        <v>0</v>
       </c>
       <c r="G36" s="31">
         <f t="shared" si="3"/>
-        <v>121774.32610742481</v>
+        <v>0</v>
       </c>
       <c r="H36" s="32">
         <f t="shared" si="4"/>
-        <v>-11360.980207375454</v>
+        <v>-150000</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="5"/>
-        <v>21774.326107424815</v>
-      </c>
-      <c r="J36" s="21">
-        <v>31</v>
-      </c>
-      <c r="K36" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43535.272051525142</v>
+        <v/>
       </c>
       <c r="L36" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
-        <v>43534.314583333333</v>
-      </c>
-      <c r="B37" s="29">
-        <v>119175</v>
-      </c>
-      <c r="C37" s="29">
-        <v>104678</v>
-      </c>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D37" s="31">
         <f t="shared" si="0"/>
-        <v>129973.95833335759</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E37" s="31">
         <f t="shared" si="1"/>
-        <v>86649.305555571729</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F37" s="31">
         <f t="shared" si="2"/>
-        <v>137537.1669003951</v>
+        <v>0</v>
       </c>
       <c r="G37" s="31">
         <f t="shared" si="3"/>
-        <v>120806.50771386245</v>
+        <v>0</v>
       </c>
       <c r="H37" s="32">
         <f t="shared" si="4"/>
-        <v>-12462.833099604904</v>
+        <v>-150000</v>
       </c>
       <c r="I37" s="32">
         <f t="shared" si="5"/>
-        <v>20806.507713862447</v>
-      </c>
-      <c r="J37" s="21">
-        <v>31</v>
-      </c>
-      <c r="K37" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43536.239610976285</v>
+        <v/>
       </c>
       <c r="L37" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
-        <v>43534.486805555556</v>
-      </c>
-      <c r="B38" s="29">
-        <v>122906</v>
-      </c>
-      <c r="C38" s="29">
-        <v>107941</v>
-      </c>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D38" s="31">
         <f t="shared" si="0"/>
-        <v>132126.73611114951</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E38" s="31">
         <f t="shared" si="1"/>
-        <v>88084.490740766341</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F38" s="31">
         <f t="shared" si="2"/>
-        <v>139531.94139671393</v>
+        <v>0</v>
       </c>
       <c r="G38" s="31">
         <f t="shared" si="3"/>
-        <v>122542.57144730687</v>
+        <v>0</v>
       </c>
       <c r="H38" s="32">
         <f t="shared" si="4"/>
-        <v>-10468.058603286074</v>
+        <v>-150000</v>
       </c>
       <c r="I38" s="32">
         <f t="shared" si="5"/>
-        <v>22542.571447306866</v>
-      </c>
-      <c r="J38" s="21">
-        <v>31</v>
-      </c>
-      <c r="K38" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J38" s="21"/>
+      <c r="K38" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43535.219140390742</v>
+        <v/>
       </c>
       <c r="L38" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
-        <v>43535.138888888891</v>
-      </c>
-      <c r="B39" s="29">
-        <v>125282</v>
-      </c>
-      <c r="C39" s="29">
-        <v>110340</v>
-      </c>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D39" s="31">
         <f t="shared" si="0"/>
-        <v>140277.77777782831</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E39" s="31">
         <f t="shared" si="1"/>
-        <v>93518.518518552199</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F39" s="31">
         <f t="shared" si="2"/>
-        <v>133964.91089104087</v>
+        <v>0</v>
       </c>
       <c r="G39" s="31">
         <f t="shared" si="3"/>
-        <v>117987.32673263077</v>
+        <v>0</v>
       </c>
       <c r="H39" s="32">
         <f t="shared" si="4"/>
-        <v>-16035.089108959131</v>
+        <v>-150000</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="5"/>
-        <v>17987.326732630769</v>
+        <v>-100000</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="36" t="str">
@@ -4621,249 +4352,194 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
-        <v>43535.189583333333</v>
-      </c>
-      <c r="B40" s="29">
-        <v>126683</v>
-      </c>
-      <c r="C40" s="29">
-        <v>111358</v>
-      </c>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" s="31">
         <f t="shared" si="0"/>
-        <v>140911.45833335759</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E40" s="31">
         <f t="shared" si="1"/>
-        <v>93940.972222238386</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F40" s="31">
         <f t="shared" si="2"/>
-        <v>134853.831084804</v>
+        <v>0</v>
       </c>
       <c r="G40" s="31">
         <f t="shared" si="3"/>
-        <v>118540.39549064676</v>
+        <v>0</v>
       </c>
       <c r="H40" s="32">
         <f t="shared" si="4"/>
-        <v>-15146.168915196002</v>
+        <v>-150000</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="5"/>
-        <v>18540.395490646755</v>
-      </c>
-      <c r="J40" s="21">
-        <v>39</v>
-      </c>
-      <c r="K40" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J40" s="21"/>
+      <c r="K40" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43536.002663414401</v>
+        <v/>
       </c>
       <c r="L40" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
-        <v>43535.3125</v>
-      </c>
-      <c r="B41" s="29">
-        <v>129105</v>
-      </c>
-      <c r="C41" s="29">
-        <v>113395</v>
-      </c>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D41" s="31">
         <f t="shared" si="0"/>
-        <v>142447.91666669698</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E41" s="31">
         <f t="shared" si="1"/>
-        <v>94965.277777797994</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F41" s="31">
         <f t="shared" si="2"/>
-        <v>135949.68921386503</v>
+        <v>0</v>
       </c>
       <c r="G41" s="31">
         <f t="shared" si="3"/>
-        <v>119406.80073123601</v>
+        <v>0</v>
       </c>
       <c r="H41" s="32">
         <f t="shared" si="4"/>
-        <v>-14050.310786134971</v>
+        <v>-150000</v>
       </c>
       <c r="I41" s="32">
         <f t="shared" si="5"/>
-        <v>19406.800731236013</v>
-      </c>
-      <c r="J41" s="21">
-        <v>39</v>
-      </c>
-      <c r="K41" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43536.367887633467</v>
+        <v/>
       </c>
       <c r="L41" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="36">
-        <v>43535.543055555558</v>
-      </c>
-      <c r="B42" s="29">
-        <v>134214</v>
-      </c>
-      <c r="C42" s="29">
-        <v>117529</v>
-      </c>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D42" s="31">
         <f t="shared" si="0"/>
-        <v>145329.8611111677</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E42" s="31">
         <f t="shared" si="1"/>
-        <v>96886.574074111806</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F42" s="31">
         <f t="shared" si="2"/>
-        <v>138526.93346070344</v>
+        <v>0</v>
       </c>
       <c r="G42" s="31">
         <f t="shared" si="3"/>
-        <v>121305.76514151291</v>
+        <v>0</v>
       </c>
       <c r="H42" s="32">
         <f t="shared" si="4"/>
-        <v>-11473.06653929656</v>
+        <v>-150000</v>
       </c>
       <c r="I42" s="32">
         <f t="shared" si="5"/>
-        <v>21305.765141512908</v>
-      </c>
-      <c r="J42" s="21">
-        <v>39</v>
-      </c>
-      <c r="K42" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43536.15533082639</v>
+        <v/>
       </c>
       <c r="L42" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="36">
-        <v>43535.70416666667</v>
-      </c>
-      <c r="B43" s="29">
-        <v>137350</v>
-      </c>
-      <c r="C43" s="29">
-        <v>120226</v>
-      </c>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D43" s="31">
         <f t="shared" si="0"/>
-        <v>147343.75000007276</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E43" s="31">
         <f t="shared" si="1"/>
-        <v>98229.166666715173</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F43" s="31">
         <f t="shared" si="2"/>
-        <v>139826.08695645269</v>
+        <v>0</v>
       </c>
       <c r="G43" s="31">
         <f t="shared" si="3"/>
-        <v>122393.38282072429</v>
+        <v>0</v>
       </c>
       <c r="H43" s="32">
         <f t="shared" si="4"/>
-        <v>-10173.913043547305</v>
+        <v>-150000</v>
       </c>
       <c r="I43" s="32">
         <f t="shared" si="5"/>
-        <v>22393.382820724291</v>
-      </c>
-      <c r="J43" s="21">
-        <v>39</v>
-      </c>
-      <c r="K43" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J43" s="21"/>
+      <c r="K43" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43536.120106121132</v>
+        <v/>
       </c>
       <c r="L43" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="36">
-        <v>43535.788194444445</v>
-      </c>
-      <c r="B44" s="29">
-        <v>139176</v>
-      </c>
-      <c r="C44" s="29">
-        <v>121735</v>
-      </c>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D44" s="31">
         <f t="shared" si="0"/>
-        <v>148394.09722226264</v>
+        <v>-545199479.16666663</v>
       </c>
       <c r="E44" s="31">
         <f t="shared" si="1"/>
-        <v>98929.398148175096</v>
+        <v>-363466319.44444448</v>
       </c>
       <c r="F44" s="31">
         <f t="shared" si="2"/>
-        <v>140682.14565658642</v>
+        <v>0</v>
       </c>
       <c r="G44" s="31">
         <f t="shared" si="3"/>
-        <v>123052.40128689248</v>
+        <v>0</v>
       </c>
       <c r="H44" s="32">
         <f t="shared" si="4"/>
-        <v>-9317.854343413579</v>
+        <v>-150000</v>
       </c>
       <c r="I44" s="32">
         <f t="shared" si="5"/>
-        <v>23052.401286892476</v>
-      </c>
-      <c r="J44" s="21">
-        <v>39</v>
-      </c>
-      <c r="K44" s="36">
+        <v>-100000</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43536.039577163487</v>
+        <v/>
       </c>
       <c r="L44" s="36" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
@@ -5077,6 +4753,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -5084,11 +4765,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="F2">
     <cfRule type="dataBar" priority="36">
@@ -5424,7 +5100,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5462,37 +5138,37 @@
         <v>32</v>
       </c>
       <c r="I1" s="74"/>
-      <c r="J1" s="356" t="s">
+      <c r="J1" s="359" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="452" t="s">
+      <c r="K1" s="443" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="452"/>
-      <c r="M1" s="452" t="s">
+      <c r="L1" s="443"/>
+      <c r="M1" s="443" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="452"/>
+      <c r="N1" s="443"/>
       <c r="O1" s="313" t="s">
         <v>139</v>
       </c>
       <c r="P1" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="451" t="s">
+      <c r="Q1" s="442" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="356" t="s">
+      <c r="R1" s="359" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="356"/>
-      <c r="T1" s="356"/>
+      <c r="S1" s="359"/>
+      <c r="T1" s="359"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="440" t="s">
+      <c r="A2" s="452" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="441">
+      <c r="B2" s="453">
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTA(DATA_HDRAG_HBRUN),"")</f>
         <v>295</v>
       </c>
@@ -5512,12 +5188,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=5"),"")</f>
         <v>11</v>
       </c>
-      <c r="G2" s="450">
+      <c r="G2" s="441">
         <f>IF(HDRAG_HAS_REC_HBRUN,AVERAGE(DATA_HDRAG_HBRUN),"")</f>
         <v>2.4305084745762713</v>
       </c>
       <c r="I2" s="74"/>
-      <c r="J2" s="356"/>
+      <c r="J2" s="359"/>
       <c r="K2" s="40" t="s">
         <v>50</v>
       </c>
@@ -5536,7 +5212,7 @@
       <c r="P2" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="451"/>
+      <c r="Q2" s="442"/>
       <c r="R2" s="74" t="s">
         <v>52</v>
       </c>
@@ -5548,8 +5224,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="440"/>
-      <c r="B3" s="441"/>
+      <c r="A3" s="452"/>
+      <c r="B3" s="453"/>
       <c r="C3" s="103">
         <f>IF(HDRAG_HAS_REC_HBRUN,C2/$B2,"")</f>
         <v>0.68813559322033901</v>
@@ -5566,7 +5242,7 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,F2/$B2,"")</f>
         <v>3.7288135593220341E-2</v>
       </c>
-      <c r="G3" s="450"/>
+      <c r="G3" s="441"/>
       <c r="I3" s="72" t="s">
         <v>34</v>
       </c>
@@ -5613,45 +5289,45 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="438" t="s">
+      <c r="A4" s="450" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="439">
+      <c r="B4" s="451">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTA(DATA_HDRAG_HMERC),"")</f>
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C4" s="104">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=2"),"")</f>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D4" s="104">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=3"),"")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="104">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=4"),"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="104">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=5"),"")</f>
-        <v>4</v>
-      </c>
-      <c r="G4" s="449">
+        <v>5</v>
+      </c>
+      <c r="G4" s="440">
         <f>IF(HDRAG_HAS_REC_HMERC,AVERAGE(DATA_HDRAG_HMERC),"")</f>
-        <v>2.4134615384615383</v>
+        <v>2.4132231404958677</v>
       </c>
       <c r="I4" s="112" t="s">
         <v>46</v>
       </c>
       <c r="J4" s="162">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="K4" s="38">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L4" s="38">
         <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_BUILDING,K4 + 1),"")</f>
-        <v>540</v>
+        <v>370</v>
       </c>
       <c r="M4" s="38"/>
       <c r="N4" s="38">
@@ -5664,11 +5340,11 @@
       </c>
       <c r="P4" s="310">
         <f>IF(HDRAG_HAS_REC_HMERC,L4+N4,"")</f>
-        <v>1025</v>
+        <v>855</v>
       </c>
       <c r="Q4" s="69">
         <f>IFERROR(IF(L4+N4=0,0,L4+N4-J4),"")</f>
-        <v>823</v>
+        <v>712</v>
       </c>
       <c r="R4" s="53">
         <f>IFERROR(IF(N4=0,100%,(HDRAG_MAX_DRAGON - N4)/HDRAG_MAX_DRAGON),"")</f>
@@ -5676,33 +5352,33 @@
       </c>
       <c r="S4" s="53">
         <f>IFERROR(IF(L4=0,100%,(HDRAG_MAX_BUILDING - L4)/HDRAG_MAX_BUILDING),"")</f>
-        <v>0.33823529411764708</v>
+        <v>0.54656862745098034</v>
       </c>
       <c r="T4" s="53">
         <f>IFERROR(IF(Q4=0,100%,(HDRAG_MAX_ALL - Q4)/HDRAG_MAX_ALL),"")</f>
-        <v>0.36740968485780168</v>
+        <v>0.45272867025365104</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="438"/>
-      <c r="B5" s="439"/>
+      <c r="A5" s="450"/>
+      <c r="B5" s="451"/>
       <c r="C5" s="105">
         <f>IF(HDRAG_HAS_REC_HMERC,C4/$B4,"")</f>
-        <v>0.73076923076923073</v>
+        <v>0.73553719008264462</v>
       </c>
       <c r="D5" s="105">
         <f>IF(HDRAG_HAS_REC_HMERC,D4/$B4,"")</f>
-        <v>0.16346153846153846</v>
+        <v>0.15702479338842976</v>
       </c>
       <c r="E5" s="105">
         <f>IF(HDRAG_HAS_REC_HMERC,E4/$B4,"")</f>
-        <v>6.7307692307692304E-2</v>
+        <v>6.6115702479338845E-2</v>
       </c>
       <c r="F5" s="105">
         <f>IF(HDRAG_HAS_REC_HMERC,F4/$B4,"")</f>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="G5" s="449"/>
+        <v>4.1322314049586778E-2</v>
+      </c>
+      <c r="G5" s="440"/>
       <c r="I5" s="113" t="s">
         <v>35</v>
       </c>
@@ -5749,10 +5425,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="436" t="s">
+      <c r="A6" s="448" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="437">
+      <c r="B6" s="449">
         <f>IF(HDRAG_HAS_REC_HMID,COUNTA(DATA_HDRAG_HMID),"")</f>
         <v>801</v>
       </c>
@@ -5772,7 +5448,7 @@
         <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=5"),"")</f>
         <v>49</v>
       </c>
-      <c r="G6" s="448">
+      <c r="G6" s="439">
         <f>IF(HDRAG_HAS_REC_HMID,AVERAGE(DATA_HDRAG_HMID),"")</f>
         <v>2.5525000000000002</v>
       </c>
@@ -5816,8 +5492,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="436"/>
-      <c r="B7" s="437"/>
+      <c r="A7" s="448"/>
+      <c r="B7" s="449"/>
       <c r="C7" s="107">
         <f>IF(HDRAG_HAS_REC_HMID,C6/$B6,"")</f>
         <v>0.64669163545568042</v>
@@ -5834,7 +5510,7 @@
         <f>IF(HDRAG_HAS_REC_HMID,F6/$B6,"")</f>
         <v>6.117353308364544E-2</v>
       </c>
-      <c r="G7" s="448"/>
+      <c r="G7" s="439"/>
       <c r="I7" s="73" t="s">
         <v>48</v>
       </c>
@@ -5875,10 +5551,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="444" t="s">
+      <c r="A8" s="446" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="445" t="str">
+      <c r="B8" s="447" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTA(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
@@ -5898,14 +5574,14 @@
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G8" s="447" t="str">
+      <c r="G8" s="438" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,AVERAGE(DATA_HDRAG_HJUP),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="444"/>
-      <c r="B9" s="445"/>
+      <c r="A9" s="446"/>
+      <c r="B9" s="447"/>
       <c r="C9" s="109" t="str">
         <f>IF(HDRAG_HAS_REC_HJUP,C8/$B8,"")</f>
         <v/>
@@ -5922,13 +5598,13 @@
         <f>IF(HDRAG_HAS_REC_HJUP,F8/$B8,"")</f>
         <v/>
       </c>
-      <c r="G9" s="447"/>
+      <c r="G9" s="438"/>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="442" t="s">
+      <c r="A10" s="444" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="443" t="str">
+      <c r="B10" s="445" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTA(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
@@ -5948,14 +5624,14 @@
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=5"),"")</f>
         <v/>
       </c>
-      <c r="G10" s="446" t="str">
+      <c r="G10" s="437" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,AVERAGE(DATA_HDRAG_HZOD),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="442"/>
-      <c r="B11" s="443"/>
+      <c r="A11" s="444"/>
+      <c r="B11" s="445"/>
       <c r="C11" s="110" t="str">
         <f>IF(HDRAG_HAS_REC_HZOD,C10/$B10,"")</f>
         <v/>
@@ -5972,18 +5648,18 @@
         <f>IF(HDRAG_HAS_REC_HZOD,F10/$B10,"")</f>
         <v/>
       </c>
-      <c r="G11" s="446"/>
+      <c r="G11" s="437"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="B13" s="356" t="s">
+      <c r="B13" s="359" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="356"/>
-      <c r="D13" s="356"/>
-      <c r="E13" s="356"/>
-      <c r="F13" s="356"/>
-      <c r="G13" s="356"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="359"/>
       <c r="K13" s="413" t="s">
         <v>138</v>
       </c>
@@ -6082,12 +5758,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K15:N15),"")</f>
         <v>0</v>
       </c>
-      <c r="P15" s="453">
+      <c r="P15" s="436">
         <f>IFERROR((G15-O15)/G15,"")</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="453"/>
-      <c r="R15" s="453"/>
+      <c r="Q15" s="436"/>
+      <c r="R15" s="436"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -6096,11 +5772,11 @@
       </c>
       <c r="C16" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*C5),"")</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D16" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*D5),"")</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*E5),"")</f>
@@ -6108,22 +5784,22 @@
       </c>
       <c r="F16" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON/$G4)*F5),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="121">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(C16:F16),"")</f>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J16" s="112" t="s">
         <v>46</v>
       </c>
       <c r="K16" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*C5),"")</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L16" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*D5),"")</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M16" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*E5),"")</f>
@@ -6131,18 +5807,18 @@
       </c>
       <c r="N16" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($N4/$G$4)*F5),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(K16:N16),"")</f>
-        <v>202</v>
-      </c>
-      <c r="P16" s="453">
+        <v>203</v>
+      </c>
+      <c r="P16" s="436">
         <f>IFERROR((G16-O16)/G16,"")</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="453"/>
-      <c r="R16" s="453"/>
+      <c r="Q16" s="436"/>
+      <c r="R16" s="436"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
@@ -6192,12 +5868,12 @@
         <f>IF(HDRAG_HAS_REC_HMID,SUM(K17:N17),"")</f>
         <v>0</v>
       </c>
-      <c r="P17" s="453">
+      <c r="P17" s="436">
         <f>IFERROR((G17-O17)/G17,"")</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="453"/>
-      <c r="R17" s="453"/>
+      <c r="Q17" s="436"/>
+      <c r="R17" s="436"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
@@ -6247,12 +5923,12 @@
         <f>IF(HDRAG_HAS_REC_HJUP,SUM(K18:N18),"")</f>
         <v/>
       </c>
-      <c r="P18" s="453" t="str">
+      <c r="P18" s="436" t="str">
         <f>IFERROR((G18-O18)/G18,"")</f>
         <v/>
       </c>
-      <c r="Q18" s="453"/>
-      <c r="R18" s="453"/>
+      <c r="Q18" s="436"/>
+      <c r="R18" s="436"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
@@ -6302,23 +5978,23 @@
         <f>IF(HDRAG_HAS_REC_HZOD,SUM(K19:N19),"")</f>
         <v/>
       </c>
-      <c r="P19" s="453" t="str">
+      <c r="P19" s="436" t="str">
         <f>IFERROR((G19-O19)/G19,"")</f>
         <v/>
       </c>
-      <c r="Q19" s="453"/>
-      <c r="R19" s="453"/>
+      <c r="Q19" s="436"/>
+      <c r="R19" s="436"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
-      <c r="B20" s="356" t="s">
+      <c r="B20" s="359" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="356"/>
-      <c r="D20" s="356"/>
-      <c r="E20" s="356"/>
-      <c r="F20" s="356"/>
-      <c r="G20" s="356"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="359"/>
+      <c r="E20" s="359"/>
+      <c r="F20" s="359"/>
+      <c r="G20" s="359"/>
       <c r="K20" s="413" t="s">
         <v>138</v>
       </c>
@@ -6417,12 +6093,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K22:N22),"")</f>
         <v>0</v>
       </c>
-      <c r="P22" s="453">
+      <c r="P22" s="436">
         <f>IFERROR((G22-O22)/G22,"")</f>
         <v>1</v>
       </c>
-      <c r="Q22" s="453"/>
-      <c r="R22" s="453"/>
+      <c r="Q22" s="436"/>
+      <c r="R22" s="436"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
@@ -6431,11 +6107,11 @@
       </c>
       <c r="C23" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*C5),"")</f>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D23" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*D5),"")</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_BUILDING/$G4)*E5),"")</f>
@@ -6447,37 +6123,37 @@
       </c>
       <c r="G23" s="121">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(C23:F23),"")</f>
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J23" s="112" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*C5),"")</f>
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="L23" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*D5),"")</f>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M23" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*E5),"")</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N23" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($L4/$G$4)*F5),"")</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O23" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(K23:N23),"")</f>
-        <v>226</v>
-      </c>
-      <c r="P23" s="453">
+        <v>156</v>
+      </c>
+      <c r="P23" s="436">
         <f>IFERROR((G23-O23)/G23,"")</f>
-        <v>0.33724340175953077</v>
-      </c>
-      <c r="Q23" s="453"/>
-      <c r="R23" s="453"/>
+        <v>0.54117647058823526</v>
+      </c>
+      <c r="Q23" s="436"/>
+      <c r="R23" s="436"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
@@ -6527,12 +6203,12 @@
         <f>IF(HDRAG_HAS_REC_HMID,SUM(K24:N24),"")</f>
         <v>0</v>
       </c>
-      <c r="P24" s="453">
+      <c r="P24" s="436">
         <f>IFERROR((G24-O24)/G24,"")</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="453"/>
-      <c r="R24" s="453"/>
+      <c r="Q24" s="436"/>
+      <c r="R24" s="436"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -6582,12 +6258,12 @@
         <f>IF(HDRAG_HAS_REC_HJUP,SUM(K25:N25),"")</f>
         <v/>
       </c>
-      <c r="P25" s="453" t="str">
+      <c r="P25" s="436" t="str">
         <f>IFERROR((G25-O25)/G25,"")</f>
         <v/>
       </c>
-      <c r="Q25" s="453"/>
-      <c r="R25" s="453"/>
+      <c r="Q25" s="436"/>
+      <c r="R25" s="436"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
@@ -6637,23 +6313,23 @@
         <f>IF(HDRAG_HAS_REC_HZOD,SUM(K26:N26),"")</f>
         <v/>
       </c>
-      <c r="P26" s="453" t="str">
+      <c r="P26" s="436" t="str">
         <f>IFERROR((G26-O26)/G26,"")</f>
         <v/>
       </c>
-      <c r="Q26" s="453"/>
-      <c r="R26" s="453"/>
+      <c r="Q26" s="436"/>
+      <c r="R26" s="436"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="356" t="s">
+      <c r="B27" s="359" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="356"/>
-      <c r="D27" s="356"/>
-      <c r="E27" s="356"/>
-      <c r="F27" s="356"/>
-      <c r="G27" s="356"/>
+      <c r="C27" s="359"/>
+      <c r="D27" s="359"/>
+      <c r="E27" s="359"/>
+      <c r="F27" s="359"/>
+      <c r="G27" s="359"/>
       <c r="K27" s="413" t="s">
         <v>138</v>
       </c>
@@ -6752,12 +6428,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K29:N29),"")</f>
         <v>0</v>
       </c>
-      <c r="P29" s="453">
+      <c r="P29" s="436">
         <f>IFERROR((G29-O29)/G29,"")</f>
         <v>1</v>
       </c>
-      <c r="Q29" s="453"/>
-      <c r="R29" s="453"/>
+      <c r="Q29" s="436"/>
+      <c r="R29" s="436"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
@@ -6766,11 +6442,11 @@
       </c>
       <c r="C30" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*C5),"")</f>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D30" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*D5),"")</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E30" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*E5),"")</f>
@@ -6778,7 +6454,7 @@
       </c>
       <c r="F30" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_DRAGON_BLD_16/$G4)*F5),"")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" s="121">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(C30:F30),"")</f>
@@ -6789,11 +6465,11 @@
       </c>
       <c r="K30" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($O4/$G$4)*C5),"")</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L30" s="315">
         <f>IF(OR($O4=0,$O4=""),"",_xlfn.CEILING.MATH(($O4/$G$4)*D5))</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M30" s="315">
         <f>IF(OR($O4=0,$O4=""),"",_xlfn.CEILING.MATH(($O4/$G$4)*E5))</f>
@@ -6801,18 +6477,18 @@
       </c>
       <c r="N30" s="315">
         <f>IF(OR($O4=0,$O4=""),"",_xlfn.CEILING.MATH(($O4/$G$4)*F5))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O30" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(K30:N30),"")</f>
-        <v>202</v>
-      </c>
-      <c r="P30" s="453">
+        <v>203</v>
+      </c>
+      <c r="P30" s="436">
         <f>IFERROR((G30-O30)/G30,"")</f>
-        <v>0.57563025210084029</v>
-      </c>
-      <c r="Q30" s="453"/>
-      <c r="R30" s="453"/>
+        <v>0.57352941176470584</v>
+      </c>
+      <c r="Q30" s="436"/>
+      <c r="R30" s="436"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
@@ -6862,12 +6538,12 @@
         <f>IF(HDRAG_HAS_REC_HMID,SUM(K31:N31),"")</f>
         <v>0</v>
       </c>
-      <c r="P31" s="453">
+      <c r="P31" s="436">
         <f>IFERROR((G31-O31)/G31,"")</f>
         <v>1</v>
       </c>
-      <c r="Q31" s="453"/>
-      <c r="R31" s="453"/>
+      <c r="Q31" s="436"/>
+      <c r="R31" s="436"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
@@ -6917,12 +6593,12 @@
         <f>IF(HDRAG_HAS_REC_HJUP,SUM(K32:N32),"")</f>
         <v/>
       </c>
-      <c r="P32" s="453" t="str">
+      <c r="P32" s="436" t="str">
         <f>IFERROR((G32-O32)/G32,"")</f>
         <v/>
       </c>
-      <c r="Q32" s="453"/>
-      <c r="R32" s="453"/>
+      <c r="Q32" s="436"/>
+      <c r="R32" s="436"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
@@ -6972,23 +6648,23 @@
         <f>IF(HDRAG_HAS_REC_HZOD,SUM(K33:N33),"")</f>
         <v/>
       </c>
-      <c r="P33" s="453" t="str">
+      <c r="P33" s="436" t="str">
         <f>IFERROR((G33-O33)/G33,"")</f>
         <v/>
       </c>
-      <c r="Q33" s="453"/>
-      <c r="R33" s="453"/>
+      <c r="Q33" s="436"/>
+      <c r="R33" s="436"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
-      <c r="B34" s="356" t="s">
+      <c r="B34" s="359" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="356"/>
-      <c r="D34" s="356"/>
-      <c r="E34" s="356"/>
-      <c r="F34" s="356"/>
-      <c r="G34" s="356"/>
+      <c r="C34" s="359"/>
+      <c r="D34" s="359"/>
+      <c r="E34" s="359"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="359"/>
       <c r="K34" s="413" t="s">
         <v>138</v>
       </c>
@@ -7087,12 +6763,12 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,SUM(K36:N36),"")</f>
         <v>0</v>
       </c>
-      <c r="P36" s="453">
+      <c r="P36" s="436">
         <f>IFERROR((G36-O36)/G36,"")</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="453"/>
-      <c r="R36" s="453"/>
+      <c r="Q36" s="436"/>
+      <c r="R36" s="436"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
@@ -7101,19 +6777,19 @@
       </c>
       <c r="C37" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*C5),"")</f>
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D37" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*D5),"")</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E37" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*E5),"")</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="116">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH((HDRAG_MAX_ALL/$G4)*F5),"")</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G37" s="121">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(C37:F37),"")</f>
@@ -7124,30 +6800,30 @@
       </c>
       <c r="K37" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*C5),"")</f>
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="L37" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*D5),"")</f>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="M37" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*E5),"")</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N37" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,_xlfn.CEILING.MATH(($P4/$G$4)*F5),"")</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O37" s="315">
         <f>IF(HDRAG_HAS_REC_HMERC,SUM(K37:N37),"")</f>
-        <v>427</v>
-      </c>
-      <c r="P37" s="453">
+        <v>356</v>
+      </c>
+      <c r="P37" s="436">
         <f>IFERROR((G37-O37)/G37,"")</f>
-        <v>0.21072088724584104</v>
-      </c>
-      <c r="Q37" s="453"/>
-      <c r="R37" s="453"/>
+        <v>0.34195933456561922</v>
+      </c>
+      <c r="Q37" s="436"/>
+      <c r="R37" s="436"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
@@ -7197,12 +6873,12 @@
         <f>IF(HDRAG_HAS_REC_HMID,SUM(K38:N38),"")</f>
         <v>0</v>
       </c>
-      <c r="P38" s="453">
+      <c r="P38" s="436">
         <f>IFERROR((G38-O38)/G38,"")</f>
         <v>1</v>
       </c>
-      <c r="Q38" s="453"/>
-      <c r="R38" s="453"/>
+      <c r="Q38" s="436"/>
+      <c r="R38" s="436"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
@@ -7252,12 +6928,12 @@
         <f>IF(HDRAG_HAS_REC_HJUP,SUM(K39:N39),"")</f>
         <v/>
       </c>
-      <c r="P39" s="453" t="str">
+      <c r="P39" s="436" t="str">
         <f>IFERROR((G39-O39)/G39,"")</f>
         <v/>
       </c>
-      <c r="Q39" s="453"/>
-      <c r="R39" s="453"/>
+      <c r="Q39" s="436"/>
+      <c r="R39" s="436"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
@@ -7307,12 +6983,12 @@
         <f>IF(HDRAG_HAS_REC_HZOD,SUM(K40:N40),"")</f>
         <v/>
       </c>
-      <c r="P40" s="453" t="str">
+      <c r="P40" s="436" t="str">
         <f>IFERROR((G40-O40)/G40,"")</f>
         <v/>
       </c>
-      <c r="Q40" s="453"/>
-      <c r="R40" s="453"/>
+      <c r="Q40" s="436"/>
+      <c r="R40" s="436"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
@@ -7328,19 +7004,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="K27:R27"/>
     <mergeCell ref="K20:R20"/>
     <mergeCell ref="K13:R13"/>
@@ -7356,30 +7043,19 @@
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="P19:R19"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="K34:R34"/>
   </mergeCells>
   <conditionalFormatting sqref="K1">
     <cfRule type="dataBar" priority="26">
@@ -9511,10 +9187,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9522,7 +9198,7 @@
     <col min="1" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -9541,8 +9217,11 @@
       <c r="F1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -9562,7 +9241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9582,7 +9261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9602,7 +9281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -9618,8 +9297,11 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -9635,8 +9317,11 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -9652,8 +9337,11 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -9669,8 +9357,11 @@
       <c r="E8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -9686,8 +9377,11 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -9703,8 +9397,11 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -9720,8 +9417,11 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -9737,8 +9437,11 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -9754,8 +9457,11 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -9771,8 +9477,11 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -9788,8 +9497,11 @@
       <c r="E15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -9805,8 +9517,11 @@
       <c r="E16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -9822,8 +9537,11 @@
       <c r="E17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -9839,8 +9557,11 @@
       <c r="E18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -9856,8 +9577,11 @@
       <c r="E19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -9871,6 +9595,9 @@
         <v>2</v>
       </c>
       <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
         <v>2</v>
       </c>
     </row>
@@ -13289,8 +13016,8 @@
   </sheetPr>
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="A1:T16"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13399,7 +13126,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="375" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="193" t="s">
@@ -13502,7 +13229,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="371"/>
+      <c r="A3" s="376"/>
       <c r="B3" s="174" t="s">
         <v>106</v>
       </c>
@@ -13603,7 +13330,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="376" t="s">
+      <c r="A4" s="381" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="215" t="s">
@@ -13682,7 +13409,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="377"/>
+      <c r="A5" s="382"/>
       <c r="B5" s="220" t="s">
         <v>106</v>
       </c>
@@ -13785,7 +13512,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="372" t="s">
+      <c r="A6" s="377" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="225" t="s">
@@ -13891,7 +13618,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="373"/>
+      <c r="A7" s="378"/>
       <c r="B7" s="230" t="s">
         <v>106</v>
       </c>
@@ -13969,7 +13696,7 @@
       <c r="AI7" s="61"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="378" t="s">
+      <c r="A8" s="383" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="235" t="s">
@@ -14052,10 +13779,10 @@
       <c r="W8" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="386" t="s">
+      <c r="X8" s="362" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="386"/>
+      <c r="Y8" s="362"/>
       <c r="Z8" s="7" t="s">
         <v>23</v>
       </c>
@@ -14082,7 +13809,7 @@
       <c r="AI8" s="61"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="379"/>
+      <c r="A9" s="384"/>
       <c r="B9" s="240" t="s">
         <v>106</v>
       </c>
@@ -14157,7 +13884,7 @@
         <f>SUM(D迎擊!X:X)</f>
         <v>502</v>
       </c>
-      <c r="V9" s="384" t="s">
+      <c r="V9" s="373" t="s">
         <v>20</v>
       </c>
       <c r="W9" s="83">
@@ -14178,7 +13905,7 @@
         <f t="shared" ref="AA9:AA16" si="7">IFERROR(Z9*BOOST_PRICE,"")</f>
         <v/>
       </c>
-      <c r="AB9" s="385" t="s">
+      <c r="AB9" s="374" t="s">
         <v>13</v>
       </c>
       <c r="AC9" s="83">
@@ -14203,7 +13930,7 @@
       <c r="AI9" s="61"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="374" t="s">
+      <c r="A10" s="379" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="245" t="s">
@@ -14280,7 +14007,7 @@
         <f>SUM(D迎擊!AA:AA)</f>
         <v>372</v>
       </c>
-      <c r="V10" s="384"/>
+      <c r="V10" s="373"/>
       <c r="W10" s="83">
         <v>30</v>
       </c>
@@ -14299,7 +14026,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB10" s="385"/>
+      <c r="AB10" s="374"/>
       <c r="AC10" s="83">
         <v>30</v>
       </c>
@@ -14322,7 +14049,7 @@
       <c r="AI10" s="61"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="375"/>
+      <c r="A11" s="380"/>
       <c r="B11" s="250" t="s">
         <v>106</v>
       </c>
@@ -14397,7 +14124,7 @@
         <f>SUM(D迎擊!AD:AD)</f>
         <v>89</v>
       </c>
-      <c r="V11" s="383" t="s">
+      <c r="V11" s="372" t="s">
         <v>10</v>
       </c>
       <c r="W11" s="84">
@@ -14418,7 +14145,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB11" s="387" t="s">
+      <c r="AB11" s="363" t="s">
         <v>7</v>
       </c>
       <c r="AC11" s="84">
@@ -14443,7 +14170,7 @@
       <c r="AI11" s="61"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="362" t="s">
+      <c r="A12" s="385" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="255" t="s">
@@ -14489,15 +14216,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P12" s="369">
+      <c r="P12" s="367">
         <f>MAX(SUM(P2,P4,P6,P8,P10),SUM(P3,P5,P7,P9,P11),P14,P15,P16)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="369">
+      <c r="Q12" s="367">
         <f>MAX(SUM(Q2,Q4,Q6,Q8,Q10),SUM(Q3,Q5,Q7,Q9,Q11),P14,P15,P16)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="389">
+      <c r="R12" s="365">
         <f>MAX(SUM(R2,R4,R6,R8,R10),SUM(R3,R5,R7,R9,R11),R14,R15,R16)</f>
         <v>0</v>
       </c>
@@ -14509,7 +14236,7 @@
         <f>SUM(T2,T4,T6,T8,T10)</f>
         <v>3623</v>
       </c>
-      <c r="V12" s="383"/>
+      <c r="V12" s="372"/>
       <c r="W12" s="84">
         <v>30</v>
       </c>
@@ -14528,7 +14255,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB12" s="387"/>
+      <c r="AB12" s="363"/>
       <c r="AC12" s="84">
         <v>30</v>
       </c>
@@ -14551,7 +14278,7 @@
       <c r="AI12" s="61"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="363"/>
+      <c r="A13" s="386"/>
       <c r="B13" s="56" t="s">
         <v>106</v>
       </c>
@@ -14595,9 +14322,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P13" s="365"/>
-      <c r="Q13" s="365"/>
-      <c r="R13" s="390"/>
+      <c r="P13" s="368"/>
+      <c r="Q13" s="368"/>
+      <c r="R13" s="366"/>
       <c r="S13" s="190">
         <f>(S3*T3+S5*T5+S7*T7+S9*T9+S11*T11) / T$13</f>
         <v>1.5223880597014925</v>
@@ -14606,7 +14333,7 @@
         <f>SUM(T3,T5,T7,T9,T11)</f>
         <v>603</v>
       </c>
-      <c r="V13" s="382" t="s">
+      <c r="V13" s="371" t="s">
         <v>5</v>
       </c>
       <c r="W13" s="85">
@@ -14627,7 +14354,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB13" s="388" t="s">
+      <c r="AB13" s="364" t="s">
         <v>4</v>
       </c>
       <c r="AC13" s="85">
@@ -14652,7 +14379,7 @@
       <c r="AI13" s="61"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="363"/>
+      <c r="A14" s="386"/>
       <c r="B14" s="56" t="s">
         <v>117</v>
       </c>
@@ -14689,11 +14416,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P14" s="365">
+      <c r="P14" s="368">
         <f>IFERROR(ROUND(N14/S14,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="365"/>
+      <c r="Q14" s="368"/>
       <c r="R14" s="192">
         <f>P14/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -14702,11 +14429,11 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AE:AE,D迎擊!AK:AK)/T$14,"")</f>
         <v>1.7213930348258706</v>
       </c>
-      <c r="T14" s="367">
+      <c r="T14" s="389">
         <f>SUM(D迎擊!AK:AK)</f>
         <v>603</v>
       </c>
-      <c r="V14" s="382"/>
+      <c r="V14" s="371"/>
       <c r="W14" s="85">
         <v>30</v>
       </c>
@@ -14725,7 +14452,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB14" s="388"/>
+      <c r="AB14" s="364"/>
       <c r="AC14" s="85">
         <v>30</v>
       </c>
@@ -14748,7 +14475,7 @@
       <c r="AI14" s="61"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="363"/>
+      <c r="A15" s="386"/>
       <c r="B15" s="56" t="s">
         <v>118</v>
       </c>
@@ -14785,11 +14512,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P15" s="365">
+      <c r="P15" s="368">
         <f>IFERROR(ROUND(N15/S15,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="365"/>
+      <c r="Q15" s="368"/>
       <c r="R15" s="192">
         <f>P15/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -14798,8 +14525,8 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AG:AG,D迎擊!AK:AK)/T$14,"")</f>
         <v>1.9104477611940298</v>
       </c>
-      <c r="T15" s="367"/>
-      <c r="V15" s="381" t="s">
+      <c r="T15" s="389"/>
+      <c r="V15" s="370" t="s">
         <v>3</v>
       </c>
       <c r="W15" s="86">
@@ -14820,7 +14547,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB15" s="380" t="s">
+      <c r="AB15" s="369" t="s">
         <v>2</v>
       </c>
       <c r="AC15" s="87">
@@ -14845,7 +14572,7 @@
       <c r="AI15" s="61"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="364"/>
+      <c r="A16" s="387"/>
       <c r="B16" s="263" t="s">
         <v>119</v>
       </c>
@@ -14882,11 +14609,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P16" s="366">
+      <c r="P16" s="388">
         <f>IFERROR(ROUND(N16/S16,0),0)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="366"/>
+      <c r="Q16" s="388"/>
       <c r="R16" s="268">
         <f>Q16/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS</f>
         <v>0</v>
@@ -14895,8 +14622,8 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AI:AI,D迎擊!AK:AK)/T$14,"")</f>
         <v>12.344941956882256</v>
       </c>
-      <c r="T16" s="368"/>
-      <c r="V16" s="381"/>
+      <c r="T16" s="390"/>
+      <c r="V16" s="370"/>
       <c r="W16" s="86">
         <v>30</v>
       </c>
@@ -14915,7 +14642,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB16" s="380"/>
+      <c r="AB16" s="369"/>
       <c r="AC16" s="87">
         <v>30</v>
       </c>
@@ -14938,28 +14665,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="AB15:AB16"/>
     <mergeCell ref="V15:V16"/>
     <mergeCell ref="V13:V14"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="Q12:Q13"/>
   </mergeCells>
   <conditionalFormatting sqref="O3">
     <cfRule type="dataBar" priority="23">
@@ -15270,102 +14997,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="398" t="s">
+      <c r="A1" s="391" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="392" t="s">
+      <c r="B1" s="391"/>
+      <c r="C1" s="396" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="392" t="s">
+      <c r="D1" s="396" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392" t="s">
+      <c r="E1" s="396"/>
+      <c r="F1" s="396" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="405" t="s">
+      <c r="G1" s="402" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="405"/>
-      <c r="I1" s="391" t="s">
+      <c r="H1" s="402"/>
+      <c r="I1" s="397" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="391" t="s">
+      <c r="J1" s="397" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391" t="s">
+      <c r="K1" s="397"/>
+      <c r="L1" s="397" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="404" t="s">
+      <c r="M1" s="401" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="404"/>
-      <c r="O1" s="403" t="s">
+      <c r="N1" s="401"/>
+      <c r="O1" s="398" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="403" t="s">
+      <c r="P1" s="398" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="403"/>
-      <c r="R1" s="403" t="s">
+      <c r="Q1" s="398"/>
+      <c r="R1" s="398" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="397" t="s">
+      <c r="S1" s="405" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="397"/>
-      <c r="U1" s="396" t="s">
+      <c r="T1" s="405"/>
+      <c r="U1" s="399" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="396" t="s">
+      <c r="V1" s="399" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="396"/>
-      <c r="X1" s="396" t="s">
+      <c r="W1" s="399"/>
+      <c r="X1" s="399" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="395" t="s">
+      <c r="Y1" s="404" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="395"/>
-      <c r="AA1" s="394" t="s">
+      <c r="Z1" s="404"/>
+      <c r="AA1" s="400" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="394" t="s">
+      <c r="AB1" s="400" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="394"/>
-      <c r="AD1" s="394" t="s">
+      <c r="AC1" s="400"/>
+      <c r="AD1" s="400" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="401" t="s">
+      <c r="AE1" s="394" t="s">
         <v>117</v>
       </c>
-      <c r="AF1" s="401"/>
-      <c r="AG1" s="402" t="s">
+      <c r="AF1" s="394"/>
+      <c r="AG1" s="395" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="399" t="s">
+      <c r="AH1" s="395"/>
+      <c r="AI1" s="392" t="s">
         <v>119</v>
       </c>
-      <c r="AJ1" s="399"/>
-      <c r="AK1" s="400" t="s">
+      <c r="AJ1" s="392"/>
+      <c r="AK1" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="393" t="s">
+      <c r="AM1" s="403" t="s">
         <v>71</v>
       </c>
-      <c r="AN1" s="393"/>
-      <c r="AO1" s="393"/>
-      <c r="AP1" s="393"/>
-      <c r="AQ1" s="393"/>
-      <c r="AR1" s="393"/>
-      <c r="AS1" s="393"/>
-      <c r="AT1" s="393"/>
-      <c r="AU1" s="393"/>
+      <c r="AN1" s="403"/>
+      <c r="AO1" s="403"/>
+      <c r="AP1" s="403"/>
+      <c r="AQ1" s="403"/>
+      <c r="AR1" s="403"/>
+      <c r="AS1" s="403"/>
+      <c r="AT1" s="403"/>
+      <c r="AU1" s="403"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="149" t="s">
@@ -15374,70 +15101,70 @@
       <c r="B2" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="392"/>
+      <c r="C2" s="396"/>
       <c r="D2" s="148" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="392"/>
+      <c r="F2" s="396"/>
       <c r="G2" s="129" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="391"/>
+      <c r="I2" s="397"/>
       <c r="J2" s="147" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="391"/>
+      <c r="L2" s="397"/>
       <c r="M2" s="130" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="403"/>
+      <c r="O2" s="398"/>
       <c r="P2" s="130" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="R2" s="403"/>
+      <c r="R2" s="398"/>
       <c r="S2" s="131" t="s">
         <v>32</v>
       </c>
       <c r="T2" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="U2" s="396"/>
+      <c r="U2" s="399"/>
       <c r="V2" s="131" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="X2" s="396"/>
+      <c r="X2" s="399"/>
       <c r="Y2" s="132" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" s="394"/>
+      <c r="AA2" s="400"/>
       <c r="AB2" s="132" t="s">
         <v>32</v>
       </c>
       <c r="AC2" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="394"/>
+      <c r="AD2" s="400"/>
       <c r="AE2" s="135" t="s">
         <v>32</v>
       </c>
@@ -15456,7 +15183,7 @@
       <c r="AJ2" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="AK2" s="400"/>
+      <c r="AK2" s="393"/>
       <c r="AM2" s="61" t="s">
         <v>19</v>
       </c>
@@ -17381,6 +17108,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AM1:AU1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AK2"/>
@@ -17397,15 +17133,6 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AM1:AU1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17419,7 +17146,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17655,11 +17382,11 @@
         <v>67</v>
       </c>
       <c r="D7" s="102"/>
-      <c r="E7" s="356" t="s">
+      <c r="E7" s="359" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="356"/>
-      <c r="G7" s="356"/>
+      <c r="F7" s="359"/>
+      <c r="G7" s="359"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -17676,7 +17403,7 @@
         <f>D3*DRAGON_EXP_60+D4*DRAGON_EXP_80+D5*DRAGON_EXP_100+INDEX(DATA_DRAG_ACCU_EXP,D6)+(INDEX(DATA_DRAG_LV_EXP,D6)-D7)</f>
         <v>240</v>
       </c>
-      <c r="E8" s="356" t="s">
+      <c r="E8" s="359" t="s">
         <v>63</v>
       </c>
       <c r="F8" s="407">
@@ -17699,7 +17426,7 @@
         <f>MOD(B7,DRAGON_EXP_100)</f>
         <v>234350</v>
       </c>
-      <c r="E9" s="356"/>
+      <c r="E9" s="359"/>
       <c r="F9" s="407"/>
       <c r="G9" s="95">
         <f>SUM(DATA_DRAGON_PLAYS)</f>
@@ -19421,7 +19148,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19488,22 +19215,22 @@
         <v>57</v>
       </c>
       <c r="I2" s="167">
-        <v>224920</v>
+        <v>367817</v>
       </c>
       <c r="J2" s="167">
         <v>12</v>
       </c>
       <c r="K2" s="167">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L2" s="167">
-        <v>162</v>
+        <v>943</v>
       </c>
       <c r="M2" s="167">
-        <v>17</v>
+        <v>911</v>
       </c>
       <c r="N2" s="167">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19534,22 +19261,22 @@
         <v>58</v>
       </c>
       <c r="I3" s="167">
-        <v>224920</v>
+        <v>367367</v>
       </c>
       <c r="J3" s="167">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K3" s="167">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="L3" s="167">
-        <v>172</v>
+        <v>1105</v>
       </c>
       <c r="M3" s="167">
-        <v>19</v>
+        <v>1116</v>
       </c>
       <c r="N3" s="167">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19557,7 +19284,7 @@
         <v>126</v>
       </c>
       <c r="B4" s="303" t="str">
-        <f>IF(VOID_FIRE_GHOST_GOLD&gt;0,F4/VOID_FIRE_GOLEM_GOLD,"")</f>
+        <f>IF(VOID_FIRE_GHOST_GOLD&gt;0,F4/VOID_FIRE_GHOST_GOLD,"")</f>
         <v/>
       </c>
       <c r="C4" s="303">
@@ -19581,25 +19308,25 @@
       <c r="A5" s="279" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="303" t="str">
-        <f>IF(VOID_FIRE_AGNI_GOLD&gt;0,F5/VOID_FIRE_GOLEM_GOLD,"")</f>
-        <v/>
-      </c>
-      <c r="C5" s="303" t="str">
+      <c r="B5" s="303">
+        <f>IF(VOID_FIRE_AGNI_GOLD&gt;0,F5/VOID_FIRE_AGNI_GOLD,"")</f>
+        <v>11.041666666666666</v>
+      </c>
+      <c r="C5" s="303">
         <f>IF(VOID_FIRE_AGNI_SILVER&gt;0,VOID_FIRE_AGNI_SILVER/F5,"")</f>
-        <v/>
-      </c>
-      <c r="D5" s="303" t="str">
+        <v>2.9245283018867925</v>
+      </c>
+      <c r="D5" s="303">
         <f>IF(VOID_FIRE_AGNI_SILVER2&gt;0,VOID_FIRE_AGNI_SILVER2/F5,"")</f>
-        <v/>
-      </c>
-      <c r="E5" s="304" t="str">
+        <v>3.4566037735849058</v>
+      </c>
+      <c r="E5" s="304">
         <f>IF(VOID_FIRE_AGNI_SPEC&gt;0,F5/VOID_FIRE_AGNI_SPEC,"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="271" t="str">
+        <v>7.3611111111111107</v>
+      </c>
+      <c r="F5" s="271">
         <f>IF(VOID_FIRE_AGNI_GAMES&gt;0,VOID_FIRE_AGNI_GAMES,"")</f>
-        <v/>
+        <v>265</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>29</v>
@@ -19622,7 +19349,7 @@
         <v>127</v>
       </c>
       <c r="B6" s="303" t="str">
-        <f>IF(VOID_WATER_HERMIT_GOLD&gt;0,F6/VOID_FIRE_GOLEM_GOLD,"")</f>
+        <f>IF(VOID_WATER_HERMIT_GOLD&gt;0,F6/VOID_WATER_HERMIT_GOLD,"")</f>
         <v/>
       </c>
       <c r="C6" s="303">
@@ -19643,26 +19370,26 @@
       </c>
       <c r="H6" s="20">
         <f>(I2-I3)/WINGS_RECOVER_DIAMS*6 + (J2-J3)/WINGS_CONSUME_VOID</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J6" s="38" t="s">
         <v>79</v>
       </c>
       <c r="K6" s="20">
         <f>K3-K2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="20">
         <f>L3-L2</f>
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="M6" s="20">
         <f>M3-M2</f>
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="N6" s="20">
         <f>N3-N2</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19670,7 +19397,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="303">
-        <f>IF(VOID_WIND_WYVERN_GOLD&gt;0,F7/VOID_FIRE_GOLEM_GOLD,"")</f>
+        <f>IF(VOID_WIND_WYVERN_GOLD&gt;0,F7/VOID_WIND_WYVERN_GOLD,"")</f>
         <v>7</v>
       </c>
       <c r="C7" s="303">
@@ -19692,21 +19419,21 @@
       <c r="J7" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="20" t="str">
+      <c r="K7" s="20">
         <f>IFERROR(K6/$H$6,"")</f>
-        <v/>
-      </c>
-      <c r="L7" s="20" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="20">
         <f>IFERROR(L6/$H$6,"")</f>
-        <v/>
-      </c>
-      <c r="M7" s="20" t="str">
+        <v>2.7</v>
+      </c>
+      <c r="M7" s="20">
         <f>IFERROR(M6/$H$6,"")</f>
-        <v/>
-      </c>
-      <c r="N7" s="20" t="str">
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="N7" s="20">
         <f>IFERROR(N6/$H$6,"")</f>
-        <v/>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19714,7 +19441,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="303" t="str">
-        <f>IF(VOID_LIGHT_MUSH_GOLD&gt;0,F8/VOID_FIRE_GOLEM_GOLD,"")</f>
+        <f>IF(VOID_LIGHT_MUSH_GOLD&gt;0,F8/VOID_LIGHT_MUSH_GOLD,"")</f>
         <v/>
       </c>
       <c r="C8" s="303">
@@ -19739,7 +19466,7 @@
         <v>103</v>
       </c>
       <c r="B9" s="303">
-        <f>IF(VOID_DARK_MTCORE_GOLD&gt;0,F9/VOID_FIRE_GOLEM_GOLD,"")</f>
+        <f>IF(VOID_DARK_MTCORE_GOLD&gt;0,F9/VOID_DARK_MTCORE_GOLD,"")</f>
         <v>16.428571428571427</v>
       </c>
       <c r="C9" s="303">
@@ -19787,8 +19514,8 @@
         <v>104</v>
       </c>
       <c r="B10" s="303">
-        <f>IF(VOID_DARK_GOLEM_GOLD&gt;0,F10/VOID_FIRE_GOLEM_GOLD,"")</f>
-        <v>1.1428571428571428</v>
+        <f>IF(VOID_DARK_GOLEM_GOLD&gt;0,F10/VOID_DARK_GOLEM_GOLD,"")</f>
+        <v>8</v>
       </c>
       <c r="C10" s="303">
         <f>IF(VOID_DARK_GOLEM_SILVER&gt;0,VOID_DARK_GOLEM_SILVER/F10,"")</f>
@@ -19845,23 +19572,23 @@
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="305">
         <f>$F$12/(VOID_FIRE_GOLEM_GOLD+VOID_FIRE_GHOST_GOLD+VOID_FIRE_AGNI_GOLD+VOID_WATER_HERMIT_GOLD+VOID_WIND_WYVERN_GOLD+VOID_LIGHT_MUSH_GOLD+VOID_DARK_MTCORE_GOLD+VOID_DARK_GOLEM_GOLD)</f>
-        <v>16</v>
+        <v>13.413043478260869</v>
       </c>
       <c r="C12" s="305">
         <f>(VOID_FIRE_GOLEM_SILVER+VOID_FIRE_GHOST_SILVER+VOID_FIRE_AGNI_SILVER+VOID_WATER_HERMIT_SILVER+VOID_WIND_WYVERN_SILVER+VOID_LIGHT_MUSH_SILVER+VOID_DARK_MTCORE_SILVER+VOID_DARK_GOLEM_SILVER)/$F$12</f>
-        <v>2.3636363636363638</v>
+        <v>2.6045380875202593</v>
       </c>
       <c r="D12" s="305">
         <f>(VOID_FIRE_GOLEM_SILVER2+VOID_FIRE_GHOST_SILVER2+VOID_FIRE_AGNI_SILVER2+VOID_WATER_HERMIT_SILVER2+VOID_WIND_WYVERN_SILVER2+VOID_LIGHT_MUSH_SILVER2+VOID_DARK_MTCORE_SILVER2+VOID_DARK_GOLEM_SILVER2)/$F$12</f>
-        <v>2.7869318181818183</v>
+        <v>3.0745542949756888</v>
       </c>
       <c r="E12" s="305">
         <f>$F$12/(VOID_FIRE_GOLEM_SPEC+VOID_FIRE_GHOST_SPEC+VOID_FIRE_AGNI_SPEC+VOID_WATER_HERMIT_SPEC+VOID_WIND_WYVERN_SPEC+VOID_LIGHT_MUSH_SPEC+VOID_DARK_MTCORE_SPEC+VOID_DARK_GOLEM_SPEC)</f>
-        <v>14.08</v>
+        <v>10.114754098360656</v>
       </c>
       <c r="F12" s="95">
         <f>SUM(F3:F11)</f>
-        <v>352</v>
+        <v>617</v>
       </c>
       <c r="G12" s="271"/>
       <c r="H12" s="279" t="s">
@@ -20217,10 +19944,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20252,7 +19979,7 @@
     <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="270" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="270" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="417" t="s">
         <v>100</v>
       </c>
@@ -20309,8 +20036,14 @@
       <c r="AL1" s="415"/>
       <c r="AM1" s="415"/>
       <c r="AN1" s="416"/>
-    </row>
-    <row r="2" spans="1:40" s="270" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO1" s="270" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR1" s="270" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" s="270" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="278" t="s">
         <v>30</v>
       </c>
@@ -20431,8 +20164,26 @@
       <c r="AN2" s="300" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO2" s="270" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP2" s="270" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" s="270" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR2" s="270" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS2" s="270" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT2" s="270" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="281">
         <v>121</v>
       </c>
@@ -20463,6 +20214,21 @@
       <c r="J3" s="282">
         <v>2</v>
       </c>
+      <c r="K3" s="281">
+        <v>21</v>
+      </c>
+      <c r="L3" s="277">
+        <v>2</v>
+      </c>
+      <c r="M3" s="277">
+        <v>70</v>
+      </c>
+      <c r="N3" s="277">
+        <v>68</v>
+      </c>
+      <c r="O3" s="282">
+        <v>3</v>
+      </c>
       <c r="P3" s="286">
         <v>4</v>
       </c>
@@ -20538,8 +20304,38 @@
       <c r="AN3" s="302">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="281">
+        <v>174</v>
+      </c>
+      <c r="L4" s="277">
+        <v>19</v>
+      </c>
+      <c r="M4" s="277">
+        <v>515</v>
+      </c>
+      <c r="N4" s="277">
+        <v>608</v>
+      </c>
+      <c r="O4" s="282">
+        <v>24</v>
+      </c>
       <c r="P4" s="286">
         <v>6</v>
       </c>
@@ -20600,8 +20396,41 @@
       <c r="AI4" s="302">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="281">
+        <v>10</v>
+      </c>
+      <c r="L5" s="277">
+        <v>0</v>
+      </c>
+      <c r="M5" s="277">
+        <v>28</v>
+      </c>
+      <c r="N5" s="277">
+        <v>35</v>
+      </c>
+      <c r="O5" s="282">
+        <v>1</v>
+      </c>
       <c r="U5" s="291">
         <v>11</v>
       </c>
@@ -20647,10 +20476,34 @@
       <c r="AI5" s="302">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="306"/>
       <c r="B6" s="306"/>
+      <c r="K6" s="281">
+        <v>60</v>
+      </c>
+      <c r="L6" s="277">
+        <v>3</v>
+      </c>
+      <c r="M6" s="277">
+        <v>162</v>
+      </c>
+      <c r="N6" s="277">
+        <v>205</v>
+      </c>
+      <c r="O6" s="282">
+        <v>8</v>
+      </c>
       <c r="AE6" s="301">
         <v>30</v>
       </c>
@@ -20667,7 +20520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="306"/>
       <c r="B7" s="306"/>
       <c r="AE7" s="301">
@@ -20721,17 +20574,18 @@
     <col min="5" max="6" width="9.28515625" style="323"/>
     <col min="7" max="7" width="2.28515625" style="323" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" style="323" customWidth="1"/>
-    <col min="9" max="10" width="6.7109375" style="323" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="323" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="323" customWidth="1"/>
     <col min="11" max="11" width="32.85546875" style="323" customWidth="1"/>
     <col min="12" max="16384" width="9.28515625" style="323"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="319" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="403" t="s">
+      <c r="A1" s="398" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="403"/>
-      <c r="C1" s="403"/>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
       <c r="D1" s="337"/>
       <c r="E1" s="429" t="s">
         <v>142</v>
@@ -20772,11 +20626,11 @@
       </c>
       <c r="B3" s="334">
         <f>IFERROR(CLOVER_EXP_GAMES/CLOVER_EXP_SUM,"")</f>
-        <v>13.583333333333334</v>
+        <v>14.944444444444445</v>
       </c>
       <c r="C3" s="351">
         <f>CLOVER_EXP_GAMES</f>
-        <v>163</v>
+        <v>538</v>
       </c>
       <c r="D3" s="338"/>
       <c r="E3" s="330" t="s">
@@ -20784,22 +20638,22 @@
       </c>
       <c r="F3" s="140">
         <f>IFERROR(TALON_R3_TALON/TALON_R3_CLOVER,"")</f>
-        <v>0.83461538461538465</v>
+        <v>0.85172413793103452</v>
       </c>
       <c r="H3" s="330" t="s">
         <v>144</v>
       </c>
       <c r="I3" s="330">
         <f>IFERROR(_xlfn.FLOOR.MATH($F$7+$F3*$B$7),"")</f>
-        <v>434</v>
+        <v>173</v>
       </c>
       <c r="J3" s="330">
         <f>IFERROR(IF($J$23-I3&lt;0,0,$J$23-I3),"")</f>
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="K3" s="324">
         <f>IFERROR(IF(I3/$J$23&gt;1,1,I3/$J$23),"")</f>
-        <v>0.86799999999999999</v>
+        <v>0.50882352941176467</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -20808,11 +20662,11 @@
       </c>
       <c r="B4" s="335">
         <f>IFERROR(CLOVER_RUBY_GAMES/CLOVER_RUBY_SUM,"")</f>
-        <v>15.888888888888889</v>
+        <v>14.694444444444445</v>
       </c>
       <c r="C4" s="352">
         <f>CLOVER_RUBY_GAMES</f>
-        <v>858</v>
+        <v>1058</v>
       </c>
       <c r="D4" s="338"/>
       <c r="E4" s="331" t="s">
@@ -20827,15 +20681,15 @@
       </c>
       <c r="I4" s="331">
         <f>IFERROR(_xlfn.FLOOR.MATH($F$7+$F4*$B$7),"")</f>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="J4" s="331">
         <f>IFERROR(IF($J$23-I4&lt;0,0,$J$23-I4),"")</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K4" s="324">
         <f>IFERROR(IF(I4/$J$23&gt;1,1,I4/$J$23),"")</f>
-        <v>1</v>
+        <v>0.73529411764705888</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -20854,24 +20708,24 @@
       <c r="E5" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="333" t="str">
+      <c r="F5" s="333">
         <f>IFERROR(TALON_R5_TALON/TALON_R5_CLOVER,"")</f>
-        <v/>
+        <v>1.1081081081081081</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="26" t="str">
+      <c r="I5" s="26">
         <f>IFERROR(_xlfn.FLOOR.MATH($F$7+$F5*$B$7),"")</f>
-        <v/>
-      </c>
-      <c r="J5" s="26" t="str">
+        <v>214</v>
+      </c>
+      <c r="J5" s="26">
         <f>IFERROR(IF($J$23-I5&lt;0,0,$J$23-I5),"")</f>
-        <v/>
-      </c>
-      <c r="K5" s="324" t="str">
+        <v>126</v>
+      </c>
+      <c r="K5" s="324">
         <f>IFERROR(IF(I5/$J$23&gt;1,1,I5/$J$23),"")</f>
-        <v/>
+        <v>0.62941176470588234</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -20879,14 +20733,14 @@
         <v>166</v>
       </c>
       <c r="B7" s="430">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C7" s="430"/>
       <c r="E7" s="323" t="s">
         <v>166</v>
       </c>
       <c r="F7" s="162">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="H7" s="319"/>
       <c r="I7" s="319" t="s">
@@ -21019,15 +20873,15 @@
       </c>
       <c r="I17" s="341">
         <f>IF(真龍!K4&lt;&gt;0,真龍!K4,"")</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J17" s="341">
         <f>IF(HDRAG_HAS_REC_HMERC,INDEX(DATA_HDRAGS_TALON,I17),"")</f>
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K17" s="324">
         <f>IFERROR((HDRAG_MAX_TALON-J17)/HDRAG_MAX_TALON,"")</f>
-        <v>0.375</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="18" spans="8:11" x14ac:dyDescent="0.25">
@@ -21087,7 +20941,7 @@
       </c>
       <c r="J21" s="323">
         <f>SUM(J16:J20)</f>
-        <v>500</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="8:11" x14ac:dyDescent="0.25">
@@ -21096,7 +20950,7 @@
       </c>
       <c r="J23" s="323">
         <f>J13+J21</f>
-        <v>500</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="8:11" x14ac:dyDescent="0.25">
@@ -21514,10 +21368,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21661,6 +21515,12 @@
       <c r="J4" s="326">
         <v>8</v>
       </c>
+      <c r="K4" s="327">
+        <v>37</v>
+      </c>
+      <c r="L4" s="327">
+        <v>41</v>
+      </c>
       <c r="N4" s="323">
         <v>2</v>
       </c>
@@ -21719,6 +21579,12 @@
       <c r="F6" s="326">
         <v>57</v>
       </c>
+      <c r="G6" s="329">
+        <v>30</v>
+      </c>
+      <c r="H6" s="328">
+        <v>30</v>
+      </c>
       <c r="N6" s="323">
         <v>4</v>
       </c>
@@ -21727,6 +21593,12 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="169">
+        <v>0</v>
+      </c>
+      <c r="B7" s="169">
+        <v>56</v>
+      </c>
       <c r="C7" s="325">
         <v>6</v>
       </c>
@@ -21741,6 +21613,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="169">
+        <v>7</v>
+      </c>
+      <c r="B8" s="169">
+        <v>54</v>
+      </c>
       <c r="C8" s="325">
         <v>4</v>
       </c>
@@ -21755,6 +21633,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="169">
+        <v>4</v>
+      </c>
+      <c r="B9" s="169">
+        <v>53</v>
+      </c>
       <c r="C9" s="325">
         <v>0</v>
       </c>
@@ -21769,6 +21653,12 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="169">
+        <v>3</v>
+      </c>
+      <c r="B10" s="169">
+        <v>50</v>
+      </c>
       <c r="C10" s="325">
         <v>5</v>
       </c>
@@ -21783,6 +21673,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="169">
+        <v>4</v>
+      </c>
+      <c r="B11" s="169">
+        <v>55</v>
+      </c>
       <c r="C11" s="325">
         <v>7</v>
       </c>
@@ -21797,6 +21693,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="169">
+        <v>3</v>
+      </c>
+      <c r="B12" s="169">
+        <v>55</v>
+      </c>
       <c r="C12" s="325">
         <v>0</v>
       </c>
@@ -21811,6 +21713,12 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="169">
+        <v>3</v>
+      </c>
+      <c r="B13" s="169">
+        <v>52</v>
+      </c>
       <c r="C13" s="325">
         <v>1</v>
       </c>
@@ -21895,6 +21803,12 @@
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="325">
+        <v>0</v>
+      </c>
+      <c r="D19" s="325">
+        <v>16</v>
+      </c>
       <c r="N19" s="323">
         <v>17</v>
       </c>
@@ -21903,6 +21817,12 @@
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="325">
+        <v>9</v>
+      </c>
+      <c r="D20" s="325">
+        <v>56</v>
+      </c>
       <c r="N20" s="323">
         <v>18</v>
       </c>
@@ -21911,6 +21831,12 @@
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="325">
+        <v>1</v>
+      </c>
+      <c r="D21" s="325">
+        <v>15</v>
+      </c>
       <c r="N21" s="323">
         <v>19</v>
       </c>
@@ -21919,11 +21845,33 @@
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="325">
+        <v>1</v>
+      </c>
+      <c r="D22" s="325">
+        <v>53</v>
+      </c>
       <c r="N22" s="323">
         <v>20</v>
       </c>
       <c r="O22" s="323">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="325">
+        <v>1</v>
+      </c>
+      <c r="D23" s="325">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="325">
+        <v>6</v>
+      </c>
+      <c r="D24" s="325">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Dragalia Data.xlsx
+++ b/Dragalia Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="690" documentId="6_{5DF816FB-95FF-4719-89F5-2A648B856C5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{2842AD59-77AA-4609-BDCF-C3EF88329C82}"/>
+  <xr:revisionPtr revIDLastSave="717" documentId="6_{5DF816FB-95FF-4719-89F5-2A648B856C5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5251B76-5195-432C-9ECD-5A9632D77329}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="1020" windowWidth="21570" windowHeight="11985" firstSheet="6" activeTab="6" xr2:uid="{DB722928-C7C8-4DCB-B9F0-15DF68E4A8EA}"/>
   </bookViews>
@@ -19,22 +19,23 @@
     <sheet name="Raid" sheetId="16" state="hidden" r:id="rId4"/>
     <sheet name="R速度" sheetId="30" state="hidden" r:id="rId5"/>
     <sheet name="R預估差" sheetId="31" state="hidden" r:id="rId6"/>
-    <sheet name="迎擊" sheetId="18" r:id="rId7"/>
-    <sheet name="D迎擊" sheetId="7" state="hidden" r:id="rId8"/>
-    <sheet name="龍煉-護符" sheetId="19" r:id="rId9"/>
-    <sheet name="D龍煉-護符" sheetId="4" state="hidden" r:id="rId10"/>
-    <sheet name="虛空" sheetId="21" state="hidden" r:id="rId11"/>
-    <sheet name="D虛空" sheetId="15" state="hidden" r:id="rId12"/>
-    <sheet name="爪草" sheetId="22" r:id="rId13"/>
-    <sheet name="D爪草" sheetId="23" state="hidden" r:id="rId14"/>
-    <sheet name="真龍" sheetId="20" r:id="rId15"/>
-    <sheet name="D真龍" sheetId="9" state="hidden" r:id="rId16"/>
-    <sheet name="D真火" sheetId="10" state="hidden" r:id="rId17"/>
-    <sheet name="活動建築" sheetId="37" state="hidden" r:id="rId18"/>
-    <sheet name="D真水" sheetId="11" state="hidden" r:id="rId19"/>
-    <sheet name="D真風" sheetId="14" state="hidden" r:id="rId20"/>
-    <sheet name="D真光" sheetId="13" state="hidden" r:id="rId21"/>
-    <sheet name="D真暗" sheetId="12" r:id="rId22"/>
+    <sheet name="導引" sheetId="38" r:id="rId7"/>
+    <sheet name="迎擊" sheetId="18" r:id="rId8"/>
+    <sheet name="D迎擊" sheetId="7" state="hidden" r:id="rId9"/>
+    <sheet name="龍煉-護符" sheetId="19" r:id="rId10"/>
+    <sheet name="D龍煉-護符" sheetId="4" state="hidden" r:id="rId11"/>
+    <sheet name="虛空" sheetId="21" state="hidden" r:id="rId12"/>
+    <sheet name="D虛空" sheetId="15" state="hidden" r:id="rId13"/>
+    <sheet name="爪草" sheetId="22" r:id="rId14"/>
+    <sheet name="D爪草" sheetId="23" state="hidden" r:id="rId15"/>
+    <sheet name="真龍" sheetId="20" r:id="rId16"/>
+    <sheet name="D真龍" sheetId="9" state="hidden" r:id="rId17"/>
+    <sheet name="D真火" sheetId="10" state="hidden" r:id="rId18"/>
+    <sheet name="活動建築" sheetId="37" state="hidden" r:id="rId19"/>
+    <sheet name="D真水" sheetId="11" state="hidden" r:id="rId20"/>
+    <sheet name="D真風" sheetId="14" state="hidden" r:id="rId21"/>
+    <sheet name="D真光" sheetId="13" state="hidden" r:id="rId22"/>
+    <sheet name="D真暗" sheetId="12" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">玩家EXP!$A$1:$N$115</definedName>
@@ -225,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="209">
   <si>
     <t>STR %</t>
   </si>
@@ -856,6 +857,15 @@
       <t>計算結果無視大、小章</t>
     </r>
   </si>
+  <si>
+    <t>請根據需要自行隱藏、解除隱藏工作表。</t>
+  </si>
+  <si>
+    <t>資料型的工作表(迎擊掉落…等)已經隱藏。要自己新增掉落資料的請自行解除隱藏。</t>
+  </si>
+  <si>
+    <t>D開頭的工作表代表資料型的工作表，沒有要額外新增的話可以隱藏起來。</t>
+  </si>
 </sst>
 </file>
 
@@ -880,7 +890,7 @@
     <numFmt numFmtId="179" formatCode="0.000%"/>
     <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ /\ hh"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,6 +1156,18 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1652,7 +1674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="604">
+  <cellXfs count="606">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3042,22 +3064,58 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3069,43 +3127,67 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="24" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3138,16 +3220,64 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="24" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3165,19 +3295,7 @@
     <xf numFmtId="166" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3186,19 +3304,19 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3219,25 +3337,10 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3309,27 +3412,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3366,6 +3448,27 @@
     <xf numFmtId="168" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3378,86 +3481,11 @@
     <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13374,23 +13402,23 @@
       <c r="C1" s="343">
         <v>7</v>
       </c>
-      <c r="F1" s="465" t="str">
+      <c r="F1" s="480" t="str">
         <f>B1&amp; "日"</f>
         <v>1日</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="465" t="str">
+      <c r="G1" s="481"/>
+      <c r="H1" s="481"/>
+      <c r="I1" s="480" t="str">
         <f>C1 &amp; "日"</f>
         <v>7日</v>
       </c>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
-      <c r="L1" s="465" t="s">
+      <c r="J1" s="481"/>
+      <c r="K1" s="481"/>
+      <c r="L1" s="480" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="466"/>
-      <c r="N1" s="466"/>
+      <c r="M1" s="481"/>
+      <c r="N1" s="481"/>
     </row>
     <row r="2" spans="1:14" s="343" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="341" t="s">
@@ -13855,7 +13883,7 @@
       </c>
       <c r="H10" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G10-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G10-NOW()-TRUNC(G10-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>013 D 06 H</v>
+        <v>013 D 05 H</v>
       </c>
       <c r="I10" s="332" t="e">
         <f ca="1">IF(ISBLANK(A10),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A10-$C$1,A:A,1)):D10, INDIRECT("A" &amp; MATCH(A10-$C$1,A:A,1)):A10),NA()))</f>
@@ -14350,7 +14378,7 @@
       </c>
       <c r="H19" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G19-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G19-NOW()-TRUNC(G19-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>028 D 21 H</v>
+        <v>028 D 20 H</v>
       </c>
       <c r="I19" s="332" t="e">
         <f ca="1">IF(ISBLANK(A19),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A19-$C$1,A:A,1)):D19, INDIRECT("A" &amp; MATCH(A19-$C$1,A:A,1)):A19),NA()))</f>
@@ -14735,7 +14763,7 @@
       </c>
       <c r="H26" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G26-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G26-NOW()-TRUNC(G26-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-005 D 13 H</v>
+        <v>-005 D 14 H</v>
       </c>
       <c r="I26" s="332" t="e">
         <f ca="1">IF(ISBLANK(A26),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A26-$C$1,A:A,1)):D26, INDIRECT("A" &amp; MATCH(A26-$C$1,A:A,1)):A26),NA()))</f>
@@ -14924,7 +14952,7 @@
       </c>
       <c r="N29" s="275" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>021 D 03 H</v>
+        <v>021 D 02 H</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -14955,7 +14983,7 @@
       </c>
       <c r="H30" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G30-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G30-NOW()-TRUNC(G30-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>010 D 06 H</v>
+        <v>010 D 05 H</v>
       </c>
       <c r="I30" s="332">
         <f ca="1">IF(ISBLANK(A30),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A30-$C$1,A:A,1)):D30, INDIRECT("A" &amp; MATCH(A30-$C$1,A:A,1)):A30),NA()))</f>
@@ -15077,7 +15105,7 @@
       </c>
       <c r="K32" s="275" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>018 D 05 H</v>
+        <v>018 D 04 H</v>
       </c>
       <c r="L32" s="332">
         <f t="shared" si="4"/>
@@ -15187,7 +15215,7 @@
       </c>
       <c r="K34" s="275" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>015 D 21 H</v>
+        <v>015 D 20 H</v>
       </c>
       <c r="L34" s="332">
         <f t="shared" si="4"/>
@@ -15199,7 +15227,7 @@
       </c>
       <c r="N34" s="275" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>016 D 11 H</v>
+        <v>016 D 10 H</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -15254,7 +15282,7 @@
       </c>
       <c r="N35" s="275" t="str">
         <f t="shared" ref="N35:N66" ca="1" si="5">IF(ISBLANK(D35),NA(),IFERROR(TEXT(TRUNC(M35-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(M35-NOW()-TRUNC(M35-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>015 D 21 H</v>
+        <v>015 D 20 H</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -15517,7 +15545,7 @@
       </c>
       <c r="K40" s="275" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>013 D 10 H</v>
+        <v>013 D 09 H</v>
       </c>
       <c r="L40" s="332">
         <f t="shared" si="4"/>
@@ -15682,7 +15710,7 @@
       </c>
       <c r="K43" s="275" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>015 D 20 H</v>
+        <v>015 D 19 H</v>
       </c>
       <c r="L43" s="332">
         <f t="shared" si="4"/>
@@ -15694,7 +15722,7 @@
       </c>
       <c r="N43" s="275" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>014 D 17 H</v>
+        <v>014 D 16 H</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -15725,7 +15753,7 @@
       </c>
       <c r="H44" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G44-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G44-NOW()-TRUNC(G44-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>025 D 16 H</v>
+        <v>025 D 15 H</v>
       </c>
       <c r="I44" s="332">
         <f ca="1">IF(ISBLANK(A44),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A44-$C$1,A:A,1)):D44, INDIRECT("A" &amp; MATCH(A44-$C$1,A:A,1)):A44),NA()))</f>
@@ -15792,7 +15820,7 @@
       </c>
       <c r="K45" s="275" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>017 D 14 H</v>
+        <v>017 D 13 H</v>
       </c>
       <c r="L45" s="332">
         <f t="shared" si="4"/>
@@ -15835,7 +15863,7 @@
       </c>
       <c r="H46" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G46-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G46-NOW()-TRUNC(G46-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>040 D 03 H</v>
+        <v>040 D 02 H</v>
       </c>
       <c r="I46" s="332">
         <f ca="1">IF(ISBLANK(A46),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A46-$C$1,A:A,1)):D46, INDIRECT("A" &amp; MATCH(A46-$C$1,A:A,1)):A46),NA()))</f>
@@ -16079,7 +16107,7 @@
       </c>
       <c r="N50" s="275" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>017 D 13 H</v>
+        <v>017 D 12 H</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -16275,7 +16303,7 @@
       </c>
       <c r="H54" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G54-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G54-NOW()-TRUNC(G54-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>022 D 14 H</v>
+        <v>022 D 13 H</v>
       </c>
       <c r="I54" s="332">
         <f ca="1">IF(ISBLANK(A54),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A54-$C$1,A:A,1)):D54, INDIRECT("A" &amp; MATCH(A54-$C$1,A:A,1)):A54),NA()))</f>
@@ -16342,7 +16370,7 @@
       </c>
       <c r="K55" s="275" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>015 D 04 H</v>
+        <v>015 D 03 H</v>
       </c>
       <c r="L55" s="332">
         <f t="shared" si="4"/>
@@ -16684,7 +16712,7 @@
       </c>
       <c r="N61" s="275" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>011 D 04 H</v>
+        <v>011 D 03 H</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -16880,7 +16908,7 @@
       </c>
       <c r="H65" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G65-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G65-NOW()-TRUNC(G65-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-016 D 03 H</v>
+        <v>-016 D 04 H</v>
       </c>
       <c r="I65" s="332">
         <f ca="1">IF(ISBLANK(A65),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A65-$C$1,A:A,1)):D65, INDIRECT("A" &amp; MATCH(A65-$C$1,A:A,1)):A65),NA()))</f>
@@ -17014,7 +17042,7 @@
       </c>
       <c r="N67" s="275" t="str">
         <f t="shared" ref="N67:N98" ca="1" si="8">IF(ISBLANK(D67),NA(),IFERROR(TEXT(TRUNC(M67-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(M67-NOW()-TRUNC(M67-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>009 D 04 H</v>
+        <v>009 D 03 H</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -17167,7 +17195,7 @@
       </c>
       <c r="K70" s="275" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>003 D 10 H</v>
+        <v>003 D 09 H</v>
       </c>
       <c r="L70" s="332">
         <f t="shared" si="4"/>
@@ -17344,7 +17372,7 @@
       </c>
       <c r="N73" s="275" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>008 D 00 H</v>
+        <v>007 D 23 H</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -17387,7 +17415,7 @@
       </c>
       <c r="K74" s="275" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>001 D 03 H</v>
+        <v>001 D 02 H</v>
       </c>
       <c r="L74" s="332">
         <f t="shared" ref="L74:L137" si="9">IFERROR(IF(OR(ISBLANK($A74),$A74-$A$3 &lt; $C$1),NA(),($D74-$D$3)/($A74-$A$3)),NA())</f>
@@ -17552,7 +17580,7 @@
       </c>
       <c r="K77" s="275" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-003 D 00 H</v>
+        <v>-003 D 01 H</v>
       </c>
       <c r="L77" s="332">
         <f t="shared" si="9"/>
@@ -17595,7 +17623,7 @@
       </c>
       <c r="H78" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G78-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G78-NOW()-TRUNC(G78-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-018 D 13 H</v>
+        <v>-018 D 14 H</v>
       </c>
       <c r="I78" s="332">
         <f ca="1">IF(ISBLANK(A78),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A78-$C$1,A:A,1)):D78, INDIRECT("A" &amp; MATCH(A78-$C$1,A:A,1)):A78),NA()))</f>
@@ -17650,7 +17678,7 @@
       </c>
       <c r="H79" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G79-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G79-NOW()-TRUNC(G79-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-017 D 05 H</v>
+        <v>-017 D 06 H</v>
       </c>
       <c r="I79" s="332">
         <f ca="1">IF(ISBLANK(A79),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A79-$C$1,A:A,1)):D79, INDIRECT("A" &amp; MATCH(A79-$C$1,A:A,1)):A79),NA()))</f>
@@ -17717,7 +17745,7 @@
       </c>
       <c r="K80" s="275" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-005 D 02 H</v>
+        <v>-005 D 03 H</v>
       </c>
       <c r="L80" s="332">
         <f t="shared" si="9"/>
@@ -18310,7 +18338,7 @@
       </c>
       <c r="H91" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G91-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G91-NOW()-TRUNC(G91-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-007 D 14 H</v>
+        <v>-007 D 15 H</v>
       </c>
       <c r="I91" s="332">
         <f ca="1">IF(ISBLANK(A91),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A91-$C$1,A:A,1)):D91, INDIRECT("A" &amp; MATCH(A91-$C$1,A:A,1)):A91),NA()))</f>
@@ -18365,7 +18393,7 @@
       </c>
       <c r="H92" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G92-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G92-NOW()-TRUNC(G92-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-012 D 07 H</v>
+        <v>-012 D 08 H</v>
       </c>
       <c r="I92" s="332">
         <f ca="1">IF(ISBLANK(A92),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A92-$C$1,A:A,1)):D92, INDIRECT("A" &amp; MATCH(A92-$C$1,A:A,1)):A92),NA()))</f>
@@ -18377,7 +18405,7 @@
       </c>
       <c r="K92" s="275" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-012 D 01 H</v>
+        <v>-012 D 02 H</v>
       </c>
       <c r="L92" s="332">
         <f t="shared" si="9"/>
@@ -18597,7 +18625,7 @@
       </c>
       <c r="K96" s="275" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-011 D 04 H</v>
+        <v>-011 D 05 H</v>
       </c>
       <c r="L96" s="332">
         <f t="shared" si="9"/>
@@ -19465,7 +19493,7 @@
       </c>
       <c r="H112" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G112-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G112-NOW()-TRUNC(G112-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-013 D 14 H</v>
+        <v>-013 D 15 H</v>
       </c>
       <c r="I112" s="332">
         <f ca="1">IF(ISBLANK(A112),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A112-$C$1,A:A,1)):D112, INDIRECT("A" &amp; MATCH(A112-$C$1,A:A,1)):A112),NA()))</f>
@@ -19520,7 +19548,7 @@
       </c>
       <c r="H113" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G113-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G113-NOW()-TRUNC(G113-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-014 D 03 H</v>
+        <v>-014 D 04 H</v>
       </c>
       <c r="I113" s="332">
         <f ca="1">IF(ISBLANK(A113),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A113-$C$1,A:A,1)):D113, INDIRECT("A" &amp; MATCH(A113-$C$1,A:A,1)):A113),NA()))</f>
@@ -19587,7 +19615,7 @@
       </c>
       <c r="K114" s="275" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-008 D 21 H</v>
+        <v>-008 D 22 H</v>
       </c>
       <c r="L114" s="332">
         <f t="shared" si="9"/>
@@ -19630,7 +19658,7 @@
       </c>
       <c r="H115" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G115-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G115-NOW()-TRUNC(G115-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-003 D 17 H</v>
+        <v>-003 D 18 H</v>
       </c>
       <c r="I115" s="332">
         <f ca="1">IF(ISBLANK(A115),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A115-$C$1,A:A,1)):D115, INDIRECT("A" &amp; MATCH(A115-$C$1,A:A,1)):A115),NA()))</f>
@@ -19697,7 +19725,7 @@
       </c>
       <c r="K116" s="392" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-008 D 16 H</v>
+        <v>-008 D 17 H</v>
       </c>
       <c r="L116" s="332">
         <f t="shared" si="9"/>
@@ -19917,7 +19945,7 @@
       </c>
       <c r="K120" s="392" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-007 D 03 H</v>
+        <v>-007 D 04 H</v>
       </c>
       <c r="L120" s="332">
         <f t="shared" si="9"/>
@@ -19972,7 +20000,7 @@
       </c>
       <c r="K121" s="392" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-002 D 09 H</v>
+        <v>-002 D 10 H</v>
       </c>
       <c r="L121" s="332">
         <f t="shared" si="9"/>
@@ -20015,7 +20043,7 @@
       </c>
       <c r="H122" s="392" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G122-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G122-NOW()-TRUNC(G122-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>041 D 19 H</v>
+        <v>041 D 18 H</v>
       </c>
       <c r="I122" s="332">
         <f ca="1">IF(ISBLANK(A122),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A122-$C$1,A:A,1)):D122, INDIRECT("A" &amp; MATCH(A122-$C$1,A:A,1)):A122),NA()))</f>
@@ -20039,7 +20067,7 @@
       </c>
       <c r="N122" s="392" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>000 D 06 H</v>
+        <v>000 D 07 H</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20204,7 +20232,7 @@
       </c>
       <c r="N125" s="392" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>000 D 21 H</v>
+        <v>000 D 22 H</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20467,7 +20495,7 @@
       </c>
       <c r="K130" s="392" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>000 D 15 H</v>
+        <v>000 D 16 H</v>
       </c>
       <c r="L130" s="332">
         <f t="shared" si="9"/>
@@ -20675,7 +20703,7 @@
       </c>
       <c r="H134" s="392" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G134-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G134-NOW()-TRUNC(G134-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-004 D 15 H</v>
+        <v>-004 D 16 H</v>
       </c>
       <c r="I134" s="332">
         <f ca="1">IF(ISBLANK(A134),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A134-$C$1,A:A,1)):D134, INDIRECT("A" &amp; MATCH(A134-$C$1,A:A,1)):A134),NA()))</f>
@@ -21017,7 +21045,7 @@
       </c>
       <c r="K140" s="392" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-003 D 12 H</v>
+        <v>-003 D 13 H</v>
       </c>
       <c r="L140" s="332">
         <f t="shared" si="14"/>
@@ -21182,7 +21210,7 @@
       </c>
       <c r="K143" s="392" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-002 D 22 H</v>
+        <v>-002 D 23 H</v>
       </c>
       <c r="L143" s="332">
         <f t="shared" si="14"/>
@@ -21225,7 +21253,7 @@
       </c>
       <c r="H144" s="392" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G144-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G144-NOW()-TRUNC(G144-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>002 D 18 H</v>
+        <v>002 D 17 H</v>
       </c>
       <c r="I144" s="332">
         <f ca="1">IF(ISBLANK(A144),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A144-$C$1,A:A,1)):D144, INDIRECT("A" &amp; MATCH(A144-$C$1,A:A,1)):A144),NA()))</f>
@@ -21304,7 +21332,7 @@
       </c>
       <c r="N145" s="392" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>-001 D 19 H</v>
+        <v>-001 D 20 H</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -21457,7 +21485,7 @@
       </c>
       <c r="K148" s="393" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-002 D 06 H</v>
+        <v>-002 D 07 H</v>
       </c>
       <c r="L148" s="332">
         <f t="shared" si="14"/>
@@ -21469,7 +21497,7 @@
       </c>
       <c r="N148" s="393" t="str">
         <f t="shared" ref="N148:N211" ca="1" si="15">IF(ISBLANK(D148),NA(),IFERROR(TEXT(TRUNC(M148-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(M148-NOW()-TRUNC(M148-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-002 D 00 H</v>
+        <v>-002 D 01 H</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -21524,7 +21552,7 @@
       </c>
       <c r="N149" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-002 D 01 H</v>
+        <v>-002 D 02 H</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -21555,7 +21583,7 @@
       </c>
       <c r="H150" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G150-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G150-NOW()-TRUNC(G150-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-001 D 08 H</v>
+        <v>-001 D 09 H</v>
       </c>
       <c r="I150" s="332">
         <f ca="1">IF(ISBLANK(A150),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A150-$C$1,A:A,1)):D150, INDIRECT("A" &amp; MATCH(A150-$C$1,A:A,1)):A150),NA()))</f>
@@ -21744,7 +21772,7 @@
       </c>
       <c r="N153" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-001 D 23 H</v>
+        <v>-002 D 00 H</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -22105,7 +22133,7 @@
       </c>
       <c r="H160" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G160-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G160-NOW()-TRUNC(G160-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-004 D 11 H</v>
+        <v>-004 D 12 H</v>
       </c>
       <c r="I160" s="332">
         <f ca="1">IF(ISBLANK(A160),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A160-$C$1,A:A,1)):D160, INDIRECT("A" &amp; MATCH(A160-$C$1,A:A,1)):A160),NA()))</f>
@@ -22160,7 +22188,7 @@
       </c>
       <c r="H161" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G161-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G161-NOW()-TRUNC(G161-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-003 D 13 H</v>
+        <v>-003 D 14 H</v>
       </c>
       <c r="I161" s="332">
         <f ca="1">IF(ISBLANK(A161),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A161-$C$1,A:A,1)):D161, INDIRECT("A" &amp; MATCH(A161-$C$1,A:A,1)):A161),NA()))</f>
@@ -22184,7 +22212,7 @@
       </c>
       <c r="N161" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-002 D 12 H</v>
+        <v>-002 D 13 H</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -22239,7 +22267,7 @@
       </c>
       <c r="N162" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-002 D 15 H</v>
+        <v>-002 D 16 H</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -22710,7 +22738,7 @@
       </c>
       <c r="H171" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G171-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G171-NOW()-TRUNC(G171-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-002 D 13 H</v>
+        <v>-002 D 14 H</v>
       </c>
       <c r="I171" s="332">
         <f ca="1">IF(ISBLANK(A171),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A171-$C$1,A:A,1)):D171, INDIRECT("A" &amp; MATCH(A171-$C$1,A:A,1)):A171),NA()))</f>
@@ -22765,7 +22793,7 @@
       </c>
       <c r="H172" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G172-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G172-NOW()-TRUNC(G172-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-002 D 23 H</v>
+        <v>-003 D 00 H</v>
       </c>
       <c r="I172" s="332">
         <f ca="1">IF(ISBLANK(A172),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A172-$C$1,A:A,1)):D172, INDIRECT("A" &amp; MATCH(A172-$C$1,A:A,1)):A172),NA()))</f>
@@ -22832,7 +22860,7 @@
       </c>
       <c r="K173" s="393" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-004 D 13 H</v>
+        <v>-004 D 14 H</v>
       </c>
       <c r="L173" s="332">
         <f t="shared" si="14"/>
@@ -22899,7 +22927,7 @@
       </c>
       <c r="N174" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-002 D 23 H</v>
+        <v>-003 D 00 H</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -22942,7 +22970,7 @@
       </c>
       <c r="K175" s="393" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-004 D 13 H</v>
+        <v>-004 D 14 H</v>
       </c>
       <c r="L175" s="332">
         <f t="shared" si="14"/>
@@ -23052,7 +23080,7 @@
       </c>
       <c r="K177" s="393" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-004 D 12 H</v>
+        <v>-004 D 13 H</v>
       </c>
       <c r="L177" s="332">
         <f t="shared" si="14"/>
@@ -23272,7 +23300,7 @@
       </c>
       <c r="K181" s="393" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-004 D 12 H</v>
+        <v>-004 D 13 H</v>
       </c>
       <c r="L181" s="332">
         <f t="shared" si="14"/>
@@ -23315,7 +23343,7 @@
       </c>
       <c r="H182" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G182-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G182-NOW()-TRUNC(G182-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-005 D 05 H</v>
+        <v>-005 D 06 H</v>
       </c>
       <c r="I182" s="332">
         <f ca="1">IF(ISBLANK(A182),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A182-$C$1,A:A,1)):D182, INDIRECT("A" &amp; MATCH(A182-$C$1,A:A,1)):A182),NA()))</f>
@@ -23327,7 +23355,7 @@
       </c>
       <c r="K182" s="393" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-004 D 13 H</v>
+        <v>-004 D 14 H</v>
       </c>
       <c r="L182" s="332">
         <f t="shared" si="14"/>
@@ -23559,7 +23587,7 @@
       </c>
       <c r="N186" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-003 D 18 H</v>
+        <v>-003 D 19 H</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -23767,7 +23795,7 @@
       </c>
       <c r="K190" s="393" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-004 D 15 H</v>
+        <v>-004 D 16 H</v>
       </c>
       <c r="L190" s="332">
         <f t="shared" si="14"/>
@@ -23779,7 +23807,7 @@
       </c>
       <c r="N190" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-003 D 13 H</v>
+        <v>-003 D 14 H</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -23865,7 +23893,7 @@
       </c>
       <c r="H192" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G192-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G192-NOW()-TRUNC(G192-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-001 D 03 H</v>
+        <v>-001 D 04 H</v>
       </c>
       <c r="I192" s="332">
         <f ca="1">IF(ISBLANK(A192),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A192-$C$1,A:A,1)):D192, INDIRECT("A" &amp; MATCH(A192-$C$1,A:A,1)):A192),NA()))</f>
@@ -23944,7 +23972,7 @@
       </c>
       <c r="N193" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-003 D 09 H</v>
+        <v>-003 D 10 H</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -24042,7 +24070,7 @@
       </c>
       <c r="K195" s="393" t="str">
         <f t="shared" ref="K195:K258" ca="1" si="17">IF(ISBLANK(A195),NA(),IFERROR(TEXT(TRUNC(J195-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(J195-NOW()-TRUNC(J195-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-004 D 04 H</v>
+        <v>-004 D 05 H</v>
       </c>
       <c r="L195" s="332">
         <f t="shared" si="14"/>
@@ -24109,7 +24137,7 @@
       </c>
       <c r="N196" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-003 D 09 H</v>
+        <v>-003 D 10 H</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -24164,7 +24192,7 @@
       </c>
       <c r="N197" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-003 D 10 H</v>
+        <v>-003 D 11 H</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -24262,7 +24290,7 @@
       </c>
       <c r="K199" s="393" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>-004 D 05 H</v>
+        <v>-004 D 06 H</v>
       </c>
       <c r="L199" s="332">
         <f t="shared" si="14"/>
@@ -24482,7 +24510,7 @@
       </c>
       <c r="K203" s="393" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>-004 D 05 H</v>
+        <v>-004 D 06 H</v>
       </c>
       <c r="L203" s="332">
         <f t="shared" si="18"/>
@@ -24592,7 +24620,7 @@
       </c>
       <c r="K205" s="393" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>-004 D 05 H</v>
+        <v>-004 D 06 H</v>
       </c>
       <c r="L205" s="332">
         <f t="shared" si="18"/>
@@ -24604,7 +24632,7 @@
       </c>
       <c r="N205" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-003 D 17 H</v>
+        <v>-003 D 18 H</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -24702,7 +24730,7 @@
       </c>
       <c r="K207" s="393" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>-004 D 09 H</v>
+        <v>-004 D 10 H</v>
       </c>
       <c r="L207" s="332">
         <f t="shared" si="18"/>
@@ -24922,7 +24950,7 @@
       </c>
       <c r="K211" s="393" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>-004 D 22 H</v>
+        <v>-004 D 23 H</v>
       </c>
       <c r="L211" s="332">
         <f t="shared" si="18"/>
@@ -25020,7 +25048,7 @@
       </c>
       <c r="H213" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G213-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G213-NOW()-TRUNC(G213-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-007 D 03 H</v>
+        <v>-007 D 04 H</v>
       </c>
       <c r="I213" s="332">
         <f ca="1">IF(ISBLANK(A213),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A213-$C$1,A:A,1)):D213, INDIRECT("A" &amp; MATCH(A213-$C$1,A:A,1)):A213),NA()))</f>
@@ -25240,7 +25268,7 @@
       </c>
       <c r="H217" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G217-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G217-NOW()-TRUNC(G217-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-008 D 07 H</v>
+        <v>-008 D 08 H</v>
       </c>
       <c r="I217" s="332">
         <f ca="1">IF(ISBLANK(A217),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A217-$C$1,A:A,1)):D217, INDIRECT("A" &amp; MATCH(A217-$C$1,A:A,1)):A217),NA()))</f>
@@ -25295,7 +25323,7 @@
       </c>
       <c r="H218" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G218-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G218-NOW()-TRUNC(G218-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-008 D 08 H</v>
+        <v>-008 D 09 H</v>
       </c>
       <c r="I218" s="332">
         <f ca="1">IF(ISBLANK(A218),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A218-$C$1,A:A,1)):D218, INDIRECT("A" &amp; MATCH(A218-$C$1,A:A,1)):A218),NA()))</f>
@@ -25362,7 +25390,7 @@
       </c>
       <c r="K219" s="393" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>-006 D 18 H</v>
+        <v>-006 D 19 H</v>
       </c>
       <c r="L219" s="332">
         <f t="shared" si="18"/>
@@ -25515,7 +25543,7 @@
       </c>
       <c r="H222" s="393" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G222-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G222-NOW()-TRUNC(G222-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>-007 D 21 H</v>
+        <v>-007 D 22 H</v>
       </c>
       <c r="I222" s="332">
         <f ca="1">IF(ISBLANK(A222),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A222-$C$1,A:A,1)):D222, INDIRECT("A" &amp; MATCH(A222-$C$1,A:A,1)):A222),NA()))</f>
@@ -33813,6 +33841,683 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229E30DC-B0C4-4455-8360-16B4B2CE7297}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:AX7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="186" customWidth="1"/>
+    <col min="2" max="4" width="3.85546875" style="182" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="187" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="186" customWidth="1"/>
+    <col min="7" max="9" width="3.85546875" style="182" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="187" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" style="186" customWidth="1"/>
+    <col min="12" max="14" width="3.85546875" style="182" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" style="187" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" style="191" customWidth="1"/>
+    <col min="17" max="19" width="3.85546875" style="181" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" style="192" customWidth="1"/>
+    <col min="21" max="21" width="3.85546875" style="191" customWidth="1"/>
+    <col min="22" max="24" width="3.85546875" style="269" customWidth="1"/>
+    <col min="25" max="25" width="3.85546875" style="192" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" style="196" customWidth="1"/>
+    <col min="27" max="29" width="3.85546875" style="180" customWidth="1"/>
+    <col min="30" max="30" width="3.85546875" style="197" customWidth="1"/>
+    <col min="31" max="31" width="3.85546875" style="201" customWidth="1"/>
+    <col min="32" max="34" width="3.85546875" style="179" customWidth="1"/>
+    <col min="35" max="35" width="3.85546875" style="202" customWidth="1"/>
+    <col min="36" max="36" width="3.85546875" style="201" customWidth="1"/>
+    <col min="37" max="39" width="3.85546875" style="328" customWidth="1"/>
+    <col min="40" max="40" width="3.85546875" style="202" customWidth="1"/>
+    <col min="41" max="41" width="3.85546875" style="206" customWidth="1"/>
+    <col min="42" max="44" width="3.85546875" style="178" customWidth="1"/>
+    <col min="45" max="45" width="3.85546875" style="207" customWidth="1"/>
+    <col min="46" max="46" width="3.85546875" style="206" customWidth="1"/>
+    <col min="47" max="49" width="3.85546875" style="178" customWidth="1"/>
+    <col min="50" max="50" width="3.85546875" style="207" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="562" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="563"/>
+      <c r="C1" s="563"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="562" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="563"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="564"/>
+      <c r="K1" s="562" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="563"/>
+      <c r="M1" s="563"/>
+      <c r="N1" s="563"/>
+      <c r="O1" s="564"/>
+      <c r="P1" s="571" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="572"/>
+      <c r="R1" s="572"/>
+      <c r="S1" s="572"/>
+      <c r="T1" s="573"/>
+      <c r="U1" s="571" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" s="572"/>
+      <c r="W1" s="572"/>
+      <c r="X1" s="572"/>
+      <c r="Y1" s="573"/>
+      <c r="Z1" s="568" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="569"/>
+      <c r="AB1" s="569"/>
+      <c r="AC1" s="569"/>
+      <c r="AD1" s="570"/>
+      <c r="AE1" s="565" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" s="566"/>
+      <c r="AG1" s="566"/>
+      <c r="AH1" s="566"/>
+      <c r="AI1" s="567"/>
+      <c r="AJ1" s="565" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK1" s="566"/>
+      <c r="AL1" s="566"/>
+      <c r="AM1" s="566"/>
+      <c r="AN1" s="567"/>
+      <c r="AO1" s="559" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" s="560"/>
+      <c r="AQ1" s="560"/>
+      <c r="AR1" s="560"/>
+      <c r="AS1" s="561"/>
+      <c r="AT1" s="559" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU1" s="560"/>
+      <c r="AV1" s="560"/>
+      <c r="AW1" s="560"/>
+      <c r="AX1" s="561"/>
+    </row>
+    <row r="2" spans="1:50" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="184" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="184" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="185" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="184" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="184" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="185" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="184" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="184" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="185" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="188" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="189" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="189" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="T2" s="190" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" s="188" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="189" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="189" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="190" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="194" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="194" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="194" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD2" s="195" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE2" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="199" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="199" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI2" s="200" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ2" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK2" s="199" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM2" s="199" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN2" s="200" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO2" s="203" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP2" s="204" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ2" s="204" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2" s="204" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS2" s="205" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT2" s="203" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU2" s="204" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV2" s="204" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW2" s="204" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX2" s="205" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="186">
+        <v>121</v>
+      </c>
+      <c r="B3" s="182">
+        <v>7</v>
+      </c>
+      <c r="C3" s="182">
+        <v>274</v>
+      </c>
+      <c r="D3" s="182">
+        <v>379</v>
+      </c>
+      <c r="E3" s="187">
+        <v>9</v>
+      </c>
+      <c r="F3" s="186">
+        <v>6</v>
+      </c>
+      <c r="G3" s="182">
+        <v>0</v>
+      </c>
+      <c r="H3" s="182">
+        <v>10</v>
+      </c>
+      <c r="I3" s="182">
+        <v>2</v>
+      </c>
+      <c r="J3" s="187">
+        <v>2</v>
+      </c>
+      <c r="K3" s="186">
+        <v>21</v>
+      </c>
+      <c r="L3" s="182">
+        <v>2</v>
+      </c>
+      <c r="M3" s="182">
+        <v>70</v>
+      </c>
+      <c r="N3" s="182">
+        <v>68</v>
+      </c>
+      <c r="O3" s="187">
+        <v>3</v>
+      </c>
+      <c r="P3" s="191">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="181">
+        <v>0</v>
+      </c>
+      <c r="R3" s="181">
+        <v>8</v>
+      </c>
+      <c r="S3" s="181">
+        <v>12</v>
+      </c>
+      <c r="T3" s="192">
+        <v>4</v>
+      </c>
+      <c r="U3" s="191">
+        <v>121</v>
+      </c>
+      <c r="V3" s="269">
+        <v>10</v>
+      </c>
+      <c r="W3" s="269">
+        <v>368</v>
+      </c>
+      <c r="X3" s="269">
+        <v>400</v>
+      </c>
+      <c r="Y3" s="192">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="196">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="180">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="180">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="180">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="197">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="201">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="179">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="179">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="179">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="202">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="201">
+        <v>38</v>
+      </c>
+      <c r="AK3" s="328">
+        <v>9</v>
+      </c>
+      <c r="AL3" s="328">
+        <v>110</v>
+      </c>
+      <c r="AM3" s="328">
+        <v>133</v>
+      </c>
+      <c r="AN3" s="202">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="206">
+        <v>13</v>
+      </c>
+      <c r="AP3" s="178">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="178">
+        <v>33</v>
+      </c>
+      <c r="AR3" s="178">
+        <v>42</v>
+      </c>
+      <c r="AS3" s="207">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="206">
+        <v>8</v>
+      </c>
+      <c r="AU3" s="178">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="178">
+        <v>27</v>
+      </c>
+      <c r="AW3" s="178">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="186">
+        <v>174</v>
+      </c>
+      <c r="L4" s="182">
+        <v>19</v>
+      </c>
+      <c r="M4" s="182">
+        <v>515</v>
+      </c>
+      <c r="N4" s="182">
+        <v>608</v>
+      </c>
+      <c r="O4" s="187">
+        <v>24</v>
+      </c>
+      <c r="P4" s="191">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="181">
+        <v>0</v>
+      </c>
+      <c r="R4" s="181">
+        <v>13</v>
+      </c>
+      <c r="S4" s="181">
+        <v>21</v>
+      </c>
+      <c r="T4" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="196">
+        <v>17</v>
+      </c>
+      <c r="AA4" s="180">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="180">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="180">
+        <v>68</v>
+      </c>
+      <c r="AD4" s="197">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="201">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="179">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="179">
+        <v>42</v>
+      </c>
+      <c r="AH4" s="179">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="202">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="201">
+        <v>106</v>
+      </c>
+      <c r="AK4" s="328">
+        <v>11</v>
+      </c>
+      <c r="AL4" s="328">
+        <v>327</v>
+      </c>
+      <c r="AM4" s="328">
+        <v>366</v>
+      </c>
+      <c r="AN4" s="202">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="206">
+        <v>58</v>
+      </c>
+      <c r="AP4" s="178">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="178">
+        <v>122</v>
+      </c>
+      <c r="AR4" s="178">
+        <v>153</v>
+      </c>
+      <c r="AS4" s="207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="186">
+        <v>10</v>
+      </c>
+      <c r="L5" s="182">
+        <v>0</v>
+      </c>
+      <c r="M5" s="182">
+        <v>28</v>
+      </c>
+      <c r="N5" s="182">
+        <v>35</v>
+      </c>
+      <c r="O5" s="187">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="196">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="180">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="180">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="180">
+        <v>51</v>
+      </c>
+      <c r="AD5" s="197">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="201">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="179">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="179">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="179">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="202">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="201">
+        <v>66</v>
+      </c>
+      <c r="AK5" s="328">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="328">
+        <v>194</v>
+      </c>
+      <c r="AM5" s="328">
+        <v>228</v>
+      </c>
+      <c r="AN5" s="202">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="206">
+        <v>13</v>
+      </c>
+      <c r="AP5" s="178">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="178">
+        <v>43</v>
+      </c>
+      <c r="AR5" s="178">
+        <v>46</v>
+      </c>
+      <c r="AS5" s="207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="211"/>
+      <c r="B6" s="211"/>
+      <c r="K6" s="186">
+        <v>60</v>
+      </c>
+      <c r="L6" s="182">
+        <v>3</v>
+      </c>
+      <c r="M6" s="182">
+        <v>162</v>
+      </c>
+      <c r="N6" s="182">
+        <v>205</v>
+      </c>
+      <c r="O6" s="187">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="201">
+        <v>115</v>
+      </c>
+      <c r="AK6" s="328">
+        <v>13</v>
+      </c>
+      <c r="AL6" s="328">
+        <v>331</v>
+      </c>
+      <c r="AM6" s="328">
+        <v>388</v>
+      </c>
+      <c r="AN6" s="202">
+        <v>7</v>
+      </c>
+      <c r="AO6" s="206">
+        <v>30</v>
+      </c>
+      <c r="AP6" s="178">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="178">
+        <v>87</v>
+      </c>
+      <c r="AR6" s="178">
+        <v>114</v>
+      </c>
+      <c r="AS6" s="207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="211"/>
+      <c r="B7" s="211"/>
+      <c r="AO7" s="206">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="178">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="178">
+        <v>4</v>
+      </c>
+      <c r="AR7" s="178">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="207">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="AJ1:AN1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59991623-F3F9-4D5F-BC15-FCC9FC0B4272}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -33839,17 +34544,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="217" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="508" t="s">
+      <c r="A1" s="542" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
+      <c r="B1" s="542"/>
+      <c r="C1" s="542"/>
       <c r="D1" s="235"/>
-      <c r="E1" s="548" t="s">
+      <c r="E1" s="575" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="548"/>
-      <c r="G1" s="548"/>
+      <c r="F1" s="575"/>
+      <c r="G1" s="575"/>
       <c r="I1" s="221"/>
       <c r="K1" s="121"/>
       <c r="L1" s="221"/>
@@ -34006,10 +34711,10 @@
       <c r="A7" s="221" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="547">
+      <c r="B7" s="574">
         <v>587</v>
       </c>
-      <c r="C7" s="547"/>
+      <c r="C7" s="574"/>
       <c r="E7" s="221" t="s">
         <v>142</v>
       </c>
@@ -34640,7 +35345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5EF10C-1E91-4DFF-88B0-05D1167F5074}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -34664,52 +35369,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="467" t="s">
+      <c r="A1" s="486" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="467"/>
-      <c r="C1" s="467"/>
-      <c r="D1" s="467"/>
-      <c r="E1" s="467"/>
-      <c r="F1" s="467"/>
-      <c r="G1" s="467" t="s">
+      <c r="B1" s="486"/>
+      <c r="C1" s="486"/>
+      <c r="D1" s="486"/>
+      <c r="E1" s="486"/>
+      <c r="F1" s="486"/>
+      <c r="G1" s="486" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="467"/>
-      <c r="I1" s="467"/>
-      <c r="J1" s="467"/>
-      <c r="K1" s="467"/>
-      <c r="L1" s="467"/>
-      <c r="N1" s="467" t="s">
+      <c r="H1" s="486"/>
+      <c r="I1" s="486"/>
+      <c r="J1" s="486"/>
+      <c r="K1" s="486"/>
+      <c r="L1" s="486"/>
+      <c r="N1" s="486" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="467"/>
+      <c r="O1" s="486"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="549" t="s">
+      <c r="A2" s="576" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="549"/>
-      <c r="C2" s="551" t="s">
+      <c r="B2" s="576"/>
+      <c r="C2" s="578" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="551"/>
-      <c r="E2" s="550" t="s">
+      <c r="D2" s="578"/>
+      <c r="E2" s="577" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="550"/>
-      <c r="G2" s="553" t="s">
+      <c r="F2" s="577"/>
+      <c r="G2" s="580" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="553"/>
-      <c r="I2" s="550" t="s">
+      <c r="H2" s="580"/>
+      <c r="I2" s="577" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="550"/>
-      <c r="K2" s="552" t="s">
+      <c r="J2" s="577"/>
+      <c r="K2" s="579" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="552"/>
+      <c r="L2" s="579"/>
       <c r="N2" s="221" t="s">
         <v>39</v>
       </c>
@@ -35139,7 +35844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CF0C7A-867C-4937-8E37-8415D5B411C1}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -35211,7 +35916,7 @@
       <c r="D2" s="351">
         <v>4</v>
       </c>
-      <c r="I2" s="506" t="s">
+      <c r="I2" s="532" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="375" t="s">
@@ -35251,7 +35956,7 @@
       <c r="D3" s="351">
         <v>4</v>
       </c>
-      <c r="I3" s="506"/>
+      <c r="I3" s="532"/>
       <c r="J3" s="375" t="s">
         <v>184</v>
       </c>
@@ -35289,7 +35994,7 @@
       <c r="D4" s="351">
         <v>4</v>
       </c>
-      <c r="I4" s="506"/>
+      <c r="I4" s="532"/>
       <c r="J4" s="375" t="s">
         <v>33</v>
       </c>
@@ -35327,7 +36032,7 @@
       <c r="D5" s="351">
         <v>4</v>
       </c>
-      <c r="I5" s="506"/>
+      <c r="I5" s="532"/>
       <c r="J5" s="375" t="s">
         <v>185</v>
       </c>
@@ -35363,7 +36068,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="351"/>
-      <c r="I6" s="506"/>
+      <c r="I6" s="532"/>
       <c r="J6" s="375" t="s">
         <v>42</v>
       </c>
@@ -35389,7 +36094,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I7" s="565" t="s">
+      <c r="I7" s="585" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="379" t="s">
@@ -35417,19 +36122,19 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="570" t="s">
+      <c r="B8" s="590" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="570"/>
-      <c r="D8" s="570"/>
-      <c r="E8" s="570"/>
-      <c r="F8" s="531" t="s">
+      <c r="C8" s="590"/>
+      <c r="D8" s="590"/>
+      <c r="E8" s="590"/>
+      <c r="F8" s="558" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="570" t="s">
+      <c r="G8" s="590" t="s">
         <v>181</v>
       </c>
-      <c r="I8" s="565"/>
+      <c r="I8" s="585"/>
       <c r="J8" s="379" t="s">
         <v>184</v>
       </c>
@@ -35468,9 +36173,9 @@
       <c r="E9" s="355">
         <v>5</v>
       </c>
-      <c r="F9" s="531"/>
-      <c r="G9" s="570"/>
-      <c r="I9" s="565"/>
+      <c r="F9" s="558"/>
+      <c r="G9" s="590"/>
+      <c r="I9" s="585"/>
       <c r="J9" s="379" t="s">
         <v>33</v>
       </c>
@@ -35496,7 +36201,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="561" t="s">
+      <c r="A10" s="581" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="370">
@@ -35515,15 +36220,15 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=5"),"")</f>
         <v>11</v>
       </c>
-      <c r="F10" s="556">
+      <c r="F10" s="595">
         <f>IF(HDRAG_HAS_REC_HBRUN,AVERAGE(DATA_HDRAG_HBRUN),"")</f>
         <v>2.4324324324324325</v>
       </c>
-      <c r="G10" s="562">
+      <c r="G10" s="582">
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTA(DATA_HDRAG_HBRUN),"")</f>
         <v>296</v>
       </c>
-      <c r="I10" s="565"/>
+      <c r="I10" s="585"/>
       <c r="J10" s="379" t="s">
         <v>185</v>
       </c>
@@ -35549,7 +36254,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="561"/>
+      <c r="A11" s="581"/>
       <c r="B11" s="380">
         <f>IF(HDRAG_HAS_REC_HBRUN,B10/$G10,"")</f>
         <v>0.68581081081081086</v>
@@ -35566,9 +36271,9 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,E10/$G10,"")</f>
         <v>3.7162162162162164E-2</v>
       </c>
-      <c r="F11" s="556"/>
-      <c r="G11" s="562"/>
-      <c r="I11" s="565"/>
+      <c r="F11" s="595"/>
+      <c r="G11" s="582"/>
+      <c r="I11" s="585"/>
       <c r="J11" s="379" t="s">
         <v>42</v>
       </c>
@@ -35594,7 +36299,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="559" t="s">
+      <c r="A12" s="598" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="371">
@@ -35613,15 +36318,15 @@
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=5"),"")</f>
         <v>8</v>
       </c>
-      <c r="F12" s="555">
+      <c r="F12" s="594">
         <f>IF(HDRAG_HAS_REC_HMERC,AVERAGE(DATA_HDRAG_HMERC),"")</f>
         <v>2.3909465020576133</v>
       </c>
-      <c r="G12" s="560">
+      <c r="G12" s="599">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTA(DATA_HDRAG_HMERC),"")</f>
         <v>243</v>
       </c>
-      <c r="I12" s="564" t="s">
+      <c r="I12" s="584" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="378" t="s">
@@ -35649,7 +36354,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="559"/>
+      <c r="A13" s="598"/>
       <c r="B13" s="381">
         <f>IF(HDRAG_HAS_REC_HMERC,B12/$G12,"")</f>
         <v>0.72427983539094654</v>
@@ -35666,9 +36371,9 @@
         <f>IF(HDRAG_HAS_REC_HMERC,E12/$G12,"")</f>
         <v>3.292181069958848E-2</v>
       </c>
-      <c r="F13" s="555"/>
-      <c r="G13" s="560"/>
-      <c r="I13" s="564"/>
+      <c r="F13" s="594"/>
+      <c r="G13" s="599"/>
+      <c r="I13" s="584"/>
       <c r="J13" s="378" t="s">
         <v>184</v>
       </c>
@@ -35694,7 +36399,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="557" t="s">
+      <c r="A14" s="596" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="372">
@@ -35713,15 +36418,15 @@
         <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=5"),"")</f>
         <v>49</v>
       </c>
-      <c r="F14" s="554">
+      <c r="F14" s="593">
         <f>IF(HDRAG_HAS_REC_HMID,AVERAGE(DATA_HDRAG_HMID),"")</f>
         <v>2.5516811955168119</v>
       </c>
-      <c r="G14" s="558">
+      <c r="G14" s="597">
         <f>IF(HDRAG_HAS_REC_HMID,COUNTA(DATA_HDRAG_HMID),"")</f>
         <v>804</v>
       </c>
-      <c r="I14" s="564"/>
+      <c r="I14" s="584"/>
       <c r="J14" s="378" t="s">
         <v>33</v>
       </c>
@@ -35747,7 +36452,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="557"/>
+      <c r="A15" s="596"/>
       <c r="B15" s="382">
         <f>IF(HDRAG_HAS_REC_HMID,B14/$G14,"")</f>
         <v>0.64676616915422891</v>
@@ -35764,9 +36469,9 @@
         <f>IF(HDRAG_HAS_REC_HMID,E14/$G14,"")</f>
         <v>6.0945273631840796E-2</v>
       </c>
-      <c r="F15" s="554"/>
-      <c r="G15" s="558"/>
-      <c r="I15" s="564"/>
+      <c r="F15" s="593"/>
+      <c r="G15" s="597"/>
+      <c r="I15" s="584"/>
       <c r="J15" s="378" t="s">
         <v>185</v>
       </c>
@@ -35792,7 +36497,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="568" t="s">
+      <c r="A16" s="588" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="373">
@@ -35811,15 +36516,15 @@
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=5"),"")</f>
         <v>18</v>
       </c>
-      <c r="F16" s="572">
+      <c r="F16" s="592">
         <f>IF(HDRAG_HAS_REC_HJUP,AVERAGE(DATA_HDRAG_HJUP),"")</f>
         <v>2.4578587699316627</v>
       </c>
-      <c r="G16" s="569">
+      <c r="G16" s="589">
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTA(DATA_HDRAG_HJUP),"")</f>
         <v>439</v>
       </c>
-      <c r="I16" s="564"/>
+      <c r="I16" s="584"/>
       <c r="J16" s="378" t="s">
         <v>42</v>
       </c>
@@ -35845,7 +36550,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="568"/>
+      <c r="A17" s="588"/>
       <c r="B17" s="383">
         <f>IF(HDRAG_HAS_REC_HJUP,B16/$G16,"")</f>
         <v>0.69248291571753984</v>
@@ -35862,9 +36567,9 @@
         <f>IF(HDRAG_HAS_REC_HJUP,E16/$G16,"")</f>
         <v>4.1002277904328019E-2</v>
       </c>
-      <c r="F17" s="572"/>
-      <c r="G17" s="569"/>
-      <c r="I17" s="563" t="s">
+      <c r="F17" s="592"/>
+      <c r="G17" s="589"/>
+      <c r="I17" s="583" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="377" t="s">
@@ -35892,7 +36597,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="566" t="s">
+      <c r="A18" s="586" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="374">
@@ -35911,15 +36616,15 @@
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=5"),"")</f>
         <v>1</v>
       </c>
-      <c r="F18" s="571">
+      <c r="F18" s="591">
         <f>IF(HDRAG_HAS_REC_HZOD,AVERAGE(DATA_HDRAG_HZOD),"")</f>
         <v>2.2857142857142856</v>
       </c>
-      <c r="G18" s="567">
+      <c r="G18" s="587">
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTA(DATA_HDRAG_HZOD),"")</f>
         <v>77</v>
       </c>
-      <c r="I18" s="563"/>
+      <c r="I18" s="583"/>
       <c r="J18" s="377" t="s">
         <v>184</v>
       </c>
@@ -35945,7 +36650,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="566"/>
+      <c r="A19" s="586"/>
       <c r="B19" s="384">
         <f>IF(HDRAG_HAS_REC_HZOD,B18/$G18,"")</f>
         <v>0.75324675324675328</v>
@@ -35962,9 +36667,9 @@
         <f>IF(HDRAG_HAS_REC_HZOD,E18/$G18,"")</f>
         <v>1.2987012987012988E-2</v>
       </c>
-      <c r="F19" s="571"/>
-      <c r="G19" s="567"/>
-      <c r="I19" s="563"/>
+      <c r="F19" s="591"/>
+      <c r="G19" s="587"/>
+      <c r="I19" s="583"/>
       <c r="J19" s="377" t="s">
         <v>33</v>
       </c>
@@ -35990,7 +36695,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I20" s="563"/>
+      <c r="I20" s="583"/>
       <c r="J20" s="377" t="s">
         <v>185</v>
       </c>
@@ -36016,7 +36721,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I21" s="563"/>
+      <c r="I21" s="583"/>
       <c r="J21" s="377" t="s">
         <v>42</v>
       </c>
@@ -36042,7 +36747,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I22" s="510" t="s">
+      <c r="I22" s="533" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="376" t="s">
@@ -36070,7 +36775,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I23" s="510"/>
+      <c r="I23" s="533"/>
       <c r="J23" s="376" t="s">
         <v>184</v>
       </c>
@@ -36096,7 +36801,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I24" s="510"/>
+      <c r="I24" s="533"/>
       <c r="J24" s="376" t="s">
         <v>33</v>
       </c>
@@ -36122,7 +36827,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I25" s="510"/>
+      <c r="I25" s="533"/>
       <c r="J25" s="376" t="s">
         <v>185</v>
       </c>
@@ -36148,7 +36853,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I26" s="510"/>
+      <c r="I26" s="533"/>
       <c r="J26" s="376" t="s">
         <v>42</v>
       </c>
@@ -36186,6 +36891,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="G10:G11"/>
@@ -36202,13 +36914,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="C1">
     <cfRule type="dataBar" priority="8">
@@ -36431,7 +37136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F3A600-DCA6-49F5-831E-ACD6AC06071D}">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF7030A0"/>
@@ -36757,7 +37462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA80CDF-D24A-4FB8-9671-F01C933B841B}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF7030A0"/>
@@ -37704,7 +38409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2D53D9-C7C2-4BD0-828A-641B0D4F81AB}">
   <sheetPr>
     <tabColor rgb="FFC9C9C9"/>
@@ -37730,23 +38435,23 @@
       <c r="B1" s="391">
         <v>28</v>
       </c>
-      <c r="C1" s="576" t="s">
+      <c r="C1" s="603" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="575">
+      <c r="D1" s="602">
         <f>INDEX(DATA_EVTBLD,B1,2)-B2</f>
         <v>967</v>
       </c>
-      <c r="E1" s="574" t="s">
+      <c r="E1" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="573">
+      <c r="F1" s="600">
         <f>1-(INDEX(DATA_EVTBLD,B1,2)-B2)/DATA_EVTBLD_MAX</f>
         <v>0.87627942681678606</v>
       </c>
-      <c r="G1" s="573"/>
-      <c r="H1" s="573"/>
-      <c r="I1" s="573"/>
+      <c r="G1" s="600"/>
+      <c r="H1" s="600"/>
+      <c r="I1" s="600"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="385" t="s">
@@ -37755,13 +38460,13 @@
       <c r="B2" s="391">
         <v>933</v>
       </c>
-      <c r="C2" s="576"/>
-      <c r="D2" s="575"/>
-      <c r="E2" s="574"/>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="573"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="601"/>
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="600"/>
     </row>
     <row r="4" spans="1:9" s="385" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="385" t="s">
@@ -38315,7 +39020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D6C20F-FF2F-4963-89B7-F435E6497A7A}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -39105,7 +39810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE47D310-33CE-46A2-B35D-DF129779300D}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -42474,7 +43179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BE3DDB-749F-4B41-A9B1-4DD9836EDC31}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -43836,288 +44541,6 @@
         <v>2</v>
       </c>
       <c r="AC15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDAFC9C-A4C0-4709-8639-7097D9F704B6}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
         <v>2</v>
       </c>
     </row>
@@ -46351,6 +46774,288 @@
       </c>
       <c r="C201" s="323">
         <v>11193490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDAFC9C-A4C0-4709-8639-7097D9F704B6}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -46394,10 +47099,10 @@
       <c r="A1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="470">
+      <c r="B1" s="488">
         <v>43677.583333333336</v>
       </c>
-      <c r="C1" s="470"/>
+      <c r="C1" s="488"/>
       <c r="D1" s="263" t="s">
         <v>150</v>
       </c>
@@ -46407,18 +47112,18 @@
       <c r="F1" s="261" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="468" t="s">
+      <c r="G1" s="482" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="468"/>
-      <c r="I1" s="468"/>
-      <c r="J1" s="468"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
       <c r="K1" s="28"/>
       <c r="L1" s="260" t="s">
         <v>77</v>
       </c>
       <c r="M1" s="260"/>
-      <c r="N1" s="467" t="s">
+      <c r="N1" s="486" t="s">
         <v>66</v>
       </c>
       <c r="O1" s="317"/>
@@ -46451,10 +47156,10 @@
       <c r="A2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="470">
+      <c r="B2" s="488">
         <v>43688.583333333336</v>
       </c>
-      <c r="C2" s="470"/>
+      <c r="C2" s="488"/>
       <c r="D2" s="264" t="str">
         <f ca="1">IF(RAID_TIME_END-NOW()&lt;0,"",NOW()-RAID_TIME_START)</f>
         <v/>
@@ -46467,20 +47172,20 @@
         <f>B2-B1</f>
         <v>11</v>
       </c>
-      <c r="G2" s="469" t="str">
+      <c r="G2" s="487" t="str">
         <f ca="1">IF(NOW() &gt; $B$2,"",(NOW()-$B$1)/($B$2-$B$1))</f>
         <v/>
       </c>
-      <c r="H2" s="469"/>
-      <c r="I2" s="469"/>
-      <c r="J2" s="469"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
       <c r="K2" s="28" t="s">
         <v>79</v>
       </c>
       <c r="L2" s="127">
         <v>100000</v>
       </c>
-      <c r="N2" s="467"/>
+      <c r="N2" s="486"/>
       <c r="O2" s="320" t="s">
         <v>168</v>
       </c>
@@ -46528,7 +47233,7 @@
       <c r="L3" s="127">
         <v>100000</v>
       </c>
-      <c r="N3" s="467"/>
+      <c r="N3" s="486"/>
       <c r="O3" s="320" t="s">
         <v>169</v>
       </c>
@@ -46558,7 +47263,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N4" s="467"/>
+      <c r="N4" s="486"/>
       <c r="O4" s="320" t="s">
         <v>104</v>
       </c>
@@ -46597,34 +47302,34 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
-      <c r="B5" s="471" t="s">
+      <c r="B5" s="483" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="471"/>
-      <c r="D5" s="472" t="s">
+      <c r="C5" s="483"/>
+      <c r="D5" s="484" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="472"/>
-      <c r="F5" s="472" t="s">
+      <c r="E5" s="484"/>
+      <c r="F5" s="484" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="472"/>
-      <c r="H5" s="472" t="s">
+      <c r="G5" s="484"/>
+      <c r="H5" s="484" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="472"/>
-      <c r="J5" s="468" t="s">
+      <c r="I5" s="484"/>
+      <c r="J5" s="482" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="468"/>
-      <c r="L5" s="473" t="s">
+      <c r="K5" s="482"/>
+      <c r="L5" s="485" t="s">
         <v>153</v>
       </c>
-      <c r="M5" s="473"/>
-      <c r="N5" s="468" t="s">
+      <c r="M5" s="485"/>
+      <c r="N5" s="482" t="s">
         <v>151</v>
       </c>
-      <c r="O5" s="468"/>
+      <c r="O5" s="482"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -50472,6 +51177,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
@@ -50479,11 +51189,6 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
     <cfRule type="dataBar" priority="45">
@@ -50887,14 +51592,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B79AF7-3DE0-4A87-AF03-17462ED0369E}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="604"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="605" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="605" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="605" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF370E02-6FBB-4CB6-AB14-C8ED71D76AE9}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50992,7 +51733,7 @@
       </c>
     </row>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="487" t="s">
+      <c r="B3" s="507" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="464" t="s">
@@ -51077,7 +51818,7 @@
       <c r="AA3" s="316"/>
     </row>
     <row r="4" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="488"/>
+      <c r="B4" s="508"/>
       <c r="C4" s="131" t="s">
         <v>89</v>
       </c>
@@ -51158,7 +51899,7 @@
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="493" t="s">
+      <c r="B5" s="513" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="144" t="s">
@@ -51217,7 +51958,7 @@
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="494"/>
+      <c r="B6" s="514"/>
       <c r="C6" s="148" t="s">
         <v>89</v>
       </c>
@@ -51306,7 +52047,7 @@
       </c>
     </row>
     <row r="7" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="489" t="s">
+      <c r="B7" s="509" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="152" t="s">
@@ -51392,7 +52133,7 @@
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="490"/>
+      <c r="B8" s="510"/>
       <c r="C8" s="156" t="s">
         <v>89</v>
       </c>
@@ -51450,7 +52191,7 @@
       <c r="AD8" s="53"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="495" t="s">
+      <c r="B9" s="515" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="160" t="s">
@@ -51513,10 +52254,10 @@
       <c r="S9" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="474" t="s">
+      <c r="T9" s="523" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="474"/>
+      <c r="U9" s="523"/>
       <c r="V9" s="5" t="s">
         <v>19</v>
       </c>
@@ -51542,7 +52283,7 @@
       <c r="AD9" s="53"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="496"/>
+      <c r="B10" s="516"/>
       <c r="C10" s="164" t="s">
         <v>89</v>
       </c>
@@ -51597,7 +52338,7 @@
         <f>SUM(D迎擊!X:X)</f>
         <v>204</v>
       </c>
-      <c r="R10" s="485" t="s">
+      <c r="R10" s="521" t="s">
         <v>170</v>
       </c>
       <c r="S10" s="68">
@@ -51618,7 +52359,7 @@
         <f t="shared" ref="W10:W17" si="8">IFERROR(V10*BOOST_PRICE,"")</f>
         <v/>
       </c>
-      <c r="X10" s="486" t="s">
+      <c r="X10" s="522" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="68">
@@ -51642,7 +52383,7 @@
       <c r="AD10" s="53"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="491" t="s">
+      <c r="B11" s="511" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="463" t="s">
@@ -51699,7 +52440,7 @@
         <f>SUM(D迎擊!AA:AA)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="485"/>
+      <c r="R11" s="521"/>
       <c r="S11" s="68">
         <v>35</v>
       </c>
@@ -51718,7 +52459,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X11" s="486"/>
+      <c r="X11" s="522"/>
       <c r="Y11" s="68">
         <v>35</v>
       </c>
@@ -51740,7 +52481,7 @@
       <c r="AD11" s="53"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="492"/>
+      <c r="B12" s="512"/>
       <c r="C12" s="171" t="s">
         <v>89</v>
       </c>
@@ -51795,7 +52536,7 @@
         <f>SUM(D迎擊!AD:AD)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="484" t="s">
+      <c r="R12" s="520" t="s">
         <v>10</v>
       </c>
       <c r="S12" s="69">
@@ -51816,7 +52557,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X12" s="475" t="s">
+      <c r="X12" s="524" t="s">
         <v>7</v>
       </c>
       <c r="Y12" s="69">
@@ -51840,7 +52581,7 @@
       <c r="AD12" s="53"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="497" t="s">
+      <c r="B13" s="502" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="407" t="s">
@@ -51877,15 +52618,15 @@
         <f t="shared" si="3"/>
         <v>5.5827191235059761</v>
       </c>
-      <c r="L13" s="479">
+      <c r="L13" s="505">
         <f>SUM(MAX(L3,L4),MAX(L5,L6),MAX(L7,L8),MAX(L9,L10),MAX(L11,L12))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="479">
+      <c r="M13" s="505">
         <f>SUM(MAX(M3,M4),MAX(M5,M6),MAX(M7,M8),MAX(M9,M10),MAX(M11,M12))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="477">
+      <c r="N13" s="526">
         <f>MAX(SUM(N3,N5,N7,N9,N11),SUM(N4,N6,N8,N10,N12),N15,N16,N17)</f>
         <v>0</v>
       </c>
@@ -51897,7 +52638,7 @@
         <f>SUM(P3,P5,P7,P9,P11)</f>
         <v>766</v>
       </c>
-      <c r="R13" s="484"/>
+      <c r="R13" s="520"/>
       <c r="S13" s="69">
         <v>35</v>
       </c>
@@ -51916,7 +52657,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X13" s="475"/>
+      <c r="X13" s="524"/>
       <c r="Y13" s="69">
         <v>35</v>
       </c>
@@ -51938,7 +52679,7 @@
       <c r="AD13" s="53"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="498"/>
+      <c r="B14" s="503"/>
       <c r="C14" s="452" t="s">
         <v>89</v>
       </c>
@@ -51973,9 +52714,9 @@
         <f t="shared" si="3"/>
         <v>9.2103515624999996</v>
       </c>
-      <c r="L14" s="480"/>
-      <c r="M14" s="480"/>
-      <c r="N14" s="478"/>
+      <c r="L14" s="506"/>
+      <c r="M14" s="506"/>
+      <c r="N14" s="527"/>
       <c r="O14" s="450">
         <f>IF(P$14=0,0,(O4*P4+O6*P6+O8*P8+O10*P10+O12*P12) / P$14)</f>
         <v>4.6161879895561357</v>
@@ -51984,7 +52725,7 @@
         <f>SUM(P4,P6,P8,P10,P12)</f>
         <v>766</v>
       </c>
-      <c r="R14" s="483" t="s">
+      <c r="R14" s="519" t="s">
         <v>5</v>
       </c>
       <c r="S14" s="70">
@@ -52005,7 +52746,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X14" s="476" t="s">
+      <c r="X14" s="525" t="s">
         <v>4</v>
       </c>
       <c r="Y14" s="70">
@@ -52029,7 +52770,7 @@
       <c r="AD14" s="53"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="498"/>
+      <c r="B15" s="503"/>
       <c r="C15" s="416" t="s">
         <v>100</v>
       </c>
@@ -52063,11 +52804,11 @@
         <f t="shared" ref="K15" si="12">(F15+H15)/G15</f>
         <v>2.2233897379912664</v>
       </c>
-      <c r="L15" s="499">
+      <c r="L15" s="489">
         <f t="shared" ref="L15" si="13">IFERROR(ROUND(J15/O15,0),NA())</f>
         <v>0</v>
       </c>
-      <c r="M15" s="499"/>
+      <c r="M15" s="489"/>
       <c r="N15" s="461">
         <f>IF(ISNA(L15),NA(),CEILING(L15/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS,0))</f>
         <v>0</v>
@@ -52076,11 +52817,11 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AI:AI,D迎擊!AK:AK)/P$15,0)</f>
         <v>12.639686684073107</v>
       </c>
-      <c r="P15" s="500">
+      <c r="P15" s="504">
         <f>SUM(D迎擊!AK:AK)</f>
         <v>766</v>
       </c>
-      <c r="R15" s="483"/>
+      <c r="R15" s="519"/>
       <c r="S15" s="70">
         <v>35</v>
       </c>
@@ -52099,7 +52840,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X15" s="476"/>
+      <c r="X15" s="525"/>
       <c r="Y15" s="70">
         <v>35</v>
       </c>
@@ -52121,7 +52862,7 @@
       <c r="AD15" s="53"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="498"/>
+      <c r="B16" s="503"/>
       <c r="C16" s="416" t="s">
         <v>99</v>
       </c>
@@ -52155,11 +52896,11 @@
         <f t="shared" si="3"/>
         <v>4.0004980079681278</v>
       </c>
-      <c r="L16" s="499">
+      <c r="L16" s="489">
         <f t="shared" ref="L16" si="14">IFERROR(ROUND(J16/O16,0),NA())</f>
         <v>0</v>
       </c>
-      <c r="M16" s="499"/>
+      <c r="M16" s="489"/>
       <c r="N16" s="461">
         <f>IF(ISNA(L16),NA(),CEILING(L16/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS,0))</f>
         <v>0</v>
@@ -52168,8 +52909,8 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AG:AG,D迎擊!AK:AK)/P$15,0)</f>
         <v>1.9033942558746737</v>
       </c>
-      <c r="P16" s="500"/>
-      <c r="R16" s="482" t="s">
+      <c r="P16" s="504"/>
+      <c r="R16" s="518" t="s">
         <v>3</v>
       </c>
       <c r="S16" s="71">
@@ -52190,7 +52931,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X16" s="481" t="s">
+      <c r="X16" s="517" t="s">
         <v>2</v>
       </c>
       <c r="Y16" s="72">
@@ -52214,7 +52955,7 @@
       <c r="AD16" s="53"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="498"/>
+      <c r="B17" s="503"/>
       <c r="C17" s="416" t="s">
         <v>98</v>
       </c>
@@ -52248,11 +52989,11 @@
         <f t="shared" ref="K17" si="15">(F17+H17)/G17</f>
         <v>4.2056944444444442</v>
       </c>
-      <c r="L17" s="499">
+      <c r="L17" s="489">
         <f>IFERROR(ROUND(J17/O17,0),NA())</f>
         <v>0</v>
       </c>
-      <c r="M17" s="499"/>
+      <c r="M17" s="489"/>
       <c r="N17" s="461">
         <f>IF(ISNA(L17),NA(),CEILING(L17/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS,0))</f>
         <v>0</v>
@@ -52261,8 +53002,8 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AE:AE,D迎擊!AK:AK)/P$15,0)</f>
         <v>3.597911227154047</v>
       </c>
-      <c r="P17" s="500"/>
-      <c r="R17" s="482"/>
+      <c r="P17" s="504"/>
+      <c r="R17" s="518"/>
       <c r="S17" s="71">
         <v>35</v>
       </c>
@@ -52281,7 +53022,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X17" s="481"/>
+      <c r="X17" s="517"/>
       <c r="Y17" s="72">
         <v>35</v>
       </c>
@@ -52302,95 +53043,111 @@
       </c>
     </row>
     <row r="18" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="599"/>
+      <c r="B18" s="475"/>
       <c r="C18" s="462"/>
-      <c r="D18" s="600"/>
-      <c r="E18" s="601"/>
+      <c r="D18" s="476"/>
+      <c r="E18" s="477"/>
       <c r="F18" s="462"/>
       <c r="G18" s="462"/>
       <c r="H18" s="462"/>
-      <c r="I18" s="601"/>
-      <c r="J18" s="602"/>
+      <c r="I18" s="477"/>
+      <c r="J18" s="478"/>
       <c r="K18" s="462"/>
       <c r="L18" s="462"/>
       <c r="M18" s="462"/>
       <c r="N18" s="462"/>
       <c r="O18" s="462"/>
-      <c r="P18" s="603"/>
+      <c r="P18" s="479"/>
     </row>
     <row r="19" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="577"/>
+      <c r="B19" s="465"/>
       <c r="C19" s="270"/>
-      <c r="D19" s="579" t="s">
+      <c r="D19" s="467" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="580"/>
+      <c r="E19" s="468"/>
       <c r="F19" s="94"/>
       <c r="G19" s="94"/>
       <c r="H19" s="94">
         <f>($J$17*IO_TRANS_COIN_BR_TO_GD+$J$16*IO_TRANS_COIN_SV_TO_GD+$J$15)/($O$17*IO_TRANS_COIN_BR_TO_GD+$O$16*IO_TRANS_COIN_SV_TO_GD+$O$15)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="578"/>
-      <c r="J19" s="593" t="s">
+      <c r="I19" s="466"/>
+      <c r="J19" s="496" t="s">
         <v>205</v>
       </c>
-      <c r="K19" s="594"/>
-      <c r="L19" s="595">
+      <c r="K19" s="497"/>
+      <c r="L19" s="490">
         <f>MIN(H19:H21)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="595"/>
-      <c r="N19" s="595"/>
-      <c r="O19" s="595"/>
-      <c r="P19" s="596"/>
+      <c r="M19" s="490"/>
+      <c r="N19" s="490"/>
+      <c r="O19" s="490"/>
+      <c r="P19" s="491"/>
     </row>
     <row r="20" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="577"/>
+      <c r="B20" s="465"/>
       <c r="C20" s="270"/>
-      <c r="D20" s="579" t="s">
+      <c r="D20" s="467" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="580"/>
+      <c r="E20" s="468"/>
       <c r="F20" s="94"/>
       <c r="G20" s="94"/>
       <c r="H20" s="94">
         <f>($J$17*IO_TRANS_COIN_BR_TO_SV+$J$16+$J$15*IO_TRANS_COIN_GD_TO_SV)/($O$17*IO_TRANS_COIN_BR_TO_SV+$O$16+$O$15*IO_TRANS_COIN_GD_TO_SV)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="578"/>
-      <c r="J20" s="597"/>
-      <c r="K20" s="581"/>
-      <c r="L20" s="582"/>
-      <c r="M20" s="582"/>
-      <c r="N20" s="582"/>
-      <c r="O20" s="582"/>
-      <c r="P20" s="583"/>
+      <c r="I20" s="466"/>
+      <c r="J20" s="498"/>
+      <c r="K20" s="499"/>
+      <c r="L20" s="492"/>
+      <c r="M20" s="492"/>
+      <c r="N20" s="492"/>
+      <c r="O20" s="492"/>
+      <c r="P20" s="493"/>
     </row>
     <row r="21" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="584"/>
-      <c r="C21" s="585"/>
-      <c r="D21" s="586" t="s">
+      <c r="B21" s="469"/>
+      <c r="C21" s="470"/>
+      <c r="D21" s="471" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="587"/>
-      <c r="F21" s="588"/>
-      <c r="G21" s="588"/>
-      <c r="H21" s="588">
+      <c r="E21" s="472"/>
+      <c r="F21" s="473"/>
+      <c r="G21" s="473"/>
+      <c r="H21" s="473">
         <f>($J$17+$J$16*IO_TRANS_COIN_SV_TO_BR+$J$15*IO_TRANS_COIN_GD_TO_BR)/($O$17+$O$16*IO_TRANS_COIN_SV_TO_BR+$O$15*IO_TRANS_COIN_GD_TO_BR)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="589"/>
-      <c r="J21" s="598"/>
-      <c r="K21" s="590"/>
-      <c r="L21" s="591"/>
-      <c r="M21" s="591"/>
-      <c r="N21" s="591"/>
-      <c r="O21" s="591"/>
-      <c r="P21" s="592"/>
+      <c r="I21" s="474"/>
+      <c r="J21" s="500"/>
+      <c r="K21" s="501"/>
+      <c r="L21" s="494"/>
+      <c r="M21" s="494"/>
+      <c r="N21" s="494"/>
+      <c r="O21" s="494"/>
+      <c r="P21" s="495"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L19:P21"/>
     <mergeCell ref="J19:K21"/>
@@ -52399,22 +53156,6 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:K4">
     <cfRule type="dataBar" priority="55">
@@ -52915,7 +53656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC4811E-9DE7-44B8-BBD5-1B8820CAF05B}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B0F0"/>
@@ -52978,114 +53719,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="501" t="s">
+      <c r="A1" s="537" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="501"/>
-      <c r="C1" s="506" t="s">
+      <c r="B1" s="537"/>
+      <c r="C1" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="506" t="s">
+      <c r="D1" s="532" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506" t="s">
+      <c r="E1" s="532"/>
+      <c r="F1" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="512" t="s">
+      <c r="G1" s="544" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="512"/>
-      <c r="I1" s="507" t="s">
+      <c r="H1" s="544"/>
+      <c r="I1" s="531" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="507" t="s">
+      <c r="J1" s="531" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="507"/>
-      <c r="L1" s="507" t="s">
+      <c r="K1" s="531"/>
+      <c r="L1" s="531" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="511" t="s">
+      <c r="M1" s="543" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="511"/>
-      <c r="O1" s="508" t="s">
+      <c r="N1" s="543"/>
+      <c r="O1" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="508" t="s">
+      <c r="P1" s="542" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="508"/>
-      <c r="R1" s="508" t="s">
+      <c r="Q1" s="542"/>
+      <c r="R1" s="542" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="517" t="s">
+      <c r="S1" s="536" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="517"/>
-      <c r="U1" s="509" t="s">
+      <c r="T1" s="536"/>
+      <c r="U1" s="535" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="509" t="s">
+      <c r="V1" s="535" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="509"/>
-      <c r="X1" s="509" t="s">
+      <c r="W1" s="535"/>
+      <c r="X1" s="535" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="516" t="s">
+      <c r="Y1" s="534" t="s">
         <v>90</v>
       </c>
-      <c r="Z1" s="516"/>
-      <c r="AA1" s="510" t="s">
+      <c r="Z1" s="534"/>
+      <c r="AA1" s="533" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="510" t="s">
+      <c r="AB1" s="533" t="s">
         <v>89</v>
       </c>
-      <c r="AC1" s="510"/>
-      <c r="AD1" s="510" t="s">
+      <c r="AC1" s="533"/>
+      <c r="AD1" s="533" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="504" t="s">
+      <c r="AE1" s="540" t="s">
         <v>98</v>
       </c>
-      <c r="AF1" s="504"/>
-      <c r="AG1" s="505" t="s">
+      <c r="AF1" s="540"/>
+      <c r="AG1" s="541" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" s="505"/>
-      <c r="AI1" s="502" t="s">
+      <c r="AH1" s="541"/>
+      <c r="AI1" s="538" t="s">
         <v>100</v>
       </c>
-      <c r="AJ1" s="502"/>
-      <c r="AK1" s="503" t="s">
+      <c r="AJ1" s="538"/>
+      <c r="AK1" s="539" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="513" t="s">
+      <c r="AM1" s="528" t="s">
         <v>157</v>
       </c>
-      <c r="AN1" s="514"/>
-      <c r="AO1" s="514"/>
-      <c r="AP1" s="514"/>
-      <c r="AQ1" s="514"/>
-      <c r="AR1" s="514"/>
-      <c r="AS1" s="514"/>
-      <c r="AT1" s="514"/>
-      <c r="AU1" s="515"/>
+      <c r="AN1" s="529"/>
+      <c r="AO1" s="529"/>
+      <c r="AP1" s="529"/>
+      <c r="AQ1" s="529"/>
+      <c r="AR1" s="529"/>
+      <c r="AS1" s="529"/>
+      <c r="AT1" s="529"/>
+      <c r="AU1" s="530"/>
       <c r="AV1" s="270"/>
-      <c r="AW1" s="513" t="s">
+      <c r="AW1" s="528" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="514"/>
-      <c r="AY1" s="514"/>
-      <c r="AZ1" s="514"/>
-      <c r="BA1" s="514"/>
-      <c r="BB1" s="514"/>
-      <c r="BC1" s="514"/>
-      <c r="BD1" s="514"/>
-      <c r="BE1" s="515"/>
+      <c r="AX1" s="529"/>
+      <c r="AY1" s="529"/>
+      <c r="AZ1" s="529"/>
+      <c r="BA1" s="529"/>
+      <c r="BB1" s="529"/>
+      <c r="BC1" s="529"/>
+      <c r="BD1" s="529"/>
+      <c r="BE1" s="530"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="291" t="s">
@@ -53094,70 +53835,70 @@
       <c r="B2" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="506"/>
+      <c r="C2" s="532"/>
       <c r="D2" s="108" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="506"/>
+      <c r="F2" s="532"/>
       <c r="G2" s="287" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="507"/>
+      <c r="I2" s="531"/>
       <c r="J2" s="289" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="507"/>
+      <c r="L2" s="531"/>
       <c r="M2" s="285" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="508"/>
+      <c r="O2" s="542"/>
       <c r="P2" s="285" t="s">
         <v>28</v>
       </c>
       <c r="Q2" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="508"/>
+      <c r="R2" s="542"/>
       <c r="S2" s="280" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="U2" s="509"/>
+      <c r="U2" s="535"/>
       <c r="V2" s="280" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="509"/>
+      <c r="X2" s="535"/>
       <c r="Y2" s="282" t="s">
         <v>28</v>
       </c>
       <c r="Z2" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="510"/>
+      <c r="AA2" s="533"/>
       <c r="AB2" s="282" t="s">
         <v>28</v>
       </c>
       <c r="AC2" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="510"/>
+      <c r="AD2" s="533"/>
       <c r="AE2" s="96" t="s">
         <v>28</v>
       </c>
@@ -53176,7 +53917,7 @@
       <c r="AJ2" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="AK2" s="503"/>
+      <c r="AK2" s="539"/>
       <c r="AM2" s="278" t="s">
         <v>16</v>
       </c>
@@ -56151,16 +56892,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AW1:BE1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AM1:AU1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AK2"/>
@@ -56177,12 +56908,22 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="AW1:BE1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AM1:AU1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE1F150-7F4C-41F2-B867-3821157DD2BF}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -56214,52 +56955,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="551" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="521" t="s">
+      <c r="B1" s="553" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="521"/>
-      <c r="D1" s="521"/>
-      <c r="E1" s="521"/>
-      <c r="F1" s="521"/>
-      <c r="G1" s="521"/>
-      <c r="H1" s="521"/>
+      <c r="C1" s="553"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
       <c r="I1" s="406"/>
-      <c r="J1" s="521" t="s">
+      <c r="J1" s="553" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="521"/>
-      <c r="L1" s="521"/>
-      <c r="M1" s="521"/>
-      <c r="N1" s="521"/>
+      <c r="K1" s="553"/>
+      <c r="L1" s="553"/>
+      <c r="M1" s="553"/>
+      <c r="N1" s="553"/>
       <c r="O1" s="406"/>
-      <c r="P1" s="522" t="s">
+      <c r="P1" s="554" t="s">
         <v>198</v>
       </c>
-      <c r="Q1" s="522"/>
-      <c r="R1" s="522"/>
-      <c r="S1" s="522"/>
-      <c r="T1" s="522"/>
-      <c r="U1" s="522"/>
-      <c r="V1" s="522"/>
+      <c r="Q1" s="554"/>
+      <c r="R1" s="554"/>
+      <c r="S1" s="554"/>
+      <c r="T1" s="554"/>
+      <c r="U1" s="554"/>
+      <c r="V1" s="554"/>
     </row>
     <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="519"/>
-      <c r="B2" s="527" t="s">
+      <c r="A2" s="551"/>
+      <c r="B2" s="546" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="527"/>
-      <c r="D2" s="528" t="s">
+      <c r="C2" s="546"/>
+      <c r="D2" s="547" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="528"/>
-      <c r="F2" s="526" t="s">
+      <c r="E2" s="547"/>
+      <c r="F2" s="557" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="526"/>
-      <c r="H2" s="526"/>
+      <c r="G2" s="557"/>
+      <c r="H2" s="557"/>
       <c r="J2" s="406"/>
       <c r="K2" s="406" t="s">
         <v>46</v>
@@ -56294,7 +57035,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="519"/>
+      <c r="A3" s="551"/>
       <c r="B3" s="84" t="s">
         <v>46</v>
       </c>
@@ -56310,11 +57051,11 @@
       <c r="F3" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="524">
+      <c r="G3" s="545">
         <f>_xlfn.FLOOR.MATH(C7/MAX(DATA_DRAG_ACCU_EXP))</f>
         <v>12</v>
       </c>
-      <c r="H3" s="524"/>
+      <c r="H3" s="545"/>
       <c r="J3" s="212" t="s">
         <v>14</v>
       </c>
@@ -56356,7 +57097,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="519"/>
+      <c r="A4" s="551"/>
       <c r="B4" s="84" t="s">
         <v>47</v>
       </c>
@@ -56372,11 +57113,11 @@
       <c r="F4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="524">
+      <c r="G4" s="545">
         <f>MATCH(C10,DATA_DRAG_ACCU_EXP,0)</f>
         <v>17</v>
       </c>
-      <c r="H4" s="524"/>
+      <c r="H4" s="545"/>
       <c r="J4" s="213" t="s">
         <v>12</v>
       </c>
@@ -56418,7 +57159,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="519"/>
+      <c r="A5" s="551"/>
       <c r="B5" s="84" t="s">
         <v>48</v>
       </c>
@@ -56434,11 +57175,11 @@
       <c r="F5" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="524">
+      <c r="G5" s="545">
         <f>INDEX(DATA_DRAG_LV_EXP,G4)-(C9-C10)</f>
         <v>260</v>
       </c>
-      <c r="H5" s="524"/>
+      <c r="H5" s="545"/>
       <c r="J5" s="214" t="s">
         <v>11</v>
       </c>
@@ -56465,7 +57206,7 @@
       <c r="V5" s="395"/>
     </row>
     <row r="6" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="519"/>
+      <c r="A6" s="551"/>
       <c r="B6" s="122" t="s">
         <v>52</v>
       </c>
@@ -56507,15 +57248,15 @@
       <c r="S6" s="396" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="523" t="str">
+      <c r="T6" s="555" t="str">
         <f>IF(Q7&gt;0,Q6/Q7,"")</f>
         <v/>
       </c>
-      <c r="U6" s="523"/>
-      <c r="V6" s="523"/>
+      <c r="U6" s="555"/>
+      <c r="V6" s="555"/>
     </row>
     <row r="7" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="519"/>
+      <c r="A7" s="551"/>
       <c r="B7" s="122" t="s">
         <v>95</v>
       </c>
@@ -56527,11 +57268,11 @@
         <v>54</v>
       </c>
       <c r="E7" s="87"/>
-      <c r="F7" s="468" t="s">
+      <c r="F7" s="482" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="468"/>
-      <c r="H7" s="468"/>
+      <c r="G7" s="482"/>
+      <c r="H7" s="482"/>
       <c r="J7" s="216" t="s">
         <v>8</v>
       </c>
@@ -56563,7 +57304,7 @@
       <c r="V7" s="395"/>
     </row>
     <row r="8" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="519"/>
+      <c r="A8" s="551"/>
       <c r="B8" s="94" t="s">
         <v>96</v>
       </c>
@@ -56571,10 +57312,10 @@
         <f>E3*DRAG_EXP_60+E4*DRAG_EXP_80+E5*DRAG_EXP_100+INDEX(DATA_DRAG_ACCU_EXP,E6)+(INDEX(DATA_DRAG_LV_EXP,E6)-IF(ISBLANK(E7),INDEX(DATA_DRAG_LV_EXP,1),E7))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="468" t="s">
+      <c r="F8" s="482" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="525">
+      <c r="G8" s="556">
         <f>IF(H9 &gt; 0,SUM(DATA_DRAGON_EXP)/H9,0)</f>
         <v>2673.9277652370201</v>
       </c>
@@ -56587,7 +57328,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="519"/>
+      <c r="A9" s="551"/>
       <c r="B9" s="94" t="s">
         <v>92</v>
       </c>
@@ -56595,8 +57336,8 @@
         <f>MOD(C7,DRAG_EXP_100)</f>
         <v>13660</v>
       </c>
-      <c r="F9" s="468"/>
-      <c r="G9" s="525"/>
+      <c r="F9" s="482"/>
+      <c r="G9" s="556"/>
       <c r="H9" s="80">
         <f>SUM(DATA_DRAGON_PLAYS)</f>
         <v>443</v>
@@ -56607,7 +57348,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" s="270" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="519"/>
+      <c r="A10" s="551"/>
       <c r="B10" s="82" t="s">
         <v>59</v>
       </c>
@@ -56627,7 +57368,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="270" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="519"/>
+      <c r="A11" s="551"/>
       <c r="B11" s="81"/>
       <c r="F11" s="91">
         <v>80</v>
@@ -56641,7 +57382,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="270" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="519"/>
+      <c r="A12" s="551"/>
       <c r="B12" s="81"/>
       <c r="F12" s="91">
         <v>100</v>
@@ -56655,37 +57396,37 @@
       </c>
     </row>
     <row r="13" spans="1:22" s="397" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="518" t="s">
+      <c r="A13" s="550" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="520" t="s">
+      <c r="B13" s="552" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="520"/>
-      <c r="D13" s="520"/>
-      <c r="E13" s="520"/>
-      <c r="F13" s="520"/>
-      <c r="G13" s="520"/>
-      <c r="H13" s="520"/>
+      <c r="C13" s="552"/>
+      <c r="D13" s="552"/>
+      <c r="E13" s="552"/>
+      <c r="F13" s="552"/>
+      <c r="G13" s="552"/>
+      <c r="H13" s="552"/>
     </row>
     <row r="14" spans="1:22" s="270" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="519"/>
-      <c r="B14" s="527" t="s">
+      <c r="A14" s="551"/>
+      <c r="B14" s="546" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="527"/>
-      <c r="D14" s="528" t="s">
+      <c r="C14" s="546"/>
+      <c r="D14" s="547" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="528"/>
-      <c r="F14" s="529" t="s">
+      <c r="E14" s="547"/>
+      <c r="F14" s="548" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="529"/>
-      <c r="H14" s="529"/>
+      <c r="G14" s="548"/>
+      <c r="H14" s="548"/>
     </row>
     <row r="15" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="519"/>
+      <c r="A15" s="551"/>
       <c r="B15" s="84" t="s">
         <v>46</v>
       </c>
@@ -56701,14 +57442,14 @@
       <c r="F15" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="530">
+      <c r="G15" s="549">
         <f>_xlfn.FLOOR.MATH(C19/MAX(DATA_WYRM_ACCU_EXP))</f>
         <v>5</v>
       </c>
-      <c r="H15" s="530"/>
+      <c r="H15" s="549"/>
     </row>
     <row r="16" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="519"/>
+      <c r="A16" s="551"/>
       <c r="B16" s="84" t="s">
         <v>47</v>
       </c>
@@ -56724,14 +57465,14 @@
       <c r="F16" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="524">
+      <c r="G16" s="545">
         <f>MATCH(C22,DATA_WYRM_ACCU_EXP,0)</f>
         <v>88</v>
       </c>
-      <c r="H16" s="524"/>
+      <c r="H16" s="545"/>
     </row>
     <row r="17" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="519"/>
+      <c r="A17" s="551"/>
       <c r="B17" s="84" t="s">
         <v>48</v>
       </c>
@@ -56747,14 +57488,14 @@
       <c r="F17" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="524">
+      <c r="G17" s="545">
         <f>INDEX(DATA_WYRM_LV_EXP,G16)-(C21-C22)</f>
         <v>11960</v>
       </c>
-      <c r="H17" s="524"/>
+      <c r="H17" s="545"/>
     </row>
     <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="519"/>
+      <c r="A18" s="551"/>
       <c r="B18" s="122" t="s">
         <v>52</v>
       </c>
@@ -56773,7 +57514,7 @@
       <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="519"/>
+      <c r="A19" s="551"/>
       <c r="B19" s="122" t="s">
         <v>95</v>
       </c>
@@ -56833,12 +57574,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="G15:H15"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="J1:N1"/>
@@ -56855,6 +57590,12 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="M2">
     <cfRule type="dataBar" priority="20">
@@ -57466,7 +58207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BB110C-60DE-4CF0-83EF-8B03DBFD5552}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B0F0"/>
@@ -60015,7 +60756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851E38BE-4C69-46D6-A8E7-5EF0970003CB}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -60046,7 +60787,7 @@
       <c r="E1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="531" t="s">
+      <c r="F1" s="558" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="20"/>
@@ -60083,7 +60824,7 @@
       <c r="E2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="531"/>
+      <c r="F2" s="558"/>
       <c r="H2" s="19" t="s">
         <v>44</v>
       </c>
@@ -60854,681 +61595,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229E30DC-B0C4-4455-8360-16B4B2CE7297}">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:AX7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" style="186" customWidth="1"/>
-    <col min="2" max="4" width="3.85546875" style="182" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="187" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="186" customWidth="1"/>
-    <col min="7" max="9" width="3.85546875" style="182" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="187" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" style="186" customWidth="1"/>
-    <col min="12" max="14" width="3.85546875" style="182" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" style="187" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" style="191" customWidth="1"/>
-    <col min="17" max="19" width="3.85546875" style="181" customWidth="1"/>
-    <col min="20" max="20" width="3.85546875" style="192" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" style="191" customWidth="1"/>
-    <col min="22" max="24" width="3.85546875" style="269" customWidth="1"/>
-    <col min="25" max="25" width="3.85546875" style="192" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" style="196" customWidth="1"/>
-    <col min="27" max="29" width="3.85546875" style="180" customWidth="1"/>
-    <col min="30" max="30" width="3.85546875" style="197" customWidth="1"/>
-    <col min="31" max="31" width="3.85546875" style="201" customWidth="1"/>
-    <col min="32" max="34" width="3.85546875" style="179" customWidth="1"/>
-    <col min="35" max="35" width="3.85546875" style="202" customWidth="1"/>
-    <col min="36" max="36" width="3.85546875" style="201" customWidth="1"/>
-    <col min="37" max="39" width="3.85546875" style="328" customWidth="1"/>
-    <col min="40" max="40" width="3.85546875" style="202" customWidth="1"/>
-    <col min="41" max="41" width="3.85546875" style="206" customWidth="1"/>
-    <col min="42" max="44" width="3.85546875" style="178" customWidth="1"/>
-    <col min="45" max="45" width="3.85546875" style="207" customWidth="1"/>
-    <col min="46" max="46" width="3.85546875" style="206" customWidth="1"/>
-    <col min="47" max="49" width="3.85546875" style="178" customWidth="1"/>
-    <col min="50" max="50" width="3.85546875" style="207" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:50" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="535" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="536"/>
-      <c r="C1" s="536"/>
-      <c r="D1" s="536"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="535" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="535" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="536"/>
-      <c r="M1" s="536"/>
-      <c r="N1" s="536"/>
-      <c r="O1" s="537"/>
-      <c r="P1" s="544" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" s="545"/>
-      <c r="R1" s="545"/>
-      <c r="S1" s="545"/>
-      <c r="T1" s="546"/>
-      <c r="U1" s="544" t="s">
-        <v>156</v>
-      </c>
-      <c r="V1" s="545"/>
-      <c r="W1" s="545"/>
-      <c r="X1" s="545"/>
-      <c r="Y1" s="546"/>
-      <c r="Z1" s="541" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA1" s="542"/>
-      <c r="AB1" s="542"/>
-      <c r="AC1" s="542"/>
-      <c r="AD1" s="543"/>
-      <c r="AE1" s="538" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF1" s="539"/>
-      <c r="AG1" s="539"/>
-      <c r="AH1" s="539"/>
-      <c r="AI1" s="540"/>
-      <c r="AJ1" s="538" t="s">
-        <v>175</v>
-      </c>
-      <c r="AK1" s="539"/>
-      <c r="AL1" s="539"/>
-      <c r="AM1" s="539"/>
-      <c r="AN1" s="540"/>
-      <c r="AO1" s="532" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP1" s="533"/>
-      <c r="AQ1" s="533"/>
-      <c r="AR1" s="533"/>
-      <c r="AS1" s="534"/>
-      <c r="AT1" s="532" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU1" s="533"/>
-      <c r="AV1" s="533"/>
-      <c r="AW1" s="533"/>
-      <c r="AX1" s="534"/>
-    </row>
-    <row r="2" spans="1:50" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="184" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="184" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="184" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="185" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="183" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="184" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="184" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="184" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="185" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="183" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="184" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="184" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="184" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="185" t="s">
-        <v>149</v>
-      </c>
-      <c r="P2" s="188" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="189" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="189" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="189" t="s">
-        <v>148</v>
-      </c>
-      <c r="T2" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="U2" s="188" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="189" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="189" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="189" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y2" s="190" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z2" s="193" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="194" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="194" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="194" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD2" s="195" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE2" s="198" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" s="199" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" s="199" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI2" s="200" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ2" s="198" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK2" s="199" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" s="199" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN2" s="200" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO2" s="203" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP2" s="204" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ2" s="204" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR2" s="204" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS2" s="205" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT2" s="203" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU2" s="204" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV2" s="204" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW2" s="204" t="s">
-        <v>148</v>
-      </c>
-      <c r="AX2" s="205" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="186">
-        <v>121</v>
-      </c>
-      <c r="B3" s="182">
-        <v>7</v>
-      </c>
-      <c r="C3" s="182">
-        <v>274</v>
-      </c>
-      <c r="D3" s="182">
-        <v>379</v>
-      </c>
-      <c r="E3" s="187">
-        <v>9</v>
-      </c>
-      <c r="F3" s="186">
-        <v>6</v>
-      </c>
-      <c r="G3" s="182">
-        <v>0</v>
-      </c>
-      <c r="H3" s="182">
-        <v>10</v>
-      </c>
-      <c r="I3" s="182">
-        <v>2</v>
-      </c>
-      <c r="J3" s="187">
-        <v>2</v>
-      </c>
-      <c r="K3" s="186">
-        <v>21</v>
-      </c>
-      <c r="L3" s="182">
-        <v>2</v>
-      </c>
-      <c r="M3" s="182">
-        <v>70</v>
-      </c>
-      <c r="N3" s="182">
-        <v>68</v>
-      </c>
-      <c r="O3" s="187">
-        <v>3</v>
-      </c>
-      <c r="P3" s="191">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="181">
-        <v>0</v>
-      </c>
-      <c r="R3" s="181">
-        <v>8</v>
-      </c>
-      <c r="S3" s="181">
-        <v>12</v>
-      </c>
-      <c r="T3" s="192">
-        <v>4</v>
-      </c>
-      <c r="U3" s="191">
-        <v>121</v>
-      </c>
-      <c r="V3" s="269">
-        <v>10</v>
-      </c>
-      <c r="W3" s="269">
-        <v>368</v>
-      </c>
-      <c r="X3" s="269">
-        <v>400</v>
-      </c>
-      <c r="Y3" s="192">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="196">
-        <v>21</v>
-      </c>
-      <c r="AA3" s="180">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="180">
-        <v>64</v>
-      </c>
-      <c r="AC3" s="180">
-        <v>86</v>
-      </c>
-      <c r="AD3" s="197">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="201">
-        <v>9</v>
-      </c>
-      <c r="AF3" s="179">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="179">
-        <v>14</v>
-      </c>
-      <c r="AH3" s="179">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="202">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="201">
-        <v>38</v>
-      </c>
-      <c r="AK3" s="328">
-        <v>9</v>
-      </c>
-      <c r="AL3" s="328">
-        <v>110</v>
-      </c>
-      <c r="AM3" s="328">
-        <v>133</v>
-      </c>
-      <c r="AN3" s="202">
-        <v>5</v>
-      </c>
-      <c r="AO3" s="206">
-        <v>13</v>
-      </c>
-      <c r="AP3" s="178">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="178">
-        <v>33</v>
-      </c>
-      <c r="AR3" s="178">
-        <v>42</v>
-      </c>
-      <c r="AS3" s="207">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="206">
-        <v>8</v>
-      </c>
-      <c r="AU3" s="178">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="178">
-        <v>27</v>
-      </c>
-      <c r="AW3" s="178">
-        <v>4</v>
-      </c>
-      <c r="AX3" s="207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K4" s="186">
-        <v>174</v>
-      </c>
-      <c r="L4" s="182">
-        <v>19</v>
-      </c>
-      <c r="M4" s="182">
-        <v>515</v>
-      </c>
-      <c r="N4" s="182">
-        <v>608</v>
-      </c>
-      <c r="O4" s="187">
-        <v>24</v>
-      </c>
-      <c r="P4" s="191">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="181">
-        <v>0</v>
-      </c>
-      <c r="R4" s="181">
-        <v>13</v>
-      </c>
-      <c r="S4" s="181">
-        <v>21</v>
-      </c>
-      <c r="T4" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="196">
-        <v>17</v>
-      </c>
-      <c r="AA4" s="180">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="180">
-        <v>54</v>
-      </c>
-      <c r="AC4" s="180">
-        <v>68</v>
-      </c>
-      <c r="AD4" s="197">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="201">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="179">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="179">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="179">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="202">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="201">
-        <v>106</v>
-      </c>
-      <c r="AK4" s="328">
-        <v>11</v>
-      </c>
-      <c r="AL4" s="328">
-        <v>327</v>
-      </c>
-      <c r="AM4" s="328">
-        <v>366</v>
-      </c>
-      <c r="AN4" s="202">
-        <v>15</v>
-      </c>
-      <c r="AO4" s="206">
-        <v>58</v>
-      </c>
-      <c r="AP4" s="178">
-        <v>3</v>
-      </c>
-      <c r="AQ4" s="178">
-        <v>122</v>
-      </c>
-      <c r="AR4" s="178">
-        <v>153</v>
-      </c>
-      <c r="AS4" s="207">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="186">
-        <v>10</v>
-      </c>
-      <c r="L5" s="182">
-        <v>0</v>
-      </c>
-      <c r="M5" s="182">
-        <v>28</v>
-      </c>
-      <c r="N5" s="182">
-        <v>35</v>
-      </c>
-      <c r="O5" s="187">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="196">
-        <v>11</v>
-      </c>
-      <c r="AA5" s="180">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="180">
-        <v>32</v>
-      </c>
-      <c r="AC5" s="180">
-        <v>51</v>
-      </c>
-      <c r="AD5" s="197">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="201">
-        <v>4</v>
-      </c>
-      <c r="AF5" s="179">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="179">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="179">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="202">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="201">
-        <v>66</v>
-      </c>
-      <c r="AK5" s="328">
-        <v>4</v>
-      </c>
-      <c r="AL5" s="328">
-        <v>194</v>
-      </c>
-      <c r="AM5" s="328">
-        <v>228</v>
-      </c>
-      <c r="AN5" s="202">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="206">
-        <v>13</v>
-      </c>
-      <c r="AP5" s="178">
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="178">
-        <v>43</v>
-      </c>
-      <c r="AR5" s="178">
-        <v>46</v>
-      </c>
-      <c r="AS5" s="207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="211"/>
-      <c r="B6" s="211"/>
-      <c r="K6" s="186">
-        <v>60</v>
-      </c>
-      <c r="L6" s="182">
-        <v>3</v>
-      </c>
-      <c r="M6" s="182">
-        <v>162</v>
-      </c>
-      <c r="N6" s="182">
-        <v>205</v>
-      </c>
-      <c r="O6" s="187">
-        <v>8</v>
-      </c>
-      <c r="AJ6" s="201">
-        <v>115</v>
-      </c>
-      <c r="AK6" s="328">
-        <v>13</v>
-      </c>
-      <c r="AL6" s="328">
-        <v>331</v>
-      </c>
-      <c r="AM6" s="328">
-        <v>388</v>
-      </c>
-      <c r="AN6" s="202">
-        <v>7</v>
-      </c>
-      <c r="AO6" s="206">
-        <v>30</v>
-      </c>
-      <c r="AP6" s="178">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="178">
-        <v>87</v>
-      </c>
-      <c r="AR6" s="178">
-        <v>114</v>
-      </c>
-      <c r="AS6" s="207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="211"/>
-      <c r="B7" s="211"/>
-      <c r="AO7" s="206">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="178">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="178">
-        <v>4</v>
-      </c>
-      <c r="AR7" s="178">
-        <v>3</v>
-      </c>
-      <c r="AS7" s="207">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="AJ1:AN1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Dragalia Data.xlsx
+++ b/Dragalia Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="717" documentId="6_{5DF816FB-95FF-4719-89F5-2A648B856C5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5251B76-5195-432C-9ECD-5A9632D77329}"/>
+  <xr:revisionPtr revIDLastSave="724" documentId="6_{5DF816FB-95FF-4719-89F5-2A648B856C5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB6E11CB-9B39-478E-B0FE-5D13890BBD89}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1020" windowWidth="21570" windowHeight="11985" firstSheet="6" activeTab="6" xr2:uid="{DB722928-C7C8-4DCB-B9F0-15DF68E4A8EA}"/>
+    <workbookView xWindow="675" yWindow="1020" windowWidth="21570" windowHeight="11985" firstSheet="6" activeTab="7" xr2:uid="{DB722928-C7C8-4DCB-B9F0-15DF68E4A8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="玩家EXP" sheetId="33" state="hidden" r:id="rId1"/>
@@ -3109,13 +3109,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3127,67 +3142,43 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="24" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3220,64 +3211,34 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="24" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3295,7 +3256,19 @@
     <xf numFmtId="166" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3304,19 +3277,19 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3337,10 +3310,25 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3412,6 +3400,27 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3448,27 +3457,6 @@
     <xf numFmtId="168" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3481,11 +3469,23 @@
     <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13402,23 +13402,23 @@
       <c r="C1" s="343">
         <v>7</v>
       </c>
-      <c r="F1" s="480" t="str">
+      <c r="F1" s="482" t="str">
         <f>B1&amp; "日"</f>
         <v>1日</v>
       </c>
-      <c r="G1" s="481"/>
-      <c r="H1" s="481"/>
-      <c r="I1" s="480" t="str">
+      <c r="G1" s="483"/>
+      <c r="H1" s="483"/>
+      <c r="I1" s="482" t="str">
         <f>C1 &amp; "日"</f>
         <v>7日</v>
       </c>
-      <c r="J1" s="481"/>
-      <c r="K1" s="481"/>
-      <c r="L1" s="480" t="s">
+      <c r="J1" s="483"/>
+      <c r="K1" s="483"/>
+      <c r="L1" s="482" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="481"/>
-      <c r="N1" s="481"/>
+      <c r="M1" s="483"/>
+      <c r="N1" s="483"/>
     </row>
     <row r="2" spans="1:14" s="343" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="341" t="s">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="H14" s="275" t="str">
         <f ca="1">IF(ISBLANK(#REF!),NA(),IFERROR(TEXT(TRUNC(G14-NOW()),"000") &amp; " D " &amp; TEXT(TRUNC(ABS(G14-NOW()-TRUNC(G14-NOW()))*24),"00") &amp; " H", NA()))</f>
-        <v>009 D 19 H</v>
+        <v>009 D 18 H</v>
       </c>
       <c r="I14" s="332" t="e">
         <f ca="1">IF(ISBLANK(A14),NA(),IFERROR(SLOPE(INDIRECT("D" &amp; MATCH(A14-$C$1,A:A,1)):D14, INDIRECT("A" &amp; MATCH(A14-$C$1,A:A,1)):A14),NA()))</f>
@@ -17965,7 +17965,7 @@
       </c>
       <c r="K84" s="275" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-008 D 16 H</v>
+        <v>-008 D 17 H</v>
       </c>
       <c r="L84" s="332">
         <f t="shared" si="9"/>
@@ -18087,7 +18087,7 @@
       </c>
       <c r="N86" s="275" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>003 D 03 H</v>
+        <v>003 D 02 H</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -18582,7 +18582,7 @@
       </c>
       <c r="N95" s="275" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>001 D 14 H</v>
+        <v>001 D 13 H</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -20715,7 +20715,7 @@
       </c>
       <c r="K134" s="392" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-001 D 13 H</v>
+        <v>-001 D 14 H</v>
       </c>
       <c r="L134" s="332">
         <f t="shared" si="9"/>
@@ -21760,7 +21760,7 @@
       </c>
       <c r="K153" s="393" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>-002 D 00 H</v>
+        <v>-002 D 01 H</v>
       </c>
       <c r="L153" s="332">
         <f t="shared" si="14"/>
@@ -23092,7 +23092,7 @@
       </c>
       <c r="N177" s="393" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-003 D 01 H</v>
+        <v>-003 D 02 H</v>
       </c>
     </row>
     <row r="178" spans="1:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -33887,76 +33887,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="562" t="s">
+      <c r="A1" s="558" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="563"/>
-      <c r="C1" s="563"/>
-      <c r="D1" s="563"/>
-      <c r="E1" s="564"/>
-      <c r="F1" s="562" t="s">
+      <c r="B1" s="559"/>
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="560"/>
+      <c r="F1" s="558" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="563"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="564"/>
-      <c r="K1" s="562" t="s">
+      <c r="G1" s="559"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="560"/>
+      <c r="K1" s="558" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="563"/>
-      <c r="M1" s="563"/>
-      <c r="N1" s="563"/>
-      <c r="O1" s="564"/>
-      <c r="P1" s="571" t="s">
+      <c r="L1" s="559"/>
+      <c r="M1" s="559"/>
+      <c r="N1" s="559"/>
+      <c r="O1" s="560"/>
+      <c r="P1" s="567" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="572"/>
-      <c r="R1" s="572"/>
-      <c r="S1" s="572"/>
-      <c r="T1" s="573"/>
-      <c r="U1" s="571" t="s">
+      <c r="Q1" s="568"/>
+      <c r="R1" s="568"/>
+      <c r="S1" s="568"/>
+      <c r="T1" s="569"/>
+      <c r="U1" s="567" t="s">
         <v>156</v>
       </c>
-      <c r="V1" s="572"/>
-      <c r="W1" s="572"/>
-      <c r="X1" s="572"/>
-      <c r="Y1" s="573"/>
-      <c r="Z1" s="568" t="s">
+      <c r="V1" s="568"/>
+      <c r="W1" s="568"/>
+      <c r="X1" s="568"/>
+      <c r="Y1" s="569"/>
+      <c r="Z1" s="564" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="569"/>
-      <c r="AB1" s="569"/>
-      <c r="AC1" s="569"/>
-      <c r="AD1" s="570"/>
-      <c r="AE1" s="565" t="s">
+      <c r="AA1" s="565"/>
+      <c r="AB1" s="565"/>
+      <c r="AC1" s="565"/>
+      <c r="AD1" s="566"/>
+      <c r="AE1" s="561" t="s">
         <v>84</v>
       </c>
-      <c r="AF1" s="566"/>
-      <c r="AG1" s="566"/>
-      <c r="AH1" s="566"/>
-      <c r="AI1" s="567"/>
-      <c r="AJ1" s="565" t="s">
+      <c r="AF1" s="562"/>
+      <c r="AG1" s="562"/>
+      <c r="AH1" s="562"/>
+      <c r="AI1" s="563"/>
+      <c r="AJ1" s="561" t="s">
         <v>175</v>
       </c>
-      <c r="AK1" s="566"/>
-      <c r="AL1" s="566"/>
-      <c r="AM1" s="566"/>
-      <c r="AN1" s="567"/>
-      <c r="AO1" s="559" t="s">
+      <c r="AK1" s="562"/>
+      <c r="AL1" s="562"/>
+      <c r="AM1" s="562"/>
+      <c r="AN1" s="563"/>
+      <c r="AO1" s="555" t="s">
         <v>86</v>
       </c>
-      <c r="AP1" s="560"/>
-      <c r="AQ1" s="560"/>
-      <c r="AR1" s="560"/>
-      <c r="AS1" s="561"/>
-      <c r="AT1" s="559" t="s">
+      <c r="AP1" s="556"/>
+      <c r="AQ1" s="556"/>
+      <c r="AR1" s="556"/>
+      <c r="AS1" s="557"/>
+      <c r="AT1" s="555" t="s">
         <v>87</v>
       </c>
-      <c r="AU1" s="560"/>
-      <c r="AV1" s="560"/>
-      <c r="AW1" s="560"/>
-      <c r="AX1" s="561"/>
+      <c r="AU1" s="556"/>
+      <c r="AV1" s="556"/>
+      <c r="AW1" s="556"/>
+      <c r="AX1" s="557"/>
     </row>
     <row r="2" spans="1:50" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="183" t="s">
@@ -34544,17 +34544,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="217" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="542" t="s">
+      <c r="A1" s="531" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="542"/>
-      <c r="C1" s="542"/>
+      <c r="B1" s="531"/>
+      <c r="C1" s="531"/>
       <c r="D1" s="235"/>
-      <c r="E1" s="575" t="s">
+      <c r="E1" s="571" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="575"/>
-      <c r="G1" s="575"/>
+      <c r="F1" s="571"/>
+      <c r="G1" s="571"/>
       <c r="I1" s="221"/>
       <c r="K1" s="121"/>
       <c r="L1" s="221"/>
@@ -34711,10 +34711,10 @@
       <c r="A7" s="221" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="574">
+      <c r="B7" s="570">
         <v>587</v>
       </c>
-      <c r="C7" s="574"/>
+      <c r="C7" s="570"/>
       <c r="E7" s="221" t="s">
         <v>142</v>
       </c>
@@ -35369,52 +35369,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="484" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486" t="s">
+      <c r="B1" s="484"/>
+      <c r="C1" s="484"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="484"/>
+      <c r="F1" s="484"/>
+      <c r="G1" s="484" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
-      <c r="K1" s="486"/>
-      <c r="L1" s="486"/>
-      <c r="N1" s="486" t="s">
+      <c r="H1" s="484"/>
+      <c r="I1" s="484"/>
+      <c r="J1" s="484"/>
+      <c r="K1" s="484"/>
+      <c r="L1" s="484"/>
+      <c r="N1" s="484" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="486"/>
+      <c r="O1" s="484"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="576" t="s">
+      <c r="A2" s="572" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="576"/>
-      <c r="C2" s="578" t="s">
+      <c r="B2" s="572"/>
+      <c r="C2" s="574" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="578"/>
-      <c r="E2" s="577" t="s">
+      <c r="D2" s="574"/>
+      <c r="E2" s="573" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="577"/>
-      <c r="G2" s="580" t="s">
+      <c r="F2" s="573"/>
+      <c r="G2" s="576" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="580"/>
-      <c r="I2" s="577" t="s">
+      <c r="H2" s="576"/>
+      <c r="I2" s="573" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="579" t="s">
+      <c r="J2" s="573"/>
+      <c r="K2" s="575" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="575"/>
       <c r="N2" s="221" t="s">
         <v>39</v>
       </c>
@@ -35916,7 +35916,7 @@
       <c r="D2" s="351">
         <v>4</v>
       </c>
-      <c r="I2" s="532" t="s">
+      <c r="I2" s="529" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="375" t="s">
@@ -35956,7 +35956,7 @@
       <c r="D3" s="351">
         <v>4</v>
       </c>
-      <c r="I3" s="532"/>
+      <c r="I3" s="529"/>
       <c r="J3" s="375" t="s">
         <v>184</v>
       </c>
@@ -35994,7 +35994,7 @@
       <c r="D4" s="351">
         <v>4</v>
       </c>
-      <c r="I4" s="532"/>
+      <c r="I4" s="529"/>
       <c r="J4" s="375" t="s">
         <v>33</v>
       </c>
@@ -36032,7 +36032,7 @@
       <c r="D5" s="351">
         <v>4</v>
       </c>
-      <c r="I5" s="532"/>
+      <c r="I5" s="529"/>
       <c r="J5" s="375" t="s">
         <v>185</v>
       </c>
@@ -36068,7 +36068,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="351"/>
-      <c r="I6" s="532"/>
+      <c r="I6" s="529"/>
       <c r="J6" s="375" t="s">
         <v>42</v>
       </c>
@@ -36094,7 +36094,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I7" s="585" t="s">
+      <c r="I7" s="588" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="379" t="s">
@@ -36122,19 +36122,19 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="590" t="s">
+      <c r="B8" s="593" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="590"/>
-      <c r="D8" s="590"/>
-      <c r="E8" s="590"/>
-      <c r="F8" s="558" t="s">
+      <c r="C8" s="593"/>
+      <c r="D8" s="593"/>
+      <c r="E8" s="593"/>
+      <c r="F8" s="554" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="590" t="s">
+      <c r="G8" s="593" t="s">
         <v>181</v>
       </c>
-      <c r="I8" s="585"/>
+      <c r="I8" s="588"/>
       <c r="J8" s="379" t="s">
         <v>184</v>
       </c>
@@ -36173,9 +36173,9 @@
       <c r="E9" s="355">
         <v>5</v>
       </c>
-      <c r="F9" s="558"/>
-      <c r="G9" s="590"/>
-      <c r="I9" s="585"/>
+      <c r="F9" s="554"/>
+      <c r="G9" s="593"/>
+      <c r="I9" s="588"/>
       <c r="J9" s="379" t="s">
         <v>33</v>
       </c>
@@ -36201,7 +36201,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="581" t="s">
+      <c r="A10" s="584" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="370">
@@ -36220,15 +36220,15 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTIF(DATA_HDRAG_HBRUN,"=5"),"")</f>
         <v>11</v>
       </c>
-      <c r="F10" s="595">
+      <c r="F10" s="579">
         <f>IF(HDRAG_HAS_REC_HBRUN,AVERAGE(DATA_HDRAG_HBRUN),"")</f>
         <v>2.4324324324324325</v>
       </c>
-      <c r="G10" s="582">
+      <c r="G10" s="585">
         <f>IF(HDRAG_HAS_REC_HBRUN,COUNTA(DATA_HDRAG_HBRUN),"")</f>
         <v>296</v>
       </c>
-      <c r="I10" s="585"/>
+      <c r="I10" s="588"/>
       <c r="J10" s="379" t="s">
         <v>185</v>
       </c>
@@ -36254,7 +36254,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="581"/>
+      <c r="A11" s="584"/>
       <c r="B11" s="380">
         <f>IF(HDRAG_HAS_REC_HBRUN,B10/$G10,"")</f>
         <v>0.68581081081081086</v>
@@ -36271,9 +36271,9 @@
         <f>IF(HDRAG_HAS_REC_HBRUN,E10/$G10,"")</f>
         <v>3.7162162162162164E-2</v>
       </c>
-      <c r="F11" s="595"/>
-      <c r="G11" s="582"/>
-      <c r="I11" s="585"/>
+      <c r="F11" s="579"/>
+      <c r="G11" s="585"/>
+      <c r="I11" s="588"/>
       <c r="J11" s="379" t="s">
         <v>42</v>
       </c>
@@ -36299,7 +36299,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="598" t="s">
+      <c r="A12" s="582" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="371">
@@ -36318,15 +36318,15 @@
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTIF(DATA_HDRAG_HMERC,"=5"),"")</f>
         <v>8</v>
       </c>
-      <c r="F12" s="594">
+      <c r="F12" s="578">
         <f>IF(HDRAG_HAS_REC_HMERC,AVERAGE(DATA_HDRAG_HMERC),"")</f>
         <v>2.3909465020576133</v>
       </c>
-      <c r="G12" s="599">
+      <c r="G12" s="583">
         <f>IF(HDRAG_HAS_REC_HMERC,COUNTA(DATA_HDRAG_HMERC),"")</f>
         <v>243</v>
       </c>
-      <c r="I12" s="584" t="s">
+      <c r="I12" s="587" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="378" t="s">
@@ -36354,7 +36354,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="598"/>
+      <c r="A13" s="582"/>
       <c r="B13" s="381">
         <f>IF(HDRAG_HAS_REC_HMERC,B12/$G12,"")</f>
         <v>0.72427983539094654</v>
@@ -36371,9 +36371,9 @@
         <f>IF(HDRAG_HAS_REC_HMERC,E12/$G12,"")</f>
         <v>3.292181069958848E-2</v>
       </c>
-      <c r="F13" s="594"/>
-      <c r="G13" s="599"/>
-      <c r="I13" s="584"/>
+      <c r="F13" s="578"/>
+      <c r="G13" s="583"/>
+      <c r="I13" s="587"/>
       <c r="J13" s="378" t="s">
         <v>184</v>
       </c>
@@ -36399,7 +36399,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="596" t="s">
+      <c r="A14" s="580" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="372">
@@ -36418,15 +36418,15 @@
         <f>IF(HDRAG_HAS_REC_HMID,COUNTIF(DATA_HDRAG_HMID,"=5"),"")</f>
         <v>49</v>
       </c>
-      <c r="F14" s="593">
+      <c r="F14" s="577">
         <f>IF(HDRAG_HAS_REC_HMID,AVERAGE(DATA_HDRAG_HMID),"")</f>
         <v>2.5516811955168119</v>
       </c>
-      <c r="G14" s="597">
+      <c r="G14" s="581">
         <f>IF(HDRAG_HAS_REC_HMID,COUNTA(DATA_HDRAG_HMID),"")</f>
         <v>804</v>
       </c>
-      <c r="I14" s="584"/>
+      <c r="I14" s="587"/>
       <c r="J14" s="378" t="s">
         <v>33</v>
       </c>
@@ -36452,7 +36452,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="596"/>
+      <c r="A15" s="580"/>
       <c r="B15" s="382">
         <f>IF(HDRAG_HAS_REC_HMID,B14/$G14,"")</f>
         <v>0.64676616915422891</v>
@@ -36469,9 +36469,9 @@
         <f>IF(HDRAG_HAS_REC_HMID,E14/$G14,"")</f>
         <v>6.0945273631840796E-2</v>
       </c>
-      <c r="F15" s="593"/>
-      <c r="G15" s="597"/>
-      <c r="I15" s="584"/>
+      <c r="F15" s="577"/>
+      <c r="G15" s="581"/>
+      <c r="I15" s="587"/>
       <c r="J15" s="378" t="s">
         <v>185</v>
       </c>
@@ -36497,7 +36497,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="588" t="s">
+      <c r="A16" s="591" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="373">
@@ -36516,15 +36516,15 @@
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTIF(DATA_HDRAG_HJUP,"=5"),"")</f>
         <v>18</v>
       </c>
-      <c r="F16" s="592">
+      <c r="F16" s="595">
         <f>IF(HDRAG_HAS_REC_HJUP,AVERAGE(DATA_HDRAG_HJUP),"")</f>
         <v>2.4578587699316627</v>
       </c>
-      <c r="G16" s="589">
+      <c r="G16" s="592">
         <f>IF(HDRAG_HAS_REC_HJUP,COUNTA(DATA_HDRAG_HJUP),"")</f>
         <v>439</v>
       </c>
-      <c r="I16" s="584"/>
+      <c r="I16" s="587"/>
       <c r="J16" s="378" t="s">
         <v>42</v>
       </c>
@@ -36550,7 +36550,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="588"/>
+      <c r="A17" s="591"/>
       <c r="B17" s="383">
         <f>IF(HDRAG_HAS_REC_HJUP,B16/$G16,"")</f>
         <v>0.69248291571753984</v>
@@ -36567,9 +36567,9 @@
         <f>IF(HDRAG_HAS_REC_HJUP,E16/$G16,"")</f>
         <v>4.1002277904328019E-2</v>
       </c>
-      <c r="F17" s="592"/>
-      <c r="G17" s="589"/>
-      <c r="I17" s="583" t="s">
+      <c r="F17" s="595"/>
+      <c r="G17" s="592"/>
+      <c r="I17" s="586" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="377" t="s">
@@ -36597,7 +36597,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="586" t="s">
+      <c r="A18" s="589" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="374">
@@ -36616,15 +36616,15 @@
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTIF(DATA_HDRAG_HZOD,"=5"),"")</f>
         <v>1</v>
       </c>
-      <c r="F18" s="591">
+      <c r="F18" s="594">
         <f>IF(HDRAG_HAS_REC_HZOD,AVERAGE(DATA_HDRAG_HZOD),"")</f>
         <v>2.2857142857142856</v>
       </c>
-      <c r="G18" s="587">
+      <c r="G18" s="590">
         <f>IF(HDRAG_HAS_REC_HZOD,COUNTA(DATA_HDRAG_HZOD),"")</f>
         <v>77</v>
       </c>
-      <c r="I18" s="583"/>
+      <c r="I18" s="586"/>
       <c r="J18" s="377" t="s">
         <v>184</v>
       </c>
@@ -36650,7 +36650,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="586"/>
+      <c r="A19" s="589"/>
       <c r="B19" s="384">
         <f>IF(HDRAG_HAS_REC_HZOD,B18/$G18,"")</f>
         <v>0.75324675324675328</v>
@@ -36667,9 +36667,9 @@
         <f>IF(HDRAG_HAS_REC_HZOD,E18/$G18,"")</f>
         <v>1.2987012987012988E-2</v>
       </c>
-      <c r="F19" s="591"/>
-      <c r="G19" s="587"/>
-      <c r="I19" s="583"/>
+      <c r="F19" s="594"/>
+      <c r="G19" s="590"/>
+      <c r="I19" s="586"/>
       <c r="J19" s="377" t="s">
         <v>33</v>
       </c>
@@ -36695,7 +36695,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I20" s="583"/>
+      <c r="I20" s="586"/>
       <c r="J20" s="377" t="s">
         <v>185</v>
       </c>
@@ -36721,7 +36721,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I21" s="583"/>
+      <c r="I21" s="586"/>
       <c r="J21" s="377" t="s">
         <v>42</v>
       </c>
@@ -36891,13 +36891,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="G10:G11"/>
@@ -36914,6 +36907,13 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="C1">
     <cfRule type="dataBar" priority="8">
@@ -38435,23 +38435,23 @@
       <c r="B1" s="391">
         <v>28</v>
       </c>
-      <c r="C1" s="603" t="s">
+      <c r="C1" s="599" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="602">
+      <c r="D1" s="598">
         <f>INDEX(DATA_EVTBLD,B1,2)-B2</f>
         <v>967</v>
       </c>
-      <c r="E1" s="601" t="s">
+      <c r="E1" s="597" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="600">
+      <c r="F1" s="596">
         <f>1-(INDEX(DATA_EVTBLD,B1,2)-B2)/DATA_EVTBLD_MAX</f>
         <v>0.87627942681678606</v>
       </c>
-      <c r="G1" s="600"/>
-      <c r="H1" s="600"/>
-      <c r="I1" s="600"/>
+      <c r="G1" s="596"/>
+      <c r="H1" s="596"/>
+      <c r="I1" s="596"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="385" t="s">
@@ -38460,13 +38460,13 @@
       <c r="B2" s="391">
         <v>933</v>
       </c>
-      <c r="C2" s="603"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="601"/>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="600"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="598"/>
+      <c r="E2" s="597"/>
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="596"/>
+      <c r="I2" s="596"/>
     </row>
     <row r="4" spans="1:9" s="385" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="385" t="s">
@@ -47099,10 +47099,10 @@
       <c r="A1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="488">
+      <c r="B1" s="487">
         <v>43677.583333333336</v>
       </c>
-      <c r="C1" s="488"/>
+      <c r="C1" s="487"/>
       <c r="D1" s="263" t="s">
         <v>150</v>
       </c>
@@ -47112,18 +47112,18 @@
       <c r="F1" s="261" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="482" t="s">
+      <c r="G1" s="485" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="482"/>
-      <c r="I1" s="482"/>
-      <c r="J1" s="482"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="485"/>
+      <c r="J1" s="485"/>
       <c r="K1" s="28"/>
       <c r="L1" s="260" t="s">
         <v>77</v>
       </c>
       <c r="M1" s="260"/>
-      <c r="N1" s="486" t="s">
+      <c r="N1" s="484" t="s">
         <v>66</v>
       </c>
       <c r="O1" s="317"/>
@@ -47156,10 +47156,10 @@
       <c r="A2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="488">
+      <c r="B2" s="487">
         <v>43688.583333333336</v>
       </c>
-      <c r="C2" s="488"/>
+      <c r="C2" s="487"/>
       <c r="D2" s="264" t="str">
         <f ca="1">IF(RAID_TIME_END-NOW()&lt;0,"",NOW()-RAID_TIME_START)</f>
         <v/>
@@ -47172,20 +47172,20 @@
         <f>B2-B1</f>
         <v>11</v>
       </c>
-      <c r="G2" s="487" t="str">
+      <c r="G2" s="486" t="str">
         <f ca="1">IF(NOW() &gt; $B$2,"",(NOW()-$B$1)/($B$2-$B$1))</f>
         <v/>
       </c>
-      <c r="H2" s="487"/>
-      <c r="I2" s="487"/>
-      <c r="J2" s="487"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
       <c r="K2" s="28" t="s">
         <v>79</v>
       </c>
       <c r="L2" s="127">
         <v>100000</v>
       </c>
-      <c r="N2" s="486"/>
+      <c r="N2" s="484"/>
       <c r="O2" s="320" t="s">
         <v>168</v>
       </c>
@@ -47233,7 +47233,7 @@
       <c r="L3" s="127">
         <v>100000</v>
       </c>
-      <c r="N3" s="486"/>
+      <c r="N3" s="484"/>
       <c r="O3" s="320" t="s">
         <v>169</v>
       </c>
@@ -47263,7 +47263,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N4" s="486"/>
+      <c r="N4" s="484"/>
       <c r="O4" s="320" t="s">
         <v>104</v>
       </c>
@@ -47302,34 +47302,34 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
-      <c r="B5" s="483" t="s">
+      <c r="B5" s="488" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="483"/>
-      <c r="D5" s="484" t="s">
+      <c r="C5" s="488"/>
+      <c r="D5" s="489" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="484"/>
-      <c r="F5" s="484" t="s">
+      <c r="E5" s="489"/>
+      <c r="F5" s="489" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="484"/>
-      <c r="H5" s="484" t="s">
+      <c r="G5" s="489"/>
+      <c r="H5" s="489" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="484"/>
-      <c r="J5" s="482" t="s">
+      <c r="I5" s="489"/>
+      <c r="J5" s="485" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="482"/>
-      <c r="L5" s="485" t="s">
+      <c r="K5" s="485"/>
+      <c r="L5" s="490" t="s">
         <v>153</v>
       </c>
-      <c r="M5" s="485"/>
-      <c r="N5" s="482" t="s">
+      <c r="M5" s="490"/>
+      <c r="N5" s="485" t="s">
         <v>151</v>
       </c>
-      <c r="O5" s="482"/>
+      <c r="O5" s="485"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -51177,11 +51177,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
@@ -51189,6 +51184,11 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
     <cfRule type="dataBar" priority="45">
@@ -51598,27 +51598,27 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="604"/>
+    <col min="1" max="16384" width="9.140625" style="480"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="605" t="s">
+      <c r="A1" s="481" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="605" t="s">
+      <c r="A2" s="481" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="605" t="s">
+      <c r="A3" s="481" t="s">
         <v>208</v>
       </c>
     </row>
@@ -51634,8 +51634,8 @@
   </sheetPr>
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51733,7 +51733,7 @@
       </c>
     </row>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="504" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="464" t="s">
@@ -51818,7 +51818,7 @@
       <c r="AA3" s="316"/>
     </row>
     <row r="4" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="508"/>
+      <c r="B4" s="505"/>
       <c r="C4" s="131" t="s">
         <v>89</v>
       </c>
@@ -51899,7 +51899,7 @@
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="513" t="s">
+      <c r="B5" s="510" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="144" t="s">
@@ -51958,7 +51958,7 @@
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="514"/>
+      <c r="B6" s="511"/>
       <c r="C6" s="148" t="s">
         <v>89</v>
       </c>
@@ -52047,7 +52047,7 @@
       </c>
     </row>
     <row r="7" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="509" t="s">
+      <c r="B7" s="506" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="152" t="s">
@@ -52133,7 +52133,7 @@
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="510"/>
+      <c r="B8" s="507"/>
       <c r="C8" s="156" t="s">
         <v>89</v>
       </c>
@@ -52191,7 +52191,7 @@
       <c r="AD8" s="53"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="515" t="s">
+      <c r="B9" s="512" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="160" t="s">
@@ -52254,10 +52254,10 @@
       <c r="S9" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="523" t="s">
+      <c r="T9" s="491" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="523"/>
+      <c r="U9" s="491"/>
       <c r="V9" s="5" t="s">
         <v>19</v>
       </c>
@@ -52283,7 +52283,7 @@
       <c r="AD9" s="53"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="516"/>
+      <c r="B10" s="513"/>
       <c r="C10" s="164" t="s">
         <v>89</v>
       </c>
@@ -52338,7 +52338,7 @@
         <f>SUM(D迎擊!X:X)</f>
         <v>204</v>
       </c>
-      <c r="R10" s="521" t="s">
+      <c r="R10" s="502" t="s">
         <v>170</v>
       </c>
       <c r="S10" s="68">
@@ -52359,7 +52359,7 @@
         <f t="shared" ref="W10:W17" si="8">IFERROR(V10*BOOST_PRICE,"")</f>
         <v/>
       </c>
-      <c r="X10" s="522" t="s">
+      <c r="X10" s="503" t="s">
         <v>13</v>
       </c>
       <c r="Y10" s="68">
@@ -52383,7 +52383,7 @@
       <c r="AD10" s="53"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="511" t="s">
+      <c r="B11" s="508" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="463" t="s">
@@ -52440,7 +52440,7 @@
         <f>SUM(D迎擊!AA:AA)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="521"/>
+      <c r="R11" s="502"/>
       <c r="S11" s="68">
         <v>35</v>
       </c>
@@ -52459,7 +52459,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X11" s="522"/>
+      <c r="X11" s="503"/>
       <c r="Y11" s="68">
         <v>35</v>
       </c>
@@ -52481,7 +52481,7 @@
       <c r="AD11" s="53"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="512"/>
+      <c r="B12" s="509"/>
       <c r="C12" s="171" t="s">
         <v>89</v>
       </c>
@@ -52536,7 +52536,7 @@
         <f>SUM(D迎擊!AD:AD)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="520" t="s">
+      <c r="R12" s="501" t="s">
         <v>10</v>
       </c>
       <c r="S12" s="69">
@@ -52557,7 +52557,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X12" s="524" t="s">
+      <c r="X12" s="492" t="s">
         <v>7</v>
       </c>
       <c r="Y12" s="69">
@@ -52581,7 +52581,7 @@
       <c r="AD12" s="53"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="502" t="s">
+      <c r="B13" s="521" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="407" t="s">
@@ -52618,15 +52618,15 @@
         <f t="shared" si="3"/>
         <v>5.5827191235059761</v>
       </c>
-      <c r="L13" s="505">
+      <c r="L13" s="496">
         <f>SUM(MAX(L3,L4),MAX(L5,L6),MAX(L7,L8),MAX(L9,L10),MAX(L11,L12))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="505">
+      <c r="M13" s="496">
         <f>SUM(MAX(M3,M4),MAX(M5,M6),MAX(M7,M8),MAX(M9,M10),MAX(M11,M12))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="526">
+      <c r="N13" s="494">
         <f>MAX(SUM(N3,N5,N7,N9,N11),SUM(N4,N6,N8,N10,N12),N15,N16,N17)</f>
         <v>0</v>
       </c>
@@ -52638,7 +52638,7 @@
         <f>SUM(P3,P5,P7,P9,P11)</f>
         <v>766</v>
       </c>
-      <c r="R13" s="520"/>
+      <c r="R13" s="501"/>
       <c r="S13" s="69">
         <v>35</v>
       </c>
@@ -52657,7 +52657,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X13" s="524"/>
+      <c r="X13" s="492"/>
       <c r="Y13" s="69">
         <v>35</v>
       </c>
@@ -52679,7 +52679,7 @@
       <c r="AD13" s="53"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="503"/>
+      <c r="B14" s="522"/>
       <c r="C14" s="452" t="s">
         <v>89</v>
       </c>
@@ -52714,9 +52714,9 @@
         <f t="shared" si="3"/>
         <v>9.2103515624999996</v>
       </c>
-      <c r="L14" s="506"/>
-      <c r="M14" s="506"/>
-      <c r="N14" s="527"/>
+      <c r="L14" s="497"/>
+      <c r="M14" s="497"/>
+      <c r="N14" s="495"/>
       <c r="O14" s="450">
         <f>IF(P$14=0,0,(O4*P4+O6*P6+O8*P8+O10*P10+O12*P12) / P$14)</f>
         <v>4.6161879895561357</v>
@@ -52725,7 +52725,7 @@
         <f>SUM(P4,P6,P8,P10,P12)</f>
         <v>766</v>
       </c>
-      <c r="R14" s="519" t="s">
+      <c r="R14" s="500" t="s">
         <v>5</v>
       </c>
       <c r="S14" s="70">
@@ -52746,7 +52746,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X14" s="525" t="s">
+      <c r="X14" s="493" t="s">
         <v>4</v>
       </c>
       <c r="Y14" s="70">
@@ -52770,7 +52770,7 @@
       <c r="AD14" s="53"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="503"/>
+      <c r="B15" s="522"/>
       <c r="C15" s="416" t="s">
         <v>100</v>
       </c>
@@ -52804,11 +52804,11 @@
         <f t="shared" ref="K15" si="12">(F15+H15)/G15</f>
         <v>2.2233897379912664</v>
       </c>
-      <c r="L15" s="489">
+      <c r="L15" s="514">
         <f t="shared" ref="L15" si="13">IFERROR(ROUND(J15/O15,0),NA())</f>
         <v>0</v>
       </c>
-      <c r="M15" s="489"/>
+      <c r="M15" s="514"/>
       <c r="N15" s="461">
         <f>IF(ISNA(L15),NA(),CEILING(L15/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS,0))</f>
         <v>0</v>
@@ -52817,11 +52817,11 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AI:AI,D迎擊!AK:AK)/P$15,0)</f>
         <v>12.639686684073107</v>
       </c>
-      <c r="P15" s="504">
+      <c r="P15" s="523">
         <f>SUM(D迎擊!AK:AK)</f>
         <v>766</v>
       </c>
-      <c r="R15" s="519"/>
+      <c r="R15" s="500"/>
       <c r="S15" s="70">
         <v>35</v>
       </c>
@@ -52840,7 +52840,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X15" s="525"/>
+      <c r="X15" s="493"/>
       <c r="Y15" s="70">
         <v>35</v>
       </c>
@@ -52862,7 +52862,7 @@
       <c r="AD15" s="53"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="503"/>
+      <c r="B16" s="522"/>
       <c r="C16" s="416" t="s">
         <v>99</v>
       </c>
@@ -52896,11 +52896,11 @@
         <f t="shared" si="3"/>
         <v>4.0004980079681278</v>
       </c>
-      <c r="L16" s="489">
+      <c r="L16" s="514">
         <f t="shared" ref="L16" si="14">IFERROR(ROUND(J16/O16,0),NA())</f>
         <v>0</v>
       </c>
-      <c r="M16" s="489"/>
+      <c r="M16" s="514"/>
       <c r="N16" s="461">
         <f>IF(ISNA(L16),NA(),CEILING(L16/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS,0))</f>
         <v>0</v>
@@ -52909,8 +52909,8 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AG:AG,D迎擊!AK:AK)/P$15,0)</f>
         <v>1.9033942558746737</v>
       </c>
-      <c r="P16" s="504"/>
-      <c r="R16" s="518" t="s">
+      <c r="P16" s="523"/>
+      <c r="R16" s="499" t="s">
         <v>3</v>
       </c>
       <c r="S16" s="71">
@@ -52931,7 +52931,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X16" s="517" t="s">
+      <c r="X16" s="498" t="s">
         <v>2</v>
       </c>
       <c r="Y16" s="72">
@@ -52955,7 +52955,7 @@
       <c r="AD16" s="53"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="503"/>
+      <c r="B17" s="522"/>
       <c r="C17" s="416" t="s">
         <v>98</v>
       </c>
@@ -52989,11 +52989,11 @@
         <f t="shared" ref="K17" si="15">(F17+H17)/G17</f>
         <v>4.2056944444444442</v>
       </c>
-      <c r="L17" s="489">
+      <c r="L17" s="514">
         <f>IFERROR(ROUND(J17/O17,0),NA())</f>
         <v>0</v>
       </c>
-      <c r="M17" s="489"/>
+      <c r="M17" s="514"/>
       <c r="N17" s="461">
         <f>IF(ISNA(L17),NA(),CEILING(L17/(WINGS_RECOVER_NUM/WINGS_CONSUME_IO)*WINGS_RECOVER_DIAMS,0))</f>
         <v>0</v>
@@ -53002,8 +53002,8 @@
         <f>IFERROR(SUMPRODUCT(D迎擊!AE:AE,D迎擊!AK:AK)/P$15,0)</f>
         <v>3.597911227154047</v>
       </c>
-      <c r="P17" s="504"/>
-      <c r="R17" s="518"/>
+      <c r="P17" s="523"/>
+      <c r="R17" s="499"/>
       <c r="S17" s="71">
         <v>35</v>
       </c>
@@ -53022,7 +53022,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X17" s="517"/>
+      <c r="X17" s="498"/>
       <c r="Y17" s="72">
         <v>35</v>
       </c>
@@ -53073,18 +53073,18 @@
         <v>0</v>
       </c>
       <c r="I19" s="466"/>
-      <c r="J19" s="496" t="s">
+      <c r="J19" s="515" t="s">
         <v>205</v>
       </c>
-      <c r="K19" s="497"/>
-      <c r="L19" s="490">
+      <c r="K19" s="516"/>
+      <c r="L19" s="600">
         <f>MIN(H19:H21)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="490"/>
-      <c r="N19" s="490"/>
-      <c r="O19" s="490"/>
-      <c r="P19" s="491"/>
+      <c r="M19" s="600"/>
+      <c r="N19" s="600"/>
+      <c r="O19" s="600"/>
+      <c r="P19" s="601"/>
     </row>
     <row r="20" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="465"/>
@@ -53100,13 +53100,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="466"/>
-      <c r="J20" s="498"/>
-      <c r="K20" s="499"/>
-      <c r="L20" s="492"/>
-      <c r="M20" s="492"/>
-      <c r="N20" s="492"/>
-      <c r="O20" s="492"/>
-      <c r="P20" s="493"/>
+      <c r="J20" s="517"/>
+      <c r="K20" s="518"/>
+      <c r="L20" s="602"/>
+      <c r="M20" s="602"/>
+      <c r="N20" s="602"/>
+      <c r="O20" s="602"/>
+      <c r="P20" s="603"/>
     </row>
     <row r="21" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="469"/>
@@ -53122,32 +53122,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="474"/>
-      <c r="J21" s="500"/>
-      <c r="K21" s="501"/>
-      <c r="L21" s="494"/>
-      <c r="M21" s="494"/>
-      <c r="N21" s="494"/>
-      <c r="O21" s="494"/>
-      <c r="P21" s="495"/>
+      <c r="J21" s="519"/>
+      <c r="K21" s="520"/>
+      <c r="L21" s="604"/>
+      <c r="M21" s="604"/>
+      <c r="N21" s="604"/>
+      <c r="O21" s="604"/>
+      <c r="P21" s="605"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L19:P21"/>
     <mergeCell ref="J19:K21"/>
@@ -53156,6 +53140,22 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:K4">
     <cfRule type="dataBar" priority="55">
@@ -53719,66 +53719,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="537" t="s">
+      <c r="A1" s="524" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="537"/>
-      <c r="C1" s="532" t="s">
+      <c r="B1" s="524"/>
+      <c r="C1" s="529" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="532" t="s">
+      <c r="D1" s="529" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="532"/>
-      <c r="F1" s="532" t="s">
+      <c r="E1" s="529"/>
+      <c r="F1" s="529" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="544" t="s">
+      <c r="G1" s="535" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="544"/>
-      <c r="I1" s="531" t="s">
+      <c r="H1" s="535"/>
+      <c r="I1" s="530" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="531" t="s">
+      <c r="J1" s="530" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="531"/>
-      <c r="L1" s="531" t="s">
+      <c r="K1" s="530"/>
+      <c r="L1" s="530" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="543" t="s">
+      <c r="M1" s="534" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="543"/>
-      <c r="O1" s="542" t="s">
+      <c r="N1" s="534"/>
+      <c r="O1" s="531" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="542" t="s">
+      <c r="P1" s="531" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="542"/>
-      <c r="R1" s="542" t="s">
+      <c r="Q1" s="531"/>
+      <c r="R1" s="531" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="536" t="s">
+      <c r="S1" s="540" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="536"/>
-      <c r="U1" s="535" t="s">
+      <c r="T1" s="540"/>
+      <c r="U1" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="535" t="s">
+      <c r="V1" s="532" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="535"/>
-      <c r="X1" s="535" t="s">
+      <c r="W1" s="532"/>
+      <c r="X1" s="532" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="534" t="s">
+      <c r="Y1" s="539" t="s">
         <v>90</v>
       </c>
-      <c r="Z1" s="534"/>
+      <c r="Z1" s="539"/>
       <c r="AA1" s="533" t="s">
         <v>26</v>
       </c>
@@ -53789,44 +53789,44 @@
       <c r="AD1" s="533" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="540" t="s">
+      <c r="AE1" s="527" t="s">
         <v>98</v>
       </c>
-      <c r="AF1" s="540"/>
-      <c r="AG1" s="541" t="s">
+      <c r="AF1" s="527"/>
+      <c r="AG1" s="528" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" s="541"/>
-      <c r="AI1" s="538" t="s">
+      <c r="AH1" s="528"/>
+      <c r="AI1" s="525" t="s">
         <v>100</v>
       </c>
-      <c r="AJ1" s="538"/>
-      <c r="AK1" s="539" t="s">
+      <c r="AJ1" s="525"/>
+      <c r="AK1" s="526" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="528" t="s">
+      <c r="AM1" s="536" t="s">
         <v>157</v>
       </c>
-      <c r="AN1" s="529"/>
-      <c r="AO1" s="529"/>
-      <c r="AP1" s="529"/>
-      <c r="AQ1" s="529"/>
-      <c r="AR1" s="529"/>
-      <c r="AS1" s="529"/>
-      <c r="AT1" s="529"/>
-      <c r="AU1" s="530"/>
+      <c r="AN1" s="537"/>
+      <c r="AO1" s="537"/>
+      <c r="AP1" s="537"/>
+      <c r="AQ1" s="537"/>
+      <c r="AR1" s="537"/>
+      <c r="AS1" s="537"/>
+      <c r="AT1" s="537"/>
+      <c r="AU1" s="538"/>
       <c r="AV1" s="270"/>
-      <c r="AW1" s="528" t="s">
+      <c r="AW1" s="536" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="529"/>
-      <c r="AY1" s="529"/>
-      <c r="AZ1" s="529"/>
-      <c r="BA1" s="529"/>
-      <c r="BB1" s="529"/>
-      <c r="BC1" s="529"/>
-      <c r="BD1" s="529"/>
-      <c r="BE1" s="530"/>
+      <c r="AX1" s="537"/>
+      <c r="AY1" s="537"/>
+      <c r="AZ1" s="537"/>
+      <c r="BA1" s="537"/>
+      <c r="BB1" s="537"/>
+      <c r="BC1" s="537"/>
+      <c r="BD1" s="537"/>
+      <c r="BE1" s="538"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="291" t="s">
@@ -53835,56 +53835,56 @@
       <c r="B2" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="532"/>
+      <c r="C2" s="529"/>
       <c r="D2" s="108" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="532"/>
+      <c r="F2" s="529"/>
       <c r="G2" s="287" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="531"/>
+      <c r="I2" s="530"/>
       <c r="J2" s="289" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="531"/>
+      <c r="L2" s="530"/>
       <c r="M2" s="285" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="542"/>
+      <c r="O2" s="531"/>
       <c r="P2" s="285" t="s">
         <v>28</v>
       </c>
       <c r="Q2" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="542"/>
+      <c r="R2" s="531"/>
       <c r="S2" s="280" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="U2" s="535"/>
+      <c r="U2" s="532"/>
       <c r="V2" s="280" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="535"/>
+      <c r="X2" s="532"/>
       <c r="Y2" s="282" t="s">
         <v>28</v>
       </c>
@@ -53917,7 +53917,7 @@
       <c r="AJ2" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="AK2" s="539"/>
+      <c r="AK2" s="526"/>
       <c r="AM2" s="278" t="s">
         <v>16</v>
       </c>
@@ -56892,6 +56892,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AW1:BE1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AM1:AU1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AK2"/>
@@ -56908,16 +56918,6 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="AW1:BE1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AM1:AU1"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56955,52 +56955,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="551" t="s">
+      <c r="A1" s="542" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="553" t="s">
+      <c r="B1" s="544" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
+      <c r="C1" s="544"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
+      <c r="H1" s="544"/>
       <c r="I1" s="406"/>
-      <c r="J1" s="553" t="s">
+      <c r="J1" s="544" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="553"/>
-      <c r="L1" s="553"/>
-      <c r="M1" s="553"/>
-      <c r="N1" s="553"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
+      <c r="N1" s="544"/>
       <c r="O1" s="406"/>
-      <c r="P1" s="554" t="s">
+      <c r="P1" s="545" t="s">
         <v>198</v>
       </c>
-      <c r="Q1" s="554"/>
-      <c r="R1" s="554"/>
-      <c r="S1" s="554"/>
-      <c r="T1" s="554"/>
-      <c r="U1" s="554"/>
-      <c r="V1" s="554"/>
+      <c r="Q1" s="545"/>
+      <c r="R1" s="545"/>
+      <c r="S1" s="545"/>
+      <c r="T1" s="545"/>
+      <c r="U1" s="545"/>
+      <c r="V1" s="545"/>
     </row>
     <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="551"/>
-      <c r="B2" s="546" t="s">
+      <c r="A2" s="542"/>
+      <c r="B2" s="550" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="546"/>
-      <c r="D2" s="547" t="s">
+      <c r="C2" s="550"/>
+      <c r="D2" s="551" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="547"/>
-      <c r="F2" s="557" t="s">
+      <c r="E2" s="551"/>
+      <c r="F2" s="549" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="557"/>
-      <c r="H2" s="557"/>
+      <c r="G2" s="549"/>
+      <c r="H2" s="549"/>
       <c r="J2" s="406"/>
       <c r="K2" s="406" t="s">
         <v>46</v>
@@ -57035,7 +57035,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="551"/>
+      <c r="A3" s="542"/>
       <c r="B3" s="84" t="s">
         <v>46</v>
       </c>
@@ -57051,11 +57051,11 @@
       <c r="F3" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="545">
+      <c r="G3" s="547">
         <f>_xlfn.FLOOR.MATH(C7/MAX(DATA_DRAG_ACCU_EXP))</f>
         <v>12</v>
       </c>
-      <c r="H3" s="545"/>
+      <c r="H3" s="547"/>
       <c r="J3" s="212" t="s">
         <v>14</v>
       </c>
@@ -57097,7 +57097,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="551"/>
+      <c r="A4" s="542"/>
       <c r="B4" s="84" t="s">
         <v>47</v>
       </c>
@@ -57113,11 +57113,11 @@
       <c r="F4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="545">
+      <c r="G4" s="547">
         <f>MATCH(C10,DATA_DRAG_ACCU_EXP,0)</f>
         <v>17</v>
       </c>
-      <c r="H4" s="545"/>
+      <c r="H4" s="547"/>
       <c r="J4" s="213" t="s">
         <v>12</v>
       </c>
@@ -57159,7 +57159,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="551"/>
+      <c r="A5" s="542"/>
       <c r="B5" s="84" t="s">
         <v>48</v>
       </c>
@@ -57175,11 +57175,11 @@
       <c r="F5" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="545">
+      <c r="G5" s="547">
         <f>INDEX(DATA_DRAG_LV_EXP,G4)-(C9-C10)</f>
         <v>260</v>
       </c>
-      <c r="H5" s="545"/>
+      <c r="H5" s="547"/>
       <c r="J5" s="214" t="s">
         <v>11</v>
       </c>
@@ -57206,7 +57206,7 @@
       <c r="V5" s="395"/>
     </row>
     <row r="6" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="551"/>
+      <c r="A6" s="542"/>
       <c r="B6" s="122" t="s">
         <v>52</v>
       </c>
@@ -57248,15 +57248,15 @@
       <c r="S6" s="396" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="555" t="str">
+      <c r="T6" s="546" t="str">
         <f>IF(Q7&gt;0,Q6/Q7,"")</f>
         <v/>
       </c>
-      <c r="U6" s="555"/>
-      <c r="V6" s="555"/>
+      <c r="U6" s="546"/>
+      <c r="V6" s="546"/>
     </row>
     <row r="7" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="551"/>
+      <c r="A7" s="542"/>
       <c r="B7" s="122" t="s">
         <v>95</v>
       </c>
@@ -57268,11 +57268,11 @@
         <v>54</v>
       </c>
       <c r="E7" s="87"/>
-      <c r="F7" s="482" t="s">
+      <c r="F7" s="485" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="482"/>
-      <c r="H7" s="482"/>
+      <c r="G7" s="485"/>
+      <c r="H7" s="485"/>
       <c r="J7" s="216" t="s">
         <v>8</v>
       </c>
@@ -57304,7 +57304,7 @@
       <c r="V7" s="395"/>
     </row>
     <row r="8" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="551"/>
+      <c r="A8" s="542"/>
       <c r="B8" s="94" t="s">
         <v>96</v>
       </c>
@@ -57312,10 +57312,10 @@
         <f>E3*DRAG_EXP_60+E4*DRAG_EXP_80+E5*DRAG_EXP_100+INDEX(DATA_DRAG_ACCU_EXP,E6)+(INDEX(DATA_DRAG_LV_EXP,E6)-IF(ISBLANK(E7),INDEX(DATA_DRAG_LV_EXP,1),E7))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="482" t="s">
+      <c r="F8" s="485" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="556">
+      <c r="G8" s="548">
         <f>IF(H9 &gt; 0,SUM(DATA_DRAGON_EXP)/H9,0)</f>
         <v>2673.9277652370201</v>
       </c>
@@ -57328,7 +57328,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="551"/>
+      <c r="A9" s="542"/>
       <c r="B9" s="94" t="s">
         <v>92</v>
       </c>
@@ -57336,8 +57336,8 @@
         <f>MOD(C7,DRAG_EXP_100)</f>
         <v>13660</v>
       </c>
-      <c r="F9" s="482"/>
-      <c r="G9" s="556"/>
+      <c r="F9" s="485"/>
+      <c r="G9" s="548"/>
       <c r="H9" s="80">
         <f>SUM(DATA_DRAGON_PLAYS)</f>
         <v>443</v>
@@ -57348,7 +57348,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" s="270" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="551"/>
+      <c r="A10" s="542"/>
       <c r="B10" s="82" t="s">
         <v>59</v>
       </c>
@@ -57368,7 +57368,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="270" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="551"/>
+      <c r="A11" s="542"/>
       <c r="B11" s="81"/>
       <c r="F11" s="91">
         <v>80</v>
@@ -57382,7 +57382,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" s="270" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="551"/>
+      <c r="A12" s="542"/>
       <c r="B12" s="81"/>
       <c r="F12" s="91">
         <v>100</v>
@@ -57396,37 +57396,37 @@
       </c>
     </row>
     <row r="13" spans="1:22" s="397" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="550" t="s">
+      <c r="A13" s="541" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="552" t="s">
+      <c r="B13" s="543" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="552"/>
-      <c r="D13" s="552"/>
-      <c r="E13" s="552"/>
-      <c r="F13" s="552"/>
-      <c r="G13" s="552"/>
-      <c r="H13" s="552"/>
+      <c r="C13" s="543"/>
+      <c r="D13" s="543"/>
+      <c r="E13" s="543"/>
+      <c r="F13" s="543"/>
+      <c r="G13" s="543"/>
+      <c r="H13" s="543"/>
     </row>
     <row r="14" spans="1:22" s="270" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="551"/>
-      <c r="B14" s="546" t="s">
+      <c r="A14" s="542"/>
+      <c r="B14" s="550" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="546"/>
-      <c r="D14" s="547" t="s">
+      <c r="C14" s="550"/>
+      <c r="D14" s="551" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="547"/>
-      <c r="F14" s="548" t="s">
+      <c r="E14" s="551"/>
+      <c r="F14" s="552" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="548"/>
-      <c r="H14" s="548"/>
+      <c r="G14" s="552"/>
+      <c r="H14" s="552"/>
     </row>
     <row r="15" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="551"/>
+      <c r="A15" s="542"/>
       <c r="B15" s="84" t="s">
         <v>46</v>
       </c>
@@ -57442,14 +57442,14 @@
       <c r="F15" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="549">
+      <c r="G15" s="553">
         <f>_xlfn.FLOOR.MATH(C19/MAX(DATA_WYRM_ACCU_EXP))</f>
         <v>5</v>
       </c>
-      <c r="H15" s="549"/>
+      <c r="H15" s="553"/>
     </row>
     <row r="16" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="551"/>
+      <c r="A16" s="542"/>
       <c r="B16" s="84" t="s">
         <v>47</v>
       </c>
@@ -57465,14 +57465,14 @@
       <c r="F16" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="545">
+      <c r="G16" s="547">
         <f>MATCH(C22,DATA_WYRM_ACCU_EXP,0)</f>
         <v>88</v>
       </c>
-      <c r="H16" s="545"/>
+      <c r="H16" s="547"/>
     </row>
     <row r="17" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="551"/>
+      <c r="A17" s="542"/>
       <c r="B17" s="84" t="s">
         <v>48</v>
       </c>
@@ -57488,14 +57488,14 @@
       <c r="F17" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="545">
+      <c r="G17" s="547">
         <f>INDEX(DATA_WYRM_LV_EXP,G16)-(C21-C22)</f>
         <v>11960</v>
       </c>
-      <c r="H17" s="545"/>
+      <c r="H17" s="547"/>
     </row>
     <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="551"/>
+      <c r="A18" s="542"/>
       <c r="B18" s="122" t="s">
         <v>52</v>
       </c>
@@ -57514,7 +57514,7 @@
       <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="551"/>
+      <c r="A19" s="542"/>
       <c r="B19" s="122" t="s">
         <v>95</v>
       </c>
@@ -57574,6 +57574,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="J1:N1"/>
@@ -57590,12 +57596,6 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="M2">
     <cfRule type="dataBar" priority="20">
@@ -60787,7 +60787,7 @@
       <c r="E1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="558" t="s">
+      <c r="F1" s="554" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="20"/>
@@ -60824,7 +60824,7 @@
       <c r="E2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="558"/>
+      <c r="F2" s="554"/>
       <c r="H2" s="19" t="s">
         <v>44</v>
       </c>
